--- a/FieryLedLamp_New_WEB/Таблица эффектов.xlsx
+++ b/FieryLedLamp_New_WEB/Таблица эффектов.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE6D382-7DE1-4779-A6A7-0D4733BB5079}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6957576F-B13B-46DE-942E-41434A5A65D0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1875,7 +1875,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O131" sqref="O131"/>
+      <selection pane="bottomLeft" activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R62" t="s">
         <v>217</v>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="AA62" s="4" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v xml:space="preserve">        case EFF_FIRESPARKS:          DYNAMIC_DELAY_TICK { effTimer = millis(); FireSparks();                 Eff_Tick (); }  break;  // ( 56U) Огонь с искрами</v>
+        <v xml:space="preserve">        case EFF_FIRESPARKS:          HIGH_DELAY_TICK { effTimer = millis(); FireSparks();                 Eff_Tick (); }  break;  // ( 56U) Огонь с искрами</v>
       </c>
       <c r="AB62" s="4" t="str">
         <f t="shared" ca="1" si="39"/>
@@ -12655,7 +12655,7 @@
       <c r="P84" s="4">
         <v>0</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="Q84" s="4" t="s">
         <v>44</v>
       </c>
       <c r="R84" t="s">
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="Q85" s="4" t="s">
-        <v>274</v>
+        <v>44</v>
       </c>
       <c r="R85" t="s">
         <v>284</v>
@@ -12826,7 +12826,7 @@
       </c>
       <c r="AA85" s="4" t="str">
         <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_RAINBOW_VER:         LOW_DELAY_TICK     { effTimer = millis(); rainbowRoutine();             Eff_Tick (); }  break;  // ( 77U) Радуга</v>
+        <v xml:space="preserve">        case EFF_RAINBOW_VER:         DYNAMIC_DELAY_TICK { effTimer = millis(); rainbowRoutine();             Eff_Tick (); }  break;  // ( 77U) Радуга</v>
       </c>
       <c r="AB85" s="4" t="str">
         <f t="shared" ref="AB85:AB96" ca="1" si="59">CONCATENATE("{""name"":""",A85,". ",C85,""",""spmin"":",L85,",""spmax"":",M85,",""scmin"":",N85,",""scmax"":",O85,",""type"":",P85,"},")</f>

--- a/FieryLedLamp_New_WEB/Таблица эффектов.xlsx
+++ b/FieryLedLamp_New_WEB/Таблица эффектов.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6957576F-B13B-46DE-942E-41434A5A65D0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D41093B-4BD4-4655-8C14-11017E23A648}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1874,8 +1874,8 @@
   <dimension ref="A1:BD123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q62" sqref="Q62"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9822,7 +9822,7 @@
         <v>30</v>
       </c>
       <c r="I62" s="4">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="J62" s="4">
         <v>64</v>
@@ -9875,7 +9875,7 @@
       </c>
       <c r="Z62" s="4" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">  {  30, 150,  64}, // Огонь с искрами</v>
+        <v xml:space="preserve">  {  30,  80,  64}, // Огонь с искрами</v>
       </c>
       <c r="AA62" s="4" t="str">
         <f t="shared" ca="1" si="29"/>

--- a/FieryLedLamp_New_WEB/Таблица эффектов.xlsx
+++ b/FieryLedLamp_New_WEB/Таблица эффектов.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D41093B-4BD4-4655-8C14-11017E23A648}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08950C0A-3ADA-44BD-9E42-E73758FE2988}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="390">
   <si>
     <t>Наст.по умолчанию</t>
   </si>
@@ -1284,6 +1284,15 @@
   </si>
   <si>
     <t>Имя эффекта</t>
+  </si>
+  <si>
+    <t>PLANETEARTH</t>
+  </si>
+  <si>
+    <t>Планета Земля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlanetEarth(); </t>
   </si>
 </sst>
 </file>
@@ -1871,11 +1880,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD123"/>
+  <dimension ref="A1:BD124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U74" sqref="U74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7375,7 +7384,7 @@
     </row>
     <row r="44" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A44" s="4">
-        <f t="shared" ref="A44:A79" ca="1" si="22">MAX(OFFSET(A44,-4,0,4,1))+1</f>
+        <f t="shared" ref="A44:A73" ca="1" si="22">MAX(OFFSET(A44,-4,0,4,1))+1</f>
         <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -7423,32 +7432,32 @@
         <v>2</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" ref="T44:T79" ca="1" si="23">MAX(OFFSET(T44,-4,0,4,1))+1</f>
+        <f t="shared" ref="T44:T73" ca="1" si="23">MAX(OFFSET(T44,-4,0,4,1))+1</f>
         <v>38</v>
       </c>
       <c r="U44" s="63"/>
       <c r="V44" s="4" t="str">
-        <f t="shared" ref="V44:V79" ca="1" si="24">CONCATENATE("#define EFF_",B44,REPT(" ",20-LEN(B44)),"(",REPT(" ",3-LEN(T44)),T44,"U)    // ",C44)</f>
+        <f t="shared" ref="V44:V74" ca="1" si="24">CONCATENATE("#define EFF_",B44,REPT(" ",20-LEN(B44)),"(",REPT(" ",3-LEN(T44)),T44,"U)    // ",C44)</f>
         <v>#define EFF_MAGMA               ( 38U)    // Магма</v>
       </c>
       <c r="W44" s="4" t="str">
-        <f t="shared" ref="W44:W79" ca="1" si="25">CONCATENATE("String(""",A44,". ",C44,",",L44,",",M44,",",N44,",",O44,",",P44,";"") +")</f>
+        <f t="shared" ref="W44:W73" ca="1" si="25">CONCATENATE("String(""",A44,". ",C44,",",L44,",",M44,",",N44,",",O44,",",P44,";"") +")</f>
         <v>String("38. Магма,150,255,1,100,0;") +</v>
       </c>
       <c r="X44" s="4" t="str">
-        <f t="shared" ref="X44:X79" ca="1" si="26">CONCATENATE("String(""",A44,". ",D44,",",L44,",",M44,",",N44,",",O44,",",P44,";"") +")</f>
+        <f t="shared" ref="X44:X73" ca="1" si="26">CONCATENATE("String(""",A44,". ",D44,",",L44,",",M44,",",N44,",",O44,",",P44,";"") +")</f>
         <v>String("38. ,150,255,1,100,0;") +</v>
       </c>
       <c r="Y44" s="4" t="str">
-        <f t="shared" ref="Y44:Y79" ca="1" si="27">CONCATENATE("String(""",A44,". ",E44,",",L44,",",M44,",",N44,",",O44,",",P44,";"") +")</f>
+        <f t="shared" ref="Y44:Y73" ca="1" si="27">CONCATENATE("String(""",A44,". ",E44,",",L44,",",M44,",",N44,",",O44,",",P44,";"") +")</f>
         <v>String("38. ,150,255,1,100,0;") +</v>
       </c>
       <c r="Z44" s="4" t="str">
-        <f t="shared" ref="Z44:Z79" si="28">CONCATENATE("  {",REPT(" ",4-LEN(H44)),H44,",",REPT(" ",4-LEN(I44)),I44,",",REPT(" ",4-LEN(J44)),J44,"}, // ",C44)</f>
+        <f t="shared" ref="Z44:Z74" si="28">CONCATENATE("  {",REPT(" ",4-LEN(H44)),H44,",",REPT(" ",4-LEN(I44)),I44,",",REPT(" ",4-LEN(J44)),J44,"}, // ",C44)</f>
         <v xml:space="preserve">  {  16, 205,  20}, // Магма</v>
       </c>
       <c r="AA44" s="4" t="str">
-        <f t="shared" ref="AA44:AA79" ca="1" si="29">CONCATENATE("        case EFF_",B44,":",REPT(" ",20-LEN(B44)),Q44," { effTimer = millis(); ",R44,REPT(" ",30-LEN(R44)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T44)),T44,"U) ",C44)</f>
+        <f t="shared" ref="AA44:AA74" ca="1" si="29">CONCATENATE("        case EFF_",B44,":",REPT(" ",20-LEN(B44)),Q44," { effTimer = millis(); ",R44,REPT(" ",30-LEN(R44)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T44)),T44,"U) ",C44)</f>
         <v xml:space="preserve">        case EFF_MAGMA:               DYNAMIC_DELAY_TICK { effTimer = millis(); magmaRoutine();               Eff_Tick (); }  break;  // ( 38U) Магма</v>
       </c>
       <c r="AB44" s="4" t="str">
@@ -7456,35 +7465,35 @@
         <v>{"name":"38. Магма","spmin":150,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC44" s="7" t="str">
-        <f t="shared" ref="AC44:AC79" ca="1" si="31">CONCATENATE("""","e",T44,"""",":0,")</f>
+        <f t="shared" ref="AC44:AC74" ca="1" si="31">CONCATENATE("""","e",T44,"""",":0,")</f>
         <v>"e38":0,</v>
       </c>
       <c r="AD44" s="7" t="str">
-        <f t="shared" ref="AD44:AD79" ca="1" si="32">CONCATENATE("e",T44,"=[[e",T44,"]]&amp;")</f>
+        <f t="shared" ref="AD44:AD74" ca="1" si="32">CONCATENATE("e",T44,"=[[e",T44,"]]&amp;")</f>
         <v>e38=[[e38]]&amp;</v>
       </c>
       <c r="AE44" s="7" t="str">
-        <f t="shared" ref="AE44:AE79" ca="1" si="33">CONCATENATE("""","e",T44,"""",":",S44,",")</f>
+        <f t="shared" ref="AE44:AE74" ca="1" si="33">CONCATENATE("""","e",T44,"""",":",S44,",")</f>
         <v>"e38":2,</v>
       </c>
       <c r="AF44" s="4" t="str">
-        <f t="shared" ref="AF44:AF79" ca="1" si="34">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T44,""",""title"":""",A44,". ",C44,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T44,"}}""},")</f>
+        <f t="shared" ref="AF44:AF74" ca="1" si="34">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T44,""",""title"":""",A44,". ",C44,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T44,"}}""},")</f>
         <v>{"type":"checkbox","class":"checkbox-big","name":"e38","title":"38. Магма","style":"font-size:20px;display:block","state":"{{e38}}"},</v>
       </c>
       <c r="AG44" s="4" t="str">
-        <f t="shared" ref="AG44:AG79" ca="1" si="35">CONCATENATE("{""type"":""h4"",""title"":""",A44,". ",C44,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T44,""",""state"":""{{e",T44,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <f t="shared" ref="AG44:AG74" ca="1" si="35">CONCATENATE("{""type"":""h4"",""title"":""",A44,". ",C44,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T44,""",""state"":""{{e",T44,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
         <v>{"type":"h4","title":"38. Магма","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e38","state":"{{e38}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH44" s="4" t="str">
-        <f t="shared" ref="AH44:AH79" ca="1" si="36">CONCATENATE("""",A44,"""",": """,A44,".",C44,""",")</f>
+        <f t="shared" ref="AH44:AH74" ca="1" si="36">CONCATENATE("""",A44,"""",": """,A44,".",C44,""",")</f>
         <v>"38": "38.Магма",</v>
       </c>
       <c r="AI44" s="25" t="str">
-        <f t="shared" ref="AI44:AI79" ca="1" si="37">CONCATENATE("""",A44,"""",":""",T44,""",")</f>
+        <f t="shared" ref="AI44:AI74" ca="1" si="37">CONCATENATE("""",A44,"""",":""",T44,""",")</f>
         <v>"38":"38",</v>
       </c>
       <c r="AJ44" s="4" t="str">
-        <f t="shared" ref="AJ44:AJ79" ca="1" si="38">CONCATENATE(A44,". ",C44,",",L44,",",M44,",",N44,",",O44,",",P44,";")</f>
+        <f t="shared" ref="AJ44:AJ74" ca="1" si="38">CONCATENATE(A44,". ",C44,",",L44,",",M44,",",N44,",",O44,",",P44,";")</f>
         <v>38. Магма,150,255,1,100,0;</v>
       </c>
       <c r="AK44" s="49"/>
@@ -10894,10 +10903,10 @@
         <v>15</v>
       </c>
       <c r="I70" s="4">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="J70" s="4">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K70" s="63"/>
       <c r="L70" s="4">
@@ -10947,14 +10956,14 @@
       </c>
       <c r="Z70" s="4" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">  {  15, 140,  27}, // Пикассо</v>
+        <v xml:space="preserve">  {  15, 220,  40}, // Пикассо</v>
       </c>
       <c r="AA70" s="4" t="str">
         <f t="shared" ca="1" si="29"/>
         <v xml:space="preserve">        case EFF_PICASSO:             DYNAMIC_DELAY_TICK { effTimer = millis(); picassoSelector();            Eff_Tick (); }  break;  // ( 64U) Пикассо</v>
       </c>
       <c r="AB70" s="4" t="str">
-        <f t="shared" ref="AB70:AB75" ca="1" si="40">CONCATENATE("{""name"":""",A70,". ",C70,""",""spmin"":",L70,",""spmax"":",M70,",""scmin"":",N70,",""scmax"":",O70,",""type"":",P70,"},")</f>
+        <f t="shared" ref="AB70:AB73" ca="1" si="40">CONCATENATE("{""name"":""",A70,". ",C70,""",""spmin"":",L70,",""spmax"":",M70,",""scmin"":",N70,",""scmax"":",O70,",""type"":",P70,"},")</f>
         <v>{"name":"64. Пикассо","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC70" s="7" t="str">
@@ -11415,164 +11424,126 @@
       <c r="BC73" s="52"/>
       <c r="BD73" s="52"/>
     </row>
-    <row r="74" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A74" s="4">
-        <f t="shared" ca="1" si="22"/>
+    <row r="74" spans="1:56">
+      <c r="A74">
         <v>68</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D74" s="23"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="4">
-        <v>40</v>
+      <c r="B74" t="s">
+        <v>387</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="35">
+        <v>25</v>
       </c>
       <c r="I74" s="4">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="J74" s="4">
-        <v>30</v>
-      </c>
-      <c r="K74" s="63"/>
+        <v>75</v>
+      </c>
+      <c r="K74" s="28"/>
       <c r="L74" s="4">
-        <v>1</v>
-      </c>
-      <c r="M74">
-        <v>255</v>
+        <v>128</v>
+      </c>
+      <c r="M74" s="4">
+        <v>128</v>
       </c>
       <c r="N74" s="4">
-        <v>1</v>
-      </c>
-      <c r="O74">
-        <v>100</v>
+        <v>10</v>
+      </c>
+      <c r="O74" s="4">
+        <v>90</v>
       </c>
       <c r="P74" s="4">
         <v>0</v>
       </c>
       <c r="Q74" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="R74" t="s">
-        <v>253</v>
-      </c>
-      <c r="S74">
+        <v>389</v>
+      </c>
+      <c r="S74" s="4">
         <v>2</v>
       </c>
       <c r="T74" s="4">
-        <f t="shared" ca="1" si="23"/>
         <v>68</v>
       </c>
-      <c r="U74" s="63"/>
+      <c r="U74" s="28"/>
       <c r="V74" s="4" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>#define EFF_BY_EFFECT           ( 68U)    // Побочный эффект</v>
-      </c>
-      <c r="W74" s="4" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>String("68. Побочный эффект,1,255,1,100,0;") +</v>
-      </c>
-      <c r="X74" s="4" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>String("68. ,1,255,1,100,0;") +</v>
-      </c>
-      <c r="Y74" s="4" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>String("68. ,1,255,1,100,0;") +</v>
+        <f t="shared" si="24"/>
+        <v>#define EFF_PLANETEARTH         ( 68U)    // Планета Земля</v>
       </c>
       <c r="Z74" s="4" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">  {  40, 165,  30}, // Побочный эффект</v>
+        <v xml:space="preserve">  {  25, 128,  75}, // Планета Земля</v>
       </c>
       <c r="AA74" s="4" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v xml:space="preserve">        case EFF_BY_EFFECT:           DYNAMIC_DELAY_TICK { effTimer = millis(); ByEffect();                   Eff_Tick (); }  break;  // ( 68U) Побочный эффект</v>
-      </c>
-      <c r="AB74" s="4" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v>{"name":"68. Побочный эффект","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">        case EFF_PLANETEARTH:         SOFT_DELAY_TICK { effTimer = millis(); PlanetEarth();                Eff_Tick (); }  break;  // ( 68U) Планета Земля</v>
       </c>
       <c r="AC74" s="7" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>"e68":0,</v>
       </c>
       <c r="AD74" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" si="32"/>
         <v>e68=[[e68]]&amp;</v>
       </c>
       <c r="AE74" s="7" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" si="33"/>
         <v>"e68":2,</v>
       </c>
       <c r="AF74" s="4" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e68","title":"68. Побочный эффект","style":"font-size:20px;display:block","state":"{{e68}}"},</v>
+        <f t="shared" si="34"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e68","title":"68. Планета Земля","style":"font-size:20px;display:block","state":"{{e68}}"},</v>
       </c>
       <c r="AG74" s="4" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>{"type":"h4","title":"68. Побочный эффект","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e68","state":"{{e68}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" si="35"/>
+        <v>{"type":"h4","title":"68. Планета Земля","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e68","state":"{{e68}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH74" s="4" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>"68": "68.Побочный эффект",</v>
+        <f t="shared" si="36"/>
+        <v>"68": "68.Планета Земля",</v>
       </c>
       <c r="AI74" s="25" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" si="37"/>
         <v>"68":"68",</v>
       </c>
       <c r="AJ74" s="4" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>68. Побочный эффект,1,255,1,100,0;</v>
-      </c>
-      <c r="AK74" s="49"/>
-      <c r="AL74" s="49"/>
-      <c r="AM74" s="49"/>
-      <c r="AN74" s="50"/>
-      <c r="AO74" s="49"/>
-      <c r="AP74" s="49"/>
-      <c r="AQ74" s="49"/>
-      <c r="AR74" s="49"/>
-      <c r="AS74" s="51"/>
-      <c r="AT74" s="49"/>
-      <c r="AU74" s="49"/>
-      <c r="AV74" s="52"/>
-      <c r="AW74" s="52"/>
-      <c r="AX74" s="52"/>
-      <c r="AY74" s="52"/>
-      <c r="AZ74" s="52"/>
-      <c r="BA74" s="52"/>
-      <c r="BB74" s="52"/>
-      <c r="BC74" s="52"/>
-      <c r="BD74" s="52"/>
+        <f t="shared" si="38"/>
+        <v>68. Планета Земля,128,128,10,90,0;</v>
+      </c>
     </row>
     <row r="75" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A75" s="4">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ref="A75:A80" ca="1" si="41">MAX(OFFSET(A75,-4,0,4,1))+1</f>
         <v>69</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D75" s="23"/>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
       <c r="G75" s="24"/>
       <c r="H75" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I75" s="4">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="J75" s="4">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K75" s="63"/>
       <c r="L75" s="4">
@@ -11591,78 +11562,78 @@
         <v>0</v>
       </c>
       <c r="Q75" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="R75" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S75">
         <v>2</v>
       </c>
       <c r="T75" s="4">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ref="T75:T80" ca="1" si="42">MAX(OFFSET(T75,-4,0,4,1))+1</f>
         <v>69</v>
       </c>
       <c r="U75" s="63"/>
       <c r="V75" s="4" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>#define EFF_POPCORN             ( 69U)    // Попкорн</v>
+        <f t="shared" ref="V75:V80" ca="1" si="43">CONCATENATE("#define EFF_",B75,REPT(" ",20-LEN(B75)),"(",REPT(" ",3-LEN(T75)),T75,"U)    // ",C75)</f>
+        <v>#define EFF_BY_EFFECT           ( 69U)    // Побочный эффект</v>
       </c>
       <c r="W75" s="4" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>String("69. Попкорн,1,255,1,100,0;") +</v>
+        <f t="shared" ref="W75:W80" ca="1" si="44">CONCATENATE("String(""",A75,". ",C75,",",L75,",",M75,",",N75,",",O75,",",P75,";"") +")</f>
+        <v>String("69. Побочный эффект,1,255,1,100,0;") +</v>
       </c>
       <c r="X75" s="4" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ref="X75:X80" ca="1" si="45">CONCATENATE("String(""",A75,". ",D75,",",L75,",",M75,",",N75,",",O75,",",P75,";"") +")</f>
         <v>String("69. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y75" s="4" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ref="Y75:Y80" ca="1" si="46">CONCATENATE("String(""",A75,". ",E75,",",L75,",",M75,",",N75,",",O75,",",P75,";"") +")</f>
         <v>String("69. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z75" s="4" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  {  10,  70,  16}, // Попкорн</v>
+        <f t="shared" ref="Z75:Z80" si="47">CONCATENATE("  {",REPT(" ",4-LEN(H75)),H75,",",REPT(" ",4-LEN(I75)),I75,",",REPT(" ",4-LEN(J75)),J75,"}, // ",C75)</f>
+        <v xml:space="preserve">  {  40, 165,  30}, // Побочный эффект</v>
       </c>
       <c r="AA75" s="4" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v xml:space="preserve">        case EFF_POPCORN:             LOW_DELAY_TICK { effTimer = millis(); popcornRoutine();             Eff_Tick (); }  break;  // ( 69U) Попкорн</v>
+        <f t="shared" ref="AA75:AA80" ca="1" si="48">CONCATENATE("        case EFF_",B75,":",REPT(" ",20-LEN(B75)),Q75," { effTimer = millis(); ",R75,REPT(" ",30-LEN(R75)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T75)),T75,"U) ",C75)</f>
+        <v xml:space="preserve">        case EFF_BY_EFFECT:           DYNAMIC_DELAY_TICK { effTimer = millis(); ByEffect();                   Eff_Tick (); }  break;  // ( 69U) Побочный эффект</v>
       </c>
       <c r="AB75" s="4" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v>{"name":"69. Попкорн","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f ca="1">CONCATENATE("{""name"":""",A75,". ",C75,""",""spmin"":",L75,",""spmax"":",M75,",""scmin"":",N75,",""scmax"":",O75,",""type"":",P75,"},")</f>
+        <v>{"name":"69. Побочный эффект","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC75" s="7" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ref="AC75:AC80" ca="1" si="49">CONCATENATE("""","e",T75,"""",":0,")</f>
         <v>"e69":0,</v>
       </c>
       <c r="AD75" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ref="AD75:AD80" ca="1" si="50">CONCATENATE("e",T75,"=[[e",T75,"]]&amp;")</f>
         <v>e69=[[e69]]&amp;</v>
       </c>
       <c r="AE75" s="7" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ref="AE75:AE80" ca="1" si="51">CONCATENATE("""","e",T75,"""",":",S75,",")</f>
         <v>"e69":2,</v>
       </c>
       <c r="AF75" s="4" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e69","title":"69. Попкорн","style":"font-size:20px;display:block","state":"{{e69}}"},</v>
+        <f t="shared" ref="AF75:AF80" ca="1" si="52">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T75,""",""title"":""",A75,". ",C75,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T75,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e69","title":"69. Побочный эффект","style":"font-size:20px;display:block","state":"{{e69}}"},</v>
       </c>
       <c r="AG75" s="4" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>{"type":"h4","title":"69. Попкорн","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e69","state":"{{e69}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ref="AG75:AG80" ca="1" si="53">CONCATENATE("{""type"":""h4"",""title"":""",A75,". ",C75,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T75,""",""state"":""{{e",T75,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"69. Побочный эффект","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e69","state":"{{e69}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH75" s="4" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>"69": "69.Попкорн",</v>
+        <f t="shared" ref="AH75:AH80" ca="1" si="54">CONCATENATE("""",A75,"""",": """,A75,".",C75,""",")</f>
+        <v>"69": "69.Побочный эффект",</v>
       </c>
       <c r="AI75" s="25" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ref="AI75:AI80" ca="1" si="55">CONCATENATE("""",A75,"""",":""",T75,""",")</f>
         <v>"69":"69",</v>
       </c>
       <c r="AJ75" s="4" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>69. Попкорн,1,255,1,100,0;</v>
+        <f t="shared" ref="AJ75:AJ80" ca="1" si="56">CONCATENATE(A75,". ",C75,",",L75,",",M75,",",N75,",",O75,",",P75,";")</f>
+        <v>69. Побочный эффект,1,255,1,100,0;</v>
       </c>
       <c r="AK75" s="49"/>
       <c r="AL75" s="49"/>
@@ -11687,27 +11658,27 @@
     </row>
     <row r="76" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="4">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="41"/>
         <v>70</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D76" s="23"/>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
       <c r="G76" s="24"/>
       <c r="H76" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I76" s="4">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J76" s="4">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="K76" s="63"/>
       <c r="L76" s="4">
@@ -11729,71 +11700,75 @@
         <v>81</v>
       </c>
       <c r="R76" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="S76">
         <v>2</v>
       </c>
       <c r="T76" s="4">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="42"/>
         <v>70</v>
       </c>
       <c r="U76" s="63"/>
       <c r="V76" s="4" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>#define EFF_PRISMATA            ( 70U)    // Призмата</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>#define EFF_POPCORN             ( 70U)    // Попкорн</v>
       </c>
       <c r="W76" s="4" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>String("70. Призмата,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>String("70. Попкорн,1,255,1,100,0;") +</v>
       </c>
       <c r="X76" s="4" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="45"/>
         <v>String("70. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y76" s="4" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="46"/>
         <v>String("70. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z76" s="4" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  {  15, 100,  88}, // Призмата</v>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">  {  10,  70,  16}, // Попкорн</v>
       </c>
       <c r="AA76" s="4" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v xml:space="preserve">        case EFF_PRISMATA:            LOW_DELAY_TICK { effTimer = millis(); PrismataRoutine();            Eff_Tick (); }  break;  // ( 70U) Призмата</v>
+        <f t="shared" ca="1" si="48"/>
+        <v xml:space="preserve">        case EFF_POPCORN:             LOW_DELAY_TICK { effTimer = millis(); popcornRoutine();             Eff_Tick (); }  break;  // ( 70U) Попкорн</v>
+      </c>
+      <c r="AB76" s="4" t="str">
+        <f ca="1">CONCATENATE("{""name"":""",A76,". ",C76,""",""spmin"":",L76,",""spmax"":",M76,",""scmin"":",N76,",""scmax"":",O76,",""type"":",P76,"},")</f>
+        <v>{"name":"70. Попкорн","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC76" s="7" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="49"/>
         <v>"e70":0,</v>
       </c>
       <c r="AD76" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="50"/>
         <v>e70=[[e70]]&amp;</v>
       </c>
       <c r="AE76" s="7" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="51"/>
         <v>"e70":2,</v>
       </c>
       <c r="AF76" s="4" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e70","title":"70. Призмата","style":"font-size:20px;display:block","state":"{{e70}}"},</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e70","title":"70. Попкорн","style":"font-size:20px;display:block","state":"{{e70}}"},</v>
       </c>
       <c r="AG76" s="4" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>{"type":"h4","title":"70. Призмата","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e70","state":"{{e70}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>{"type":"h4","title":"70. Попкорн","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e70","state":"{{e70}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH76" s="4" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>"70": "70.Призмата",</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>"70": "70.Попкорн",</v>
       </c>
       <c r="AI76" s="25" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="55"/>
         <v>"70":"70",</v>
       </c>
       <c r="AJ76" s="4" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>70. Призмата,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="56"/>
+        <v>70. Попкорн,1,255,1,100,0;</v>
       </c>
       <c r="AK76" s="49"/>
       <c r="AL76" s="49"/>
@@ -11818,31 +11793,31 @@
     </row>
     <row r="77" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A77" s="4">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="41"/>
         <v>71</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D77" s="23"/>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
       <c r="G77" s="24"/>
       <c r="H77" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I77" s="4">
-        <v>205</v>
+        <v>100</v>
       </c>
       <c r="J77" s="4">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="K77" s="63"/>
       <c r="L77" s="4">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="M77">
         <v>255</v>
@@ -11857,78 +11832,74 @@
         <v>0</v>
       </c>
       <c r="Q77" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R77" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="S77">
         <v>2</v>
       </c>
       <c r="T77" s="4">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="42"/>
         <v>71</v>
       </c>
       <c r="U77" s="63"/>
       <c r="V77" s="4" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>#define EFF_ATTRACT             ( 71U)    // Притяжение</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>#define EFF_PRISMATA            ( 71U)    // Призмата</v>
       </c>
       <c r="W77" s="4" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>String("71. Притяжение,160,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>String("71. Призмата,1,255,1,100,0;") +</v>
       </c>
       <c r="X77" s="4" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>String("71. ,160,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>String("71. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y77" s="4" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>String("71. ,160,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="46"/>
+        <v>String("71. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z77" s="4" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  {  20, 205,  65}, // Притяжение</v>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">  {  15, 100,  88}, // Призмата</v>
       </c>
       <c r="AA77" s="4" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v xml:space="preserve">        case EFF_ATTRACT:             DYNAMIC_DELAY_TICK { effTimer = millis(); attractRoutine();             Eff_Tick (); }  break;  // ( 71U) Притяжение</v>
-      </c>
-      <c r="AB77" s="4" t="str">
-        <f t="shared" ref="AB77:AB78" ca="1" si="41">CONCATENATE("{""name"":""",A77,". ",C77,""",""spmin"":",L77,",""spmax"":",M77,",""scmin"":",N77,",""scmax"":",O77,",""type"":",P77,"},")</f>
-        <v>{"name":"71. Притяжение","spmin":160,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="48"/>
+        <v xml:space="preserve">        case EFF_PRISMATA:            LOW_DELAY_TICK { effTimer = millis(); PrismataRoutine();            Eff_Tick (); }  break;  // ( 71U) Призмата</v>
       </c>
       <c r="AC77" s="7" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="49"/>
         <v>"e71":0,</v>
       </c>
       <c r="AD77" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="50"/>
         <v>e71=[[e71]]&amp;</v>
       </c>
       <c r="AE77" s="7" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="51"/>
         <v>"e71":2,</v>
       </c>
       <c r="AF77" s="4" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e71","title":"71. Притяжение","style":"font-size:20px;display:block","state":"{{e71}}"},</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e71","title":"71. Призмата","style":"font-size:20px;display:block","state":"{{e71}}"},</v>
       </c>
       <c r="AG77" s="4" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>{"type":"h4","title":"71. Притяжение","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e71","state":"{{e71}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>{"type":"h4","title":"71. Призмата","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e71","state":"{{e71}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH77" s="4" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>"71": "71.Притяжение",</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>"71": "71.Призмата",</v>
       </c>
       <c r="AI77" s="25" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="55"/>
         <v>"71":"71",</v>
       </c>
       <c r="AJ77" s="4" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>71. Притяжение,160,255,1,100,0;</v>
+        <f t="shared" ca="1" si="56"/>
+        <v>71. Призмата,1,255,1,100,0;</v>
       </c>
       <c r="AK77" s="49"/>
       <c r="AL77" s="49"/>
@@ -11953,31 +11924,31 @@
     </row>
     <row r="78" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A78" s="4">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="41"/>
         <v>72</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D78" s="23"/>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
       <c r="G78" s="24"/>
       <c r="H78" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I78" s="4">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J78" s="4">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K78" s="63"/>
       <c r="L78" s="4">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="M78">
         <v>255</v>
@@ -11995,75 +11966,75 @@
         <v>44</v>
       </c>
       <c r="R78" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="S78">
         <v>2</v>
       </c>
       <c r="T78" s="4">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="42"/>
         <v>72</v>
       </c>
       <c r="U78" s="63"/>
       <c r="V78" s="4" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>#define EFF_LEAPERS             ( 72U)    // Пpыгyны</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>#define EFF_ATTRACT             ( 72U)    // Притяжение</v>
       </c>
       <c r="W78" s="4" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>String("72. Пpыгyны,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>String("72. Притяжение,160,255,1,100,0;") +</v>
       </c>
       <c r="X78" s="4" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>String("72. ,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>String("72. ,160,255,1,100,0;") +</v>
       </c>
       <c r="Y78" s="4" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>String("72. ,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="46"/>
+        <v>String("72. ,160,255,1,100,0;") +</v>
       </c>
       <c r="Z78" s="4" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  {  25, 203,   5}, // Пpыгyны</v>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">  {  20, 205,  65}, // Притяжение</v>
       </c>
       <c r="AA78" s="4" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v xml:space="preserve">        case EFF_LEAPERS:             DYNAMIC_DELAY_TICK { effTimer = millis(); LeapersRoutine();             Eff_Tick (); }  break;  // ( 72U) Пpыгyны</v>
+        <f t="shared" ca="1" si="48"/>
+        <v xml:space="preserve">        case EFF_ATTRACT:             DYNAMIC_DELAY_TICK { effTimer = millis(); attractRoutine();             Eff_Tick (); }  break;  // ( 72U) Притяжение</v>
       </c>
       <c r="AB78" s="4" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v>{"name":"72. Пpыгyны","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ref="AB78:AB79" ca="1" si="57">CONCATENATE("{""name"":""",A78,". ",C78,""",""spmin"":",L78,",""spmax"":",M78,",""scmin"":",N78,",""scmax"":",O78,",""type"":",P78,"},")</f>
+        <v>{"name":"72. Притяжение","spmin":160,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC78" s="7" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="49"/>
         <v>"e72":0,</v>
       </c>
       <c r="AD78" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="50"/>
         <v>e72=[[e72]]&amp;</v>
       </c>
       <c r="AE78" s="7" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="51"/>
         <v>"e72":2,</v>
       </c>
       <c r="AF78" s="4" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e72","title":"72. Пpыгyны","style":"font-size:20px;display:block","state":"{{e72}}"},</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e72","title":"72. Притяжение","style":"font-size:20px;display:block","state":"{{e72}}"},</v>
       </c>
       <c r="AG78" s="4" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>{"type":"h4","title":"72. Пpыгyны","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e72","state":"{{e72}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>{"type":"h4","title":"72. Притяжение","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e72","state":"{{e72}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH78" s="4" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>"72": "72.Пpыгyны",</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>"72": "72.Притяжение",</v>
       </c>
       <c r="AI78" s="25" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="55"/>
         <v>"72":"72",</v>
       </c>
       <c r="AJ78" s="4" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>72. Пpыгyны,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="56"/>
+        <v>72. Притяжение,160,255,1,100,0;</v>
       </c>
       <c r="AK78" s="49"/>
       <c r="AL78" s="49"/>
@@ -12088,31 +12059,31 @@
     </row>
     <row r="79" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="4">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="41"/>
         <v>73</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D79" s="23"/>
       <c r="E79" s="24"/>
       <c r="F79" s="24"/>
       <c r="G79" s="24"/>
       <c r="H79" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I79" s="4">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="J79" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K79" s="63"/>
       <c r="L79" s="4">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="M79">
         <v>255</v>
@@ -12130,71 +12101,75 @@
         <v>44</v>
       </c>
       <c r="R79" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S79">
         <v>2</v>
       </c>
       <c r="T79" s="4">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="42"/>
         <v>73</v>
       </c>
       <c r="U79" s="63"/>
       <c r="V79" s="4" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>#define EFF_PULSE               ( 73U)    // Пульс</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>#define EFF_LEAPERS             ( 73U)    // Пpыгyны</v>
       </c>
       <c r="W79" s="4" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>String("73. Пульс,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>String("73. Пpыгyны,1,255,1,100,0;") +</v>
       </c>
       <c r="X79" s="4" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>String("73. ,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>String("73. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y79" s="4" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>String("73. ,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="46"/>
+        <v>String("73. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z79" s="4" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  {  20, 185,   6}, // Пульс</v>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">  {  25, 203,   5}, // Пpыгyны</v>
       </c>
       <c r="AA79" s="4" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v xml:space="preserve">        case EFF_PULSE:               DYNAMIC_DELAY_TICK { effTimer = millis(); pulseRoutine(2U);             Eff_Tick (); }  break;  // ( 73U) Пульс</v>
+        <f t="shared" ca="1" si="48"/>
+        <v xml:space="preserve">        case EFF_LEAPERS:             DYNAMIC_DELAY_TICK { effTimer = millis(); LeapersRoutine();             Eff_Tick (); }  break;  // ( 73U) Пpыгyны</v>
+      </c>
+      <c r="AB79" s="4" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v>{"name":"73. Пpыгyны","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC79" s="7" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="49"/>
         <v>"e73":0,</v>
       </c>
       <c r="AD79" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="50"/>
         <v>e73=[[e73]]&amp;</v>
       </c>
       <c r="AE79" s="7" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="51"/>
         <v>"e73":2,</v>
       </c>
       <c r="AF79" s="4" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e73","title":"73. Пульс","style":"font-size:20px;display:block","state":"{{e73}}"},</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e73","title":"73. Пpыгyны","style":"font-size:20px;display:block","state":"{{e73}}"},</v>
       </c>
       <c r="AG79" s="4" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>{"type":"h4","title":"73. Пульс","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e73","state":"{{e73}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>{"type":"h4","title":"73. Пpыгyны","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e73","state":"{{e73}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH79" s="4" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>"73": "73.Пульс",</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>"73": "73.Пpыгyны",</v>
       </c>
       <c r="AI79" s="25" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="55"/>
         <v>"73":"73",</v>
       </c>
       <c r="AJ79" s="4" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>73. Пульс,99,255,1,100,0;</v>
+        <f t="shared" ca="1" si="56"/>
+        <v>73. Пpыгyны,1,255,1,100,0;</v>
       </c>
       <c r="AK79" s="49"/>
       <c r="AL79" s="49"/>
@@ -12218,70 +12193,135 @@
       <c r="BD79" s="52"/>
     </row>
     <row r="80" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
+      <c r="A80" s="4">
+        <f t="shared" ca="1" si="41"/>
+        <v>74</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D80" s="23"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="4">
+        <v>20</v>
+      </c>
+      <c r="I80" s="4">
+        <v>185</v>
+      </c>
+      <c r="J80" s="4">
+        <v>6</v>
+      </c>
       <c r="K80" s="63"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="29"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="29"/>
-      <c r="Q80" s="29"/>
-      <c r="R80" s="29"/>
-      <c r="S80" s="30"/>
-      <c r="T80" s="29"/>
+      <c r="L80" s="4">
+        <v>99</v>
+      </c>
+      <c r="M80">
+        <v>255</v>
+      </c>
+      <c r="N80" s="4">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>100</v>
+      </c>
+      <c r="P80" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>44</v>
+      </c>
+      <c r="R80" t="s">
+        <v>268</v>
+      </c>
+      <c r="S80">
+        <v>2</v>
+      </c>
+      <c r="T80" s="4">
+        <f t="shared" ca="1" si="42"/>
+        <v>74</v>
+      </c>
       <c r="U80" s="63"/>
-      <c r="V80" s="29"/>
-      <c r="W80" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="X80" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y80" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z80" s="29"/>
-      <c r="AA80" s="29"/>
-      <c r="AB80" s="29"/>
-      <c r="AC80" s="31"/>
-      <c r="AD80" s="31"/>
-      <c r="AE80" s="31"/>
-      <c r="AF80" s="29"/>
-      <c r="AG80" s="29"/>
-      <c r="AH80" s="29"/>
-      <c r="AI80" s="14"/>
-      <c r="AJ80" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="AK80" s="54"/>
-      <c r="AL80" s="54"/>
-      <c r="AM80" s="54"/>
-      <c r="AN80" s="42"/>
-      <c r="AO80" s="43"/>
-      <c r="AP80" s="54"/>
-      <c r="AQ80" s="54"/>
-      <c r="AR80" s="54"/>
-      <c r="AS80" s="42"/>
-      <c r="AT80" s="43"/>
-      <c r="AU80" s="41"/>
-      <c r="AV80" s="41"/>
-      <c r="AW80" s="41"/>
-      <c r="AX80" s="41"/>
-      <c r="AY80" s="46"/>
-      <c r="AZ80" s="41"/>
-      <c r="BA80" s="41"/>
-      <c r="BB80" s="41"/>
-      <c r="BC80" s="41"/>
-      <c r="BD80" s="61"/>
+      <c r="V80" s="4" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>#define EFF_PULSE               ( 74U)    // Пульс</v>
+      </c>
+      <c r="W80" s="4" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v>String("74. Пульс,99,255,1,100,0;") +</v>
+      </c>
+      <c r="X80" s="4" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v>String("74. ,99,255,1,100,0;") +</v>
+      </c>
+      <c r="Y80" s="4" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v>String("74. ,99,255,1,100,0;") +</v>
+      </c>
+      <c r="Z80" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">  {  20, 185,   6}, // Пульс</v>
+      </c>
+      <c r="AA80" s="4" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v xml:space="preserve">        case EFF_PULSE:               DYNAMIC_DELAY_TICK { effTimer = millis(); pulseRoutine(2U);             Eff_Tick (); }  break;  // ( 74U) Пульс</v>
+      </c>
+      <c r="AC80" s="7" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v>"e74":0,</v>
+      </c>
+      <c r="AD80" s="7" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v>e74=[[e74]]&amp;</v>
+      </c>
+      <c r="AE80" s="7" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v>"e74":2,</v>
+      </c>
+      <c r="AF80" s="4" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e74","title":"74. Пульс","style":"font-size:20px;display:block","state":"{{e74}}"},</v>
+      </c>
+      <c r="AG80" s="4" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v>{"type":"h4","title":"74. Пульс","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e74","state":"{{e74}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+      </c>
+      <c r="AH80" s="4" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v>"74": "74.Пульс",</v>
+      </c>
+      <c r="AI80" s="25" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v>"74":"74",</v>
+      </c>
+      <c r="AJ80" s="4" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>74. Пульс,99,255,1,100,0;</v>
+      </c>
+      <c r="AK80" s="49"/>
+      <c r="AL80" s="49"/>
+      <c r="AM80" s="49"/>
+      <c r="AN80" s="50"/>
+      <c r="AO80" s="49"/>
+      <c r="AP80" s="49"/>
+      <c r="AQ80" s="49"/>
+      <c r="AR80" s="49"/>
+      <c r="AS80" s="51"/>
+      <c r="AT80" s="49"/>
+      <c r="AU80" s="49"/>
+      <c r="AV80" s="52"/>
+      <c r="AW80" s="52"/>
+      <c r="AX80" s="52"/>
+      <c r="AY80" s="52"/>
+      <c r="AZ80" s="52"/>
+      <c r="BA80" s="52"/>
+      <c r="BB80" s="52"/>
+      <c r="BC80" s="52"/>
+      <c r="BD80" s="52"/>
     </row>
     <row r="81" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A81" s="29"/>
@@ -12307,13 +12347,13 @@
       <c r="U81" s="63"/>
       <c r="V81" s="29"/>
       <c r="W81" s="29" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="X81" s="29" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="Y81" s="29" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="Z81" s="29"/>
       <c r="AA81" s="29"/>
@@ -12324,174 +12364,109 @@
       <c r="AF81" s="29"/>
       <c r="AG81" s="29"/>
       <c r="AH81" s="29"/>
-      <c r="AI81" s="33"/>
-      <c r="AJ81" s="14" t="s">
-        <v>271</v>
+      <c r="AI81" s="14"/>
+      <c r="AJ81" s="32" t="s">
+        <v>269</v>
       </c>
       <c r="AK81" s="54"/>
       <c r="AL81" s="54"/>
       <c r="AM81" s="54"/>
-      <c r="AN81" s="55"/>
-      <c r="AO81" s="42"/>
+      <c r="AN81" s="42"/>
+      <c r="AO81" s="43"/>
       <c r="AP81" s="54"/>
       <c r="AQ81" s="54"/>
       <c r="AR81" s="54"/>
-      <c r="AS81" s="55"/>
-      <c r="AT81" s="42"/>
-      <c r="AU81" s="44"/>
-      <c r="AV81" s="44"/>
-      <c r="AW81" s="44"/>
-      <c r="AX81" s="44"/>
-      <c r="AY81" s="44"/>
-      <c r="AZ81" s="44"/>
-      <c r="BA81" s="44"/>
-      <c r="BB81" s="44"/>
-      <c r="BC81" s="44"/>
-      <c r="BD81" s="44"/>
+      <c r="AS81" s="42"/>
+      <c r="AT81" s="43"/>
+      <c r="AU81" s="41"/>
+      <c r="AV81" s="41"/>
+      <c r="AW81" s="41"/>
+      <c r="AX81" s="41"/>
+      <c r="AY81" s="46"/>
+      <c r="AZ81" s="41"/>
+      <c r="BA81" s="41"/>
+      <c r="BB81" s="41"/>
+      <c r="BC81" s="41"/>
+      <c r="BD81" s="61"/>
     </row>
     <row r="82" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A82" s="4">
-        <f t="shared" ref="A82:A116" ca="1" si="42">MAX(OFFSET(A82,-4,0,4,1))+1</f>
-        <v>74</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D82" s="23"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="4">
-        <v>20</v>
-      </c>
-      <c r="I82" s="4">
-        <v>179</v>
-      </c>
-      <c r="J82" s="4">
-        <v>11</v>
-      </c>
+      <c r="A82" s="29"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
       <c r="K82" s="63"/>
-      <c r="L82" s="4">
-        <v>99</v>
-      </c>
-      <c r="M82">
-        <v>255</v>
-      </c>
-      <c r="N82" s="4">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>100</v>
-      </c>
-      <c r="P82" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="R82" t="s">
-        <v>275</v>
-      </c>
-      <c r="S82">
-        <v>2</v>
-      </c>
-      <c r="T82" s="4">
-        <f t="shared" ref="T82:T116" ca="1" si="43">MAX(OFFSET(T82,-4,0,4,1))+1</f>
-        <v>74</v>
-      </c>
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="29"/>
+      <c r="P82" s="29"/>
+      <c r="Q82" s="29"/>
+      <c r="R82" s="29"/>
+      <c r="S82" s="30"/>
+      <c r="T82" s="29"/>
       <c r="U82" s="63"/>
-      <c r="V82" s="4" t="str">
-        <f t="shared" ref="V82:V116" ca="1" si="44">CONCATENATE("#define EFF_",B82,REPT(" ",20-LEN(B82)),"(",REPT(" ",3-LEN(T82)),T82,"U)    // ",C82)</f>
-        <v>#define EFF_PULSE_WHITE         ( 74U)    // Пульс белый</v>
-      </c>
-      <c r="W82" s="4" t="str">
-        <f t="shared" ref="W82:W116" ca="1" si="45">CONCATENATE("String(""",A82,". ",C82,",",L82,",",M82,",",N82,",",O82,",",P82,";"") +")</f>
-        <v>String("74. Пульс белый,99,255,1,100,0;") +</v>
-      </c>
-      <c r="X82" s="4" t="str">
-        <f t="shared" ref="X82:X116" ca="1" si="46">CONCATENATE("String(""",A82,". ",D82,",",L82,",",M82,",",N82,",",O82,",",P82,";"") +")</f>
-        <v>String("74. ,99,255,1,100,0;") +</v>
-      </c>
-      <c r="Y82" s="4" t="str">
-        <f t="shared" ref="Y82:Y116" ca="1" si="47">CONCATENATE("String(""",A82,". ",E82,",",L82,",",M82,",",N82,",",O82,",",P82,";"") +")</f>
-        <v>String("74. ,99,255,1,100,0;") +</v>
-      </c>
-      <c r="Z82" s="4" t="str">
-        <f t="shared" ref="Z82:Z115" si="48">CONCATENATE("  {",REPT(" ",4-LEN(H82)),H82,",",REPT(" ",4-LEN(I82)),I82,",",REPT(" ",4-LEN(J82)),J82,"}, // ",C82)</f>
-        <v xml:space="preserve">  {  20, 179,  11}, // Пульс белый</v>
-      </c>
-      <c r="AA82" s="4" t="str">
-        <f t="shared" ref="AA82:AA116" ca="1" si="49">CONCATENATE("        case EFF_",B82,":",REPT(" ",20-LEN(B82)),Q82," { effTimer = millis(); ",R82,REPT(" ",30-LEN(R82)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T82)),T82,"U) ",C82)</f>
-        <v xml:space="preserve">        case EFF_PULSE_WHITE:         LOW_DELAY_TICK     { effTimer = millis(); pulseRoutine(8U);             Eff_Tick (); }  break;  // ( 74U) Пульс белый</v>
-      </c>
-      <c r="AC82" s="7" t="str">
-        <f t="shared" ref="AC82:AC115" ca="1" si="50">CONCATENATE("""","e",T82,"""",":0,")</f>
-        <v>"e74":0,</v>
-      </c>
-      <c r="AD82" s="7" t="str">
-        <f t="shared" ref="AD82:AD115" ca="1" si="51">CONCATENATE("e",T82,"=[[e",T82,"]]&amp;")</f>
-        <v>e74=[[e74]]&amp;</v>
-      </c>
-      <c r="AE82" s="7" t="str">
-        <f t="shared" ref="AE82:AE115" ca="1" si="52">CONCATENATE("""","e",T82,"""",":",S82,",")</f>
-        <v>"e74":2,</v>
-      </c>
-      <c r="AF82" s="4" t="str">
-        <f t="shared" ref="AF82:AF116" ca="1" si="53">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T82,""",""title"":""",A82,". ",C82,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T82,"}}""},")</f>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e74","title":"74. Пульс белый","style":"font-size:20px;display:block","state":"{{e74}}"},</v>
-      </c>
-      <c r="AG82" s="4" t="str">
-        <f t="shared" ref="AG82:AG116" ca="1" si="54">CONCATENATE("{""type"":""h4"",""title"":""",A82,". ",C82,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T82,""",""state"":""{{e",T82,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
-        <v>{"type":"h4","title":"74. Пульс белый","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e74","state":"{{e74}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
-      </c>
-      <c r="AH82" s="4" t="str">
-        <f t="shared" ref="AH82:AH115" ca="1" si="55">CONCATENATE("""",A82,"""",": """,A82,".",C82,""",")</f>
-        <v>"74": "74.Пульс белый",</v>
-      </c>
-      <c r="AI82" s="25" t="str">
-        <f t="shared" ref="AI82:AI115" ca="1" si="56">CONCATENATE("""",A82,"""",":""",T82,""",")</f>
-        <v>"74":"74",</v>
-      </c>
-      <c r="AJ82" s="4" t="str">
-        <f t="shared" ref="AJ82:AJ116" ca="1" si="57">CONCATENATE(A82,". ",C82,",",L82,",",M82,",",N82,",",O82,",",P82,";")</f>
-        <v>74. Пульс белый,99,255,1,100,0;</v>
-      </c>
-      <c r="AK82" s="49"/>
-      <c r="AL82" s="49"/>
-      <c r="AM82" s="49"/>
-      <c r="AN82" s="50"/>
-      <c r="AO82" s="49"/>
-      <c r="AP82" s="49"/>
-      <c r="AQ82" s="49"/>
-      <c r="AR82" s="49"/>
-      <c r="AS82" s="51"/>
-      <c r="AT82" s="49"/>
-      <c r="AU82" s="49"/>
-      <c r="AV82" s="52"/>
-      <c r="AW82" s="52"/>
-      <c r="AX82" s="52"/>
-      <c r="AY82" s="52"/>
-      <c r="AZ82" s="52"/>
-      <c r="BA82" s="52"/>
-      <c r="BB82" s="52"/>
-      <c r="BC82" s="52"/>
-      <c r="BD82" s="52"/>
+      <c r="V82" s="29"/>
+      <c r="W82" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="X82" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y82" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z82" s="29"/>
+      <c r="AA82" s="29"/>
+      <c r="AB82" s="29"/>
+      <c r="AC82" s="31"/>
+      <c r="AD82" s="31"/>
+      <c r="AE82" s="31"/>
+      <c r="AF82" s="29"/>
+      <c r="AG82" s="29"/>
+      <c r="AH82" s="29"/>
+      <c r="AI82" s="33"/>
+      <c r="AJ82" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK82" s="54"/>
+      <c r="AL82" s="54"/>
+      <c r="AM82" s="54"/>
+      <c r="AN82" s="55"/>
+      <c r="AO82" s="42"/>
+      <c r="AP82" s="54"/>
+      <c r="AQ82" s="54"/>
+      <c r="AR82" s="54"/>
+      <c r="AS82" s="55"/>
+      <c r="AT82" s="42"/>
+      <c r="AU82" s="44"/>
+      <c r="AV82" s="44"/>
+      <c r="AW82" s="44"/>
+      <c r="AX82" s="44"/>
+      <c r="AY82" s="44"/>
+      <c r="AZ82" s="44"/>
+      <c r="BA82" s="44"/>
+      <c r="BB82" s="44"/>
+      <c r="BC82" s="44"/>
+      <c r="BD82" s="44"/>
     </row>
     <row r="83" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A83" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ref="A83:A117" ca="1" si="58">MAX(OFFSET(A83,-4,0,4,1))+1</f>
         <v>75</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D83" s="24"/>
+        <v>273</v>
+      </c>
+      <c r="D83" s="23"/>
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
       <c r="G83" s="24"/>
@@ -12499,10 +12474,10 @@
         <v>20</v>
       </c>
       <c r="I83" s="4">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J83" s="4">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K83" s="63"/>
       <c r="L83" s="4">
@@ -12521,78 +12496,74 @@
         <v>0</v>
       </c>
       <c r="Q83" s="4" t="s">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="R83" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="S83">
         <v>2</v>
       </c>
       <c r="T83" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ref="T83:T117" ca="1" si="59">MAX(OFFSET(T83,-4,0,4,1))+1</f>
         <v>75</v>
       </c>
       <c r="U83" s="63"/>
       <c r="V83" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_PULSE_RAINBOW       ( 75U)    // Пульс радужный</v>
+        <f t="shared" ref="V83:V117" ca="1" si="60">CONCATENATE("#define EFF_",B83,REPT(" ",20-LEN(B83)),"(",REPT(" ",3-LEN(T83)),T83,"U)    // ",C83)</f>
+        <v>#define EFF_PULSE_WHITE         ( 75U)    // Пульс белый</v>
       </c>
       <c r="W83" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("75. Пульс радужный,99,255,1,100,0;") +</v>
+        <f t="shared" ref="W83:W117" ca="1" si="61">CONCATENATE("String(""",A83,". ",C83,",",L83,",",M83,",",N83,",",O83,",",P83,";"") +")</f>
+        <v>String("75. Пульс белый,99,255,1,100,0;") +</v>
       </c>
       <c r="X83" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ref="X83:X117" ca="1" si="62">CONCATENATE("String(""",A83,". ",D83,",",L83,",",M83,",",N83,",",O83,",",P83,";"") +")</f>
         <v>String("75. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Y83" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ref="Y83:Y117" ca="1" si="63">CONCATENATE("String(""",A83,". ",E83,",",L83,",",M83,",",N83,",",O83,",",P83,";"") +")</f>
         <v>String("75. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Z83" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  20, 185,  31}, // Пульс радужный</v>
+        <f t="shared" ref="Z83:Z116" si="64">CONCATENATE("  {",REPT(" ",4-LEN(H83)),H83,",",REPT(" ",4-LEN(I83)),I83,",",REPT(" ",4-LEN(J83)),J83,"}, // ",C83)</f>
+        <v xml:space="preserve">  {  20, 179,  11}, // Пульс белый</v>
       </c>
       <c r="AA83" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_PULSE_RAINBOW:       DYNAMIC_DELAY_TICK { effTimer = millis(); pulseRoutine(4U);             Eff_Tick (); }  break;  // ( 75U) Пульс радужный</v>
-      </c>
-      <c r="AB83" s="4" t="str">
-        <f t="shared" ref="AB83" ca="1" si="58">CONCATENATE("{""name"":""",A83,". ",C83,""",""spmin"":",L83,",""spmax"":",M83,",""scmin"":",N83,",""scmax"":",O83,",""type"":",P83,"},")</f>
-        <v>{"name":"75. Пульс радужный","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ref="AA83:AA117" ca="1" si="65">CONCATENATE("        case EFF_",B83,":",REPT(" ",20-LEN(B83)),Q83," { effTimer = millis(); ",R83,REPT(" ",30-LEN(R83)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T83)),T83,"U) ",C83)</f>
+        <v xml:space="preserve">        case EFF_PULSE_WHITE:         LOW_DELAY_TICK     { effTimer = millis(); pulseRoutine(8U);             Eff_Tick (); }  break;  // ( 75U) Пульс белый</v>
       </c>
       <c r="AC83" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ref="AC83:AC116" ca="1" si="66">CONCATENATE("""","e",T83,"""",":0,")</f>
         <v>"e75":0,</v>
       </c>
       <c r="AD83" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ref="AD83:AD116" ca="1" si="67">CONCATENATE("e",T83,"=[[e",T83,"]]&amp;")</f>
         <v>e75=[[e75]]&amp;</v>
       </c>
       <c r="AE83" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ref="AE83:AE116" ca="1" si="68">CONCATENATE("""","e",T83,"""",":",S83,",")</f>
         <v>"e75":2,</v>
       </c>
       <c r="AF83" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e75","title":"75. Пульс радужный","style":"font-size:20px;display:block","state":"{{e75}}"},</v>
+        <f t="shared" ref="AF83:AF117" ca="1" si="69">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T83,""",""title"":""",A83,". ",C83,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T83,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e75","title":"75. Пульс белый","style":"font-size:20px;display:block","state":"{{e75}}"},</v>
       </c>
       <c r="AG83" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"75. Пульс радужный","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e75","state":"{{e75}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ref="AG83:AG117" ca="1" si="70">CONCATENATE("{""type"":""h4"",""title"":""",A83,". ",C83,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T83,""",""state"":""{{e",T83,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"75. Пульс белый","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e75","state":"{{e75}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH83" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"75": "75.Пульс радужный",</v>
+        <f t="shared" ref="AH83:AH116" ca="1" si="71">CONCATENATE("""",A83,"""",": """,A83,".",C83,""",")</f>
+        <v>"75": "75.Пульс белый",</v>
       </c>
       <c r="AI83" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ref="AI83:AI116" ca="1" si="72">CONCATENATE("""",A83,"""",":""",T83,""",")</f>
         <v>"75":"75",</v>
       </c>
       <c r="AJ83" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>75. Пульс радужный,99,255,1,100,0;</v>
+        <f t="shared" ref="AJ83:AJ117" ca="1" si="73">CONCATENATE(A83,". ",C83,",",L83,",",M83,",",N83,",",O83,",",P83,";")</f>
+        <v>75. Пульс белый,99,255,1,100,0;</v>
       </c>
       <c r="AK83" s="49"/>
       <c r="AL83" s="49"/>
@@ -12616,41 +12587,41 @@
       <c r="BD83" s="52"/>
     </row>
     <row r="84" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A84" s="34">
-        <f t="shared" ca="1" si="42"/>
+      <c r="A84" s="4">
+        <f t="shared" ca="1" si="58"/>
         <v>76</v>
       </c>
-      <c r="B84" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="C84" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="D84" s="23"/>
+      <c r="B84" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D84" s="24"/>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
       <c r="G84" s="24"/>
-      <c r="H84" s="34">
-        <v>15</v>
+      <c r="H84" s="4">
+        <v>20</v>
       </c>
       <c r="I84" s="4">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="J84" s="4">
-        <v>50</v>
-      </c>
-      <c r="K84" s="65"/>
+        <v>31</v>
+      </c>
+      <c r="K84" s="63"/>
       <c r="L84" s="4">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="M84">
         <v>255</v>
       </c>
       <c r="N84" s="4">
-        <v>49</v>
-      </c>
-      <c r="O84" s="4">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>100</v>
       </c>
       <c r="P84" s="4">
         <v>0</v>
@@ -12659,86 +12630,86 @@
         <v>44</v>
       </c>
       <c r="R84" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="S84">
         <v>2</v>
       </c>
-      <c r="T84" s="34">
-        <f t="shared" ca="1" si="43"/>
+      <c r="T84" s="4">
+        <f t="shared" ca="1" si="59"/>
         <v>76</v>
       </c>
-      <c r="U84" s="65"/>
-      <c r="V84" s="35" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_RADIAL_WAWE         ( 76U)    // Радиальная волна</v>
-      </c>
-      <c r="W84" s="35" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("76. Радиальная волна,50,255,49,50,0;") +</v>
-      </c>
-      <c r="X84" s="35" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("76. ,50,255,49,50,0;") +</v>
-      </c>
-      <c r="Y84" s="35" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("76. ,50,255,49,50,0;") +</v>
+      <c r="U84" s="63"/>
+      <c r="V84" s="4" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_PULSE_RAINBOW       ( 76U)    // Пульс радужный</v>
+      </c>
+      <c r="W84" s="4" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v>String("76. Пульс радужный,99,255,1,100,0;") +</v>
+      </c>
+      <c r="X84" s="4" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v>String("76. ,99,255,1,100,0;") +</v>
+      </c>
+      <c r="Y84" s="4" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v>String("76. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Z84" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  15, 220,  50}, // Радиальная волна</v>
-      </c>
-      <c r="AA84" s="35" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_RADIAL_WAWE:         DYNAMIC_DELAY_TICK { effTimer = millis(); RadialWave();                 Eff_Tick (); }  break;  // ( 76U) Радиальная волна</v>
-      </c>
-      <c r="AB84" s="35" t="str">
-        <f ca="1">CONCATENATE("{""name"":""",A84,". ",C84,""",""spmin"":",L84,",""spmax"":",M84,",""scmin"":",N84,",""scmax"":",O84,",""type"":",P84,"}")</f>
-        <v>{"name":"76. Радиальная волна","spmin":50,"spmax":255,"scmin":49,"scmax":50,"type":0}</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  20, 185,  31}, // Пульс радужный</v>
+      </c>
+      <c r="AA84" s="4" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_PULSE_RAINBOW:       DYNAMIC_DELAY_TICK { effTimer = millis(); pulseRoutine(4U);             Eff_Tick (); }  break;  // ( 76U) Пульс радужный</v>
+      </c>
+      <c r="AB84" s="4" t="str">
+        <f t="shared" ref="AB84" ca="1" si="74">CONCATENATE("{""name"":""",A84,". ",C84,""",""spmin"":",L84,",""spmax"":",M84,",""scmin"":",N84,",""scmax"":",O84,",""type"":",P84,"},")</f>
+        <v>{"name":"76. Пульс радужный","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC84" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e76":0,</v>
       </c>
       <c r="AD84" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e76=[[e76]]&amp;</v>
       </c>
       <c r="AE84" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e76":2,</v>
       </c>
-      <c r="AF84" s="35" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e76","title":"76. Радиальная волна","style":"font-size:20px;display:block","state":"{{e76}}"},</v>
-      </c>
-      <c r="AG84" s="35" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"76. Радиальная волна","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e76","state":"{{e76}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+      <c r="AF84" s="4" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e76","title":"76. Пульс радужный","style":"font-size:20px;display:block","state":"{{e76}}"},</v>
+      </c>
+      <c r="AG84" s="4" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"76. Пульс радужный","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e76","state":"{{e76}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH84" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"76": "76.Радиальная волна",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"76": "76.Пульс радужный",</v>
       </c>
       <c r="AI84" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"76":"76",</v>
       </c>
-      <c r="AJ84" s="35" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>76. Радиальная волна,50,255,49,50,0;</v>
-      </c>
-      <c r="AK84" s="56"/>
-      <c r="AL84" s="56"/>
+      <c r="AJ84" s="4" t="str">
+        <f t="shared" ca="1" si="73"/>
+        <v>76. Пульс радужный,99,255,1,100,0;</v>
+      </c>
+      <c r="AK84" s="49"/>
+      <c r="AL84" s="49"/>
       <c r="AM84" s="49"/>
       <c r="AN84" s="50"/>
-      <c r="AO84" s="56"/>
-      <c r="AP84" s="56"/>
-      <c r="AQ84" s="56"/>
+      <c r="AO84" s="49"/>
+      <c r="AP84" s="49"/>
+      <c r="AQ84" s="49"/>
       <c r="AR84" s="49"/>
       <c r="AS84" s="51"/>
-      <c r="AT84" s="56"/>
+      <c r="AT84" s="49"/>
       <c r="AU84" s="49"/>
       <c r="AV84" s="52"/>
       <c r="AW84" s="52"/>
@@ -12751,30 +12722,30 @@
       <c r="BD84" s="52"/>
     </row>
     <row r="85" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A85" s="4">
-        <f t="shared" ca="1" si="42"/>
+      <c r="A85" s="34">
+        <f t="shared" ca="1" si="58"/>
         <v>77</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>283</v>
+      <c r="B85" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>280</v>
       </c>
       <c r="D85" s="23"/>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
       <c r="G85" s="24"/>
-      <c r="H85" s="4">
-        <v>10</v>
+      <c r="H85" s="34">
+        <v>15</v>
       </c>
       <c r="I85" s="4">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="J85" s="4">
         <v>50</v>
       </c>
-      <c r="K85" s="63"/>
+      <c r="K85" s="65"/>
       <c r="L85" s="4">
         <v>50</v>
       </c>
@@ -12782,10 +12753,10 @@
         <v>255</v>
       </c>
       <c r="N85" s="4">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>100</v>
+        <v>49</v>
+      </c>
+      <c r="O85" s="4">
+        <v>50</v>
       </c>
       <c r="P85" s="4">
         <v>0</v>
@@ -12794,86 +12765,86 @@
         <v>44</v>
       </c>
       <c r="R85" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="S85">
         <v>2</v>
       </c>
-      <c r="T85" s="4">
-        <f t="shared" ca="1" si="43"/>
+      <c r="T85" s="34">
+        <f t="shared" ca="1" si="59"/>
         <v>77</v>
       </c>
-      <c r="U85" s="63"/>
-      <c r="V85" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_RAINBOW_VER         ( 77U)    // Радуга</v>
-      </c>
-      <c r="W85" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("77. Радуга,50,255,1,100,0;") +</v>
-      </c>
-      <c r="X85" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("77. ,50,255,1,100,0;") +</v>
-      </c>
-      <c r="Y85" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("77. ,50,255,1,100,0;") +</v>
+      <c r="U85" s="65"/>
+      <c r="V85" s="35" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_RADIAL_WAWE         ( 77U)    // Радиальная волна</v>
+      </c>
+      <c r="W85" s="35" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v>String("77. Радиальная волна,50,255,49,50,0;") +</v>
+      </c>
+      <c r="X85" s="35" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v>String("77. ,50,255,49,50,0;") +</v>
+      </c>
+      <c r="Y85" s="35" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v>String("77. ,50,255,49,50,0;") +</v>
       </c>
       <c r="Z85" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  10, 215,  50}, // Радуга</v>
-      </c>
-      <c r="AA85" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_RAINBOW_VER:         DYNAMIC_DELAY_TICK { effTimer = millis(); rainbowRoutine();             Eff_Tick (); }  break;  // ( 77U) Радуга</v>
-      </c>
-      <c r="AB85" s="4" t="str">
-        <f t="shared" ref="AB85:AB96" ca="1" si="59">CONCATENATE("{""name"":""",A85,". ",C85,""",""spmin"":",L85,",""spmax"":",M85,",""scmin"":",N85,",""scmax"":",O85,",""type"":",P85,"},")</f>
-        <v>{"name":"77. Радуга","spmin":50,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  15, 220,  50}, // Радиальная волна</v>
+      </c>
+      <c r="AA85" s="35" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_RADIAL_WAWE:         DYNAMIC_DELAY_TICK { effTimer = millis(); RadialWave();                 Eff_Tick (); }  break;  // ( 77U) Радиальная волна</v>
+      </c>
+      <c r="AB85" s="35" t="str">
+        <f ca="1">CONCATENATE("{""name"":""",A85,". ",C85,""",""spmin"":",L85,",""spmax"":",M85,",""scmin"":",N85,",""scmax"":",O85,",""type"":",P85,"}")</f>
+        <v>{"name":"77. Радиальная волна","spmin":50,"spmax":255,"scmin":49,"scmax":50,"type":0}</v>
       </c>
       <c r="AC85" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e77":0,</v>
       </c>
       <c r="AD85" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e77=[[e77]]&amp;</v>
       </c>
       <c r="AE85" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e77":2,</v>
       </c>
-      <c r="AF85" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e77","title":"77. Радуга","style":"font-size:20px;display:block","state":"{{e77}}"},</v>
-      </c>
-      <c r="AG85" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"77. Радуга","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e77","state":"{{e77}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+      <c r="AF85" s="35" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e77","title":"77. Радиальная волна","style":"font-size:20px;display:block","state":"{{e77}}"},</v>
+      </c>
+      <c r="AG85" s="35" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"77. Радиальная волна","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e77","state":"{{e77}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH85" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"77": "77.Радуга",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"77": "77.Радиальная волна",</v>
       </c>
       <c r="AI85" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"77":"77",</v>
       </c>
-      <c r="AJ85" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>77. Радуга,50,255,1,100,0;</v>
-      </c>
-      <c r="AK85" s="49"/>
-      <c r="AL85" s="49"/>
+      <c r="AJ85" s="35" t="str">
+        <f t="shared" ca="1" si="73"/>
+        <v>77. Радиальная волна,50,255,49,50,0;</v>
+      </c>
+      <c r="AK85" s="56"/>
+      <c r="AL85" s="56"/>
       <c r="AM85" s="49"/>
       <c r="AN85" s="50"/>
-      <c r="AO85" s="49"/>
-      <c r="AP85" s="49"/>
-      <c r="AQ85" s="49"/>
+      <c r="AO85" s="56"/>
+      <c r="AP85" s="56"/>
+      <c r="AQ85" s="56"/>
       <c r="AR85" s="49"/>
       <c r="AS85" s="51"/>
-      <c r="AT85" s="49"/>
+      <c r="AT85" s="56"/>
       <c r="AU85" s="49"/>
       <c r="AV85" s="52"/>
       <c r="AW85" s="52"/>
@@ -12887,14 +12858,14 @@
     </row>
     <row r="86" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A86" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>78</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="24"/>
@@ -12904,17 +12875,17 @@
         <v>10</v>
       </c>
       <c r="I86" s="4">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="J86" s="4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K86" s="63"/>
       <c r="L86" s="4">
-        <v>1</v>
-      </c>
-      <c r="M86" s="4">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="M86">
+        <v>255</v>
       </c>
       <c r="N86" s="4">
         <v>1</v>
@@ -12925,79 +12896,79 @@
       <c r="P86" s="4">
         <v>0</v>
       </c>
-      <c r="Q86" t="s">
-        <v>40</v>
+      <c r="Q86" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="R86" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="S86">
         <v>2</v>
       </c>
       <c r="T86" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>78</v>
       </c>
       <c r="U86" s="63"/>
       <c r="V86" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_RAINBOW             ( 78U)    // Радуга 3D</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_RAINBOW_VER         ( 78U)    // Радуга</v>
       </c>
       <c r="W86" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("78. Радуга 3D,1,70,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("78. Радуга,50,255,1,100,0;") +</v>
       </c>
       <c r="X86" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("78. ,1,70,1,100,0;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("78. ,50,255,1,100,0;") +</v>
       </c>
       <c r="Y86" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("78. ,1,70,1,100,0;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("78. ,50,255,1,100,0;") +</v>
       </c>
       <c r="Z86" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  10,  13,  60}, // Радуга 3D</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  10, 215,  50}, // Радуга</v>
       </c>
       <c r="AA86" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_RAINBOW:             HIGH_DELAY_TICK { effTimer = millis(); rainbowNoiseRoutine();        Eff_Tick (); }  break;  // ( 78U) Радуга 3D</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_RAINBOW_VER:         DYNAMIC_DELAY_TICK { effTimer = millis(); rainbowRoutine();             Eff_Tick (); }  break;  // ( 78U) Радуга</v>
       </c>
       <c r="AB86" s="4" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v>{"name":"78. Радуга 3D","spmin":1,"spmax":70,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ref="AB86:AB97" ca="1" si="75">CONCATENATE("{""name"":""",A86,". ",C86,""",""spmin"":",L86,",""spmax"":",M86,",""scmin"":",N86,",""scmax"":",O86,",""type"":",P86,"},")</f>
+        <v>{"name":"78. Радуга","spmin":50,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC86" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e78":0,</v>
       </c>
       <c r="AD86" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e78=[[e78]]&amp;</v>
       </c>
       <c r="AE86" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e78":2,</v>
       </c>
       <c r="AF86" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e78","title":"78. Радуга 3D","style":"font-size:20px;display:block","state":"{{e78}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e78","title":"78. Радуга","style":"font-size:20px;display:block","state":"{{e78}}"},</v>
       </c>
       <c r="AG86" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"78. Радуга 3D","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e78","state":"{{e78}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"78. Радуга","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e78","state":"{{e78}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH86" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"78": "78.Радуга 3D",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"78": "78.Радуга",</v>
       </c>
       <c r="AI86" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"78":"78",</v>
       </c>
       <c r="AJ86" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>78. Радуга 3D,1,70,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>78. Радуга,50,255,1,100,0;</v>
       </c>
       <c r="AK86" s="49"/>
       <c r="AL86" s="49"/>
@@ -13022,37 +12993,37 @@
     </row>
     <row r="87" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A87" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>79</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
       <c r="G87" s="24"/>
       <c r="H87" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I87" s="4">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="J87" s="4">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K87" s="63"/>
       <c r="L87" s="4">
-        <v>99</v>
-      </c>
-      <c r="M87">
-        <v>255</v>
+        <v>1</v>
+      </c>
+      <c r="M87" s="4">
+        <v>70</v>
       </c>
       <c r="N87" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O87">
         <v>100</v>
@@ -13061,78 +13032,78 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R87" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="S87">
         <v>2</v>
       </c>
       <c r="T87" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>79</v>
       </c>
       <c r="U87" s="63"/>
       <c r="V87" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_SNAKE               ( 79U)    // Радужный змей</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_RAINBOW             ( 79U)    // Радуга 3D</v>
       </c>
       <c r="W87" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("79. Радужный змей,99,255,100,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("79. Радуга 3D,1,70,1,100,0;") +</v>
       </c>
       <c r="X87" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("79. ,99,255,100,100,0;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("79. ,1,70,1,100,0;") +</v>
       </c>
       <c r="Y87" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("79. ,99,255,100,100,0;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("79. ,1,70,1,100,0;") +</v>
       </c>
       <c r="Z87" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  15, 205, 100}, // Радужный змей</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  10,  13,  60}, // Радуга 3D</v>
       </c>
       <c r="AA87" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_SNAKE:               DYNAMIC_DELAY_TICK { effTimer = millis(); MultipleStream8();            Eff_Tick (); }  break;  // ( 79U) Радужный змей</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_RAINBOW:             HIGH_DELAY_TICK { effTimer = millis(); rainbowNoiseRoutine();        Eff_Tick (); }  break;  // ( 79U) Радуга 3D</v>
       </c>
       <c r="AB87" s="4" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v>{"name":"79. Радужный змей","spmin":99,"spmax":255,"scmin":100,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>{"name":"79. Радуга 3D","spmin":1,"spmax":70,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC87" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e79":0,</v>
       </c>
       <c r="AD87" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e79=[[e79]]&amp;</v>
       </c>
       <c r="AE87" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e79":2,</v>
       </c>
       <c r="AF87" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e79","title":"79. Радужный змей","style":"font-size:20px;display:block","state":"{{e79}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e79","title":"79. Радуга 3D","style":"font-size:20px;display:block","state":"{{e79}}"},</v>
       </c>
       <c r="AG87" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"79. Радужный змей","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e79","state":"{{e79}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"79. Радуга 3D","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e79","state":"{{e79}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH87" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"79": "79.Радужный змей",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"79": "79.Радуга 3D",</v>
       </c>
       <c r="AI87" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"79":"79",</v>
       </c>
       <c r="AJ87" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>79. Радужный змей,99,255,100,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>79. Радуга 3D,1,70,1,100,0;</v>
       </c>
       <c r="AK87" s="49"/>
       <c r="AL87" s="49"/>
@@ -13157,14 +13128,14 @@
     </row>
     <row r="88" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A88" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>80</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D88" s="23"/>
       <c r="E88" s="24"/>
@@ -13177,7 +13148,7 @@
         <v>205</v>
       </c>
       <c r="J88" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K88" s="63"/>
       <c r="L88" s="4">
@@ -13187,87 +13158,87 @@
         <v>255</v>
       </c>
       <c r="N88" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O88">
         <v>100</v>
       </c>
       <c r="P88" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88" t="s">
         <v>44</v>
       </c>
       <c r="R88" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S88">
         <v>2</v>
       </c>
       <c r="T88" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>80</v>
       </c>
       <c r="U88" s="63"/>
       <c r="V88" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_RAIN                ( 80U)    // Разноцветный дождь</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_SNAKE               ( 80U)    // Радужный змей</v>
       </c>
       <c r="W88" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("80. Разноцветный дождь,99,255,1,100,1;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("80. Радужный змей,99,255,100,100,0;") +</v>
       </c>
       <c r="X88" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("80. ,99,255,1,100,1;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("80. ,99,255,100,100,0;") +</v>
       </c>
       <c r="Y88" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("80. ,99,255,1,100,1;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("80. ,99,255,100,100,0;") +</v>
       </c>
       <c r="Z88" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  15, 205,   1}, // Разноцветный дождь</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  15, 205, 100}, // Радужный змей</v>
       </c>
       <c r="AA88" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_RAIN:                DYNAMIC_DELAY_TICK { effTimer = millis(); RainRoutine();                Eff_Tick (); }  break;  // ( 80U) Разноцветный дождь</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_SNAKE:               DYNAMIC_DELAY_TICK { effTimer = millis(); MultipleStream8();            Eff_Tick (); }  break;  // ( 80U) Радужный змей</v>
       </c>
       <c r="AB88" s="4" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v>{"name":"80. Разноцветный дождь","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>{"name":"80. Радужный змей","spmin":99,"spmax":255,"scmin":100,"scmax":100,"type":0},</v>
       </c>
       <c r="AC88" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e80":0,</v>
       </c>
       <c r="AD88" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e80=[[e80]]&amp;</v>
       </c>
       <c r="AE88" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e80":2,</v>
       </c>
       <c r="AF88" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e80","title":"80. Разноцветный дождь","style":"font-size:20px;display:block","state":"{{e80}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e80","title":"80. Радужный змей","style":"font-size:20px;display:block","state":"{{e80}}"},</v>
       </c>
       <c r="AG88" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"80. Разноцветный дождь","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e80","state":"{{e80}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"80. Радужный змей","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e80","state":"{{e80}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH88" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"80": "80.Разноцветный дождь",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"80": "80.Радужный змей",</v>
       </c>
       <c r="AI88" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"80":"80",</v>
       </c>
       <c r="AJ88" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>80. Разноцветный дождь,99,255,1,100,1;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>80. Радужный змей,99,255,100,100,0;</v>
       </c>
       <c r="AK88" s="49"/>
       <c r="AL88" s="49"/>
@@ -13292,31 +13263,31 @@
     </row>
     <row r="89" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A89" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>81</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D89" s="23"/>
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
       <c r="G89" s="24"/>
       <c r="H89" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I89" s="4">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="J89" s="4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="K89" s="63"/>
       <c r="L89" s="4">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M89">
         <v>255</v>
@@ -13328,81 +13299,81 @@
         <v>100</v>
       </c>
       <c r="P89" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89" t="s">
         <v>44</v>
       </c>
       <c r="R89" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S89">
         <v>2</v>
       </c>
       <c r="T89" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>81</v>
       </c>
       <c r="U89" s="63"/>
       <c r="V89" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_RIVERS              ( 81U)    // Реки Ботсваны</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_RAIN                ( 81U)    // Разноцветный дождь</v>
       </c>
       <c r="W89" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("81. Реки Ботсваны,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("81. Разноцветный дождь,99,255,1,100,1;") +</v>
       </c>
       <c r="X89" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("81. ,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("81. ,99,255,1,100,1;") +</v>
       </c>
       <c r="Y89" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("81. ,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("81. ,99,255,1,100,1;") +</v>
       </c>
       <c r="Z89" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  12, 175,  50}, // Реки Ботсваны</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  15, 205,   1}, // Разноцветный дождь</v>
       </c>
       <c r="AA89" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_RIVERS:              DYNAMIC_DELAY_TICK { effTimer = millis(); BotswanaRivers();             Eff_Tick (); }  break;  // ( 81U) Реки Ботсваны</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_RAIN:                DYNAMIC_DELAY_TICK { effTimer = millis(); RainRoutine();                Eff_Tick (); }  break;  // ( 81U) Разноцветный дождь</v>
       </c>
       <c r="AB89" s="4" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v>{"name":"81. Реки Ботсваны","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>{"name":"81. Разноцветный дождь","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
       </c>
       <c r="AC89" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e81":0,</v>
       </c>
       <c r="AD89" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e81=[[e81]]&amp;</v>
       </c>
       <c r="AE89" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e81":2,</v>
       </c>
       <c r="AF89" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e81","title":"81. Реки Ботсваны","style":"font-size:20px;display:block","state":"{{e81}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e81","title":"81. Разноцветный дождь","style":"font-size:20px;display:block","state":"{{e81}}"},</v>
       </c>
       <c r="AG89" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"81. Реки Ботсваны","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e81","state":"{{e81}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"81. Разноцветный дождь","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e81","state":"{{e81}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH89" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"81": "81.Реки Ботсваны",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"81": "81.Разноцветный дождь",</v>
       </c>
       <c r="AI89" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"81":"81",</v>
       </c>
       <c r="AJ89" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>81. Реки Ботсваны,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>81. Разноцветный дождь,99,255,1,100,1;</v>
       </c>
       <c r="AK89" s="49"/>
       <c r="AL89" s="49"/>
@@ -13427,31 +13398,31 @@
     </row>
     <row r="90" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A90" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>82</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D90" s="24"/>
+        <v>295</v>
+      </c>
+      <c r="D90" s="23"/>
       <c r="E90" s="24"/>
       <c r="F90" s="24"/>
       <c r="G90" s="24"/>
       <c r="H90" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I90" s="4">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J90" s="4">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="K90" s="63"/>
       <c r="L90" s="4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="M90">
         <v>255</v>
@@ -13469,75 +13440,75 @@
         <v>44</v>
       </c>
       <c r="R90" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="S90">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T90" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>82</v>
       </c>
       <c r="U90" s="63"/>
       <c r="V90" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_LIGHTERS            ( 82U)    // Светлячки</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_RIVERS              ( 82U)    // Реки Ботсваны</v>
       </c>
       <c r="W90" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("82. Светлячки,50,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("82. Реки Ботсваны,1,255,1,100,0;") +</v>
       </c>
       <c r="X90" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("82. ,50,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("82. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y90" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("82. ,50,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("82. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z90" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  15, 180,  23}, // Светлячки</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  12, 175,  50}, // Реки Ботсваны</v>
       </c>
       <c r="AA90" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_LIGHTERS:            DYNAMIC_DELAY_TICK { effTimer = millis(); lightersRoutine();            Eff_Tick (); }  break;  // ( 82U) Светлячки</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_RIVERS:              DYNAMIC_DELAY_TICK { effTimer = millis(); BotswanaRivers();             Eff_Tick (); }  break;  // ( 82U) Реки Ботсваны</v>
       </c>
       <c r="AB90" s="4" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v>{"name":"82. Светлячки","spmin":50,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>{"name":"82. Реки Ботсваны","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC90" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e82":0,</v>
       </c>
       <c r="AD90" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e82=[[e82]]&amp;</v>
       </c>
       <c r="AE90" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v>"e82":8,</v>
+        <f t="shared" ca="1" si="68"/>
+        <v>"e82":2,</v>
       </c>
       <c r="AF90" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e82","title":"82. Светлячки","style":"font-size:20px;display:block","state":"{{e82}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e82","title":"82. Реки Ботсваны","style":"font-size:20px;display:block","state":"{{e82}}"},</v>
       </c>
       <c r="AG90" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"82. Светлячки","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e82","state":"{{e82}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"82. Реки Ботсваны","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e82","state":"{{e82}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH90" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"82": "82.Светлячки",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"82": "82.Реки Ботсваны",</v>
       </c>
       <c r="AI90" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"82":"82",</v>
       </c>
       <c r="AJ90" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>82. Светлячки,50,255,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>82. Реки Ботсваны,1,255,1,100,0;</v>
       </c>
       <c r="AK90" s="49"/>
       <c r="AL90" s="49"/>
@@ -13562,16 +13533,16 @@
     </row>
     <row r="91" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A91" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>83</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D91" s="23"/>
+        <v>298</v>
+      </c>
+      <c r="D91" s="24"/>
       <c r="E91" s="24"/>
       <c r="F91" s="24"/>
       <c r="G91" s="24"/>
@@ -13579,14 +13550,14 @@
         <v>15</v>
       </c>
       <c r="I91" s="4">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J91" s="4">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="K91" s="63"/>
       <c r="L91" s="4">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="M91">
         <v>255</v>
@@ -13604,75 +13575,75 @@
         <v>44</v>
       </c>
       <c r="R91" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="S91">
         <v>8</v>
       </c>
       <c r="T91" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>83</v>
       </c>
       <c r="U91" s="63"/>
       <c r="V91" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_LIGHTER_TRACES      ( 83U)    // Светлячки со шлейфом</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_LIGHTERS            ( 83U)    // Светлячки</v>
       </c>
       <c r="W91" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("83. Светлячки со шлейфом,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("83. Светлячки,50,255,1,100,0;") +</v>
       </c>
       <c r="X91" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("83. ,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("83. ,50,255,1,100,0;") +</v>
       </c>
       <c r="Y91" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("83. ,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("83. ,50,255,1,100,0;") +</v>
       </c>
       <c r="Z91" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  15, 185,  93}, // Светлячки со шлейфом</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  15, 180,  23}, // Светлячки</v>
       </c>
       <c r="AA91" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_LIGHTER_TRACES:      DYNAMIC_DELAY_TICK { effTimer = millis(); ballsRoutine();               Eff_Tick (); }  break;  // ( 83U) Светлячки со шлейфом</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_LIGHTERS:            DYNAMIC_DELAY_TICK { effTimer = millis(); lightersRoutine();            Eff_Tick (); }  break;  // ( 83U) Светлячки</v>
       </c>
       <c r="AB91" s="4" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v>{"name":"83. Светлячки со шлейфом","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>{"name":"83. Светлячки","spmin":50,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC91" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e83":0,</v>
       </c>
       <c r="AD91" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e83=[[e83]]&amp;</v>
       </c>
       <c r="AE91" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e83":8,</v>
       </c>
       <c r="AF91" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e83","title":"83. Светлячки со шлейфом","style":"font-size:20px;display:block","state":"{{e83}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e83","title":"83. Светлячки","style":"font-size:20px;display:block","state":"{{e83}}"},</v>
       </c>
       <c r="AG91" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"83. Светлячки со шлейфом","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e83","state":"{{e83}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"83. Светлячки","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e83","state":"{{e83}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH91" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"83": "83.Светлячки со шлейфом",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"83": "83.Светлячки",</v>
       </c>
       <c r="AI91" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"83":"83",</v>
       </c>
       <c r="AJ91" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>83. Светлячки со шлейфом,99,255,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>83. Светлячки,50,255,1,100,0;</v>
       </c>
       <c r="AK91" s="49"/>
       <c r="AL91" s="49"/>
@@ -13697,31 +13668,31 @@
     </row>
     <row r="92" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A92" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>84</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D92" s="23"/>
       <c r="E92" s="24"/>
       <c r="F92" s="24"/>
       <c r="G92" s="24"/>
       <c r="H92" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I92" s="4">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="J92" s="4">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="K92" s="63"/>
       <c r="L92" s="4">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="M92">
         <v>255</v>
@@ -13733,81 +13704,81 @@
         <v>100</v>
       </c>
       <c r="P92" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92" t="s">
         <v>44</v>
       </c>
       <c r="R92" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T92" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>84</v>
       </c>
       <c r="U92" s="63"/>
       <c r="V92" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_FEATHER_CANDLE      ( 84U)    // Свеча</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_LIGHTER_TRACES      ( 84U)    // Светлячки со шлейфом</v>
       </c>
       <c r="W92" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("84. Свеча,170,255,1,100,1;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("84. Светлячки со шлейфом,99,255,1,100,0;") +</v>
       </c>
       <c r="X92" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("84. ,170,255,1,100,1;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("84. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Y92" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("84. ,170,255,1,100,1;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("84. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Z92" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  20, 220,   8}, // Свеча</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  15, 185,  93}, // Светлячки со шлейфом</v>
       </c>
       <c r="AA92" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_FEATHER_CANDLE:      DYNAMIC_DELAY_TICK { effTimer = millis(); FeatherCandleRoutine();       Eff_Tick (); }  break;  // ( 84U) Свеча</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_LIGHTER_TRACES:      DYNAMIC_DELAY_TICK { effTimer = millis(); ballsRoutine();               Eff_Tick (); }  break;  // ( 84U) Светлячки со шлейфом</v>
       </c>
       <c r="AB92" s="4" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v>{"name":"84. Свеча","spmin":170,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>{"name":"84. Светлячки со шлейфом","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC92" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e84":0,</v>
       </c>
       <c r="AD92" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e84=[[e84]]&amp;</v>
       </c>
       <c r="AE92" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v>"e84":2,</v>
+        <f t="shared" ca="1" si="68"/>
+        <v>"e84":8,</v>
       </c>
       <c r="AF92" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e84","title":"84. Свеча","style":"font-size:20px;display:block","state":"{{e84}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e84","title":"84. Светлячки со шлейфом","style":"font-size:20px;display:block","state":"{{e84}}"},</v>
       </c>
       <c r="AG92" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"84. Свеча","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e84","state":"{{e84}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"84. Светлячки со шлейфом","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e84","state":"{{e84}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH92" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"84": "84.Свеча",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"84": "84.Светлячки со шлейфом",</v>
       </c>
       <c r="AI92" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"84":"84",</v>
       </c>
       <c r="AJ92" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>84. Свеча,170,255,1,100,1;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>84. Светлячки со шлейфом,99,255,1,100,0;</v>
       </c>
       <c r="AK92" s="49"/>
       <c r="AL92" s="49"/>
@@ -13832,31 +13803,31 @@
     </row>
     <row r="93" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A93" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>85</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D93" s="23"/>
       <c r="E93" s="24"/>
       <c r="F93" s="24"/>
       <c r="G93" s="24"/>
       <c r="H93" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I93" s="4">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="J93" s="4">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="K93" s="63"/>
       <c r="L93" s="4">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="M93">
         <v>255</v>
@@ -13871,78 +13842,78 @@
         <v>1</v>
       </c>
       <c r="Q93" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="R93" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="S93">
         <v>2</v>
       </c>
       <c r="T93" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>85</v>
       </c>
       <c r="U93" s="63"/>
       <c r="V93" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_AURORA              ( 85U)    // Северное сияние</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_FEATHER_CANDLE      ( 85U)    // Свеча</v>
       </c>
       <c r="W93" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("85. Северное сияние,1,255,1,100,1;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("85. Свеча,170,255,1,100,1;") +</v>
       </c>
       <c r="X93" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("85. ,1,255,1,100,1;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("85. ,170,255,1,100,1;") +</v>
       </c>
       <c r="Y93" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("85. ,1,255,1,100,1;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("85. ,170,255,1,100,1;") +</v>
       </c>
       <c r="Z93" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  15, 160,  64}, // Северное сияние</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  20, 220,   8}, // Свеча</v>
       </c>
       <c r="AA93" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_AURORA:              HIGH_DELAY_TICK { effTimer = millis(); polarRoutine();               Eff_Tick (); }  break;  // ( 85U) Северное сияние</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_FEATHER_CANDLE:      DYNAMIC_DELAY_TICK { effTimer = millis(); FeatherCandleRoutine();       Eff_Tick (); }  break;  // ( 85U) Свеча</v>
       </c>
       <c r="AB93" s="4" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v>{"name":"85. Северное сияние","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>{"name":"85. Свеча","spmin":170,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
       </c>
       <c r="AC93" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e85":0,</v>
       </c>
       <c r="AD93" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e85=[[e85]]&amp;</v>
       </c>
       <c r="AE93" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e85":2,</v>
       </c>
       <c r="AF93" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e85","title":"85. Северное сияние","style":"font-size:20px;display:block","state":"{{e85}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e85","title":"85. Свеча","style":"font-size:20px;display:block","state":"{{e85}}"},</v>
       </c>
       <c r="AG93" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"85. Северное сияние","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e85","state":"{{e85}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"85. Свеча","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e85","state":"{{e85}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH93" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"85": "85.Северное сияние",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"85": "85.Свеча",</v>
       </c>
       <c r="AI93" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"85":"85",</v>
       </c>
       <c r="AJ93" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>85. Северное сияние,1,255,1,100,1;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>85. Свеча,170,255,1,100,1;</v>
       </c>
       <c r="AK93" s="49"/>
       <c r="AL93" s="49"/>
@@ -13963,31 +13934,31 @@
       <c r="BA93" s="52"/>
       <c r="BB93" s="52"/>
       <c r="BC93" s="52"/>
-      <c r="BD93" s="27"/>
+      <c r="BD93" s="52"/>
     </row>
     <row r="94" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A94" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>86</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D94" s="23"/>
       <c r="E94" s="24"/>
       <c r="F94" s="24"/>
       <c r="G94" s="24"/>
       <c r="H94" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I94" s="4">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="J94" s="4">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K94" s="63"/>
       <c r="L94" s="4">
@@ -14003,81 +13974,81 @@
         <v>100</v>
       </c>
       <c r="P94" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94" t="s">
         <v>40</v>
       </c>
       <c r="R94" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="S94">
         <v>2</v>
       </c>
       <c r="T94" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>86</v>
       </c>
       <c r="U94" s="63"/>
       <c r="V94" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_SINUSOID3           ( 86U)    // Синусоид</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_AURORA              ( 86U)    // Северное сияние</v>
       </c>
       <c r="W94" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("86. Синусоид,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("86. Северное сияние,1,255,1,100,1;") +</v>
       </c>
       <c r="X94" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("86. ,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("86. ,1,255,1,100,1;") +</v>
       </c>
       <c r="Y94" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("86. ,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("86. ,1,255,1,100,1;") +</v>
       </c>
       <c r="Z94" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  20, 127,  75}, // Синусоид</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  15, 160,  64}, // Северное сияние</v>
       </c>
       <c r="AA94" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_SINUSOID3:           HIGH_DELAY_TICK { effTimer = millis(); Sinusoid3Routine();           Eff_Tick (); }  break;  // ( 86U) Синусоид</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_AURORA:              HIGH_DELAY_TICK { effTimer = millis(); polarRoutine();               Eff_Tick (); }  break;  // ( 86U) Северное сияние</v>
       </c>
       <c r="AB94" s="4" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v>{"name":"86. Синусоид","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>{"name":"86. Северное сияние","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
       </c>
       <c r="AC94" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e86":0,</v>
       </c>
       <c r="AD94" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e86=[[e86]]&amp;</v>
       </c>
       <c r="AE94" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e86":2,</v>
       </c>
       <c r="AF94" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e86","title":"86. Синусоид","style":"font-size:20px;display:block","state":"{{e86}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e86","title":"86. Северное сияние","style":"font-size:20px;display:block","state":"{{e86}}"},</v>
       </c>
       <c r="AG94" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"86. Синусоид","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e86","state":"{{e86}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"86. Северное сияние","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e86","state":"{{e86}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH94" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"86": "86.Синусоид",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"86": "86.Северное сияние",</v>
       </c>
       <c r="AI94" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"86":"86",</v>
       </c>
       <c r="AJ94" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>86. Синусоид,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>86. Северное сияние,1,255,1,100,1;</v>
       </c>
       <c r="AK94" s="49"/>
       <c r="AL94" s="49"/>
@@ -14102,27 +14073,27 @@
     </row>
     <row r="95" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A95" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>87</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D95" s="23"/>
       <c r="E95" s="24"/>
       <c r="F95" s="24"/>
       <c r="G95" s="24"/>
       <c r="H95" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I95" s="4">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="J95" s="4">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="K95" s="63"/>
       <c r="L95" s="4">
@@ -14134,8 +14105,8 @@
       <c r="N95" s="4">
         <v>1</v>
       </c>
-      <c r="O95" s="4">
-        <v>255</v>
+      <c r="O95">
+        <v>100</v>
       </c>
       <c r="P95" s="4">
         <v>0</v>
@@ -14144,75 +14115,75 @@
         <v>40</v>
       </c>
       <c r="R95" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="S95">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T95" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>87</v>
       </c>
       <c r="U95" s="63"/>
       <c r="V95" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_COLORS              ( 87U)    // Смена цвета</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_SINUSOID3           ( 87U)    // Синусоид</v>
       </c>
       <c r="W95" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("87. Смена цвета,1,255,1,255,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("87. Синусоид,1,255,1,100,0;") +</v>
       </c>
       <c r="X95" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("87. ,1,255,1,255,0;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("87. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y95" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("87. ,1,255,1,255,0;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("87. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z95" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  25, 240,   1}, // Смена цвета</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  20, 127,  75}, // Синусоид</v>
       </c>
       <c r="AA95" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_COLORS:              HIGH_DELAY_TICK { effTimer = millis(); colorsRoutine2();             Eff_Tick (); }  break;  // ( 87U) Смена цвета</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_SINUSOID3:           HIGH_DELAY_TICK { effTimer = millis(); Sinusoid3Routine();           Eff_Tick (); }  break;  // ( 87U) Синусоид</v>
       </c>
       <c r="AB95" s="4" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v>{"name":"87. Смена цвета","spmin":1,"spmax":255,"scmin":1,"scmax":255,"type":0},</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>{"name":"87. Синусоид","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC95" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e87":0,</v>
       </c>
       <c r="AD95" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e87=[[e87]]&amp;</v>
       </c>
       <c r="AE95" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v>"e87":11,</v>
+        <f t="shared" ca="1" si="68"/>
+        <v>"e87":2,</v>
       </c>
       <c r="AF95" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e87","title":"87. Смена цвета","style":"font-size:20px;display:block","state":"{{e87}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e87","title":"87. Синусоид","style":"font-size:20px;display:block","state":"{{e87}}"},</v>
       </c>
       <c r="AG95" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"87. Смена цвета","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e87","state":"{{e87}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"87. Синусоид","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e87","state":"{{e87}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH95" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"87": "87.Смена цвета",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"87": "87.Синусоид",</v>
       </c>
       <c r="AI95" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"87":"87",</v>
       </c>
       <c r="AJ95" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>87. Смена цвета,1,255,1,255,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>87. Синусоид,1,255,1,100,0;</v>
       </c>
       <c r="AK95" s="49"/>
       <c r="AL95" s="49"/>
@@ -14237,31 +14208,31 @@
     </row>
     <row r="96" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A96" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>88</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D96" s="23"/>
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
       <c r="G96" s="24"/>
       <c r="H96" s="4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I96" s="4">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="J96" s="4">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="K96" s="63"/>
       <c r="L96" s="4">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="M96">
         <v>255</v>
@@ -14269,85 +14240,85 @@
       <c r="N96" s="4">
         <v>1</v>
       </c>
-      <c r="O96">
-        <v>100</v>
+      <c r="O96" s="4">
+        <v>255</v>
       </c>
       <c r="P96" s="4">
         <v>0</v>
       </c>
       <c r="Q96" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R96" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="S96">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T96" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>88</v>
       </c>
       <c r="U96" s="63"/>
       <c r="V96" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_SNOW                ( 88U)    // Снегопад</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_COLORS              ( 88U)    // Смена цвета</v>
       </c>
       <c r="W96" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("88. Снегопад,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("88. Смена цвета,1,255,1,255,0;") +</v>
       </c>
       <c r="X96" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("88. ,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("88. ,1,255,1,255,0;") +</v>
       </c>
       <c r="Y96" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("88. ,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("88. ,1,255,1,255,0;") +</v>
       </c>
       <c r="Z96" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  10, 205,  90}, // Снегопад</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  25, 240,   1}, // Смена цвета</v>
       </c>
       <c r="AA96" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_SNOW:                DYNAMIC_DELAY_TICK { effTimer = millis(); snowRoutine();                Eff_Tick (); }  break;  // ( 88U) Снегопад</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_COLORS:              HIGH_DELAY_TICK { effTimer = millis(); colorsRoutine2();             Eff_Tick (); }  break;  // ( 88U) Смена цвета</v>
       </c>
       <c r="AB96" s="4" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v>{"name":"88. Снегопад","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>{"name":"88. Смена цвета","spmin":1,"spmax":255,"scmin":1,"scmax":255,"type":0},</v>
       </c>
       <c r="AC96" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e88":0,</v>
       </c>
       <c r="AD96" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e88=[[e88]]&amp;</v>
       </c>
       <c r="AE96" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v>"e88":6,</v>
+        <f t="shared" ca="1" si="68"/>
+        <v>"e88":11,</v>
       </c>
       <c r="AF96" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e88","title":"88. Снегопад","style":"font-size:20px;display:block","state":"{{e88}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e88","title":"88. Смена цвета","style":"font-size:20px;display:block","state":"{{e88}}"},</v>
       </c>
       <c r="AG96" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"88. Снегопад","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e88","state":"{{e88}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"88. Смена цвета","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e88","state":"{{e88}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH96" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"88": "88.Снегопад",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"88": "88.Смена цвета",</v>
       </c>
       <c r="AI96" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"88":"88",</v>
       </c>
       <c r="AJ96" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>88. Снегопад,99,255,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>88. Смена цвета,1,255,1,255,0;</v>
       </c>
       <c r="AK96" s="49"/>
       <c r="AL96" s="49"/>
@@ -14372,31 +14343,31 @@
     </row>
     <row r="97" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A97" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>89</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D97" s="23"/>
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
       <c r="G97" s="24"/>
       <c r="H97" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I97" s="4">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="J97" s="4">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="K97" s="63"/>
       <c r="L97" s="4">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M97">
         <v>255</v>
@@ -14414,71 +14385,75 @@
         <v>44</v>
       </c>
       <c r="R97" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T97" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>89</v>
       </c>
       <c r="U97" s="63"/>
       <c r="V97" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_SPECTRUM            ( 89U)    // Спектрум</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_SNOW                ( 89U)    // Снегопад</v>
       </c>
       <c r="W97" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("89. Спектрум,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("89. Снегопад,99,255,1,100,0;") +</v>
       </c>
       <c r="X97" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("89. ,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("89. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Y97" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("89. ,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("89. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Z97" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  25, 175,   1}, // Спектрум</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  10, 205,  90}, // Снегопад</v>
       </c>
       <c r="AA97" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_SPECTRUM:            DYNAMIC_DELAY_TICK { effTimer = millis(); Spectrum();                   Eff_Tick (); }  break;  // ( 89U) Спектрум</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_SNOW:                DYNAMIC_DELAY_TICK { effTimer = millis(); snowRoutine();                Eff_Tick (); }  break;  // ( 89U) Снегопад</v>
+      </c>
+      <c r="AB97" s="4" t="str">
+        <f t="shared" ca="1" si="75"/>
+        <v>{"name":"89. Снегопад","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC97" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e89":0,</v>
       </c>
       <c r="AD97" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e89=[[e89]]&amp;</v>
       </c>
       <c r="AE97" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v>"e89":2,</v>
+        <f t="shared" ca="1" si="68"/>
+        <v>"e89":6,</v>
       </c>
       <c r="AF97" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e89","title":"89. Спектрум","style":"font-size:20px;display:block","state":"{{e89}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e89","title":"89. Снегопад","style":"font-size:20px;display:block","state":"{{e89}}"},</v>
       </c>
       <c r="AG97" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"89. Спектрум","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e89","state":"{{e89}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"89. Снегопад","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e89","state":"{{e89}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH97" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"89": "89.Спектрум",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"89": "89.Снегопад",</v>
       </c>
       <c r="AI97" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"89":"89",</v>
       </c>
       <c r="AJ97" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>89. Спектрум,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>89. Снегопад,99,255,1,100,0;</v>
       </c>
       <c r="AK97" s="49"/>
       <c r="AL97" s="49"/>
@@ -14503,27 +14478,27 @@
     </row>
     <row r="98" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A98" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>90</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D98" s="23"/>
       <c r="E98" s="24"/>
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
       <c r="H98" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I98" s="4">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="J98" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K98" s="63"/>
       <c r="L98" s="4">
@@ -14542,78 +14517,74 @@
         <v>0</v>
       </c>
       <c r="Q98" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="R98" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="S98">
         <v>2</v>
       </c>
       <c r="T98" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>90</v>
       </c>
       <c r="U98" s="63"/>
       <c r="V98" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_SPIRO               ( 90U)    // Спирали</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_SPECTRUM            ( 90U)    // Спектрум</v>
       </c>
       <c r="W98" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("90. Спирали,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("90. Спектрум,1,255,1,100,0;") +</v>
       </c>
       <c r="X98" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="62"/>
         <v>String("90. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y98" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="63"/>
         <v>String("90. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z98" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  15,  45,   3}, // Спирали</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  25, 175,   1}, // Спектрум</v>
       </c>
       <c r="AA98" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_SPIRO:               LOW_DELAY_TICK { effTimer = millis(); spiroRoutine();               Eff_Tick (); }  break;  // ( 90U) Спирали</v>
-      </c>
-      <c r="AB98" s="4" t="str">
-        <f t="shared" ref="AB98:AB99" ca="1" si="60">CONCATENATE("{""name"":""",A98,". ",C98,""",""spmin"":",L98,",""spmax"":",M98,",""scmin"":",N98,",""scmax"":",O98,",""type"":",P98,"},")</f>
-        <v>{"name":"90. Спирали","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_SPECTRUM:            DYNAMIC_DELAY_TICK { effTimer = millis(); Spectrum();                   Eff_Tick (); }  break;  // ( 90U) Спектрум</v>
       </c>
       <c r="AC98" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e90":0,</v>
       </c>
       <c r="AD98" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e90=[[e90]]&amp;</v>
       </c>
       <c r="AE98" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e90":2,</v>
       </c>
       <c r="AF98" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e90","title":"90. Спирали","style":"font-size:20px;display:block","state":"{{e90}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e90","title":"90. Спектрум","style":"font-size:20px;display:block","state":"{{e90}}"},</v>
       </c>
       <c r="AG98" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"90. Спирали","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e90","state":"{{e90}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"90. Спектрум","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e90","state":"{{e90}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH98" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"90": "90.Спирали",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"90": "90.Спектрум",</v>
       </c>
       <c r="AI98" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"90":"90",</v>
       </c>
       <c r="AJ98" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>90. Спирали,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>90. Спектрум,1,255,1,100,0;</v>
       </c>
       <c r="AK98" s="49"/>
       <c r="AL98" s="49"/>
@@ -14638,14 +14609,14 @@
     </row>
     <row r="99" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A99" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>91</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D99" s="23"/>
       <c r="E99" s="24"/>
@@ -14655,16 +14626,16 @@
         <v>15</v>
       </c>
       <c r="I99" s="4">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="J99" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K99" s="63"/>
       <c r="L99" s="4">
         <v>1</v>
       </c>
-      <c r="M99" s="4">
+      <c r="M99">
         <v>255</v>
       </c>
       <c r="N99" s="4">
@@ -14680,75 +14651,75 @@
         <v>81</v>
       </c>
       <c r="R99" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="S99">
         <v>2</v>
       </c>
       <c r="T99" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>91</v>
       </c>
       <c r="U99" s="63"/>
       <c r="V99" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_FLOCK               ( 91U)    // Стая</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_SPIRO               ( 91U)    // Спирали</v>
       </c>
       <c r="W99" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("91. Стая,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("91. Спирали,1,255,1,100,0;") +</v>
       </c>
       <c r="X99" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="62"/>
         <v>String("91. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y99" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="63"/>
         <v>String("91. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z99" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  15, 136,   4}, // Стая</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  15,  45,   3}, // Спирали</v>
       </c>
       <c r="AA99" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_FLOCK:               LOW_DELAY_TICK { effTimer = millis(); flockRoutine(false);          Eff_Tick (); }  break;  // ( 91U) Стая</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_SPIRO:               LOW_DELAY_TICK { effTimer = millis(); spiroRoutine();               Eff_Tick (); }  break;  // ( 91U) Спирали</v>
       </c>
       <c r="AB99" s="4" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v>{"name":"91. Стая","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ref="AB99:AB100" ca="1" si="76">CONCATENATE("{""name"":""",A99,". ",C99,""",""spmin"":",L99,",""spmax"":",M99,",""scmin"":",N99,",""scmax"":",O99,",""type"":",P99,"},")</f>
+        <v>{"name":"91. Спирали","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC99" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e91":0,</v>
       </c>
       <c r="AD99" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e91=[[e91]]&amp;</v>
       </c>
       <c r="AE99" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e91":2,</v>
       </c>
       <c r="AF99" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e91","title":"91. Стая","style":"font-size:20px;display:block","state":"{{e91}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e91","title":"91. Спирали","style":"font-size:20px;display:block","state":"{{e91}}"},</v>
       </c>
       <c r="AG99" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"91. Стая","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e91","state":"{{e91}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"91. Спирали","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e91","state":"{{e91}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH99" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"91": "91.Стая",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"91": "91.Спирали",</v>
       </c>
       <c r="AI99" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"91":"91",</v>
       </c>
       <c r="AJ99" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>91. Стая,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>91. Спирали,1,255,1,100,0;</v>
       </c>
       <c r="AK99" s="49"/>
       <c r="AL99" s="49"/>
@@ -14773,14 +14744,14 @@
     </row>
     <row r="100" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A100" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>92</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D100" s="23"/>
       <c r="E100" s="24"/>
@@ -14790,16 +14761,16 @@
         <v>15</v>
       </c>
       <c r="I100" s="4">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="J100" s="4">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="K100" s="63"/>
       <c r="L100" s="4">
         <v>1</v>
       </c>
-      <c r="M100">
+      <c r="M100" s="4">
         <v>255</v>
       </c>
       <c r="N100" s="4">
@@ -14815,71 +14786,75 @@
         <v>81</v>
       </c>
       <c r="R100" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="S100">
         <v>2</v>
       </c>
       <c r="T100" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>92</v>
       </c>
       <c r="U100" s="63"/>
       <c r="V100" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_FLOCK_N_PR          ( 92U)    // Стая и хищник</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_FLOCK               ( 92U)    // Стая</v>
       </c>
       <c r="W100" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("92. Стая и хищник,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("92. Стая,1,255,1,100,0;") +</v>
       </c>
       <c r="X100" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="62"/>
         <v>String("92. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y100" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="63"/>
         <v>String("92. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z100" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  15, 128,  80}, // Стая и хищник</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  15, 136,   4}, // Стая</v>
       </c>
       <c r="AA100" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_FLOCK_N_PR:          LOW_DELAY_TICK { effTimer = millis(); flockRoutine(true);           Eff_Tick (); }  break;  // ( 92U) Стая и хищник</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_FLOCK:               LOW_DELAY_TICK { effTimer = millis(); flockRoutine(false);          Eff_Tick (); }  break;  // ( 92U) Стая</v>
+      </c>
+      <c r="AB100" s="4" t="str">
+        <f t="shared" ca="1" si="76"/>
+        <v>{"name":"92. Стая","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC100" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e92":0,</v>
       </c>
       <c r="AD100" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e92=[[e92]]&amp;</v>
       </c>
       <c r="AE100" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e92":2,</v>
       </c>
       <c r="AF100" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e92","title":"92. Стая и хищник","style":"font-size:20px;display:block","state":"{{e92}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e92","title":"92. Стая","style":"font-size:20px;display:block","state":"{{e92}}"},</v>
       </c>
       <c r="AG100" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"92. Стая и хищник","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e92","state":"{{e92}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"92. Стая","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e92","state":"{{e92}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH100" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"92": "92.Стая и хищник",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"92": "92.Стая",</v>
       </c>
       <c r="AI100" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"92":"92",</v>
       </c>
       <c r="AJ100" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>92. Стая и хищник,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>92. Стая,1,255,1,100,0;</v>
       </c>
       <c r="AK100" s="49"/>
       <c r="AL100" s="49"/>
@@ -14904,27 +14879,27 @@
     </row>
     <row r="101" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A101" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>93</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D101" s="23"/>
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
       <c r="H101" s="4">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="I101" s="4">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="J101" s="4">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K101" s="63"/>
       <c r="L101" s="4">
@@ -14943,78 +14918,74 @@
         <v>0</v>
       </c>
       <c r="Q101" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R101" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="S101">
         <v>2</v>
       </c>
       <c r="T101" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>93</v>
       </c>
       <c r="U101" s="63"/>
       <c r="V101" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_ARROWS              ( 93U)    // Стрелки</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_FLOCK_N_PR          ( 93U)    // Стая и хищник</v>
       </c>
       <c r="W101" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("93. Стрелки,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("93. Стая и хищник,1,255,1,100,0;") +</v>
       </c>
       <c r="X101" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="62"/>
         <v>String("93. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y101" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="63"/>
         <v>String("93. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z101" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  75, 165,  40}, // Стрелки</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  15, 128,  80}, // Стая и хищник</v>
       </c>
       <c r="AA101" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_ARROWS:              DYNAMIC_DELAY_TICK { effTimer = millis(); arrowsRoutine();              Eff_Tick (); }  break;  // ( 93U) Стрелки</v>
-      </c>
-      <c r="AB101" s="4" t="str">
-        <f t="shared" ref="AB101:AB106" ca="1" si="61">CONCATENATE("{""name"":""",A101,". ",C101,""",""spmin"":",L101,",""spmax"":",M101,",""scmin"":",N101,",""scmax"":",O101,",""type"":",P101,"},")</f>
-        <v>{"name":"93. Стрелки","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_FLOCK_N_PR:          LOW_DELAY_TICK { effTimer = millis(); flockRoutine(true);           Eff_Tick (); }  break;  // ( 93U) Стая и хищник</v>
       </c>
       <c r="AC101" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e93":0,</v>
       </c>
       <c r="AD101" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e93=[[e93]]&amp;</v>
       </c>
       <c r="AE101" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e93":2,</v>
       </c>
       <c r="AF101" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e93","title":"93. Стрелки","style":"font-size:20px;display:block","state":"{{e93}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e93","title":"93. Стая и хищник","style":"font-size:20px;display:block","state":"{{e93}}"},</v>
       </c>
       <c r="AG101" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"93. Стрелки","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e93","state":"{{e93}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"93. Стая и хищник","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e93","state":"{{e93}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH101" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"93": "93.Стрелки",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"93": "93.Стая и хищник",</v>
       </c>
       <c r="AI101" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"93":"93",</v>
       </c>
       <c r="AJ101" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>93. Стрелки,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>93. Стая и хищник,1,255,1,100,0;</v>
       </c>
       <c r="AK101" s="49"/>
       <c r="AL101" s="49"/>
@@ -15039,27 +15010,27 @@
     </row>
     <row r="102" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A102" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>94</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D102" s="23"/>
       <c r="E102" s="24"/>
       <c r="F102" s="24"/>
       <c r="G102" s="24"/>
       <c r="H102" s="4">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I102" s="4">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="J102" s="4">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K102" s="63"/>
       <c r="L102" s="4">
@@ -15078,78 +15049,78 @@
         <v>0</v>
       </c>
       <c r="Q102" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="R102" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="S102">
         <v>2</v>
       </c>
       <c r="T102" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>94</v>
       </c>
       <c r="U102" s="63"/>
       <c r="V102" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_STROBE              ( 94U)    // Строб.Хаос.Дифузия</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_ARROWS              ( 94U)    // Стрелки</v>
       </c>
       <c r="W102" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("94. Строб.Хаос.Дифузия,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("94. Стрелки,1,255,1,100,0;") +</v>
       </c>
       <c r="X102" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="62"/>
         <v>String("94. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y102" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="63"/>
         <v>String("94. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z102" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  25,   1,  55}, // Строб.Хаос.Дифузия</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  75, 165,  40}, // Стрелки</v>
       </c>
       <c r="AA102" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_STROBE:              LOW_DELAY_TICK { effTimer = millis(); StrobeAndDiffusion();         Eff_Tick (); }  break;  // ( 94U) Строб.Хаос.Дифузия</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_ARROWS:              DYNAMIC_DELAY_TICK { effTimer = millis(); arrowsRoutine();              Eff_Tick (); }  break;  // ( 94U) Стрелки</v>
       </c>
       <c r="AB102" s="4" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v>{"name":"94. Строб.Хаос.Дифузия","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ref="AB102:AB107" ca="1" si="77">CONCATENATE("{""name"":""",A102,". ",C102,""",""spmin"":",L102,",""spmax"":",M102,",""scmin"":",N102,",""scmax"":",O102,",""type"":",P102,"},")</f>
+        <v>{"name":"94. Стрелки","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC102" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e94":0,</v>
       </c>
       <c r="AD102" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e94=[[e94]]&amp;</v>
       </c>
       <c r="AE102" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e94":2,</v>
       </c>
       <c r="AF102" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e94","title":"94. Строб.Хаос.Дифузия","style":"font-size:20px;display:block","state":"{{e94}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e94","title":"94. Стрелки","style":"font-size:20px;display:block","state":"{{e94}}"},</v>
       </c>
       <c r="AG102" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"94. Строб.Хаос.Дифузия","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e94","state":"{{e94}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"94. Стрелки","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e94","state":"{{e94}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH102" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"94": "94.Строб.Хаос.Дифузия",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"94": "94.Стрелки",</v>
       </c>
       <c r="AI102" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"94":"94",</v>
       </c>
       <c r="AJ102" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>94. Строб.Хаос.Дифузия,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>94. Стрелки,1,255,1,100,0;</v>
       </c>
       <c r="AK102" s="49"/>
       <c r="AL102" s="49"/>
@@ -15174,27 +15145,27 @@
     </row>
     <row r="103" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A103" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>95</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D103" s="23"/>
       <c r="E103" s="24"/>
       <c r="F103" s="24"/>
       <c r="G103" s="24"/>
       <c r="H103" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I103" s="4">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="J103" s="4">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="K103" s="63"/>
       <c r="L103" s="4">
@@ -15216,75 +15187,75 @@
         <v>81</v>
       </c>
       <c r="R103" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="S103">
         <v>2</v>
       </c>
       <c r="T103" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>95</v>
       </c>
       <c r="U103" s="63"/>
       <c r="V103" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_SHADOWS             ( 95U)    // Тени</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_STROBE              ( 95U)    // Строб.Хаос.Дифузия</v>
       </c>
       <c r="W103" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("95. Тени,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("95. Строб.Хаос.Дифузия,1,255,1,100,0;") +</v>
       </c>
       <c r="X103" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="62"/>
         <v>String("95. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y103" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="63"/>
         <v>String("95. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z103" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  50, 160,   1}, // Тени</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  25,   1,  55}, // Строб.Хаос.Дифузия</v>
       </c>
       <c r="AA103" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_SHADOWS:             LOW_DELAY_TICK { effTimer = millis(); shadowsRoutine();             Eff_Tick (); }  break;  // ( 95U) Тени</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_STROBE:              LOW_DELAY_TICK { effTimer = millis(); StrobeAndDiffusion();         Eff_Tick (); }  break;  // ( 95U) Строб.Хаос.Дифузия</v>
       </c>
       <c r="AB103" s="4" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v>{"name":"95. Тени","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>{"name":"95. Строб.Хаос.Дифузия","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC103" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e95":0,</v>
       </c>
       <c r="AD103" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e95=[[e95]]&amp;</v>
       </c>
       <c r="AE103" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e95":2,</v>
       </c>
       <c r="AF103" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e95","title":"95. Тени","style":"font-size:20px;display:block","state":"{{e95}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e95","title":"95. Строб.Хаос.Дифузия","style":"font-size:20px;display:block","state":"{{e95}}"},</v>
       </c>
       <c r="AG103" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"95. Тени","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e95","state":"{{e95}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"95. Строб.Хаос.Дифузия","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e95","state":"{{e95}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH103" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"95": "95.Тени",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"95": "95.Строб.Хаос.Дифузия",</v>
       </c>
       <c r="AI103" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"95":"95",</v>
       </c>
       <c r="AJ103" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>95. Тени,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>95. Строб.Хаос.Дифузия,1,255,1,100,0;</v>
       </c>
       <c r="AK103" s="49"/>
       <c r="AL103" s="49"/>
@@ -15309,27 +15280,27 @@
     </row>
     <row r="104" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A104" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>96</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D104" s="23"/>
       <c r="E104" s="24"/>
       <c r="F104" s="24"/>
       <c r="G104" s="24"/>
       <c r="H104" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I104" s="4">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="J104" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K104" s="63"/>
       <c r="L104" s="4">
@@ -15339,87 +15310,87 @@
         <v>255</v>
       </c>
       <c r="N104" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O104">
         <v>100</v>
       </c>
       <c r="P104" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104" t="s">
         <v>81</v>
       </c>
       <c r="R104" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="S104">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T104" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>96</v>
       </c>
       <c r="U104" s="63"/>
       <c r="V104" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_PACIFIC             ( 96U)    // Тихий океан</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_SHADOWS             ( 96U)    // Тени</v>
       </c>
       <c r="W104" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("96. Тихий океан,1,255,100,100,1;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("96. Тени,1,255,1,100,0;") +</v>
       </c>
       <c r="X104" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("96. ,1,255,100,100,1;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("96. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y104" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("96. ,1,255,100,100,1;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("96. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z104" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  20, 127, 100}, // Тихий океан</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  50, 160,   1}, // Тени</v>
       </c>
       <c r="AA104" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_PACIFIC:             LOW_DELAY_TICK { effTimer = millis(); pacificRoutine();             Eff_Tick (); }  break;  // ( 96U) Тихий океан</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_SHADOWS:             LOW_DELAY_TICK { effTimer = millis(); shadowsRoutine();             Eff_Tick (); }  break;  // ( 96U) Тени</v>
       </c>
       <c r="AB104" s="4" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v>{"name":"96. Тихий океан","spmin":1,"spmax":255,"scmin":100,"scmax":100,"type":1},</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>{"name":"96. Тени","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC104" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e96":0,</v>
       </c>
       <c r="AD104" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e96=[[e96]]&amp;</v>
       </c>
       <c r="AE104" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v>"e96":5,</v>
+        <f t="shared" ca="1" si="68"/>
+        <v>"e96":2,</v>
       </c>
       <c r="AF104" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e96","title":"96. Тихий океан","style":"font-size:20px;display:block","state":"{{e96}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e96","title":"96. Тени","style":"font-size:20px;display:block","state":"{{e96}}"},</v>
       </c>
       <c r="AG104" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"96. Тихий океан","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e96","state":"{{e96}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"96. Тени","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e96","state":"{{e96}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH104" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"96": "96.Тихий океан",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"96": "96.Тени",</v>
       </c>
       <c r="AI104" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"96":"96",</v>
       </c>
       <c r="AJ104" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>96. Тихий океан,1,255,100,100,1;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>96. Тени,1,255,1,100,0;</v>
       </c>
       <c r="AK104" s="49"/>
       <c r="AL104" s="49"/>
@@ -15444,117 +15415,117 @@
     </row>
     <row r="105" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A105" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>97</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D105" s="23"/>
       <c r="E105" s="24"/>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
       <c r="H105" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I105" s="4">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="J105" s="4">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="K105" s="63"/>
       <c r="L105" s="4">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="M105">
         <v>255</v>
       </c>
       <c r="N105" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O105">
         <v>100</v>
       </c>
       <c r="P105" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R105" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="S105">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T105" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>97</v>
       </c>
       <c r="U105" s="63"/>
       <c r="V105" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_SIMPLE_RAIN         ( 97U)    // Tyчкa в банке</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_PACIFIC             ( 97U)    // Тихий океан</v>
       </c>
       <c r="W105" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("97. Tyчкa в банке,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("97. Тихий океан,1,255,100,100,1;") +</v>
       </c>
       <c r="X105" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("97. ,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("97. ,1,255,100,100,1;") +</v>
       </c>
       <c r="Y105" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("97. ,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("97. ,1,255,100,100,1;") +</v>
       </c>
       <c r="Z105" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  50, 210,   2}, // Tyчкa в банке</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  20, 127, 100}, // Тихий океан</v>
       </c>
       <c r="AA105" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_SIMPLE_RAIN:         DYNAMIC_DELAY_TICK { effTimer = millis(); simpleRain();                 Eff_Tick (); }  break;  // ( 97U) Tyчкa в банке</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_PACIFIC:             LOW_DELAY_TICK { effTimer = millis(); pacificRoutine();             Eff_Tick (); }  break;  // ( 97U) Тихий океан</v>
       </c>
       <c r="AB105" s="4" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v>{"name":"97. Tyчкa в банке","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>{"name":"97. Тихий океан","spmin":1,"spmax":255,"scmin":100,"scmax":100,"type":1},</v>
       </c>
       <c r="AC105" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e97":0,</v>
       </c>
       <c r="AD105" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e97=[[e97]]&amp;</v>
       </c>
       <c r="AE105" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v>"e97":4,</v>
+        <f t="shared" ca="1" si="68"/>
+        <v>"e97":5,</v>
       </c>
       <c r="AF105" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e97","title":"97. Tyчкa в банке","style":"font-size:20px;display:block","state":"{{e97}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e97","title":"97. Тихий океан","style":"font-size:20px;display:block","state":"{{e97}}"},</v>
       </c>
       <c r="AG105" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"97. Tyчкa в банке","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e97","state":"{{e97}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"97. Тихий океан","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e97","state":"{{e97}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH105" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"97": "97.Tyчкa в банке",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"97": "97.Тихий океан",</v>
       </c>
       <c r="AI105" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"97":"97",</v>
       </c>
       <c r="AJ105" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>97. Tyчкa в банке,99,255,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>97. Тихий океан,1,255,100,100,1;</v>
       </c>
       <c r="AK105" s="49"/>
       <c r="AL105" s="49"/>
@@ -15579,117 +15550,117 @@
     </row>
     <row r="106" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A106" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>98</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D106" s="23"/>
       <c r="E106" s="24"/>
       <c r="F106" s="24"/>
       <c r="G106" s="24"/>
       <c r="H106" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I106" s="4">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="J106" s="4">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="K106" s="63"/>
       <c r="L106" s="4">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="M106">
         <v>255</v>
       </c>
       <c r="N106" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O106">
         <v>100</v>
       </c>
       <c r="P106" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106" t="s">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="R106" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T106" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>98</v>
       </c>
       <c r="U106" s="63"/>
       <c r="V106" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_FIREWORK            ( 98U)    // Фейерверк</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_SIMPLE_RAIN         ( 98U)    // Tyчкa в банке</v>
       </c>
       <c r="W106" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("98. Фейерверк,10,255,10,100,1;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("98. Tyчкa в банке,99,255,1,100,0;") +</v>
       </c>
       <c r="X106" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("98. ,10,255,10,100,1;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("98. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Y106" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("98. ,10,255,10,100,1;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("98. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Z106" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  25, 180,  70}, // Фейерверк</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  50, 210,   2}, // Tyчкa в банке</v>
       </c>
       <c r="AA106" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_FIREWORK:            SOFT_DELAY_TICK { effTimer = millis(); Firework();                   Eff_Tick (); }  break;  // ( 98U) Фейерверк</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_SIMPLE_RAIN:         DYNAMIC_DELAY_TICK { effTimer = millis(); simpleRain();                 Eff_Tick (); }  break;  // ( 98U) Tyчкa в банке</v>
       </c>
       <c r="AB106" s="4" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v>{"name":"98. Фейерверк","spmin":10,"spmax":255,"scmin":10,"scmax":100,"type":1},</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>{"name":"98. Tyчкa в банке","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC106" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e98":0,</v>
       </c>
       <c r="AD106" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e98=[[e98]]&amp;</v>
       </c>
       <c r="AE106" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v>"e98":2,</v>
+        <f t="shared" ca="1" si="68"/>
+        <v>"e98":4,</v>
       </c>
       <c r="AF106" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e98","title":"98. Фейерверк","style":"font-size:20px;display:block","state":"{{e98}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e98","title":"98. Tyчкa в банке","style":"font-size:20px;display:block","state":"{{e98}}"},</v>
       </c>
       <c r="AG106" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"98. Фейерверк","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e98","state":"{{e98}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"98. Tyчкa в банке","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e98","state":"{{e98}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH106" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"98": "98.Фейерверк",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"98": "98.Tyчкa в банке",</v>
       </c>
       <c r="AI106" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"98":"98",</v>
       </c>
       <c r="AJ106" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>98. Фейерверк,10,255,10,100,1;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>98. Tyчкa в банке,99,255,1,100,0;</v>
       </c>
       <c r="AK106" s="49"/>
       <c r="AL106" s="49"/>
@@ -15713,129 +15684,129 @@
       <c r="BD106" s="27"/>
     </row>
     <row r="107" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A107" s="34">
-        <f t="shared" ca="1" si="42"/>
+      <c r="A107" s="4">
+        <f t="shared" ca="1" si="58"/>
         <v>99</v>
       </c>
-      <c r="B107" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="C107" s="35" t="s">
-        <v>349</v>
+      <c r="B107" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="D107" s="23"/>
       <c r="E107" s="24"/>
       <c r="F107" s="24"/>
       <c r="G107" s="24"/>
-      <c r="H107" s="34">
-        <v>15</v>
+      <c r="H107" s="4">
+        <v>25</v>
       </c>
       <c r="I107" s="4">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="J107" s="4">
-        <v>75</v>
-      </c>
-      <c r="K107" s="65"/>
+        <v>70</v>
+      </c>
+      <c r="K107" s="63"/>
       <c r="L107" s="4">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="M107">
         <v>255</v>
       </c>
       <c r="N107" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O107">
         <v>100</v>
       </c>
       <c r="P107" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="R107" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="S107">
         <v>2</v>
       </c>
-      <c r="T107" s="34">
-        <f t="shared" ca="1" si="43"/>
+      <c r="T107" s="4">
+        <f t="shared" ca="1" si="59"/>
         <v>99</v>
       </c>
-      <c r="U107" s="65"/>
-      <c r="V107" s="35" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_FIREWORK_2          ( 99U)    // Фейерверк 2</v>
-      </c>
-      <c r="W107" s="35" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("99. Фейерверк 2,200,255,1,100,0;") +</v>
-      </c>
-      <c r="X107" s="35" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("99. ,200,255,1,100,0;") +</v>
-      </c>
-      <c r="Y107" s="35" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("99. ,200,255,1,100,0;") +</v>
+      <c r="U107" s="63"/>
+      <c r="V107" s="4" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_FIREWORK            ( 99U)    // Фейерверк</v>
+      </c>
+      <c r="W107" s="4" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v>String("99. Фейерверк,10,255,10,100,1;") +</v>
+      </c>
+      <c r="X107" s="4" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v>String("99. ,10,255,10,100,1;") +</v>
+      </c>
+      <c r="Y107" s="4" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v>String("99. ,10,255,10,100,1;") +</v>
       </c>
       <c r="Z107" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  15, 240,  75}, // Фейерверк 2</v>
-      </c>
-      <c r="AA107" s="35" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_FIREWORK_2:          DYNAMIC_DELAY_TICK { effTimer = millis(); fireworksRoutine();           Eff_Tick (); }  break;  // ( 99U) Фейерверк 2</v>
-      </c>
-      <c r="AB107" s="35" t="str">
-        <f t="shared" ref="AB107" ca="1" si="62">CONCATENATE("{""name"":""",A107,". ",C107,""",""spmin"":",L107,",""spmax"":",M107,",""scmin"":",N107,",""scmax"":",O107,",""type"":",P107,"}")</f>
-        <v>{"name":"99. Фейерверк 2","spmin":200,"spmax":255,"scmin":1,"scmax":100,"type":0}</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  25, 180,  70}, // Фейерверк</v>
+      </c>
+      <c r="AA107" s="4" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_FIREWORK:            SOFT_DELAY_TICK { effTimer = millis(); Firework();                   Eff_Tick (); }  break;  // ( 99U) Фейерверк</v>
+      </c>
+      <c r="AB107" s="4" t="str">
+        <f t="shared" ca="1" si="77"/>
+        <v>{"name":"99. Фейерверк","spmin":10,"spmax":255,"scmin":10,"scmax":100,"type":1},</v>
       </c>
       <c r="AC107" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e99":0,</v>
       </c>
       <c r="AD107" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e99=[[e99]]&amp;</v>
       </c>
       <c r="AE107" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e99":2,</v>
       </c>
-      <c r="AF107" s="35" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e99","title":"99. Фейерверк 2","style":"font-size:20px;display:block","state":"{{e99}}"},</v>
-      </c>
-      <c r="AG107" s="35" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"99. Фейерверк 2","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e99","state":"{{e99}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+      <c r="AF107" s="4" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e99","title":"99. Фейерверк","style":"font-size:20px;display:block","state":"{{e99}}"},</v>
+      </c>
+      <c r="AG107" s="4" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"99. Фейерверк","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e99","state":"{{e99}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH107" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"99": "99.Фейерверк 2",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"99": "99.Фейерверк",</v>
       </c>
       <c r="AI107" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"99":"99",</v>
       </c>
-      <c r="AJ107" s="35" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>99. Фейерверк 2,200,255,1,100,0;</v>
-      </c>
-      <c r="AK107" s="56"/>
-      <c r="AL107" s="56"/>
+      <c r="AJ107" s="4" t="str">
+        <f t="shared" ca="1" si="73"/>
+        <v>99. Фейерверк,10,255,10,100,1;</v>
+      </c>
+      <c r="AK107" s="49"/>
+      <c r="AL107" s="49"/>
       <c r="AM107" s="49"/>
       <c r="AN107" s="50"/>
-      <c r="AO107" s="56"/>
-      <c r="AP107" s="56"/>
-      <c r="AQ107" s="56"/>
+      <c r="AO107" s="49"/>
+      <c r="AP107" s="49"/>
+      <c r="AQ107" s="49"/>
       <c r="AR107" s="49"/>
       <c r="AS107" s="51"/>
-      <c r="AT107" s="56"/>
+      <c r="AT107" s="49"/>
       <c r="AU107" s="49"/>
       <c r="AV107" s="52"/>
       <c r="AW107" s="52"/>
@@ -15848,32 +15819,32 @@
       <c r="BD107" s="27"/>
     </row>
     <row r="108" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A108" s="4">
-        <f t="shared" ca="1" si="42"/>
+      <c r="A108" s="34">
+        <f t="shared" ca="1" si="58"/>
         <v>100</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>352</v>
+      <c r="B108" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="C108" s="35" t="s">
+        <v>349</v>
       </c>
       <c r="D108" s="23"/>
       <c r="E108" s="24"/>
       <c r="F108" s="24"/>
       <c r="G108" s="24"/>
-      <c r="H108" s="4">
-        <v>20</v>
+      <c r="H108" s="34">
+        <v>15</v>
       </c>
       <c r="I108" s="4">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="J108" s="4">
-        <v>85</v>
-      </c>
-      <c r="K108" s="63"/>
+        <v>75</v>
+      </c>
+      <c r="K108" s="65"/>
       <c r="L108" s="4">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="M108">
         <v>255</v>
@@ -15891,86 +15862,86 @@
         <v>44</v>
       </c>
       <c r="R108" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S108">
         <v>2</v>
       </c>
-      <c r="T108" s="4">
-        <f t="shared" ca="1" si="43"/>
+      <c r="T108" s="34">
+        <f t="shared" ca="1" si="59"/>
         <v>100</v>
       </c>
-      <c r="U108" s="63"/>
-      <c r="V108" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_FAIRY               (100U)    // Фея</v>
-      </c>
-      <c r="W108" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("100. Фея,99,255,1,100,0;") +</v>
-      </c>
-      <c r="X108" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("100. ,99,255,1,100,0;") +</v>
-      </c>
-      <c r="Y108" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("100. ,99,255,1,100,0;") +</v>
+      <c r="U108" s="65"/>
+      <c r="V108" s="35" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_FIREWORK_2          (100U)    // Фейерверк 2</v>
+      </c>
+      <c r="W108" s="35" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v>String("100. Фейерверк 2,200,255,1,100,0;") +</v>
+      </c>
+      <c r="X108" s="35" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v>String("100. ,200,255,1,100,0;") +</v>
+      </c>
+      <c r="Y108" s="35" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v>String("100. ,200,255,1,100,0;") +</v>
       </c>
       <c r="Z108" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  20, 212,  85}, // Фея</v>
-      </c>
-      <c r="AA108" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_FAIRY:               DYNAMIC_DELAY_TICK { effTimer = millis(); fairyRoutine();               Eff_Tick (); }  break;  // (100U) Фея</v>
-      </c>
-      <c r="AB108" s="4" t="str">
-        <f t="shared" ref="AB108:AB116" ca="1" si="63">CONCATENATE("{""name"":""",A108,". ",C108,""",""spmin"":",L108,",""spmax"":",M108,",""scmin"":",N108,",""scmax"":",O108,",""type"":",P108,"},")</f>
-        <v>{"name":"100. Фея","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  15, 240,  75}, // Фейерверк 2</v>
+      </c>
+      <c r="AA108" s="35" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_FIREWORK_2:          DYNAMIC_DELAY_TICK { effTimer = millis(); fireworksRoutine();           Eff_Tick (); }  break;  // (100U) Фейерверк 2</v>
+      </c>
+      <c r="AB108" s="35" t="str">
+        <f t="shared" ref="AB108" ca="1" si="78">CONCATENATE("{""name"":""",A108,". ",C108,""",""spmin"":",L108,",""spmax"":",M108,",""scmin"":",N108,",""scmax"":",O108,",""type"":",P108,"}")</f>
+        <v>{"name":"100. Фейерверк 2","spmin":200,"spmax":255,"scmin":1,"scmax":100,"type":0}</v>
       </c>
       <c r="AC108" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e100":0,</v>
       </c>
       <c r="AD108" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e100=[[e100]]&amp;</v>
       </c>
       <c r="AE108" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e100":2,</v>
       </c>
-      <c r="AF108" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e100","title":"100. Фея","style":"font-size:20px;display:block","state":"{{e100}}"},</v>
-      </c>
-      <c r="AG108" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"100. Фея","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e100","state":"{{e100}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+      <c r="AF108" s="35" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e100","title":"100. Фейерверк 2","style":"font-size:20px;display:block","state":"{{e100}}"},</v>
+      </c>
+      <c r="AG108" s="35" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"100. Фейерверк 2","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e100","state":"{{e100}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH108" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"100": "100.Фея",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"100": "100.Фейерверк 2",</v>
       </c>
       <c r="AI108" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"100":"100",</v>
       </c>
-      <c r="AJ108" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>100. Фея,99,255,1,100,0;</v>
-      </c>
-      <c r="AK108" s="49"/>
-      <c r="AL108" s="49"/>
+      <c r="AJ108" s="35" t="str">
+        <f t="shared" ca="1" si="73"/>
+        <v>100. Фейерверк 2,200,255,1,100,0;</v>
+      </c>
+      <c r="AK108" s="56"/>
+      <c r="AL108" s="56"/>
       <c r="AM108" s="49"/>
       <c r="AN108" s="50"/>
-      <c r="AO108" s="49"/>
-      <c r="AP108" s="49"/>
-      <c r="AQ108" s="49"/>
+      <c r="AO108" s="56"/>
+      <c r="AP108" s="56"/>
+      <c r="AQ108" s="56"/>
       <c r="AR108" s="49"/>
       <c r="AS108" s="51"/>
-      <c r="AT108" s="49"/>
+      <c r="AT108" s="56"/>
       <c r="AU108" s="49"/>
       <c r="AV108" s="52"/>
       <c r="AW108" s="52"/>
@@ -15984,14 +15955,14 @@
     </row>
     <row r="109" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A109" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>101</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D109" s="23"/>
       <c r="E109" s="24"/>
@@ -16001,14 +15972,14 @@
         <v>20</v>
       </c>
       <c r="I109" s="4">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="J109" s="4">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K109" s="63"/>
       <c r="L109" s="4">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M109">
         <v>255</v>
@@ -16023,78 +15994,78 @@
         <v>0</v>
       </c>
       <c r="Q109" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="R109" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="S109">
         <v>2</v>
       </c>
       <c r="T109" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>101</v>
       </c>
       <c r="U109" s="63"/>
       <c r="V109" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_COLOR               (101U)    // Цвет</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_FAIRY               (101U)    // Фея</v>
       </c>
       <c r="W109" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("101. Цвет,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("101. Фея,99,255,1,100,0;") +</v>
       </c>
       <c r="X109" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("101. ,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("101. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Y109" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("101. ,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("101. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Z109" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  20, 240,  65}, // Цвет</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  20, 212,  85}, // Фея</v>
       </c>
       <c r="AA109" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_COLOR:               HIGH_DELAY_TICK { effTimer = millis(); colorRoutine();               Eff_Tick (); }  break;  // (101U) Цвет</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_FAIRY:               DYNAMIC_DELAY_TICK { effTimer = millis(); fairyRoutine();               Eff_Tick (); }  break;  // (101U) Фея</v>
       </c>
       <c r="AB109" s="4" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v>{"name":"101. Цвет","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ref="AB109:AB117" ca="1" si="79">CONCATENATE("{""name"":""",A109,". ",C109,""",""spmin"":",L109,",""spmax"":",M109,",""scmin"":",N109,",""scmax"":",O109,",""type"":",P109,"},")</f>
+        <v>{"name":"101. Фея","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC109" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e101":0,</v>
       </c>
       <c r="AD109" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e101=[[e101]]&amp;</v>
       </c>
       <c r="AE109" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e101":2,</v>
       </c>
       <c r="AF109" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e101","title":"101. Цвет","style":"font-size:20px;display:block","state":"{{e101}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e101","title":"101. Фея","style":"font-size:20px;display:block","state":"{{e101}}"},</v>
       </c>
       <c r="AG109" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"101. Цвет","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e101","state":"{{e101}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"101. Фея","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e101","state":"{{e101}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH109" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"101": "101.Цвет",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"101": "101.Фея",</v>
       </c>
       <c r="AI109" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"101":"101",</v>
       </c>
       <c r="AJ109" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>101. Цвет,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>101. Фея,99,255,1,100,0;</v>
       </c>
       <c r="AK109" s="49"/>
       <c r="AL109" s="49"/>
@@ -16119,31 +16090,31 @@
     </row>
     <row r="110" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A110" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>102</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D110" s="23"/>
       <c r="E110" s="24"/>
       <c r="F110" s="24"/>
       <c r="G110" s="24"/>
       <c r="H110" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I110" s="4">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="J110" s="4">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K110" s="63"/>
       <c r="L110" s="4">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="M110">
         <v>255</v>
@@ -16158,78 +16129,78 @@
         <v>0</v>
       </c>
       <c r="Q110" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R110" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="S110">
         <v>2</v>
       </c>
       <c r="T110" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>102</v>
       </c>
       <c r="U110" s="63"/>
       <c r="V110" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_EFF_SAND            (102U)    // Цветные драже</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_COLOR               (102U)    // Цвет</v>
       </c>
       <c r="W110" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("102. Цветные драже,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("102. Цвет,1,255,1,100,0;") +</v>
       </c>
       <c r="X110" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("102. ,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("102. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y110" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("102. ,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("102. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z110" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  15, 195,  80}, // Цветные драже</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  20, 240,  65}, // Цвет</v>
       </c>
       <c r="AA110" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_EFF_SAND:            DYNAMIC_DELAY_TICK { effTimer = millis(); sandRoutine();                Eff_Tick (); }  break;  // (102U) Цветные драже</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_COLOR:               HIGH_DELAY_TICK { effTimer = millis(); colorRoutine();               Eff_Tick (); }  break;  // (102U) Цвет</v>
       </c>
       <c r="AB110" s="4" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v>{"name":"102. Цветные драже","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>{"name":"102. Цвет","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC110" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e102":0,</v>
       </c>
       <c r="AD110" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e102=[[e102]]&amp;</v>
       </c>
       <c r="AE110" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e102":2,</v>
       </c>
       <c r="AF110" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e102","title":"102. Цветные драже","style":"font-size:20px;display:block","state":"{{e102}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e102","title":"102. Цвет","style":"font-size:20px;display:block","state":"{{e102}}"},</v>
       </c>
       <c r="AG110" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"102. Цветные драже","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e102","state":"{{e102}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"102. Цвет","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e102","state":"{{e102}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH110" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"102": "102.Цветные драже",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"102": "102.Цвет",</v>
       </c>
       <c r="AI110" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"102":"102",</v>
       </c>
       <c r="AJ110" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>102. Цветные драже,99,255,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>102. Цвет,1,255,1,100,0;</v>
       </c>
       <c r="AK110" s="49"/>
       <c r="AL110" s="49"/>
@@ -16254,117 +16225,117 @@
     </row>
     <row r="111" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A111" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>103</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D111" s="23"/>
       <c r="E111" s="24"/>
       <c r="F111" s="24"/>
       <c r="G111" s="24"/>
       <c r="H111" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I111" s="4">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="J111" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K111" s="63"/>
       <c r="L111" s="4">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="M111">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="N111" s="4">
-        <v>10</v>
-      </c>
-      <c r="O111" s="4">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>100</v>
       </c>
       <c r="P111" s="4">
         <v>0</v>
       </c>
       <c r="Q111" t="s">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="R111" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="S111">
         <v>2</v>
       </c>
       <c r="T111" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>103</v>
       </c>
       <c r="U111" s="63"/>
       <c r="V111" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_COLOR_FRIZZLES      (103U)    // Цветные кудри</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_EFF_SAND            (103U)    // Цветные драже</v>
       </c>
       <c r="W111" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("103. Цветные кудри,128,128,10,90,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("103. Цветные драже,99,255,1,100,0;") +</v>
       </c>
       <c r="X111" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("103. ,128,128,10,90,0;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("103. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Y111" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("103. ,128,128,10,90,0;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("103. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Z111" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  25, 128,  60}, // Цветные кудри</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  15, 195,  80}, // Цветные драже</v>
       </c>
       <c r="AA111" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_COLOR_FRIZZLES:      SOFT_DELAY_TICK { effTimer = millis(); ColorFrizzles();              Eff_Tick (); }  break;  // (103U) Цветные кудри</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_EFF_SAND:            DYNAMIC_DELAY_TICK { effTimer = millis(); sandRoutine();                Eff_Tick (); }  break;  // (103U) Цветные драже</v>
       </c>
       <c r="AB111" s="4" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v>{"name":"103. Цветные кудри","spmin":128,"spmax":128,"scmin":10,"scmax":90,"type":0},</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>{"name":"103. Цветные драже","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC111" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e103":0,</v>
       </c>
       <c r="AD111" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e103=[[e103]]&amp;</v>
       </c>
       <c r="AE111" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e103":2,</v>
       </c>
       <c r="AF111" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e103","title":"103. Цветные кудри","style":"font-size:20px;display:block","state":"{{e103}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e103","title":"103. Цветные драже","style":"font-size:20px;display:block","state":"{{e103}}"},</v>
       </c>
       <c r="AG111" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"103. Цветные кудри","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e103","state":"{{e103}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"103. Цветные драже","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e103","state":"{{e103}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH111" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"103": "103.Цветные кудри",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"103": "103.Цветные драже",</v>
       </c>
       <c r="AI111" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"103":"103",</v>
       </c>
       <c r="AJ111" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>103. Цветные кудри,128,128,10,90,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>103. Цветные драже,99,255,1,100,0;</v>
       </c>
       <c r="AK111" s="49"/>
       <c r="AL111" s="49"/>
@@ -16389,117 +16360,117 @@
     </row>
     <row r="112" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A112" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>104</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D112" s="23"/>
       <c r="E112" s="24"/>
       <c r="F112" s="24"/>
       <c r="G112" s="24"/>
       <c r="H112" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I112" s="4">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="J112" s="4">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K112" s="63"/>
       <c r="L112" s="4">
-        <v>50</v>
-      </c>
-      <c r="M112" s="4">
-        <v>255</v>
+        <v>128</v>
+      </c>
+      <c r="M112">
+        <v>128</v>
       </c>
       <c r="N112" s="4">
-        <v>1</v>
-      </c>
-      <c r="O112">
-        <v>100</v>
+        <v>10</v>
+      </c>
+      <c r="O112" s="4">
+        <v>90</v>
       </c>
       <c r="P112" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="R112" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="S112">
         <v>2</v>
       </c>
       <c r="T112" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>104</v>
       </c>
       <c r="U112" s="63"/>
       <c r="V112" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_EFF_LOTUS           (104U)    // Цветок лотоса</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_COLOR_FRIZZLES      (104U)    // Цветные кудри</v>
       </c>
       <c r="W112" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("104. Цветок лотоса,50,255,1,100,1;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("104. Цветные кудри,128,128,10,90,0;") +</v>
       </c>
       <c r="X112" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("104. ,50,255,1,100,1;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("104. ,128,128,10,90,0;") +</v>
       </c>
       <c r="Y112" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("104. ,50,255,1,100,1;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("104. ,128,128,10,90,0;") +</v>
       </c>
       <c r="Z112" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  15, 150,  45}, // Цветок лотоса</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  25, 128,  60}, // Цветные кудри</v>
       </c>
       <c r="AA112" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_EFF_LOTUS:           DYNAMIC_DELAY_TICK { effTimer = millis(); LotusFlower();                Eff_Tick (); }  break;  // (104U) Цветок лотоса</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_COLOR_FRIZZLES:      SOFT_DELAY_TICK { effTimer = millis(); ColorFrizzles();              Eff_Tick (); }  break;  // (104U) Цветные кудри</v>
       </c>
       <c r="AB112" s="4" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v>{"name":"104. Цветок лотоса","spmin":50,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>{"name":"104. Цветные кудри","spmin":128,"spmax":128,"scmin":10,"scmax":90,"type":0},</v>
       </c>
       <c r="AC112" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e104":0,</v>
       </c>
       <c r="AD112" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e104=[[e104]]&amp;</v>
       </c>
       <c r="AE112" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e104":2,</v>
       </c>
       <c r="AF112" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e104","title":"104. Цветок лотоса","style":"font-size:20px;display:block","state":"{{e104}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e104","title":"104. Цветные кудри","style":"font-size:20px;display:block","state":"{{e104}}"},</v>
       </c>
       <c r="AG112" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"104. Цветок лотоса","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e104","state":"{{e104}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"104. Цветные кудри","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e104","state":"{{e104}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH112" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"104": "104.Цветок лотоса",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"104": "104.Цветные кудри",</v>
       </c>
       <c r="AI112" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"104":"104",</v>
       </c>
       <c r="AJ112" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>104. Цветок лотоса,50,255,1,100,1;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>104. Цветные кудри,128,128,10,90,0;</v>
       </c>
       <c r="AK112" s="49"/>
       <c r="AL112" s="49"/>
@@ -16524,33 +16495,33 @@
     </row>
     <row r="113" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A113" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>105</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D113" s="23"/>
       <c r="E113" s="24"/>
       <c r="F113" s="24"/>
       <c r="G113" s="24"/>
       <c r="H113" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I113" s="4">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J113" s="4">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="K113" s="63"/>
       <c r="L113" s="4">
-        <v>1</v>
-      </c>
-      <c r="M113">
+        <v>50</v>
+      </c>
+      <c r="M113" s="4">
         <v>255</v>
       </c>
       <c r="N113" s="4">
@@ -16560,81 +16531,81 @@
         <v>100</v>
       </c>
       <c r="P113" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="R113" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="S113">
         <v>2</v>
       </c>
       <c r="T113" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>105</v>
       </c>
       <c r="U113" s="63"/>
       <c r="V113" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_SPHERES             (105U)    // Шapы</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_EFF_LOTUS           (105U)    // Цветок лотоса</v>
       </c>
       <c r="W113" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("105. Шapы,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("105. Цветок лотоса,50,255,1,100,1;") +</v>
       </c>
       <c r="X113" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("105. ,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("105. ,50,255,1,100,1;") +</v>
       </c>
       <c r="Y113" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("105. ,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("105. ,50,255,1,100,1;") +</v>
       </c>
       <c r="Z113" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  20,  50,   5}, // Шapы</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  15, 150,  45}, // Цветок лотоса</v>
       </c>
       <c r="AA113" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_SPHERES:             LOW_DELAY_TICK { effTimer = millis(); spheresRoutine();             Eff_Tick (); }  break;  // (105U) Шapы</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_EFF_LOTUS:           DYNAMIC_DELAY_TICK { effTimer = millis(); LotusFlower();                Eff_Tick (); }  break;  // (105U) Цветок лотоса</v>
       </c>
       <c r="AB113" s="4" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v>{"name":"105. Шapы","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>{"name":"105. Цветок лотоса","spmin":50,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
       </c>
       <c r="AC113" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e105":0,</v>
       </c>
       <c r="AD113" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e105=[[e105]]&amp;</v>
       </c>
       <c r="AE113" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e105":2,</v>
       </c>
       <c r="AF113" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e105","title":"105. Шapы","style":"font-size:20px;display:block","state":"{{e105}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e105","title":"105. Цветок лотоса","style":"font-size:20px;display:block","state":"{{e105}}"},</v>
       </c>
       <c r="AG113" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"105. Шapы","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e105","state":"{{e105}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"105. Цветок лотоса","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e105","state":"{{e105}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH113" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"105": "105.Шapы",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"105": "105.Цветок лотоса",</v>
       </c>
       <c r="AI113" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"105":"105",</v>
       </c>
       <c r="AJ113" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>105. Шapы,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>105. Цветок лотоса,50,255,1,100,1;</v>
       </c>
       <c r="AK113" s="49"/>
       <c r="AL113" s="49"/>
@@ -16659,27 +16630,27 @@
     </row>
     <row r="114" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A114" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>106</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D114" s="23"/>
       <c r="E114" s="24"/>
       <c r="F114" s="24"/>
       <c r="G114" s="24"/>
       <c r="H114" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I114" s="4">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="J114" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K114" s="63"/>
       <c r="L114" s="4">
@@ -16701,75 +16672,75 @@
         <v>81</v>
       </c>
       <c r="R114" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="S114">
         <v>2</v>
       </c>
       <c r="T114" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>106</v>
       </c>
       <c r="U114" s="63"/>
       <c r="V114" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_NEXUS               (106U)    // Nexus</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_SPHERES             (106U)    // Шapы</v>
       </c>
       <c r="W114" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("106. Nexus,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("106. Шapы,1,255,1,100,0;") +</v>
       </c>
       <c r="X114" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="62"/>
         <v>String("106. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y114" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="63"/>
         <v>String("106. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z114" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  25,  85,  20}, // Nexus</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  20,  50,   5}, // Шapы</v>
       </c>
       <c r="AA114" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_NEXUS:               LOW_DELAY_TICK { effTimer = millis(); nexusRoutine();               Eff_Tick (); }  break;  // (106U) Nexus</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_SPHERES:             LOW_DELAY_TICK { effTimer = millis(); spheresRoutine();             Eff_Tick (); }  break;  // (106U) Шapы</v>
       </c>
       <c r="AB114" s="4" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v>{"name":"106. Nexus","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>{"name":"106. Шapы","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC114" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e106":0,</v>
       </c>
       <c r="AD114" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e106=[[e106]]&amp;</v>
       </c>
       <c r="AE114" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="68"/>
         <v>"e106":2,</v>
       </c>
       <c r="AF114" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e106","title":"106. Nexus","style":"font-size:20px;display:block","state":"{{e106}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e106","title":"106. Шapы","style":"font-size:20px;display:block","state":"{{e106}}"},</v>
       </c>
       <c r="AG114" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"106. Nexus","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e106","state":"{{e106}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"106. Шapы","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e106","state":"{{e106}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH114" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"106": "106.Nexus",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"106": "106.Шapы",</v>
       </c>
       <c r="AI114" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"106":"106",</v>
       </c>
       <c r="AJ114" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>106. Nexus,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>106. Шapы,1,255,1,100,0;</v>
       </c>
       <c r="AK114" s="49"/>
       <c r="AL114" s="49"/>
@@ -16794,27 +16765,27 @@
     </row>
     <row r="115" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A115" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>107</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D115" s="23"/>
       <c r="E115" s="24"/>
       <c r="F115" s="24"/>
       <c r="G115" s="24"/>
       <c r="H115" s="4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I115" s="4">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="J115" s="4">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K115" s="63"/>
       <c r="L115" s="4">
@@ -16833,78 +16804,78 @@
         <v>0</v>
       </c>
       <c r="Q115" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R115" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="S115">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T115" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>107</v>
       </c>
       <c r="U115" s="63"/>
       <c r="V115" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_CLOCK               (107U)    // Часы</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_NEXUS               (107U)    // Nexus</v>
       </c>
       <c r="W115" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("107. Часы,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("107. Nexus,1,255,1,100,0;") +</v>
       </c>
       <c r="X115" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="62"/>
         <v>String("107. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y115" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="63"/>
         <v>String("107. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z115" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  {  30, 214,  80}, // Часы</v>
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  25,  85,  20}, // Nexus</v>
       </c>
       <c r="AA115" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_CLOCK:               DYNAMIC_DELAY_TICK { effTimer = millis(); clockRoutine();               Eff_Tick (); }  break;  // (107U) Часы</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_NEXUS:               LOW_DELAY_TICK { effTimer = millis(); nexusRoutine();               Eff_Tick (); }  break;  // (107U) Nexus</v>
       </c>
       <c r="AB115" s="4" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v>{"name":"107. Часы","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>{"name":"107. Nexus","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC115" s="7" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="66"/>
         <v>"e107":0,</v>
       </c>
       <c r="AD115" s="7" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="67"/>
         <v>e107=[[e107]]&amp;</v>
       </c>
       <c r="AE115" s="7" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v>"e107":11,</v>
+        <f t="shared" ca="1" si="68"/>
+        <v>"e107":2,</v>
       </c>
       <c r="AF115" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e107","title":"107. Часы","style":"font-size:20px;display:block","state":"{{e107}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e107","title":"107. Nexus","style":"font-size:20px;display:block","state":"{{e107}}"},</v>
       </c>
       <c r="AG115" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"107. Часы","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e107","state":"{{e107}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"107. Nexus","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e107","state":"{{e107}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH115" s="4" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>"107": "107.Часы",</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>"107": "107.Nexus",</v>
       </c>
       <c r="AI115" s="25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="72"/>
         <v>"107":"107",</v>
       </c>
       <c r="AJ115" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>107. Часы,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>107. Nexus,1,255,1,100,0;</v>
       </c>
       <c r="AK115" s="49"/>
       <c r="AL115" s="49"/>
@@ -16929,27 +16900,27 @@
     </row>
     <row r="116" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A116" s="4">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="58"/>
         <v>108</v>
       </c>
-      <c r="B116" s="35" t="s">
-        <v>375</v>
-      </c>
-      <c r="C116" s="35" t="s">
-        <v>376</v>
+      <c r="B116" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="D116" s="23"/>
       <c r="E116" s="24"/>
       <c r="F116" s="24"/>
       <c r="G116" s="24"/>
-      <c r="H116" s="35">
-        <v>15</v>
+      <c r="H116" s="4">
+        <v>30</v>
       </c>
       <c r="I116" s="4">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="J116" s="4">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K116" s="63"/>
       <c r="L116" s="4">
@@ -16965,91 +16936,91 @@
         <v>100</v>
       </c>
       <c r="P116" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116" t="s">
         <v>44</v>
       </c>
       <c r="R116" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="S116">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T116" s="4">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="59"/>
         <v>108</v>
       </c>
       <c r="U116" s="63"/>
       <c r="V116" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>#define EFF_TEXT                (108U)    // Бeгyщaя cтpoкa</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_CLOCK               (108U)    // Часы</v>
       </c>
       <c r="W116" s="4" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>String("108. Бeгyщaя cтpoкa,1,255,1,100,1;") +</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>String("108. Часы,1,255,1,100,0;") +</v>
       </c>
       <c r="X116" s="4" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>String("108. ,1,255,1,100,1;") +</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>String("108. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y116" s="4" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>String("108. ,1,255,1,100,1;") +</v>
-      </c>
-      <c r="Z116" s="35" t="str">
-        <f>CONCATENATE("  {",REPT(" ",4-LEN(H116)),H116,",",REPT(" ",4-LEN(I116)),I116,",",REPT(" ",4-LEN(J116)),J116,"} // ",C116)</f>
-        <v xml:space="preserve">  {  15, 195,  65} // Бeгyщaя cтpoкa</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>String("108. ,1,255,1,100,0;") +</v>
+      </c>
+      <c r="Z116" s="4" t="str">
+        <f t="shared" si="64"/>
+        <v xml:space="preserve">  {  30, 214,  80}, // Часы</v>
       </c>
       <c r="AA116" s="4" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v xml:space="preserve">        case EFF_TEXT:                DYNAMIC_DELAY_TICK { effTimer = millis(); text_running();               Eff_Tick (); }  break;  // (108U) Бeгyщaя cтpoкa</v>
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_CLOCK:               DYNAMIC_DELAY_TICK { effTimer = millis(); clockRoutine();               Eff_Tick (); }  break;  // (108U) Часы</v>
       </c>
       <c r="AB116" s="4" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v>{"name":"108. Бeгyщaя cтpoкa","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>{"name":"108. Часы","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC116" s="7" t="str">
-        <f ca="1">CONCATENATE("""","e",T116,"""",":0")</f>
-        <v>"e108":0</v>
+        <f t="shared" ca="1" si="66"/>
+        <v>"e108":0,</v>
       </c>
       <c r="AD116" s="7" t="str">
-        <f ca="1">CONCATENATE("e",T116,"=[[e",T116,"]]")</f>
-        <v>e108=[[e108]]</v>
+        <f t="shared" ca="1" si="67"/>
+        <v>e108=[[e108]]&amp;</v>
       </c>
       <c r="AE116" s="7" t="str">
-        <f ca="1">CONCATENATE("""","e",T116,"""",":",S116)</f>
-        <v>"e108":0</v>
+        <f t="shared" ca="1" si="68"/>
+        <v>"e108":11,</v>
       </c>
       <c r="AF116" s="4" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e108","title":"108. Бeгyщaя cтpoкa","style":"font-size:20px;display:block","state":"{{e108}}"},</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e108","title":"108. Часы","style":"font-size:20px;display:block","state":"{{e108}}"},</v>
       </c>
       <c r="AG116" s="4" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>{"type":"h4","title":"108. Бeгyщaя cтpoкa","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e108","state":"{{e108}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
-      </c>
-      <c r="AH116" s="35" t="str">
-        <f ca="1">CONCATENATE("""",A116,"""",": """,A116,".",C116,"""")</f>
-        <v>"108": "108.Бeгyщaя cтpoкa"</v>
-      </c>
-      <c r="AI116" s="36" t="str">
-        <f ca="1">CONCATENATE("""",A116,"""",":""",T116,"""")</f>
-        <v>"108":"108"</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"108. Часы","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e108","state":"{{e108}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+      </c>
+      <c r="AH116" s="4" t="str">
+        <f t="shared" ca="1" si="71"/>
+        <v>"108": "108.Часы",</v>
+      </c>
+      <c r="AI116" s="25" t="str">
+        <f t="shared" ca="1" si="72"/>
+        <v>"108":"108",</v>
       </c>
       <c r="AJ116" s="4" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>108. Бeгyщaя cтpoкa,1,255,1,100,1;</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>108. Часы,1,255,1,100,0;</v>
       </c>
       <c r="AK116" s="49"/>
       <c r="AL116" s="49"/>
-      <c r="AM116" s="56"/>
-      <c r="AN116" s="57"/>
+      <c r="AM116" s="49"/>
+      <c r="AN116" s="50"/>
       <c r="AO116" s="49"/>
       <c r="AP116" s="49"/>
       <c r="AQ116" s="49"/>
-      <c r="AR116" s="56"/>
-      <c r="AS116" s="58"/>
+      <c r="AR116" s="49"/>
+      <c r="AS116" s="51"/>
       <c r="AT116" s="49"/>
       <c r="AU116" s="49"/>
       <c r="AV116" s="52"/>
@@ -17062,148 +17033,251 @@
       <c r="BC116" s="52"/>
       <c r="BD116" s="27"/>
     </row>
-    <row r="117" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="D117" s="47"/>
-      <c r="E117" s="47"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="47"/>
-      <c r="K117" s="47"/>
-      <c r="U117" s="47"/>
-      <c r="AC117" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="AD117" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="AE117" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="AH117" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="AI117" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="AK117" s="47"/>
-      <c r="AL117" s="47"/>
-      <c r="AM117" s="47"/>
-      <c r="AN117" s="47"/>
-      <c r="AO117" s="47"/>
-      <c r="AP117" s="47"/>
-      <c r="AQ117" s="47"/>
-      <c r="AR117" s="47"/>
-      <c r="AS117" s="47"/>
-      <c r="AT117" s="47"/>
-      <c r="AU117" s="47"/>
-      <c r="AV117" s="47"/>
-      <c r="AW117" s="47"/>
-      <c r="AX117" s="47"/>
-      <c r="AY117" s="47"/>
-      <c r="AZ117" s="47"/>
-      <c r="BA117" s="47"/>
-      <c r="BB117" s="47"/>
-      <c r="BC117" s="47"/>
+    <row r="117" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A117" s="4">
+        <f t="shared" ca="1" si="58"/>
+        <v>109</v>
+      </c>
+      <c r="B117" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="C117" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="D117" s="23"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="35">
+        <v>15</v>
+      </c>
+      <c r="I117" s="4">
+        <v>195</v>
+      </c>
+      <c r="J117" s="4">
+        <v>65</v>
+      </c>
+      <c r="K117" s="63"/>
+      <c r="L117" s="4">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>255</v>
+      </c>
+      <c r="N117" s="4">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>100</v>
+      </c>
+      <c r="P117" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>44</v>
+      </c>
+      <c r="R117" t="s">
+        <v>377</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117" s="4">
+        <f t="shared" ca="1" si="59"/>
+        <v>109</v>
+      </c>
+      <c r="U117" s="63"/>
+      <c r="V117" s="4" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v>#define EFF_TEXT                (109U)    // Бeгyщaя cтpoкa</v>
+      </c>
+      <c r="W117" s="4" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v>String("109. Бeгyщaя cтpoкa,1,255,1,100,1;") +</v>
+      </c>
+      <c r="X117" s="4" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v>String("109. ,1,255,1,100,1;") +</v>
+      </c>
+      <c r="Y117" s="4" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v>String("109. ,1,255,1,100,1;") +</v>
+      </c>
+      <c r="Z117" s="35" t="str">
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H117)),H117,",",REPT(" ",4-LEN(I117)),I117,",",REPT(" ",4-LEN(J117)),J117,"} // ",C117)</f>
+        <v xml:space="preserve">  {  15, 195,  65} // Бeгyщaя cтpoкa</v>
+      </c>
+      <c r="AA117" s="4" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v xml:space="preserve">        case EFF_TEXT:                DYNAMIC_DELAY_TICK { effTimer = millis(); text_running();               Eff_Tick (); }  break;  // (109U) Бeгyщaя cтpoкa</v>
+      </c>
+      <c r="AB117" s="4" t="str">
+        <f t="shared" ca="1" si="79"/>
+        <v>{"name":"109. Бeгyщaя cтpoкa","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
+      </c>
+      <c r="AC117" s="7" t="str">
+        <f ca="1">CONCATENATE("""","e",T117,"""",":0")</f>
+        <v>"e109":0</v>
+      </c>
+      <c r="AD117" s="7" t="str">
+        <f ca="1">CONCATENATE("e",T117,"=[[e",T117,"]]")</f>
+        <v>e109=[[e109]]</v>
+      </c>
+      <c r="AE117" s="7" t="str">
+        <f ca="1">CONCATENATE("""","e",T117,"""",":",S117)</f>
+        <v>"e109":0</v>
+      </c>
+      <c r="AF117" s="4" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e109","title":"109. Бeгyщaя cтpoкa","style":"font-size:20px;display:block","state":"{{e109}}"},</v>
+      </c>
+      <c r="AG117" s="4" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v>{"type":"h4","title":"109. Бeгyщaя cтpoкa","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e109","state":"{{e109}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+      </c>
+      <c r="AH117" s="35" t="str">
+        <f ca="1">CONCATENATE("""",A117,"""",": """,A117,".",C117,"""")</f>
+        <v>"109": "109.Бeгyщaя cтpoкa"</v>
+      </c>
+      <c r="AI117" s="36" t="str">
+        <f ca="1">CONCATENATE("""",A117,"""",":""",T117,"""")</f>
+        <v>"109":"109"</v>
+      </c>
+      <c r="AJ117" s="4" t="str">
+        <f t="shared" ca="1" si="73"/>
+        <v>109. Бeгyщaя cтpoкa,1,255,1,100,1;</v>
+      </c>
+      <c r="AK117" s="49"/>
+      <c r="AL117" s="49"/>
+      <c r="AM117" s="56"/>
+      <c r="AN117" s="57"/>
+      <c r="AO117" s="49"/>
+      <c r="AP117" s="49"/>
+      <c r="AQ117" s="49"/>
+      <c r="AR117" s="56"/>
+      <c r="AS117" s="58"/>
+      <c r="AT117" s="49"/>
+      <c r="AU117" s="49"/>
+      <c r="AV117" s="52"/>
+      <c r="AW117" s="52"/>
+      <c r="AX117" s="52"/>
+      <c r="AY117" s="52"/>
+      <c r="AZ117" s="52"/>
+      <c r="BA117" s="52"/>
+      <c r="BB117" s="52"/>
+      <c r="BC117" s="52"/>
+      <c r="BD117" s="27"/>
     </row>
-    <row r="118" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A118" s="4">
-        <f ca="1">MAX(OFFSET(A118,-4,0,4,1))+1</f>
-        <v>109</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>378</v>
-      </c>
+    <row r="118" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D118" s="47"/>
       <c r="E118" s="47"/>
       <c r="F118" s="47"/>
       <c r="G118" s="47"/>
-      <c r="K118" s="54"/>
-      <c r="S118" s="5"/>
-      <c r="U118" s="54"/>
-      <c r="V118" s="4" t="str">
-        <f ca="1">CONCATENATE("#define MODE_AMOUNT           (",REPT(" ",3-LEN(A118)),A118,"U)          // количество режимов")</f>
-        <v>#define MODE_AMOUNT           (109U)          // количество режимов</v>
-      </c>
-      <c r="W118" s="4"/>
-      <c r="X118" s="4"/>
-      <c r="Y118" s="4"/>
-      <c r="AC118" s="7"/>
-      <c r="AD118" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AE118" s="7"/>
-      <c r="AI118" s="7"/>
-      <c r="AJ118" s="7"/>
+      <c r="K118" s="47"/>
+      <c r="U118" s="47"/>
+      <c r="AC118" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD118" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE118" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH118" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI118" s="40" t="s">
+        <v>384</v>
+      </c>
       <c r="AK118" s="47"/>
       <c r="AL118" s="47"/>
-      <c r="AM118" s="48"/>
-      <c r="AN118" s="50"/>
-      <c r="AO118" s="48"/>
+      <c r="AM118" s="47"/>
+      <c r="AN118" s="47"/>
+      <c r="AO118" s="47"/>
       <c r="AP118" s="47"/>
       <c r="AQ118" s="47"/>
-      <c r="AR118" s="48"/>
-      <c r="AS118" s="50"/>
-      <c r="AT118" s="48"/>
-      <c r="AU118" s="49"/>
-      <c r="AV118" s="59"/>
-      <c r="AW118" s="52"/>
-      <c r="AX118" s="48"/>
-      <c r="AY118" s="52"/>
-      <c r="AZ118" s="60"/>
-      <c r="BA118" s="52"/>
-      <c r="BB118" s="52"/>
-      <c r="BC118" s="52"/>
-      <c r="BD118" s="27"/>
+      <c r="AR118" s="47"/>
+      <c r="AS118" s="47"/>
+      <c r="AT118" s="47"/>
+      <c r="AU118" s="47"/>
+      <c r="AV118" s="47"/>
+      <c r="AW118" s="47"/>
+      <c r="AX118" s="47"/>
+      <c r="AY118" s="47"/>
+      <c r="AZ118" s="47"/>
+      <c r="BA118" s="47"/>
+      <c r="BB118" s="47"/>
+      <c r="BC118" s="47"/>
     </row>
-    <row r="119" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="119" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A119" s="4">
+        <f ca="1">MAX(OFFSET(A119,-4,0,4,1))+1</f>
+        <v>110</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>378</v>
+      </c>
       <c r="D119" s="47"/>
       <c r="E119" s="47"/>
       <c r="F119" s="47"/>
       <c r="G119" s="47"/>
-      <c r="K119" s="47"/>
-      <c r="U119" s="47"/>
+      <c r="K119" s="54"/>
+      <c r="S119" s="5"/>
+      <c r="U119" s="54"/>
+      <c r="V119" s="4" t="str">
+        <f ca="1">CONCATENATE("#define MODE_AMOUNT           (",REPT(" ",3-LEN(A119)),A119,"U)          // количество режимов")</f>
+        <v>#define MODE_AMOUNT           (110U)          // количество режимов</v>
+      </c>
+      <c r="W119" s="4"/>
+      <c r="X119" s="4"/>
+      <c r="Y119" s="4"/>
+      <c r="AC119" s="7"/>
+      <c r="AD119" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE119" s="7"/>
+      <c r="AI119" s="7"/>
+      <c r="AJ119" s="7"/>
+      <c r="AK119" s="47"/>
+      <c r="AL119" s="47"/>
+      <c r="AM119" s="48"/>
+      <c r="AN119" s="50"/>
+      <c r="AO119" s="48"/>
+      <c r="AP119" s="47"/>
+      <c r="AQ119" s="47"/>
+      <c r="AR119" s="48"/>
+      <c r="AS119" s="50"/>
+      <c r="AT119" s="48"/>
+      <c r="AU119" s="49"/>
+      <c r="AV119" s="59"/>
+      <c r="AW119" s="52"/>
+      <c r="AX119" s="48"/>
+      <c r="AY119" s="52"/>
+      <c r="AZ119" s="60"/>
+      <c r="BA119" s="52"/>
+      <c r="BB119" s="52"/>
+      <c r="BC119" s="52"/>
+      <c r="BD119" s="27"/>
     </row>
-    <row r="120" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
+    <row r="120" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D120" s="47"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47"/>
-      <c r="K120" s="49"/>
+      <c r="K120" s="47"/>
       <c r="U120" s="47"/>
-      <c r="AC120" s="7"/>
-      <c r="AD120" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="AE120" s="7"/>
-      <c r="AI120" s="7"/>
-      <c r="AJ120" s="7"/>
-      <c r="AM120" s="7"/>
-      <c r="AN120" s="26"/>
-      <c r="AO120" s="7"/>
-      <c r="AR120" s="7"/>
-      <c r="AS120" s="26"/>
-      <c r="AT120" s="7"/>
-      <c r="AU120" s="4"/>
-      <c r="AV120" s="37"/>
-      <c r="AW120" s="27"/>
-      <c r="AX120" s="7"/>
-      <c r="AY120" s="27"/>
-      <c r="AZ120" s="38"/>
-      <c r="BA120" s="27"/>
-      <c r="BB120" s="27"/>
-      <c r="BC120" s="27"/>
-      <c r="BD120" s="27"/>
     </row>
     <row r="121" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="D121" s="47"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47"/>
-      <c r="K121" s="54"/>
-      <c r="S121" s="5"/>
-      <c r="U121" s="54"/>
+      <c r="K121" s="49"/>
+      <c r="U121" s="47"/>
       <c r="AC121" s="7"/>
       <c r="AD121" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AE121" s="7"/>
       <c r="AI121" s="7"/>
@@ -17235,18 +17309,16 @@
       <c r="U122" s="54"/>
       <c r="AC122" s="7"/>
       <c r="AD122" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AE122" s="7"/>
       <c r="AI122" s="7"/>
       <c r="AJ122" s="7"/>
-      <c r="AL122" s="7"/>
       <c r="AM122" s="7"/>
-      <c r="AN122" s="7"/>
+      <c r="AN122" s="26"/>
       <c r="AO122" s="7"/>
-      <c r="AQ122" s="7"/>
       <c r="AR122" s="7"/>
-      <c r="AS122" s="7"/>
+      <c r="AS122" s="26"/>
       <c r="AT122" s="7"/>
       <c r="AU122" s="4"/>
       <c r="AV122" s="37"/>
@@ -17264,12 +17336,12 @@
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47"/>
-      <c r="K123" s="49"/>
+      <c r="K123" s="54"/>
       <c r="S123" s="5"/>
       <c r="U123" s="54"/>
       <c r="AC123" s="7"/>
       <c r="AD123" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AE123" s="7"/>
       <c r="AI123" s="7"/>
@@ -17293,6 +17365,40 @@
       <c r="BC123" s="27"/>
       <c r="BD123" s="27"/>
     </row>
+    <row r="124" spans="1:56" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="D124" s="47"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="47"/>
+      <c r="G124" s="47"/>
+      <c r="K124" s="49"/>
+      <c r="S124" s="5"/>
+      <c r="U124" s="54"/>
+      <c r="AC124" s="7"/>
+      <c r="AD124" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE124" s="7"/>
+      <c r="AI124" s="7"/>
+      <c r="AJ124" s="7"/>
+      <c r="AL124" s="7"/>
+      <c r="AM124" s="7"/>
+      <c r="AN124" s="7"/>
+      <c r="AO124" s="7"/>
+      <c r="AQ124" s="7"/>
+      <c r="AR124" s="7"/>
+      <c r="AS124" s="7"/>
+      <c r="AT124" s="7"/>
+      <c r="AU124" s="4"/>
+      <c r="AV124" s="37"/>
+      <c r="AW124" s="27"/>
+      <c r="AX124" s="7"/>
+      <c r="AY124" s="27"/>
+      <c r="AZ124" s="38"/>
+      <c r="BA124" s="27"/>
+      <c r="BB124" s="27"/>
+      <c r="BC124" s="27"/>
+      <c r="BD124" s="27"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/FieryLedLamp_New_WEB/Таблица эффектов.xlsx
+++ b/FieryLedLamp_New_WEB/Таблица эффектов.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08950C0A-3ADA-44BD-9E42-E73758FE2988}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07C3254-703F-4D83-B27D-ABB42821F4D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -971,9 +971,6 @@
   </si>
   <si>
     <t>Снегопад</t>
-  </si>
-  <si>
-    <t>snowRoutine();</t>
   </si>
   <si>
     <t>SPECTRUM</t>
@@ -1293,6 +1290,9 @@
   </si>
   <si>
     <t xml:space="preserve">PlanetEarth(); </t>
+  </si>
+  <si>
+    <t>Snowfall();</t>
   </si>
 </sst>
 </file>
@@ -1882,9 +1882,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U74" sqref="U74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG97" sqref="AG97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2048,7 +2048,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
@@ -11429,10 +11429,10 @@
         <v>68</v>
       </c>
       <c r="B74" t="s">
+        <v>386</v>
+      </c>
+      <c r="C74" s="35" t="s">
         <v>387</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>388</v>
       </c>
       <c r="D74" s="28"/>
       <c r="E74" s="28"/>
@@ -11467,7 +11467,7 @@
         <v>177</v>
       </c>
       <c r="R74" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S74" s="4">
         <v>2</v>
@@ -14385,7 +14385,7 @@
         <v>44</v>
       </c>
       <c r="R97" t="s">
-        <v>317</v>
+        <v>389</v>
       </c>
       <c r="S97">
         <v>6</v>
@@ -14417,7 +14417,7 @@
       </c>
       <c r="AA97" s="4" t="str">
         <f t="shared" ca="1" si="65"/>
-        <v xml:space="preserve">        case EFF_SNOW:                DYNAMIC_DELAY_TICK { effTimer = millis(); snowRoutine();                Eff_Tick (); }  break;  // ( 89U) Снегопад</v>
+        <v xml:space="preserve">        case EFF_SNOW:                DYNAMIC_DELAY_TICK { effTimer = millis(); Snowfall();                   Eff_Tick (); }  break;  // ( 89U) Снегопад</v>
       </c>
       <c r="AB97" s="4" t="str">
         <f t="shared" ca="1" si="75"/>
@@ -14482,10 +14482,10 @@
         <v>90</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="D98" s="23"/>
       <c r="E98" s="24"/>
@@ -14498,7 +14498,7 @@
         <v>175</v>
       </c>
       <c r="J98" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K98" s="63"/>
       <c r="L98" s="4">
@@ -14520,7 +14520,7 @@
         <v>44</v>
       </c>
       <c r="R98" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S98">
         <v>2</v>
@@ -14548,7 +14548,7 @@
       </c>
       <c r="Z98" s="4" t="str">
         <f t="shared" si="64"/>
-        <v xml:space="preserve">  {  25, 175,   1}, // Спектрум</v>
+        <v xml:space="preserve">  {  25, 175, 100}, // Спектрум</v>
       </c>
       <c r="AA98" s="4" t="str">
         <f t="shared" ca="1" si="65"/>
@@ -14613,10 +14613,10 @@
         <v>91</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="D99" s="23"/>
       <c r="E99" s="24"/>
@@ -14651,7 +14651,7 @@
         <v>81</v>
       </c>
       <c r="R99" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S99">
         <v>2</v>
@@ -14748,10 +14748,10 @@
         <v>92</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="D100" s="23"/>
       <c r="E100" s="24"/>
@@ -14786,7 +14786,7 @@
         <v>81</v>
       </c>
       <c r="R100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S100">
         <v>2</v>
@@ -14883,10 +14883,10 @@
         <v>93</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="D101" s="23"/>
       <c r="E101" s="24"/>
@@ -14921,7 +14921,7 @@
         <v>81</v>
       </c>
       <c r="R101" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S101">
         <v>2</v>
@@ -15014,10 +15014,10 @@
         <v>94</v>
       </c>
       <c r="B102" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>331</v>
       </c>
       <c r="D102" s="23"/>
       <c r="E102" s="24"/>
@@ -15052,7 +15052,7 @@
         <v>44</v>
       </c>
       <c r="R102" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S102">
         <v>2</v>
@@ -15149,10 +15149,10 @@
         <v>95</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="D103" s="23"/>
       <c r="E103" s="24"/>
@@ -15165,7 +15165,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="4">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K103" s="63"/>
       <c r="L103" s="4">
@@ -15187,7 +15187,7 @@
         <v>81</v>
       </c>
       <c r="R103" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S103">
         <v>2</v>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="Z103" s="4" t="str">
         <f t="shared" si="64"/>
-        <v xml:space="preserve">  {  25,   1,  55}, // Строб.Хаос.Дифузия</v>
+        <v xml:space="preserve">  {  25,   1,  45}, // Строб.Хаос.Дифузия</v>
       </c>
       <c r="AA103" s="4" t="str">
         <f t="shared" ca="1" si="65"/>
@@ -15284,10 +15284,10 @@
         <v>96</v>
       </c>
       <c r="B104" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="D104" s="23"/>
       <c r="E104" s="24"/>
@@ -15322,7 +15322,7 @@
         <v>81</v>
       </c>
       <c r="R104" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S104">
         <v>2</v>
@@ -15419,10 +15419,10 @@
         <v>97</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>340</v>
       </c>
       <c r="D105" s="23"/>
       <c r="E105" s="24"/>
@@ -15457,7 +15457,7 @@
         <v>81</v>
       </c>
       <c r="R105" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S105">
         <v>5</v>
@@ -15554,10 +15554,10 @@
         <v>98</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="D106" s="23"/>
       <c r="E106" s="24"/>
@@ -15592,7 +15592,7 @@
         <v>44</v>
       </c>
       <c r="R106" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S106">
         <v>4</v>
@@ -15689,10 +15689,10 @@
         <v>99</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>346</v>
       </c>
       <c r="D107" s="23"/>
       <c r="E107" s="24"/>
@@ -15727,7 +15727,7 @@
         <v>177</v>
       </c>
       <c r="R107" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S107">
         <v>2</v>
@@ -15824,10 +15824,10 @@
         <v>100</v>
       </c>
       <c r="B108" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="C108" s="35" t="s">
         <v>348</v>
-      </c>
-      <c r="C108" s="35" t="s">
-        <v>349</v>
       </c>
       <c r="D108" s="23"/>
       <c r="E108" s="24"/>
@@ -15862,7 +15862,7 @@
         <v>44</v>
       </c>
       <c r="R108" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S108">
         <v>2</v>
@@ -15959,10 +15959,10 @@
         <v>101</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="D109" s="23"/>
       <c r="E109" s="24"/>
@@ -15997,7 +15997,7 @@
         <v>44</v>
       </c>
       <c r="R109" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S109">
         <v>2</v>
@@ -16094,10 +16094,10 @@
         <v>102</v>
       </c>
       <c r="B110" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="D110" s="23"/>
       <c r="E110" s="24"/>
@@ -16132,7 +16132,7 @@
         <v>40</v>
       </c>
       <c r="R110" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S110">
         <v>2</v>
@@ -16229,10 +16229,10 @@
         <v>103</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="D111" s="23"/>
       <c r="E111" s="24"/>
@@ -16267,7 +16267,7 @@
         <v>44</v>
       </c>
       <c r="R111" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S111">
         <v>2</v>
@@ -16364,10 +16364,10 @@
         <v>104</v>
       </c>
       <c r="B112" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="D112" s="23"/>
       <c r="E112" s="24"/>
@@ -16402,7 +16402,7 @@
         <v>177</v>
       </c>
       <c r="R112" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S112">
         <v>2</v>
@@ -16499,10 +16499,10 @@
         <v>105</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="D113" s="23"/>
       <c r="E113" s="24"/>
@@ -16537,7 +16537,7 @@
         <v>44</v>
       </c>
       <c r="R113" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S113">
         <v>2</v>
@@ -16634,10 +16634,10 @@
         <v>106</v>
       </c>
       <c r="B114" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="D114" s="23"/>
       <c r="E114" s="24"/>
@@ -16672,7 +16672,7 @@
         <v>81</v>
       </c>
       <c r="R114" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S114">
         <v>2</v>
@@ -16769,10 +16769,10 @@
         <v>107</v>
       </c>
       <c r="B115" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="D115" s="23"/>
       <c r="E115" s="24"/>
@@ -16807,7 +16807,7 @@
         <v>81</v>
       </c>
       <c r="R115" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S115">
         <v>2</v>
@@ -16904,10 +16904,10 @@
         <v>108</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="D116" s="23"/>
       <c r="E116" s="24"/>
@@ -16942,7 +16942,7 @@
         <v>44</v>
       </c>
       <c r="R116" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S116">
         <v>11</v>
@@ -17039,10 +17039,10 @@
         <v>109</v>
       </c>
       <c r="B117" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="C117" s="35" t="s">
         <v>375</v>
-      </c>
-      <c r="C117" s="35" t="s">
-        <v>376</v>
       </c>
       <c r="D117" s="23"/>
       <c r="E117" s="24"/>
@@ -17077,7 +17077,7 @@
         <v>44</v>
       </c>
       <c r="R117" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S117">
         <v>0</v>
@@ -17176,19 +17176,19 @@
       <c r="K118" s="47"/>
       <c r="U118" s="47"/>
       <c r="AC118" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="AD118" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="AD118" s="40" t="s">
-        <v>385</v>
-      </c>
       <c r="AE118" s="39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AH118" s="40" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AI118" s="40" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AK118" s="47"/>
       <c r="AL118" s="47"/>
@@ -17216,7 +17216,7 @@
         <v>110</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D119" s="47"/>
       <c r="E119" s="47"/>
@@ -17234,7 +17234,7 @@
       <c r="Y119" s="4"/>
       <c r="AC119" s="7"/>
       <c r="AD119" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AE119" s="7"/>
       <c r="AI119" s="7"/>
@@ -17277,7 +17277,7 @@
       <c r="U121" s="47"/>
       <c r="AC121" s="7"/>
       <c r="AD121" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AE121" s="7"/>
       <c r="AI121" s="7"/>
@@ -17309,7 +17309,7 @@
       <c r="U122" s="54"/>
       <c r="AC122" s="7"/>
       <c r="AD122" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AE122" s="7"/>
       <c r="AI122" s="7"/>
@@ -17341,7 +17341,7 @@
       <c r="U123" s="54"/>
       <c r="AC123" s="7"/>
       <c r="AD123" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AE123" s="7"/>
       <c r="AI123" s="7"/>
@@ -17375,7 +17375,7 @@
       <c r="U124" s="54"/>
       <c r="AC124" s="7"/>
       <c r="AD124" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AE124" s="7"/>
       <c r="AI124" s="7"/>

--- a/FieryLedLamp_New_WEB/Таблица эффектов.xlsx
+++ b/FieryLedLamp_New_WEB/Таблица эффектов.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DB1786-F6BA-4B19-88E7-FADE1665A080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD0839F-8F40-4B99-8085-32905D348E5B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="421">
   <si>
     <t>Наст.по умолчанию</t>
   </si>
@@ -1274,6 +1274,37 @@
   </si>
   <si>
     <t>Turbulence();</t>
+  </si>
+  <si>
+    <t>SERPENTINE</t>
+  </si>
+  <si>
+    <t>Серпантин</t>
+  </si>
+  <si>
+    <r>
+      <t>Serpentine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1283,7 +1314,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1416,6 +1447,26 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2328"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1491,7 +1542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1604,6 +1655,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1884,11 +1937,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD130"/>
+  <dimension ref="A1:BD131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C125" sqref="C125"/>
+      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ98" sqref="AJ98:AJ129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14223,7 +14276,7 @@
     </row>
     <row r="100" spans="1:56" ht="14.25" customHeight="1">
       <c r="A100" s="35">
-        <f t="shared" ref="A100:A115" ca="1" si="196">MAX(OFFSET(A100,-4,0,4,1))+1</f>
+        <f t="shared" ref="A100:A104" ca="1" si="196">MAX(OFFSET(A100,-4,0,4,1))+1</f>
         <v>92</v>
       </c>
       <c r="B100" s="40" t="s">
@@ -14266,72 +14319,72 @@
         <v>8</v>
       </c>
       <c r="T100" s="40">
-        <f t="shared" ref="T100:T120" ca="1" si="197">MAX(OFFSET(T100,-4,0,4,1))+1</f>
+        <f t="shared" ref="T100:T104" ca="1" si="197">MAX(OFFSET(T100,-4,0,4,1))+1</f>
         <v>92</v>
       </c>
       <c r="U100" s="15"/>
       <c r="V100" s="2" t="str">
-        <f t="shared" ref="V100:V120" ca="1" si="198">CONCATENATE("#define EFF_",B100,REPT(" ",20-LEN(B100)),"(",REPT(" ",3-LEN(T100)),T100,"U)    // ",C100)</f>
+        <f t="shared" ref="V100:V104" ca="1" si="198">CONCATENATE("#define EFF_",B100,REPT(" ",20-LEN(B100)),"(",REPT(" ",3-LEN(T100)),T100,"U)    // ",C100)</f>
         <v>#define EFF_LIGHTERS            ( 92U)    // Светлячки</v>
       </c>
       <c r="W100" s="2" t="str">
-        <f t="shared" ref="W100:W115" ca="1" si="199">CONCATENATE("String(""",A100,". ",C100,",",L100,",",M100,",",N100,",",O100,",",P100,";"") +")</f>
+        <f t="shared" ref="W100:W104" ca="1" si="199">CONCATENATE("String(""",A100,". ",C100,",",L100,",",M100,",",N100,",",O100,",",P100,";"") +")</f>
         <v>String("92. Светлячки,50,255,1,100,0;") +</v>
       </c>
       <c r="X100" s="2" t="str">
-        <f t="shared" ref="X100:X115" ca="1" si="200">CONCATENATE("String(""",A100,". ",D100,",",L100,",",M100,",",N100,",",O100,",",P100,";"") +")</f>
+        <f t="shared" ref="X100:X104" ca="1" si="200">CONCATENATE("String(""",A100,". ",D100,",",L100,",",M100,",",N100,",",O100,",",P100,";"") +")</f>
         <v>String("92. ,50,255,1,100,0;") +</v>
       </c>
       <c r="Y100" s="2" t="str">
-        <f t="shared" ref="Y100:Y115" ca="1" si="201">CONCATENATE("String(""",A100,". ",E100,",",L100,",",M100,",",N100,",",O100,",",P100,";"") +")</f>
+        <f t="shared" ref="Y100:Y104" ca="1" si="201">CONCATENATE("String(""",A100,". ",E100,",",L100,",",M100,",",N100,",",O100,",",P100,";"") +")</f>
         <v>String("92. ,50,255,1,100,0;") +</v>
       </c>
       <c r="Z100" s="2" t="str">
-        <f t="shared" ref="Z100:Z120" si="202">CONCATENATE("  {",REPT(" ",4-LEN(H100)),H100,",",REPT(" ",4-LEN(I100)),I100,",",REPT(" ",4-LEN(J100)),J100,"}, // ",C100)</f>
+        <f t="shared" ref="Z100:Z104" si="202">CONCATENATE("  {",REPT(" ",4-LEN(H100)),H100,",",REPT(" ",4-LEN(I100)),I100,",",REPT(" ",4-LEN(J100)),J100,"}, // ",C100)</f>
         <v xml:space="preserve">  {  15, 180,  23}, // Светлячки</v>
       </c>
       <c r="AA100" s="2" t="str">
-        <f t="shared" ref="AA100:AA120" ca="1" si="203">CONCATENATE("        case EFF_",B100,":",REPT(" ",20-LEN(B100)),Q100," { effTimer = millis(); ",R100,REPT(" ",30-LEN(R100)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T100)),T100,"U) ",C100)</f>
+        <f t="shared" ref="AA100:AA104" ca="1" si="203">CONCATENATE("        case EFF_",B100,":",REPT(" ",20-LEN(B100)),Q100," { effTimer = millis(); ",R100,REPT(" ",30-LEN(R100)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T100)),T100,"U) ",C100)</f>
         <v xml:space="preserve">        case EFF_LIGHTERS:            DYNAMIC_DELAY_TICK { effTimer = millis(); lightersRoutine();            Eff_Tick (); }  break;  // ( 92U) Светлячки</v>
       </c>
       <c r="AB100" s="2" t="str">
-        <f t="shared" ref="AB100:AB106" ca="1" si="204">CONCATENATE("{""name"":""",A100,". ",C100,""",""spmin"":",L100,",""spmax"":",M100,",""scmin"":",N100,",""scmax"":",O100,",""type"":",P100,"},")</f>
+        <f t="shared" ref="AB100:AB104" ca="1" si="204">CONCATENATE("{""name"":""",A100,". ",C100,""",""spmin"":",L100,",""spmax"":",M100,",""scmin"":",N100,",""scmax"":",O100,",""type"":",P100,"},")</f>
         <v>{"name":"92. Светлячки","spmin":50,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC100" s="4" t="str">
-        <f t="shared" ref="AC100:AC120" ca="1" si="205">CONCATENATE("""","e",T100,"""",":0,")</f>
+        <f t="shared" ref="AC100:AC104" ca="1" si="205">CONCATENATE("""","e",T100,"""",":0,")</f>
         <v>"e92":0,</v>
       </c>
       <c r="AD100" s="4" t="str">
-        <f t="shared" ref="AD100:AD120" ca="1" si="206">CONCATENATE("e",T100,"=[[e",T100,"]]&amp;")</f>
+        <f t="shared" ref="AD100:AD104" ca="1" si="206">CONCATENATE("e",T100,"=[[e",T100,"]]&amp;")</f>
         <v>e92=[[e92]]&amp;</v>
       </c>
       <c r="AE100" s="4" t="str">
-        <f t="shared" ref="AE100:AE120" ca="1" si="207">CONCATENATE("""","e",T100,"""",":",S100,",")</f>
+        <f t="shared" ref="AE100:AE104" ca="1" si="207">CONCATENATE("""","e",T100,"""",":",S100,",")</f>
         <v>"e92":8,</v>
       </c>
       <c r="AF100" s="2" t="str">
-        <f t="shared" ref="AF100:AF114" ca="1" si="208">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T100,""",""title"":""",A100,". ",C100,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T100,"}}""},")</f>
+        <f t="shared" ref="AF100:AF104" ca="1" si="208">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T100,""",""title"":""",A100,". ",C100,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T100,"}}""},")</f>
         <v>{"type":"checkbox","class":"checkbox-big","name":"e92","title":"92. Светлячки","style":"font-size:20px;display:block","state":"{{e92}}"},</v>
       </c>
       <c r="AG100" s="2" t="str">
-        <f t="shared" ref="AG100:AG120" ca="1" si="209">CONCATENATE("{""type"":""h4"",""title"":""",A100,". ",C100,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T100,""",""state"":""{{e",T100,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <f t="shared" ref="AG100:AG104" ca="1" si="209">CONCATENATE("{""type"":""h4"",""title"":""",A100,". ",C100,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T100,""",""state"":""{{e",T100,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
         <v>{"type":"h4","title":"92. Светлячки","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e92","state":"{{e92}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH100" s="2" t="str">
-        <f t="shared" ref="AH100:AH120" ca="1" si="210">CONCATENATE("""",A100,"""",": """,A100,".",C100,""",")</f>
+        <f t="shared" ref="AH100:AH104" ca="1" si="210">CONCATENATE("""",A100,"""",": """,A100,".",C100,""",")</f>
         <v>"92": "92.Светлячки",</v>
       </c>
       <c r="AI100" s="16" t="str">
-        <f t="shared" ref="AI100:AI120" ca="1" si="211">CONCATENATE("""",A100,"""",":""",T100,""",")</f>
+        <f t="shared" ref="AI100:AI104" ca="1" si="211">CONCATENATE("""",A100,"""",":""",T100,""",")</f>
         <v>"92":"92",</v>
       </c>
       <c r="AJ100" s="2" t="str">
-        <f t="shared" ref="AJ100:AJ115" ca="1" si="212">CONCATENATE(A100,". ",C100,",",L100,",",M100,",",N100,",",O100,",",P100,";")</f>
+        <f t="shared" ref="AJ100:AJ104" ca="1" si="212">CONCATENATE(A100,". ",C100,",",L100,",",M100,",",N100,",",O100,",",P100,";")</f>
         <v>92. Светлячки,50,255,1,100,0;</v>
       </c>
       <c r="AK100" s="2" t="str">
-        <f t="shared" ref="AK100:AK128" ca="1" si="213">CONCATENATE("",A100,"",".",C100,"")</f>
+        <f t="shared" ref="AK100:AK104" ca="1" si="213">CONCATENATE("",A100,"",".",C100,"")</f>
         <v>92.Светлячки</v>
       </c>
       <c r="AL100" s="2"/>
@@ -14753,25 +14806,25 @@
       <c r="BC103" s="18"/>
       <c r="BD103" s="18"/>
     </row>
-    <row r="104" spans="1:56" ht="14.25" customHeight="1">
+    <row r="104" spans="1:56">
       <c r="A104" s="35">
         <f t="shared" ca="1" si="196"/>
         <v>96</v>
       </c>
-      <c r="B104" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="C104" s="40" t="s">
-        <v>310</v>
+      <c r="B104" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="C104" s="54" t="s">
+        <v>419</v>
       </c>
       <c r="H104" s="40">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I104" s="40">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="J104" s="40">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L104" s="40">
         <v>1</v>
@@ -14791,8 +14844,8 @@
       <c r="Q104" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="R104" s="40" t="s">
-        <v>311</v>
+      <c r="R104" s="55" t="s">
+        <v>420</v>
       </c>
       <c r="S104" s="40">
         <v>2</v>
@@ -14801,14 +14854,13 @@
         <f t="shared" ca="1" si="197"/>
         <v>96</v>
       </c>
-      <c r="U104" s="15"/>
       <c r="V104" s="2" t="str">
         <f t="shared" ca="1" si="198"/>
-        <v>#define EFF_SINUSOID3           ( 96U)    // Синусоид</v>
+        <v>#define EFF_SERPENTINE          ( 96U)    // Серпантин</v>
       </c>
       <c r="W104" s="2" t="str">
         <f t="shared" ca="1" si="199"/>
-        <v>String("96. Синусоид,1,255,1,100,0;") +</v>
+        <v>String("96. Серпантин,1,255,1,100,0;") +</v>
       </c>
       <c r="X104" s="2" t="str">
         <f t="shared" ca="1" si="200"/>
@@ -14820,15 +14872,15 @@
       </c>
       <c r="Z104" s="2" t="str">
         <f t="shared" si="202"/>
-        <v xml:space="preserve">  {  20, 127,  75}, // Синусоид</v>
+        <v xml:space="preserve">  {  15,  75,  50}, // Серпантин</v>
       </c>
       <c r="AA104" s="2" t="str">
         <f t="shared" ca="1" si="203"/>
-        <v xml:space="preserve">        case EFF_SINUSOID3:           HIGH_DELAY_TICK { effTimer = millis(); Sinusoid3Routine();           Eff_Tick (); }  break;  // ( 96U) Синусоид</v>
+        <v xml:space="preserve">        case EFF_SERPENTINE:          HIGH_DELAY_TICK { effTimer = millis(); Serpentine();                 Eff_Tick (); }  break;  // ( 96U) Серпантин</v>
       </c>
       <c r="AB104" s="2" t="str">
         <f t="shared" ca="1" si="204"/>
-        <v>{"name":"96. Синусоид","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <v>{"name":"96. Серпантин","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC104" s="4" t="str">
         <f t="shared" ca="1" si="205"/>
@@ -14844,15 +14896,15 @@
       </c>
       <c r="AF104" s="2" t="str">
         <f t="shared" ca="1" si="208"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e96","title":"96. Синусоид","style":"font-size:20px;display:block","state":"{{e96}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e96","title":"96. Серпантин","style":"font-size:20px;display:block","state":"{{e96}}"},</v>
       </c>
       <c r="AG104" s="2" t="str">
         <f t="shared" ca="1" si="209"/>
-        <v>{"type":"h4","title":"96. Синусоид","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e96","state":"{{e96}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"96. Серпантин","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e96","state":"{{e96}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH104" s="2" t="str">
         <f t="shared" ca="1" si="210"/>
-        <v>"96": "96.Синусоид",</v>
+        <v>"96": "96.Серпантин",</v>
       </c>
       <c r="AI104" s="16" t="str">
         <f t="shared" ca="1" si="211"/>
@@ -14860,51 +14912,32 @@
       </c>
       <c r="AJ104" s="2" t="str">
         <f t="shared" ca="1" si="212"/>
-        <v>96. Синусоид,1,255,1,100,0;</v>
+        <v>96. Серпантин,1,255,1,100,0;</v>
       </c>
       <c r="AK104" s="2" t="str">
         <f t="shared" ca="1" si="213"/>
-        <v>96.Синусоид</v>
-      </c>
-      <c r="AL104" s="2"/>
-      <c r="AM104" s="2"/>
-      <c r="AN104" s="17"/>
-      <c r="AO104" s="2"/>
-      <c r="AP104" s="2"/>
-      <c r="AQ104" s="2"/>
-      <c r="AR104" s="2"/>
-      <c r="AS104" s="16"/>
-      <c r="AT104" s="2"/>
-      <c r="AU104" s="2"/>
-      <c r="AV104" s="18"/>
-      <c r="AW104" s="18"/>
-      <c r="AX104" s="18"/>
-      <c r="AY104" s="18"/>
-      <c r="AZ104" s="18"/>
-      <c r="BA104" s="18"/>
-      <c r="BB104" s="18"/>
-      <c r="BC104" s="18"/>
-      <c r="BD104" s="18"/>
+        <v>96.Серпантин</v>
+      </c>
     </row>
     <row r="105" spans="1:56" ht="14.25" customHeight="1">
       <c r="A105" s="35">
-        <f t="shared" ca="1" si="196"/>
+        <f ca="1">MAX(OFFSET(A105,-4,0,4,1))+1</f>
         <v>97</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H105" s="40">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I105" s="40">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="J105" s="40">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="L105" s="40">
         <v>1</v>
@@ -14916,7 +14949,7 @@
         <v>1</v>
       </c>
       <c r="O105" s="40">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="P105" s="40">
         <v>0</v>
@@ -14925,79 +14958,79 @@
         <v>40</v>
       </c>
       <c r="R105" s="40" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="S105" s="40">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T105" s="40">
-        <f t="shared" ca="1" si="197"/>
+        <f ca="1">MAX(OFFSET(T105,-4,0,4,1))+1</f>
         <v>97</v>
       </c>
       <c r="U105" s="15"/>
       <c r="V105" s="2" t="str">
-        <f t="shared" ca="1" si="198"/>
-        <v>#define EFF_COLORS              ( 97U)    // Смена цвета</v>
+        <f ca="1">CONCATENATE("#define EFF_",B105,REPT(" ",20-LEN(B105)),"(",REPT(" ",3-LEN(T105)),T105,"U)    // ",C105)</f>
+        <v>#define EFF_SINUSOID3           ( 97U)    // Синусоид</v>
       </c>
       <c r="W105" s="2" t="str">
-        <f t="shared" ca="1" si="199"/>
-        <v>String("97. Смена цвета,1,255,1,255,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A105,". ",C105,",",L105,",",M105,",",N105,",",O105,",",P105,";"") +")</f>
+        <v>String("97. Синусоид,1,255,1,100,0;") +</v>
       </c>
       <c r="X105" s="2" t="str">
-        <f t="shared" ca="1" si="200"/>
-        <v>String("97. ,1,255,1,255,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A105,". ",D105,",",L105,",",M105,",",N105,",",O105,",",P105,";"") +")</f>
+        <v>String("97. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y105" s="2" t="str">
-        <f t="shared" ca="1" si="201"/>
-        <v>String("97. ,1,255,1,255,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A105,". ",E105,",",L105,",",M105,",",N105,",",O105,",",P105,";"") +")</f>
+        <v>String("97. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z105" s="2" t="str">
-        <f t="shared" si="202"/>
-        <v xml:space="preserve">  {  25, 240,   1}, // Смена цвета</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H105)),H105,",",REPT(" ",4-LEN(I105)),I105,",",REPT(" ",4-LEN(J105)),J105,"}, // ",C105)</f>
+        <v xml:space="preserve">  {  20, 127,  75}, // Синусоид</v>
       </c>
       <c r="AA105" s="2" t="str">
-        <f t="shared" ca="1" si="203"/>
-        <v xml:space="preserve">        case EFF_COLORS:              HIGH_DELAY_TICK { effTimer = millis(); colorsRoutine2();             Eff_Tick (); }  break;  // ( 97U) Смена цвета</v>
+        <f ca="1">CONCATENATE("        case EFF_",B105,":",REPT(" ",20-LEN(B105)),Q105," { effTimer = millis(); ",R105,REPT(" ",30-LEN(R105)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T105)),T105,"U) ",C105)</f>
+        <v xml:space="preserve">        case EFF_SINUSOID3:           HIGH_DELAY_TICK { effTimer = millis(); Sinusoid3Routine();           Eff_Tick (); }  break;  // ( 97U) Синусоид</v>
       </c>
       <c r="AB105" s="2" t="str">
-        <f t="shared" ca="1" si="204"/>
-        <v>{"name":"97. Смена цвета","spmin":1,"spmax":255,"scmin":1,"scmax":255,"type":0},</v>
+        <f ca="1">CONCATENATE("{""name"":""",A105,". ",C105,""",""spmin"":",L105,",""spmax"":",M105,",""scmin"":",N105,",""scmax"":",O105,",""type"":",P105,"},")</f>
+        <v>{"name":"97. Синусоид","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC105" s="4" t="str">
-        <f t="shared" ca="1" si="205"/>
+        <f ca="1">CONCATENATE("""","e",T105,"""",":0,")</f>
         <v>"e97":0,</v>
       </c>
       <c r="AD105" s="4" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f ca="1">CONCATENATE("e",T105,"=[[e",T105,"]]&amp;")</f>
         <v>e97=[[e97]]&amp;</v>
       </c>
       <c r="AE105" s="4" t="str">
-        <f t="shared" ca="1" si="207"/>
-        <v>"e97":11,</v>
+        <f ca="1">CONCATENATE("""","e",T105,"""",":",S105,",")</f>
+        <v>"e97":2,</v>
       </c>
       <c r="AF105" s="2" t="str">
-        <f t="shared" ca="1" si="208"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e97","title":"97. Смена цвета","style":"font-size:20px;display:block","state":"{{e97}}"},</v>
+        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T105,""",""title"":""",A105,". ",C105,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T105,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e97","title":"97. Синусоид","style":"font-size:20px;display:block","state":"{{e97}}"},</v>
       </c>
       <c r="AG105" s="2" t="str">
-        <f t="shared" ca="1" si="209"/>
-        <v>{"type":"h4","title":"97. Смена цвета","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e97","state":"{{e97}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A105,". ",C105,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T105,""",""state"":""{{e",T105,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"97. Синусоид","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e97","state":"{{e97}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH105" s="2" t="str">
-        <f t="shared" ca="1" si="210"/>
-        <v>"97": "97.Смена цвета",</v>
+        <f ca="1">CONCATENATE("""",A105,"""",": """,A105,".",C105,""",")</f>
+        <v>"97": "97.Синусоид",</v>
       </c>
       <c r="AI105" s="16" t="str">
-        <f t="shared" ca="1" si="211"/>
+        <f ca="1">CONCATENATE("""",A105,"""",":""",T105,""",")</f>
         <v>"97":"97",</v>
       </c>
       <c r="AJ105" s="2" t="str">
-        <f t="shared" ca="1" si="212"/>
-        <v>97. Смена цвета,1,255,1,255,0;</v>
+        <f ca="1">CONCATENATE(A105,". ",C105,",",L105,",",M105,",",N105,",",O105,",",P105,";")</f>
+        <v>97. Синусоид,1,255,1,100,0;</v>
       </c>
       <c r="AK105" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>97.Смена цвета</v>
+        <f ca="1">CONCATENATE("",A105,"",".",C105,"")</f>
+        <v>97.Синусоид</v>
       </c>
       <c r="AL105" s="2"/>
       <c r="AM105" s="2"/>
@@ -15021,26 +15054,26 @@
     </row>
     <row r="106" spans="1:56" ht="14.25" customHeight="1">
       <c r="A106" s="35">
-        <f t="shared" ca="1" si="196"/>
+        <f ca="1">MAX(OFFSET(A106,-4,0,4,1))+1</f>
         <v>98</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H106" s="40">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I106" s="40">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="J106" s="40">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="L106" s="40">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="M106" s="40">
         <v>255</v>
@@ -15049,88 +15082,88 @@
         <v>1</v>
       </c>
       <c r="O106" s="40">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="P106" s="40">
         <v>0</v>
       </c>
       <c r="Q106" s="40" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R106" s="40" t="s">
-        <v>395</v>
+        <v>314</v>
       </c>
       <c r="S106" s="40">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T106" s="40">
-        <f t="shared" ca="1" si="197"/>
+        <f ca="1">MAX(OFFSET(T106,-4,0,4,1))+1</f>
         <v>98</v>
       </c>
       <c r="U106" s="15"/>
       <c r="V106" s="2" t="str">
-        <f t="shared" ca="1" si="198"/>
-        <v>#define EFF_SNOW                ( 98U)    // Снегопад</v>
+        <f ca="1">CONCATENATE("#define EFF_",B106,REPT(" ",20-LEN(B106)),"(",REPT(" ",3-LEN(T106)),T106,"U)    // ",C106)</f>
+        <v>#define EFF_COLORS              ( 98U)    // Смена цвета</v>
       </c>
       <c r="W106" s="2" t="str">
-        <f t="shared" ca="1" si="199"/>
-        <v>String("98. Снегопад,99,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A106,". ",C106,",",L106,",",M106,",",N106,",",O106,",",P106,";"") +")</f>
+        <v>String("98. Смена цвета,1,255,1,255,0;") +</v>
       </c>
       <c r="X106" s="2" t="str">
-        <f t="shared" ca="1" si="200"/>
-        <v>String("98. ,99,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A106,". ",D106,",",L106,",",M106,",",N106,",",O106,",",P106,";"") +")</f>
+        <v>String("98. ,1,255,1,255,0;") +</v>
       </c>
       <c r="Y106" s="2" t="str">
-        <f t="shared" ca="1" si="201"/>
-        <v>String("98. ,99,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A106,". ",E106,",",L106,",",M106,",",N106,",",O106,",",P106,";"") +")</f>
+        <v>String("98. ,1,255,1,255,0;") +</v>
       </c>
       <c r="Z106" s="2" t="str">
-        <f t="shared" si="202"/>
-        <v xml:space="preserve">  {  10, 205,  90}, // Снегопад</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H106)),H106,",",REPT(" ",4-LEN(I106)),I106,",",REPT(" ",4-LEN(J106)),J106,"}, // ",C106)</f>
+        <v xml:space="preserve">  {  25, 240,   1}, // Смена цвета</v>
       </c>
       <c r="AA106" s="2" t="str">
-        <f t="shared" ca="1" si="203"/>
-        <v xml:space="preserve">        case EFF_SNOW:                DYNAMIC_DELAY_TICK { effTimer = millis(); Snowfall();                   Eff_Tick (); }  break;  // ( 98U) Снегопад</v>
+        <f ca="1">CONCATENATE("        case EFF_",B106,":",REPT(" ",20-LEN(B106)),Q106," { effTimer = millis(); ",R106,REPT(" ",30-LEN(R106)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T106)),T106,"U) ",C106)</f>
+        <v xml:space="preserve">        case EFF_COLORS:              HIGH_DELAY_TICK { effTimer = millis(); colorsRoutine2();             Eff_Tick (); }  break;  // ( 98U) Смена цвета</v>
       </c>
       <c r="AB106" s="2" t="str">
-        <f t="shared" ca="1" si="204"/>
-        <v>{"name":"98. Снегопад","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f ca="1">CONCATENATE("{""name"":""",A106,". ",C106,""",""spmin"":",L106,",""spmax"":",M106,",""scmin"":",N106,",""scmax"":",O106,",""type"":",P106,"},")</f>
+        <v>{"name":"98. Смена цвета","spmin":1,"spmax":255,"scmin":1,"scmax":255,"type":0},</v>
       </c>
       <c r="AC106" s="4" t="str">
-        <f t="shared" ca="1" si="205"/>
+        <f ca="1">CONCATENATE("""","e",T106,"""",":0,")</f>
         <v>"e98":0,</v>
       </c>
       <c r="AD106" s="4" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f ca="1">CONCATENATE("e",T106,"=[[e",T106,"]]&amp;")</f>
         <v>e98=[[e98]]&amp;</v>
       </c>
       <c r="AE106" s="4" t="str">
-        <f t="shared" ca="1" si="207"/>
-        <v>"e98":6,</v>
+        <f ca="1">CONCATENATE("""","e",T106,"""",":",S106,",")</f>
+        <v>"e98":11,</v>
       </c>
       <c r="AF106" s="2" t="str">
-        <f t="shared" ca="1" si="208"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e98","title":"98. Снегопад","style":"font-size:20px;display:block","state":"{{e98}}"},</v>
+        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T106,""",""title"":""",A106,". ",C106,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T106,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e98","title":"98. Смена цвета","style":"font-size:20px;display:block","state":"{{e98}}"},</v>
       </c>
       <c r="AG106" s="2" t="str">
-        <f t="shared" ca="1" si="209"/>
-        <v>{"type":"h4","title":"98. Снегопад","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e98","state":"{{e98}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A106,". ",C106,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T106,""",""state"":""{{e",T106,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"98. Смена цвета","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e98","state":"{{e98}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH106" s="2" t="str">
-        <f t="shared" ca="1" si="210"/>
-        <v>"98": "98.Снегопад",</v>
+        <f ca="1">CONCATENATE("""",A106,"""",": """,A106,".",C106,""",")</f>
+        <v>"98": "98.Смена цвета",</v>
       </c>
       <c r="AI106" s="16" t="str">
-        <f t="shared" ca="1" si="211"/>
+        <f ca="1">CONCATENATE("""",A106,"""",":""",T106,""",")</f>
         <v>"98":"98",</v>
       </c>
       <c r="AJ106" s="2" t="str">
-        <f t="shared" ca="1" si="212"/>
-        <v>98. Снегопад,99,255,1,100,0;</v>
+        <f ca="1">CONCATENATE(A106,". ",C106,",",L106,",",M106,",",N106,",",O106,",",P106,";")</f>
+        <v>98. Смена цвета,1,255,1,255,0;</v>
       </c>
       <c r="AK106" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>98.Снегопад</v>
+        <f ca="1">CONCATENATE("",A106,"",".",C106,"")</f>
+        <v>98.Смена цвета</v>
       </c>
       <c r="AL106" s="2"/>
       <c r="AM106" s="2"/>
@@ -15154,26 +15187,26 @@
     </row>
     <row r="107" spans="1:56" ht="14.25" customHeight="1">
       <c r="A107" s="35">
-        <f t="shared" ca="1" si="196"/>
+        <f ca="1">MAX(OFFSET(A107,-4,0,4,1))+1</f>
         <v>99</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H107" s="40">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I107" s="40">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="J107" s="40">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L107" s="40">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M107" s="40">
         <v>255</v>
@@ -15191,75 +15224,79 @@
         <v>44</v>
       </c>
       <c r="R107" s="40" t="s">
-        <v>319</v>
+        <v>395</v>
       </c>
       <c r="S107" s="40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T107" s="40">
-        <f t="shared" ca="1" si="197"/>
+        <f ca="1">MAX(OFFSET(T107,-4,0,4,1))+1</f>
         <v>99</v>
       </c>
       <c r="U107" s="15"/>
       <c r="V107" s="2" t="str">
-        <f t="shared" ca="1" si="198"/>
-        <v>#define EFF_SPECTRUM            ( 99U)    // Спектрум</v>
+        <f ca="1">CONCATENATE("#define EFF_",B107,REPT(" ",20-LEN(B107)),"(",REPT(" ",3-LEN(T107)),T107,"U)    // ",C107)</f>
+        <v>#define EFF_SNOW                ( 99U)    // Снегопад</v>
       </c>
       <c r="W107" s="2" t="str">
-        <f t="shared" ca="1" si="199"/>
-        <v>String("99. Спектрум,1,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A107,". ",C107,",",L107,",",M107,",",N107,",",O107,",",P107,";"") +")</f>
+        <v>String("99. Снегопад,99,255,1,100,0;") +</v>
       </c>
       <c r="X107" s="2" t="str">
-        <f t="shared" ca="1" si="200"/>
-        <v>String("99. ,1,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A107,". ",D107,",",L107,",",M107,",",N107,",",O107,",",P107,";"") +")</f>
+        <v>String("99. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Y107" s="2" t="str">
-        <f t="shared" ca="1" si="201"/>
-        <v>String("99. ,1,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A107,". ",E107,",",L107,",",M107,",",N107,",",O107,",",P107,";"") +")</f>
+        <v>String("99. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Z107" s="2" t="str">
-        <f t="shared" si="202"/>
-        <v xml:space="preserve">  {  25, 175, 100}, // Спектрум</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H107)),H107,",",REPT(" ",4-LEN(I107)),I107,",",REPT(" ",4-LEN(J107)),J107,"}, // ",C107)</f>
+        <v xml:space="preserve">  {  10, 205,  90}, // Снегопад</v>
       </c>
       <c r="AA107" s="2" t="str">
-        <f t="shared" ca="1" si="203"/>
-        <v xml:space="preserve">        case EFF_SPECTRUM:            DYNAMIC_DELAY_TICK { effTimer = millis(); Spectrum();                   Eff_Tick (); }  break;  // ( 99U) Спектрум</v>
+        <f ca="1">CONCATENATE("        case EFF_",B107,":",REPT(" ",20-LEN(B107)),Q107," { effTimer = millis(); ",R107,REPT(" ",30-LEN(R107)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T107)),T107,"U) ",C107)</f>
+        <v xml:space="preserve">        case EFF_SNOW:                DYNAMIC_DELAY_TICK { effTimer = millis(); Snowfall();                   Eff_Tick (); }  break;  // ( 99U) Снегопад</v>
+      </c>
+      <c r="AB107" s="2" t="str">
+        <f ca="1">CONCATENATE("{""name"":""",A107,". ",C107,""",""spmin"":",L107,",""spmax"":",M107,",""scmin"":",N107,",""scmax"":",O107,",""type"":",P107,"},")</f>
+        <v>{"name":"99. Снегопад","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC107" s="4" t="str">
-        <f t="shared" ca="1" si="205"/>
+        <f ca="1">CONCATENATE("""","e",T107,"""",":0,")</f>
         <v>"e99":0,</v>
       </c>
       <c r="AD107" s="4" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f ca="1">CONCATENATE("e",T107,"=[[e",T107,"]]&amp;")</f>
         <v>e99=[[e99]]&amp;</v>
       </c>
       <c r="AE107" s="4" t="str">
-        <f t="shared" ca="1" si="207"/>
-        <v>"e99":2,</v>
+        <f ca="1">CONCATENATE("""","e",T107,"""",":",S107,",")</f>
+        <v>"e99":6,</v>
       </c>
       <c r="AF107" s="2" t="str">
-        <f t="shared" ca="1" si="208"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e99","title":"99. Спектрум","style":"font-size:20px;display:block","state":"{{e99}}"},</v>
+        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T107,""",""title"":""",A107,". ",C107,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T107,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e99","title":"99. Снегопад","style":"font-size:20px;display:block","state":"{{e99}}"},</v>
       </c>
       <c r="AG107" s="2" t="str">
-        <f t="shared" ca="1" si="209"/>
-        <v>{"type":"h4","title":"99. Спектрум","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e99","state":"{{e99}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A107,". ",C107,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T107,""",""state"":""{{e",T107,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"99. Снегопад","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e99","state":"{{e99}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH107" s="2" t="str">
-        <f t="shared" ca="1" si="210"/>
-        <v>"99": "99.Спектрум",</v>
+        <f ca="1">CONCATENATE("""",A107,"""",": """,A107,".",C107,""",")</f>
+        <v>"99": "99.Снегопад",</v>
       </c>
       <c r="AI107" s="16" t="str">
-        <f t="shared" ca="1" si="211"/>
+        <f ca="1">CONCATENATE("""",A107,"""",":""",T107,""",")</f>
         <v>"99":"99",</v>
       </c>
       <c r="AJ107" s="2" t="str">
-        <f t="shared" ca="1" si="212"/>
-        <v>99. Спектрум,1,255,1,100,0;</v>
+        <f ca="1">CONCATENATE(A107,". ",C107,",",L107,",",M107,",",N107,",",O107,",",P107,";")</f>
+        <v>99. Снегопад,99,255,1,100,0;</v>
       </c>
       <c r="AK107" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>99.Спектрум</v>
+        <f ca="1">CONCATENATE("",A107,"",".",C107,"")</f>
+        <v>99.Снегопад</v>
       </c>
       <c r="AL107" s="2"/>
       <c r="AM107" s="2"/>
@@ -15283,23 +15320,23 @@
     </row>
     <row r="108" spans="1:56" ht="14.25" customHeight="1">
       <c r="A108" s="35">
-        <f t="shared" ca="1" si="196"/>
+        <f ca="1">MAX(OFFSET(A108,-4,0,4,1))+1</f>
         <v>100</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H108" s="40">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I108" s="40">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="J108" s="40">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="L108" s="40">
         <v>1</v>
@@ -15317,82 +15354,78 @@
         <v>0</v>
       </c>
       <c r="Q108" s="40" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="R108" s="40" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S108" s="40">
         <v>2</v>
       </c>
       <c r="T108" s="40">
-        <f t="shared" ca="1" si="197"/>
+        <f ca="1">MAX(OFFSET(T108,-4,0,4,1))+1</f>
         <v>100</v>
       </c>
       <c r="U108" s="15"/>
       <c r="V108" s="2" t="str">
-        <f t="shared" ca="1" si="198"/>
-        <v>#define EFF_SPIRO               (100U)    // Спирали</v>
+        <f ca="1">CONCATENATE("#define EFF_",B108,REPT(" ",20-LEN(B108)),"(",REPT(" ",3-LEN(T108)),T108,"U)    // ",C108)</f>
+        <v>#define EFF_SPECTRUM            (100U)    // Спектрум</v>
       </c>
       <c r="W108" s="2" t="str">
-        <f t="shared" ca="1" si="199"/>
-        <v>String("100. Спирали,1,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A108,". ",C108,",",L108,",",M108,",",N108,",",O108,",",P108,";"") +")</f>
+        <v>String("100. Спектрум,1,255,1,100,0;") +</v>
       </c>
       <c r="X108" s="2" t="str">
-        <f t="shared" ca="1" si="200"/>
+        <f ca="1">CONCATENATE("String(""",A108,". ",D108,",",L108,",",M108,",",N108,",",O108,",",P108,";"") +")</f>
         <v>String("100. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y108" s="2" t="str">
-        <f t="shared" ca="1" si="201"/>
+        <f ca="1">CONCATENATE("String(""",A108,". ",E108,",",L108,",",M108,",",N108,",",O108,",",P108,";"") +")</f>
         <v>String("100. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z108" s="2" t="str">
-        <f t="shared" si="202"/>
-        <v xml:space="preserve">  {  15,  45,   3}, // Спирали</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H108)),H108,",",REPT(" ",4-LEN(I108)),I108,",",REPT(" ",4-LEN(J108)),J108,"}, // ",C108)</f>
+        <v xml:space="preserve">  {  25, 175, 100}, // Спектрум</v>
       </c>
       <c r="AA108" s="2" t="str">
-        <f t="shared" ca="1" si="203"/>
-        <v xml:space="preserve">        case EFF_SPIRO:               LOW_DELAY_TICK { effTimer = millis(); spiroRoutine();               Eff_Tick (); }  break;  // (100U) Спирали</v>
-      </c>
-      <c r="AB108" s="2" t="str">
-        <f t="shared" ref="AB108:AB109" ca="1" si="214">CONCATENATE("{""name"":""",A108,". ",C108,""",""spmin"":",L108,",""spmax"":",M108,",""scmin"":",N108,",""scmax"":",O108,",""type"":",P108,"},")</f>
-        <v>{"name":"100. Спирали","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f ca="1">CONCATENATE("        case EFF_",B108,":",REPT(" ",20-LEN(B108)),Q108," { effTimer = millis(); ",R108,REPT(" ",30-LEN(R108)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T108)),T108,"U) ",C108)</f>
+        <v xml:space="preserve">        case EFF_SPECTRUM:            DYNAMIC_DELAY_TICK { effTimer = millis(); Spectrum();                   Eff_Tick (); }  break;  // (100U) Спектрум</v>
       </c>
       <c r="AC108" s="4" t="str">
-        <f t="shared" ca="1" si="205"/>
+        <f ca="1">CONCATENATE("""","e",T108,"""",":0,")</f>
         <v>"e100":0,</v>
       </c>
       <c r="AD108" s="4" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f ca="1">CONCATENATE("e",T108,"=[[e",T108,"]]&amp;")</f>
         <v>e100=[[e100]]&amp;</v>
       </c>
       <c r="AE108" s="4" t="str">
-        <f t="shared" ca="1" si="207"/>
+        <f ca="1">CONCATENATE("""","e",T108,"""",":",S108,",")</f>
         <v>"e100":2,</v>
       </c>
       <c r="AF108" s="2" t="str">
-        <f t="shared" ca="1" si="208"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e100","title":"100. Спирали","style":"font-size:20px;display:block","state":"{{e100}}"},</v>
+        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T108,""",""title"":""",A108,". ",C108,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T108,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e100","title":"100. Спектрум","style":"font-size:20px;display:block","state":"{{e100}}"},</v>
       </c>
       <c r="AG108" s="2" t="str">
-        <f t="shared" ca="1" si="209"/>
-        <v>{"type":"h4","title":"100. Спирали","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e100","state":"{{e100}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A108,". ",C108,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T108,""",""state"":""{{e",T108,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"100. Спектрум","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e100","state":"{{e100}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH108" s="2" t="str">
-        <f t="shared" ca="1" si="210"/>
-        <v>"100": "100.Спирали",</v>
+        <f ca="1">CONCATENATE("""",A108,"""",": """,A108,".",C108,""",")</f>
+        <v>"100": "100.Спектрум",</v>
       </c>
       <c r="AI108" s="16" t="str">
-        <f t="shared" ca="1" si="211"/>
+        <f ca="1">CONCATENATE("""",A108,"""",":""",T108,""",")</f>
         <v>"100":"100",</v>
       </c>
       <c r="AJ108" s="2" t="str">
-        <f t="shared" ca="1" si="212"/>
-        <v>100. Спирали,1,255,1,100,0;</v>
+        <f ca="1">CONCATENATE(A108,". ",C108,",",L108,",",M108,",",N108,",",O108,",",P108,";")</f>
+        <v>100. Спектрум,1,255,1,100,0;</v>
       </c>
       <c r="AK108" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>100.Спирали</v>
+        <f ca="1">CONCATENATE("",A108,"",".",C108,"")</f>
+        <v>100.Спектрум</v>
       </c>
       <c r="AL108" s="2"/>
       <c r="AM108" s="2"/>
@@ -15416,23 +15449,23 @@
     </row>
     <row r="109" spans="1:56" ht="14.25" customHeight="1">
       <c r="A109" s="35">
-        <f t="shared" ca="1" si="196"/>
+        <f ca="1">MAX(OFFSET(A109,-4,0,4,1))+1</f>
         <v>101</v>
       </c>
       <c r="B109" s="40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H109" s="40">
         <v>15</v>
       </c>
       <c r="I109" s="40">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="J109" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L109" s="40">
         <v>1</v>
@@ -15453,79 +15486,79 @@
         <v>81</v>
       </c>
       <c r="R109" s="40" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="S109" s="40">
         <v>2</v>
       </c>
       <c r="T109" s="40">
-        <f t="shared" ca="1" si="197"/>
+        <f ca="1">MAX(OFFSET(T109,-4,0,4,1))+1</f>
         <v>101</v>
       </c>
       <c r="U109" s="15"/>
       <c r="V109" s="2" t="str">
-        <f t="shared" ca="1" si="198"/>
-        <v>#define EFF_FLOCK               (101U)    // Стая</v>
+        <f ca="1">CONCATENATE("#define EFF_",B109,REPT(" ",20-LEN(B109)),"(",REPT(" ",3-LEN(T109)),T109,"U)    // ",C109)</f>
+        <v>#define EFF_SPIRO               (101U)    // Спирали</v>
       </c>
       <c r="W109" s="2" t="str">
-        <f t="shared" ca="1" si="199"/>
-        <v>String("101. Стая,1,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A109,". ",C109,",",L109,",",M109,",",N109,",",O109,",",P109,";"") +")</f>
+        <v>String("101. Спирали,1,255,1,100,0;") +</v>
       </c>
       <c r="X109" s="2" t="str">
-        <f t="shared" ca="1" si="200"/>
+        <f ca="1">CONCATENATE("String(""",A109,". ",D109,",",L109,",",M109,",",N109,",",O109,",",P109,";"") +")</f>
         <v>String("101. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y109" s="2" t="str">
-        <f t="shared" ca="1" si="201"/>
+        <f ca="1">CONCATENATE("String(""",A109,". ",E109,",",L109,",",M109,",",N109,",",O109,",",P109,";"") +")</f>
         <v>String("101. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z109" s="2" t="str">
-        <f t="shared" si="202"/>
-        <v xml:space="preserve">  {  15, 136,   4}, // Стая</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H109)),H109,",",REPT(" ",4-LEN(I109)),I109,",",REPT(" ",4-LEN(J109)),J109,"}, // ",C109)</f>
+        <v xml:space="preserve">  {  15,  45,   3}, // Спирали</v>
       </c>
       <c r="AA109" s="2" t="str">
-        <f t="shared" ca="1" si="203"/>
-        <v xml:space="preserve">        case EFF_FLOCK:               LOW_DELAY_TICK { effTimer = millis(); flockRoutine(false);          Eff_Tick (); }  break;  // (101U) Стая</v>
+        <f ca="1">CONCATENATE("        case EFF_",B109,":",REPT(" ",20-LEN(B109)),Q109," { effTimer = millis(); ",R109,REPT(" ",30-LEN(R109)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T109)),T109,"U) ",C109)</f>
+        <v xml:space="preserve">        case EFF_SPIRO:               LOW_DELAY_TICK { effTimer = millis(); spiroRoutine();               Eff_Tick (); }  break;  // (101U) Спирали</v>
       </c>
       <c r="AB109" s="2" t="str">
-        <f t="shared" ca="1" si="214"/>
-        <v>{"name":"101. Стая","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ref="AB109:AB110" ca="1" si="214">CONCATENATE("{""name"":""",A109,". ",C109,""",""spmin"":",L109,",""spmax"":",M109,",""scmin"":",N109,",""scmax"":",O109,",""type"":",P109,"},")</f>
+        <v>{"name":"101. Спирали","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC109" s="4" t="str">
-        <f t="shared" ca="1" si="205"/>
+        <f ca="1">CONCATENATE("""","e",T109,"""",":0,")</f>
         <v>"e101":0,</v>
       </c>
       <c r="AD109" s="4" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f ca="1">CONCATENATE("e",T109,"=[[e",T109,"]]&amp;")</f>
         <v>e101=[[e101]]&amp;</v>
       </c>
       <c r="AE109" s="4" t="str">
-        <f t="shared" ca="1" si="207"/>
+        <f ca="1">CONCATENATE("""","e",T109,"""",":",S109,",")</f>
         <v>"e101":2,</v>
       </c>
       <c r="AF109" s="2" t="str">
-        <f t="shared" ca="1" si="208"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e101","title":"101. Стая","style":"font-size:20px;display:block","state":"{{e101}}"},</v>
+        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T109,""",""title"":""",A109,". ",C109,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T109,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e101","title":"101. Спирали","style":"font-size:20px;display:block","state":"{{e101}}"},</v>
       </c>
       <c r="AG109" s="2" t="str">
-        <f t="shared" ca="1" si="209"/>
-        <v>{"type":"h4","title":"101. Стая","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e101","state":"{{e101}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A109,". ",C109,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T109,""",""state"":""{{e",T109,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"101. Спирали","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e101","state":"{{e101}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH109" s="2" t="str">
-        <f t="shared" ca="1" si="210"/>
-        <v>"101": "101.Стая",</v>
+        <f ca="1">CONCATENATE("""",A109,"""",": """,A109,".",C109,""",")</f>
+        <v>"101": "101.Спирали",</v>
       </c>
       <c r="AI109" s="16" t="str">
-        <f t="shared" ca="1" si="211"/>
+        <f ca="1">CONCATENATE("""",A109,"""",":""",T109,""",")</f>
         <v>"101":"101",</v>
       </c>
       <c r="AJ109" s="2" t="str">
-        <f t="shared" ca="1" si="212"/>
-        <v>101. Стая,1,255,1,100,0;</v>
+        <f ca="1">CONCATENATE(A109,". ",C109,",",L109,",",M109,",",N109,",",O109,",",P109,";")</f>
+        <v>101. Спирали,1,255,1,100,0;</v>
       </c>
       <c r="AK109" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>101.Стая</v>
+        <f ca="1">CONCATENATE("",A109,"",".",C109,"")</f>
+        <v>101.Спирали</v>
       </c>
       <c r="AL109" s="2"/>
       <c r="AM109" s="2"/>
@@ -15549,23 +15582,23 @@
     </row>
     <row r="110" spans="1:56" ht="14.25" customHeight="1">
       <c r="A110" s="35">
-        <f t="shared" ca="1" si="196"/>
+        <f ca="1">MAX(OFFSET(A110,-4,0,4,1))+1</f>
         <v>102</v>
       </c>
       <c r="B110" s="40" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H110" s="40">
         <v>15</v>
       </c>
       <c r="I110" s="40">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="J110" s="40">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="L110" s="40">
         <v>1</v>
@@ -15586,75 +15619,79 @@
         <v>81</v>
       </c>
       <c r="R110" s="40" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="S110" s="40">
         <v>2</v>
       </c>
       <c r="T110" s="40">
-        <f t="shared" ca="1" si="197"/>
+        <f ca="1">MAX(OFFSET(T110,-4,0,4,1))+1</f>
         <v>102</v>
       </c>
       <c r="U110" s="15"/>
       <c r="V110" s="2" t="str">
-        <f t="shared" ca="1" si="198"/>
-        <v>#define EFF_FLOCK_N_PR          (102U)    // Стая и хищник</v>
+        <f ca="1">CONCATENATE("#define EFF_",B110,REPT(" ",20-LEN(B110)),"(",REPT(" ",3-LEN(T110)),T110,"U)    // ",C110)</f>
+        <v>#define EFF_FLOCK               (102U)    // Стая</v>
       </c>
       <c r="W110" s="2" t="str">
-        <f t="shared" ca="1" si="199"/>
-        <v>String("102. Стая и хищник,1,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A110,". ",C110,",",L110,",",M110,",",N110,",",O110,",",P110,";"") +")</f>
+        <v>String("102. Стая,1,255,1,100,0;") +</v>
       </c>
       <c r="X110" s="2" t="str">
-        <f t="shared" ca="1" si="200"/>
+        <f ca="1">CONCATENATE("String(""",A110,". ",D110,",",L110,",",M110,",",N110,",",O110,",",P110,";"") +")</f>
         <v>String("102. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y110" s="2" t="str">
-        <f t="shared" ca="1" si="201"/>
+        <f ca="1">CONCATENATE("String(""",A110,". ",E110,",",L110,",",M110,",",N110,",",O110,",",P110,";"") +")</f>
         <v>String("102. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z110" s="2" t="str">
-        <f t="shared" si="202"/>
-        <v xml:space="preserve">  {  15, 128,  80}, // Стая и хищник</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H110)),H110,",",REPT(" ",4-LEN(I110)),I110,",",REPT(" ",4-LEN(J110)),J110,"}, // ",C110)</f>
+        <v xml:space="preserve">  {  15, 136,   4}, // Стая</v>
       </c>
       <c r="AA110" s="2" t="str">
-        <f t="shared" ca="1" si="203"/>
-        <v xml:space="preserve">        case EFF_FLOCK_N_PR:          LOW_DELAY_TICK { effTimer = millis(); flockRoutine(true);           Eff_Tick (); }  break;  // (102U) Стая и хищник</v>
+        <f ca="1">CONCATENATE("        case EFF_",B110,":",REPT(" ",20-LEN(B110)),Q110," { effTimer = millis(); ",R110,REPT(" ",30-LEN(R110)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T110)),T110,"U) ",C110)</f>
+        <v xml:space="preserve">        case EFF_FLOCK:               LOW_DELAY_TICK { effTimer = millis(); flockRoutine(false);          Eff_Tick (); }  break;  // (102U) Стая</v>
+      </c>
+      <c r="AB110" s="2" t="str">
+        <f t="shared" ca="1" si="214"/>
+        <v>{"name":"102. Стая","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC110" s="4" t="str">
-        <f t="shared" ca="1" si="205"/>
+        <f ca="1">CONCATENATE("""","e",T110,"""",":0,")</f>
         <v>"e102":0,</v>
       </c>
       <c r="AD110" s="4" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f ca="1">CONCATENATE("e",T110,"=[[e",T110,"]]&amp;")</f>
         <v>e102=[[e102]]&amp;</v>
       </c>
       <c r="AE110" s="4" t="str">
-        <f t="shared" ca="1" si="207"/>
+        <f ca="1">CONCATENATE("""","e",T110,"""",":",S110,",")</f>
         <v>"e102":2,</v>
       </c>
       <c r="AF110" s="2" t="str">
-        <f t="shared" ca="1" si="208"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e102","title":"102. Стая и хищник","style":"font-size:20px;display:block","state":"{{e102}}"},</v>
+        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T110,""",""title"":""",A110,". ",C110,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T110,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e102","title":"102. Стая","style":"font-size:20px;display:block","state":"{{e102}}"},</v>
       </c>
       <c r="AG110" s="2" t="str">
-        <f t="shared" ca="1" si="209"/>
-        <v>{"type":"h4","title":"102. Стая и хищник","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e102","state":"{{e102}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A110,". ",C110,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T110,""",""state"":""{{e",T110,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"102. Стая","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e102","state":"{{e102}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH110" s="2" t="str">
-        <f t="shared" ca="1" si="210"/>
-        <v>"102": "102.Стая и хищник",</v>
+        <f ca="1">CONCATENATE("""",A110,"""",": """,A110,".",C110,""",")</f>
+        <v>"102": "102.Стая",</v>
       </c>
       <c r="AI110" s="16" t="str">
-        <f t="shared" ca="1" si="211"/>
+        <f ca="1">CONCATENATE("""",A110,"""",":""",T110,""",")</f>
         <v>"102":"102",</v>
       </c>
       <c r="AJ110" s="2" t="str">
-        <f t="shared" ca="1" si="212"/>
-        <v>102. Стая и хищник,1,255,1,100,0;</v>
+        <f ca="1">CONCATENATE(A110,". ",C110,",",L110,",",M110,",",N110,",",O110,",",P110,";")</f>
+        <v>102. Стая,1,255,1,100,0;</v>
       </c>
       <c r="AK110" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>102.Стая и хищник</v>
+        <f ca="1">CONCATENATE("",A110,"",".",C110,"")</f>
+        <v>102.Стая</v>
       </c>
       <c r="AL110" s="2"/>
       <c r="AM110" s="2"/>
@@ -15678,23 +15715,23 @@
     </row>
     <row r="111" spans="1:56" ht="14.25" customHeight="1">
       <c r="A111" s="35">
-        <f t="shared" ca="1" si="196"/>
+        <f ca="1">MAX(OFFSET(A111,-4,0,4,1))+1</f>
         <v>103</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H111" s="40">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="I111" s="40">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="J111" s="40">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L111" s="40">
         <v>1</v>
@@ -15712,82 +15749,78 @@
         <v>0</v>
       </c>
       <c r="Q111" s="40" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R111" s="40" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="S111" s="40">
         <v>2</v>
       </c>
       <c r="T111" s="40">
-        <f t="shared" ca="1" si="197"/>
+        <f ca="1">MAX(OFFSET(T111,-4,0,4,1))+1</f>
         <v>103</v>
       </c>
       <c r="U111" s="15"/>
       <c r="V111" s="2" t="str">
-        <f t="shared" ca="1" si="198"/>
-        <v>#define EFF_ARROWS              (103U)    // Стрелки</v>
+        <f ca="1">CONCATENATE("#define EFF_",B111,REPT(" ",20-LEN(B111)),"(",REPT(" ",3-LEN(T111)),T111,"U)    // ",C111)</f>
+        <v>#define EFF_FLOCK_N_PR          (103U)    // Стая и хищник</v>
       </c>
       <c r="W111" s="2" t="str">
-        <f t="shared" ca="1" si="199"/>
-        <v>String("103. Стрелки,1,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A111,". ",C111,",",L111,",",M111,",",N111,",",O111,",",P111,";"") +")</f>
+        <v>String("103. Стая и хищник,1,255,1,100,0;") +</v>
       </c>
       <c r="X111" s="2" t="str">
-        <f t="shared" ca="1" si="200"/>
+        <f ca="1">CONCATENATE("String(""",A111,". ",D111,",",L111,",",M111,",",N111,",",O111,",",P111,";"") +")</f>
         <v>String("103. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y111" s="2" t="str">
-        <f t="shared" ca="1" si="201"/>
+        <f ca="1">CONCATENATE("String(""",A111,". ",E111,",",L111,",",M111,",",N111,",",O111,",",P111,";"") +")</f>
         <v>String("103. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z111" s="2" t="str">
-        <f t="shared" si="202"/>
-        <v xml:space="preserve">  {  75, 165,  40}, // Стрелки</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H111)),H111,",",REPT(" ",4-LEN(I111)),I111,",",REPT(" ",4-LEN(J111)),J111,"}, // ",C111)</f>
+        <v xml:space="preserve">  {  15, 128,  80}, // Стая и хищник</v>
       </c>
       <c r="AA111" s="2" t="str">
-        <f t="shared" ca="1" si="203"/>
-        <v xml:space="preserve">        case EFF_ARROWS:              DYNAMIC_DELAY_TICK { effTimer = millis(); arrowsRoutine();              Eff_Tick (); }  break;  // (103U) Стрелки</v>
-      </c>
-      <c r="AB111" s="2" t="str">
-        <f t="shared" ref="AB111:AB115" ca="1" si="215">CONCATENATE("{""name"":""",A111,". ",C111,""",""spmin"":",L111,",""spmax"":",M111,",""scmin"":",N111,",""scmax"":",O111,",""type"":",P111,"},")</f>
-        <v>{"name":"103. Стрелки","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f ca="1">CONCATENATE("        case EFF_",B111,":",REPT(" ",20-LEN(B111)),Q111," { effTimer = millis(); ",R111,REPT(" ",30-LEN(R111)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T111)),T111,"U) ",C111)</f>
+        <v xml:space="preserve">        case EFF_FLOCK_N_PR:          LOW_DELAY_TICK { effTimer = millis(); flockRoutine(true);           Eff_Tick (); }  break;  // (103U) Стая и хищник</v>
       </c>
       <c r="AC111" s="4" t="str">
-        <f t="shared" ca="1" si="205"/>
+        <f ca="1">CONCATENATE("""","e",T111,"""",":0,")</f>
         <v>"e103":0,</v>
       </c>
       <c r="AD111" s="4" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f ca="1">CONCATENATE("e",T111,"=[[e",T111,"]]&amp;")</f>
         <v>e103=[[e103]]&amp;</v>
       </c>
       <c r="AE111" s="4" t="str">
-        <f t="shared" ca="1" si="207"/>
+        <f ca="1">CONCATENATE("""","e",T111,"""",":",S111,",")</f>
         <v>"e103":2,</v>
       </c>
       <c r="AF111" s="2" t="str">
-        <f t="shared" ca="1" si="208"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e103","title":"103. Стрелки","style":"font-size:20px;display:block","state":"{{e103}}"},</v>
+        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T111,""",""title"":""",A111,". ",C111,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T111,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e103","title":"103. Стая и хищник","style":"font-size:20px;display:block","state":"{{e103}}"},</v>
       </c>
       <c r="AG111" s="2" t="str">
-        <f t="shared" ca="1" si="209"/>
-        <v>{"type":"h4","title":"103. Стрелки","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e103","state":"{{e103}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A111,". ",C111,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T111,""",""state"":""{{e",T111,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"103. Стая и хищник","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e103","state":"{{e103}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH111" s="2" t="str">
-        <f t="shared" ca="1" si="210"/>
-        <v>"103": "103.Стрелки",</v>
+        <f ca="1">CONCATENATE("""",A111,"""",": """,A111,".",C111,""",")</f>
+        <v>"103": "103.Стая и хищник",</v>
       </c>
       <c r="AI111" s="16" t="str">
-        <f t="shared" ca="1" si="211"/>
+        <f ca="1">CONCATENATE("""",A111,"""",":""",T111,""",")</f>
         <v>"103":"103",</v>
       </c>
       <c r="AJ111" s="2" t="str">
-        <f t="shared" ca="1" si="212"/>
-        <v>103. Стрелки,1,255,1,100,0;</v>
+        <f ca="1">CONCATENATE(A111,". ",C111,",",L111,",",M111,",",N111,",",O111,",",P111,";")</f>
+        <v>103. Стая и хищник,1,255,1,100,0;</v>
       </c>
       <c r="AK111" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>103.Стрелки</v>
+        <f ca="1">CONCATENATE("",A111,"",".",C111,"")</f>
+        <v>103.Стая и хищник</v>
       </c>
       <c r="AL111" s="2"/>
       <c r="AM111" s="2"/>
@@ -15811,23 +15844,23 @@
     </row>
     <row r="112" spans="1:56" ht="14.25" customHeight="1">
       <c r="A112" s="35">
-        <f t="shared" ca="1" si="196"/>
+        <f ca="1">MAX(OFFSET(A112,-4,0,4,1))+1</f>
         <v>104</v>
       </c>
       <c r="B112" s="40" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H112" s="40">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I112" s="40">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="J112" s="40">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L112" s="40">
         <v>1</v>
@@ -15845,82 +15878,82 @@
         <v>0</v>
       </c>
       <c r="Q112" s="40" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="R112" s="40" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="S112" s="40">
         <v>2</v>
       </c>
       <c r="T112" s="40">
-        <f t="shared" ca="1" si="197"/>
+        <f ca="1">MAX(OFFSET(T112,-4,0,4,1))+1</f>
         <v>104</v>
       </c>
       <c r="U112" s="15"/>
       <c r="V112" s="2" t="str">
-        <f t="shared" ca="1" si="198"/>
-        <v>#define EFF_STROBE              (104U)    // Строб.Хаос.Дифузия</v>
+        <f ca="1">CONCATENATE("#define EFF_",B112,REPT(" ",20-LEN(B112)),"(",REPT(" ",3-LEN(T112)),T112,"U)    // ",C112)</f>
+        <v>#define EFF_ARROWS              (104U)    // Стрелки</v>
       </c>
       <c r="W112" s="2" t="str">
-        <f t="shared" ca="1" si="199"/>
-        <v>String("104. Строб.Хаос.Дифузия,1,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A112,". ",C112,",",L112,",",M112,",",N112,",",O112,",",P112,";"") +")</f>
+        <v>String("104. Стрелки,1,255,1,100,0;") +</v>
       </c>
       <c r="X112" s="2" t="str">
-        <f t="shared" ca="1" si="200"/>
+        <f ca="1">CONCATENATE("String(""",A112,". ",D112,",",L112,",",M112,",",N112,",",O112,",",P112,";"") +")</f>
         <v>String("104. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y112" s="2" t="str">
-        <f t="shared" ca="1" si="201"/>
+        <f ca="1">CONCATENATE("String(""",A112,". ",E112,",",L112,",",M112,",",N112,",",O112,",",P112,";"") +")</f>
         <v>String("104. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z112" s="2" t="str">
-        <f t="shared" si="202"/>
-        <v xml:space="preserve">  {  25,   1,  45}, // Строб.Хаос.Дифузия</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H112)),H112,",",REPT(" ",4-LEN(I112)),I112,",",REPT(" ",4-LEN(J112)),J112,"}, // ",C112)</f>
+        <v xml:space="preserve">  {  75, 165,  40}, // Стрелки</v>
       </c>
       <c r="AA112" s="2" t="str">
-        <f t="shared" ca="1" si="203"/>
-        <v xml:space="preserve">        case EFF_STROBE:              LOW_DELAY_TICK { effTimer = millis(); StrobeAndDiffusion();         Eff_Tick (); }  break;  // (104U) Строб.Хаос.Дифузия</v>
+        <f ca="1">CONCATENATE("        case EFF_",B112,":",REPT(" ",20-LEN(B112)),Q112," { effTimer = millis(); ",R112,REPT(" ",30-LEN(R112)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T112)),T112,"U) ",C112)</f>
+        <v xml:space="preserve">        case EFF_ARROWS:              DYNAMIC_DELAY_TICK { effTimer = millis(); arrowsRoutine();              Eff_Tick (); }  break;  // (104U) Стрелки</v>
       </c>
       <c r="AB112" s="2" t="str">
-        <f t="shared" ca="1" si="215"/>
-        <v>{"name":"104. Строб.Хаос.Дифузия","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ref="AB112:AB116" ca="1" si="215">CONCATENATE("{""name"":""",A112,". ",C112,""",""spmin"":",L112,",""spmax"":",M112,",""scmin"":",N112,",""scmax"":",O112,",""type"":",P112,"},")</f>
+        <v>{"name":"104. Стрелки","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC112" s="4" t="str">
-        <f t="shared" ca="1" si="205"/>
+        <f ca="1">CONCATENATE("""","e",T112,"""",":0,")</f>
         <v>"e104":0,</v>
       </c>
       <c r="AD112" s="4" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f ca="1">CONCATENATE("e",T112,"=[[e",T112,"]]&amp;")</f>
         <v>e104=[[e104]]&amp;</v>
       </c>
       <c r="AE112" s="4" t="str">
-        <f t="shared" ca="1" si="207"/>
+        <f ca="1">CONCATENATE("""","e",T112,"""",":",S112,",")</f>
         <v>"e104":2,</v>
       </c>
       <c r="AF112" s="2" t="str">
-        <f t="shared" ca="1" si="208"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e104","title":"104. Строб.Хаос.Дифузия","style":"font-size:20px;display:block","state":"{{e104}}"},</v>
+        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T112,""",""title"":""",A112,". ",C112,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T112,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e104","title":"104. Стрелки","style":"font-size:20px;display:block","state":"{{e104}}"},</v>
       </c>
       <c r="AG112" s="2" t="str">
-        <f t="shared" ca="1" si="209"/>
-        <v>{"type":"h4","title":"104. Строб.Хаос.Дифузия","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e104","state":"{{e104}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A112,". ",C112,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T112,""",""state"":""{{e",T112,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"104. Стрелки","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e104","state":"{{e104}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH112" s="2" t="str">
-        <f t="shared" ca="1" si="210"/>
-        <v>"104": "104.Строб.Хаос.Дифузия",</v>
+        <f ca="1">CONCATENATE("""",A112,"""",": """,A112,".",C112,""",")</f>
+        <v>"104": "104.Стрелки",</v>
       </c>
       <c r="AI112" s="16" t="str">
-        <f t="shared" ca="1" si="211"/>
+        <f ca="1">CONCATENATE("""",A112,"""",":""",T112,""",")</f>
         <v>"104":"104",</v>
       </c>
       <c r="AJ112" s="2" t="str">
-        <f t="shared" ca="1" si="212"/>
-        <v>104. Строб.Хаос.Дифузия,1,255,1,100,0;</v>
+        <f ca="1">CONCATENATE(A112,". ",C112,",",L112,",",M112,",",N112,",",O112,",",P112,";")</f>
+        <v>104. Стрелки,1,255,1,100,0;</v>
       </c>
       <c r="AK112" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>104.Строб.Хаос.Дифузия</v>
+        <f ca="1">CONCATENATE("",A112,"",".",C112,"")</f>
+        <v>104.Стрелки</v>
       </c>
       <c r="AL112" s="2"/>
       <c r="AM112" s="2"/>
@@ -15944,23 +15977,23 @@
     </row>
     <row r="113" spans="1:56" ht="14.25" customHeight="1">
       <c r="A113" s="35">
-        <f t="shared" ca="1" si="196"/>
+        <f ca="1">MAX(OFFSET(A113,-4,0,4,1))+1</f>
         <v>105</v>
       </c>
       <c r="B113" s="40" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H113" s="40">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I113" s="40">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="J113" s="40">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="L113" s="40">
         <v>1</v>
@@ -15981,79 +16014,79 @@
         <v>81</v>
       </c>
       <c r="R113" s="40" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="S113" s="40">
         <v>2</v>
       </c>
       <c r="T113" s="40">
-        <f t="shared" ca="1" si="197"/>
+        <f ca="1">MAX(OFFSET(T113,-4,0,4,1))+1</f>
         <v>105</v>
       </c>
       <c r="U113" s="15"/>
       <c r="V113" s="2" t="str">
-        <f t="shared" ca="1" si="198"/>
-        <v>#define EFF_SHADOWS             (105U)    // Тени</v>
+        <f ca="1">CONCATENATE("#define EFF_",B113,REPT(" ",20-LEN(B113)),"(",REPT(" ",3-LEN(T113)),T113,"U)    // ",C113)</f>
+        <v>#define EFF_STROBE              (105U)    // Строб.Хаос.Дифузия</v>
       </c>
       <c r="W113" s="2" t="str">
-        <f t="shared" ca="1" si="199"/>
-        <v>String("105. Тени,1,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A113,". ",C113,",",L113,",",M113,",",N113,",",O113,",",P113,";"") +")</f>
+        <v>String("105. Строб.Хаос.Дифузия,1,255,1,100,0;") +</v>
       </c>
       <c r="X113" s="2" t="str">
-        <f t="shared" ca="1" si="200"/>
+        <f ca="1">CONCATENATE("String(""",A113,". ",D113,",",L113,",",M113,",",N113,",",O113,",",P113,";"") +")</f>
         <v>String("105. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y113" s="2" t="str">
-        <f t="shared" ca="1" si="201"/>
+        <f ca="1">CONCATENATE("String(""",A113,". ",E113,",",L113,",",M113,",",N113,",",O113,",",P113,";"") +")</f>
         <v>String("105. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z113" s="2" t="str">
-        <f t="shared" si="202"/>
-        <v xml:space="preserve">  {  50, 160,   1}, // Тени</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H113)),H113,",",REPT(" ",4-LEN(I113)),I113,",",REPT(" ",4-LEN(J113)),J113,"}, // ",C113)</f>
+        <v xml:space="preserve">  {  25,   1,  45}, // Строб.Хаос.Дифузия</v>
       </c>
       <c r="AA113" s="2" t="str">
-        <f t="shared" ca="1" si="203"/>
-        <v xml:space="preserve">        case EFF_SHADOWS:             LOW_DELAY_TICK { effTimer = millis(); shadowsRoutine();             Eff_Tick (); }  break;  // (105U) Тени</v>
+        <f ca="1">CONCATENATE("        case EFF_",B113,":",REPT(" ",20-LEN(B113)),Q113," { effTimer = millis(); ",R113,REPT(" ",30-LEN(R113)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T113)),T113,"U) ",C113)</f>
+        <v xml:space="preserve">        case EFF_STROBE:              LOW_DELAY_TICK { effTimer = millis(); StrobeAndDiffusion();         Eff_Tick (); }  break;  // (105U) Строб.Хаос.Дифузия</v>
       </c>
       <c r="AB113" s="2" t="str">
         <f t="shared" ca="1" si="215"/>
-        <v>{"name":"105. Тени","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <v>{"name":"105. Строб.Хаос.Дифузия","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC113" s="4" t="str">
-        <f t="shared" ca="1" si="205"/>
+        <f ca="1">CONCATENATE("""","e",T113,"""",":0,")</f>
         <v>"e105":0,</v>
       </c>
       <c r="AD113" s="4" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f ca="1">CONCATENATE("e",T113,"=[[e",T113,"]]&amp;")</f>
         <v>e105=[[e105]]&amp;</v>
       </c>
       <c r="AE113" s="4" t="str">
-        <f t="shared" ca="1" si="207"/>
+        <f ca="1">CONCATENATE("""","e",T113,"""",":",S113,",")</f>
         <v>"e105":2,</v>
       </c>
       <c r="AF113" s="2" t="str">
-        <f t="shared" ca="1" si="208"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e105","title":"105. Тени","style":"font-size:20px;display:block","state":"{{e105}}"},</v>
+        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T113,""",""title"":""",A113,". ",C113,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T113,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e105","title":"105. Строб.Хаос.Дифузия","style":"font-size:20px;display:block","state":"{{e105}}"},</v>
       </c>
       <c r="AG113" s="2" t="str">
-        <f t="shared" ca="1" si="209"/>
-        <v>{"type":"h4","title":"105. Тени","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e105","state":"{{e105}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A113,". ",C113,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T113,""",""state"":""{{e",T113,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"105. Строб.Хаос.Дифузия","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e105","state":"{{e105}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH113" s="2" t="str">
-        <f t="shared" ca="1" si="210"/>
-        <v>"105": "105.Тени",</v>
+        <f ca="1">CONCATENATE("""",A113,"""",": """,A113,".",C113,""",")</f>
+        <v>"105": "105.Строб.Хаос.Дифузия",</v>
       </c>
       <c r="AI113" s="16" t="str">
-        <f t="shared" ca="1" si="211"/>
+        <f ca="1">CONCATENATE("""",A113,"""",":""",T113,""",")</f>
         <v>"105":"105",</v>
       </c>
       <c r="AJ113" s="2" t="str">
-        <f t="shared" ca="1" si="212"/>
-        <v>105. Тени,1,255,1,100,0;</v>
+        <f ca="1">CONCATENATE(A113,". ",C113,",",L113,",",M113,",",N113,",",O113,",",P113,";")</f>
+        <v>105. Строб.Хаос.Дифузия,1,255,1,100,0;</v>
       </c>
       <c r="AK113" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>105.Тени</v>
+        <f ca="1">CONCATENATE("",A113,"",".",C113,"")</f>
+        <v>105.Строб.Хаос.Дифузия</v>
       </c>
       <c r="AL113" s="2"/>
       <c r="AM113" s="2"/>
@@ -16077,23 +16110,23 @@
     </row>
     <row r="114" spans="1:56" ht="14.25" customHeight="1">
       <c r="A114" s="35">
-        <f t="shared" ca="1" si="196"/>
+        <f ca="1">MAX(OFFSET(A114,-4,0,4,1))+1</f>
         <v>106</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H114" s="40">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I114" s="40">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="J114" s="40">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L114" s="40">
         <v>1</v>
@@ -16108,85 +16141,85 @@
         <v>100</v>
       </c>
       <c r="P114" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114" s="40" t="s">
         <v>81</v>
       </c>
       <c r="R114" s="40" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="S114" s="40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T114" s="40">
-        <f t="shared" ca="1" si="197"/>
+        <f ca="1">MAX(OFFSET(T114,-4,0,4,1))+1</f>
         <v>106</v>
       </c>
       <c r="U114" s="15"/>
       <c r="V114" s="2" t="str">
-        <f t="shared" ca="1" si="198"/>
-        <v>#define EFF_PACIFIC             (106U)    // Тихий океан</v>
+        <f ca="1">CONCATENATE("#define EFF_",B114,REPT(" ",20-LEN(B114)),"(",REPT(" ",3-LEN(T114)),T114,"U)    // ",C114)</f>
+        <v>#define EFF_SHADOWS             (106U)    // Тени</v>
       </c>
       <c r="W114" s="2" t="str">
-        <f t="shared" ca="1" si="199"/>
-        <v>String("106. Тихий океан,1,255,1,100,1;") +</v>
+        <f ca="1">CONCATENATE("String(""",A114,". ",C114,",",L114,",",M114,",",N114,",",O114,",",P114,";"") +")</f>
+        <v>String("106. Тени,1,255,1,100,0;") +</v>
       </c>
       <c r="X114" s="2" t="str">
-        <f t="shared" ca="1" si="200"/>
-        <v>String("106. ,1,255,1,100,1;") +</v>
+        <f ca="1">CONCATENATE("String(""",A114,". ",D114,",",L114,",",M114,",",N114,",",O114,",",P114,";"") +")</f>
+        <v>String("106. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y114" s="2" t="str">
-        <f t="shared" ca="1" si="201"/>
-        <v>String("106. ,1,255,1,100,1;") +</v>
+        <f ca="1">CONCATENATE("String(""",A114,". ",E114,",",L114,",",M114,",",N114,",",O114,",",P114,";"") +")</f>
+        <v>String("106. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z114" s="2" t="str">
-        <f t="shared" si="202"/>
-        <v xml:space="preserve">  {  20, 127, 100}, // Тихий океан</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H114)),H114,",",REPT(" ",4-LEN(I114)),I114,",",REPT(" ",4-LEN(J114)),J114,"}, // ",C114)</f>
+        <v xml:space="preserve">  {  50, 160,   1}, // Тени</v>
       </c>
       <c r="AA114" s="2" t="str">
-        <f t="shared" ca="1" si="203"/>
-        <v xml:space="preserve">        case EFF_PACIFIC:             LOW_DELAY_TICK { effTimer = millis(); pacificRoutine();             Eff_Tick (); }  break;  // (106U) Тихий океан</v>
+        <f ca="1">CONCATENATE("        case EFF_",B114,":",REPT(" ",20-LEN(B114)),Q114," { effTimer = millis(); ",R114,REPT(" ",30-LEN(R114)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T114)),T114,"U) ",C114)</f>
+        <v xml:space="preserve">        case EFF_SHADOWS:             LOW_DELAY_TICK { effTimer = millis(); shadowsRoutine();             Eff_Tick (); }  break;  // (106U) Тени</v>
       </c>
       <c r="AB114" s="2" t="str">
         <f t="shared" ca="1" si="215"/>
-        <v>{"name":"106. Тихий океан","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
+        <v>{"name":"106. Тени","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC114" s="4" t="str">
-        <f t="shared" ca="1" si="205"/>
+        <f ca="1">CONCATENATE("""","e",T114,"""",":0,")</f>
         <v>"e106":0,</v>
       </c>
       <c r="AD114" s="4" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f ca="1">CONCATENATE("e",T114,"=[[e",T114,"]]&amp;")</f>
         <v>e106=[[e106]]&amp;</v>
       </c>
       <c r="AE114" s="4" t="str">
-        <f t="shared" ca="1" si="207"/>
-        <v>"e106":5,</v>
+        <f ca="1">CONCATENATE("""","e",T114,"""",":",S114,",")</f>
+        <v>"e106":2,</v>
       </c>
       <c r="AF114" s="2" t="str">
-        <f t="shared" ca="1" si="208"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e106","title":"106. Тихий океан","style":"font-size:20px;display:block","state":"{{e106}}"},</v>
+        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T114,""",""title"":""",A114,". ",C114,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T114,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e106","title":"106. Тени","style":"font-size:20px;display:block","state":"{{e106}}"},</v>
       </c>
       <c r="AG114" s="2" t="str">
-        <f t="shared" ca="1" si="209"/>
-        <v>{"type":"h4","title":"106. Тихий океан","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e106","state":"{{e106}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A114,". ",C114,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T114,""",""state"":""{{e",T114,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"106. Тени","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e106","state":"{{e106}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH114" s="2" t="str">
-        <f t="shared" ca="1" si="210"/>
-        <v>"106": "106.Тихий океан",</v>
+        <f ca="1">CONCATENATE("""",A114,"""",": """,A114,".",C114,""",")</f>
+        <v>"106": "106.Тени",</v>
       </c>
       <c r="AI114" s="16" t="str">
-        <f t="shared" ca="1" si="211"/>
+        <f ca="1">CONCATENATE("""",A114,"""",":""",T114,""",")</f>
         <v>"106":"106",</v>
       </c>
       <c r="AJ114" s="2" t="str">
-        <f t="shared" ca="1" si="212"/>
-        <v>106. Тихий океан,1,255,1,100,1;</v>
+        <f ca="1">CONCATENATE(A114,". ",C114,",",L114,",",M114,",",N114,",",O114,",",P114,";")</f>
+        <v>106. Тени,1,255,1,100,0;</v>
       </c>
       <c r="AK114" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>106.Тихий океан</v>
+        <f ca="1">CONCATENATE("",A114,"",".",C114,"")</f>
+        <v>106.Тени</v>
       </c>
       <c r="AL114" s="2"/>
       <c r="AM114" s="2"/>
@@ -16208,25 +16241,25 @@
       <c r="BC114" s="18"/>
       <c r="BD114" s="18"/>
     </row>
-    <row r="115" spans="1:56">
+    <row r="115" spans="1:56" ht="14.25" customHeight="1">
       <c r="A115" s="35">
-        <f t="shared" ca="1" si="196"/>
+        <f ca="1">MAX(OFFSET(A115,-4,0,4,1))+1</f>
         <v>107</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="H115" s="40">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I115" s="40">
         <v>127</v>
       </c>
       <c r="J115" s="40">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L115" s="40">
         <v>1</v>
@@ -16241,108 +16274,128 @@
         <v>100</v>
       </c>
       <c r="P115" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q115" s="40" t="s">
         <v>81</v>
       </c>
       <c r="R115" s="40" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="S115" s="40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T115" s="40">
-        <f t="shared" ca="1" si="197"/>
+        <f ca="1">MAX(OFFSET(T115,-4,0,4,1))+1</f>
         <v>107</v>
       </c>
+      <c r="U115" s="15"/>
       <c r="V115" s="2" t="str">
-        <f t="shared" ca="1" si="198"/>
-        <v>#define EFF_TORNADO             (107U)    // Торнадо</v>
+        <f ca="1">CONCATENATE("#define EFF_",B115,REPT(" ",20-LEN(B115)),"(",REPT(" ",3-LEN(T115)),T115,"U)    // ",C115)</f>
+        <v>#define EFF_PACIFIC             (107U)    // Тихий океан</v>
       </c>
       <c r="W115" s="2" t="str">
-        <f t="shared" ca="1" si="199"/>
-        <v>String("107. Торнадо,1,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A115,". ",C115,",",L115,",",M115,",",N115,",",O115,",",P115,";"") +")</f>
+        <v>String("107. Тихий океан,1,255,1,100,1;") +</v>
       </c>
       <c r="X115" s="2" t="str">
-        <f t="shared" ca="1" si="200"/>
-        <v>String("107. ,1,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A115,". ",D115,",",L115,",",M115,",",N115,",",O115,",",P115,";"") +")</f>
+        <v>String("107. ,1,255,1,100,1;") +</v>
       </c>
       <c r="Y115" s="2" t="str">
-        <f t="shared" ca="1" si="201"/>
-        <v>String("107. ,1,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A115,". ",E115,",",L115,",",M115,",",N115,",",O115,",",P115,";"") +")</f>
+        <v>String("107. ,1,255,1,100,1;") +</v>
       </c>
       <c r="Z115" s="2" t="str">
-        <f t="shared" si="202"/>
-        <v xml:space="preserve">  {  15, 127,  50}, // Торнадо</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H115)),H115,",",REPT(" ",4-LEN(I115)),I115,",",REPT(" ",4-LEN(J115)),J115,"}, // ",C115)</f>
+        <v xml:space="preserve">  {  20, 127, 100}, // Тихий океан</v>
       </c>
       <c r="AA115" s="2" t="str">
-        <f t="shared" ca="1" si="203"/>
-        <v xml:space="preserve">        case EFF_TORNADO:             LOW_DELAY_TICK { effTimer = millis(); Tornado();                    Eff_Tick (); }  break;  // (107U) Торнадо</v>
+        <f ca="1">CONCATENATE("        case EFF_",B115,":",REPT(" ",20-LEN(B115)),Q115," { effTimer = millis(); ",R115,REPT(" ",30-LEN(R115)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T115)),T115,"U) ",C115)</f>
+        <v xml:space="preserve">        case EFF_PACIFIC:             LOW_DELAY_TICK { effTimer = millis(); pacificRoutine();             Eff_Tick (); }  break;  // (107U) Тихий океан</v>
       </c>
       <c r="AB115" s="2" t="str">
         <f t="shared" ca="1" si="215"/>
-        <v>{"name":"107. Торнадо","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <v>{"name":"107. Тихий океан","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
       </c>
       <c r="AC115" s="4" t="str">
-        <f t="shared" ca="1" si="205"/>
+        <f ca="1">CONCATENATE("""","e",T115,"""",":0,")</f>
         <v>"e107":0,</v>
       </c>
       <c r="AD115" s="4" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f ca="1">CONCATENATE("e",T115,"=[[e",T115,"]]&amp;")</f>
         <v>e107=[[e107]]&amp;</v>
       </c>
       <c r="AE115" s="4" t="str">
-        <f t="shared" ca="1" si="207"/>
-        <v>"e107":2,</v>
+        <f ca="1">CONCATENATE("""","e",T115,"""",":",S115,",")</f>
+        <v>"e107":5,</v>
       </c>
       <c r="AF115" s="2" t="str">
-        <f t="shared" ref="AF115:AF121" ca="1" si="216">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T115,""",""title"":""",A115,". ",C115,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T115,"}}""},")</f>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e107","title":"107. Торнадо","style":"font-size:20px;display:block","state":"{{e107}}"},</v>
+        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T115,""",""title"":""",A115,". ",C115,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T115,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e107","title":"107. Тихий океан","style":"font-size:20px;display:block","state":"{{e107}}"},</v>
       </c>
       <c r="AG115" s="2" t="str">
-        <f t="shared" ca="1" si="209"/>
-        <v>{"type":"h4","title":"107. Торнадо","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e107","state":"{{e107}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A115,". ",C115,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T115,""",""state"":""{{e",T115,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"107. Тихий океан","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e107","state":"{{e107}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH115" s="2" t="str">
-        <f t="shared" ca="1" si="210"/>
-        <v>"107": "107.Торнадо",</v>
+        <f ca="1">CONCATENATE("""",A115,"""",": """,A115,".",C115,""",")</f>
+        <v>"107": "107.Тихий океан",</v>
       </c>
       <c r="AI115" s="16" t="str">
-        <f t="shared" ca="1" si="211"/>
+        <f ca="1">CONCATENATE("""",A115,"""",":""",T115,""",")</f>
         <v>"107":"107",</v>
       </c>
       <c r="AJ115" s="2" t="str">
-        <f t="shared" ca="1" si="212"/>
-        <v>107. Торнадо,1,255,1,100,0;</v>
+        <f ca="1">CONCATENATE(A115,". ",C115,",",L115,",",M115,",",N115,",",O115,",",P115,";")</f>
+        <v>107. Тихий океан,1,255,1,100,1;</v>
       </c>
       <c r="AK115" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>107.Торнадо</v>
-      </c>
+        <f ca="1">CONCATENATE("",A115,"",".",C115,"")</f>
+        <v>107.Тихий океан</v>
+      </c>
+      <c r="AL115" s="2"/>
+      <c r="AM115" s="2"/>
+      <c r="AN115" s="17"/>
+      <c r="AO115" s="2"/>
+      <c r="AP115" s="2"/>
+      <c r="AQ115" s="2"/>
+      <c r="AR115" s="2"/>
+      <c r="AS115" s="16"/>
+      <c r="AT115" s="2"/>
+      <c r="AU115" s="2"/>
+      <c r="AV115" s="18"/>
+      <c r="AW115" s="18"/>
+      <c r="AX115" s="18"/>
+      <c r="AY115" s="18"/>
+      <c r="AZ115" s="18"/>
+      <c r="BA115" s="18"/>
+      <c r="BB115" s="18"/>
+      <c r="BC115" s="18"/>
+      <c r="BD115" s="18"/>
     </row>
-    <row r="116" spans="1:56" ht="14.25" customHeight="1">
+    <row r="116" spans="1:56">
       <c r="A116" s="35">
-        <f t="shared" ref="A116:A125" ca="1" si="217">MAX(OFFSET(A116,-4,0,4,1))+1</f>
+        <f ca="1">MAX(OFFSET(A116,-4,0,4,1))+1</f>
         <v>108</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="C116" s="40" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="H116" s="40">
+        <v>15</v>
+      </c>
+      <c r="I116" s="40">
+        <v>127</v>
+      </c>
+      <c r="J116" s="40">
         <v>50</v>
       </c>
-      <c r="I116" s="40">
-        <v>210</v>
-      </c>
-      <c r="J116" s="40">
-        <v>2</v>
-      </c>
       <c r="L116" s="40">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="M116" s="40">
         <v>255</v>
@@ -16357,215 +16410,195 @@
         <v>0</v>
       </c>
       <c r="Q116" s="40" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R116" s="40" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="S116" s="40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T116" s="40">
-        <f t="shared" ca="1" si="197"/>
+        <f ca="1">MAX(OFFSET(T116,-4,0,4,1))+1</f>
         <v>108</v>
       </c>
-      <c r="U116" s="15"/>
       <c r="V116" s="2" t="str">
-        <f t="shared" ca="1" si="198"/>
-        <v>#define EFF_SIMPLE_RAIN         (108U)    // Tyчкa в банке</v>
+        <f ca="1">CONCATENATE("#define EFF_",B116,REPT(" ",20-LEN(B116)),"(",REPT(" ",3-LEN(T116)),T116,"U)    // ",C116)</f>
+        <v>#define EFF_TORNADO             (108U)    // Торнадо</v>
       </c>
       <c r="W116" s="2" t="str">
-        <f t="shared" ref="W116:W121" ca="1" si="218">CONCATENATE("String(""",A116,". ",C116,",",L116,",",M116,",",N116,",",O116,",",P116,";"") +")</f>
-        <v>String("108. Tyчкa в банке,99,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A116,". ",C116,",",L116,",",M116,",",N116,",",O116,",",P116,";"") +")</f>
+        <v>String("108. Торнадо,1,255,1,100,0;") +</v>
       </c>
       <c r="X116" s="2" t="str">
-        <f t="shared" ref="X116:X121" ca="1" si="219">CONCATENATE("String(""",A116,". ",D116,",",L116,",",M116,",",N116,",",O116,",",P116,";"") +")</f>
-        <v>String("108. ,99,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A116,". ",D116,",",L116,",",M116,",",N116,",",O116,",",P116,";"") +")</f>
+        <v>String("108. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y116" s="2" t="str">
-        <f t="shared" ref="Y116:Y121" ca="1" si="220">CONCATENATE("String(""",A116,". ",E116,",",L116,",",M116,",",N116,",",O116,",",P116,";"") +")</f>
-        <v>String("108. ,99,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A116,". ",E116,",",L116,",",M116,",",N116,",",O116,",",P116,";"") +")</f>
+        <v>String("108. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z116" s="2" t="str">
-        <f t="shared" si="202"/>
-        <v xml:space="preserve">  {  50, 210,   2}, // Tyчкa в банке</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H116)),H116,",",REPT(" ",4-LEN(I116)),I116,",",REPT(" ",4-LEN(J116)),J116,"}, // ",C116)</f>
+        <v xml:space="preserve">  {  15, 127,  50}, // Торнадо</v>
       </c>
       <c r="AA116" s="2" t="str">
-        <f t="shared" ca="1" si="203"/>
-        <v xml:space="preserve">        case EFF_SIMPLE_RAIN:         DYNAMIC_DELAY_TICK { effTimer = millis(); simpleRain();                 Eff_Tick (); }  break;  // (108U) Tyчкa в банке</v>
+        <f ca="1">CONCATENATE("        case EFF_",B116,":",REPT(" ",20-LEN(B116)),Q116," { effTimer = millis(); ",R116,REPT(" ",30-LEN(R116)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T116)),T116,"U) ",C116)</f>
+        <v xml:space="preserve">        case EFF_TORNADO:             LOW_DELAY_TICK { effTimer = millis(); Tornado();                    Eff_Tick (); }  break;  // (108U) Торнадо</v>
       </c>
       <c r="AB116" s="2" t="str">
-        <f ca="1">CONCATENATE("{""name"":""",A116,". ",C116,""",""spmin"":",L116,",""spmax"":",M116,",""scmin"":",N116,",""scmax"":",O116,",""type"":",P116,"},")</f>
-        <v>{"name":"108. Tyчкa в банке","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="215"/>
+        <v>{"name":"108. Торнадо","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC116" s="4" t="str">
-        <f t="shared" ca="1" si="205"/>
+        <f ca="1">CONCATENATE("""","e",T116,"""",":0,")</f>
         <v>"e108":0,</v>
       </c>
       <c r="AD116" s="4" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f ca="1">CONCATENATE("e",T116,"=[[e",T116,"]]&amp;")</f>
         <v>e108=[[e108]]&amp;</v>
       </c>
       <c r="AE116" s="4" t="str">
-        <f t="shared" ca="1" si="207"/>
-        <v>"e108":4,</v>
+        <f ca="1">CONCATENATE("""","e",T116,"""",":",S116,",")</f>
+        <v>"e108":2,</v>
       </c>
       <c r="AF116" s="2" t="str">
-        <f t="shared" ca="1" si="216"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e108","title":"108. Tyчкa в банке","style":"font-size:20px;display:block","state":"{{e108}}"},</v>
+        <f t="shared" ref="AF116:AF122" ca="1" si="216">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T116,""",""title"":""",A116,". ",C116,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T116,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e108","title":"108. Торнадо","style":"font-size:20px;display:block","state":"{{e108}}"},</v>
       </c>
       <c r="AG116" s="2" t="str">
-        <f t="shared" ca="1" si="209"/>
-        <v>{"type":"h4","title":"108. Tyчкa в банке","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e108","state":"{{e108}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A116,". ",C116,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T116,""",""state"":""{{e",T116,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"108. Торнадо","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e108","state":"{{e108}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH116" s="2" t="str">
-        <f t="shared" ca="1" si="210"/>
-        <v>"108": "108.Tyчкa в банке",</v>
+        <f ca="1">CONCATENATE("""",A116,"""",": """,A116,".",C116,""",")</f>
+        <v>"108": "108.Торнадо",</v>
       </c>
       <c r="AI116" s="16" t="str">
-        <f t="shared" ca="1" si="211"/>
+        <f ca="1">CONCATENATE("""",A116,"""",":""",T116,""",")</f>
         <v>"108":"108",</v>
       </c>
       <c r="AJ116" s="2" t="str">
-        <f t="shared" ref="AJ116:AJ121" ca="1" si="221">CONCATENATE(A116,". ",C116,",",L116,",",M116,",",N116,",",O116,",",P116,";")</f>
-        <v>108. Tyчкa в банке,99,255,1,100,0;</v>
+        <f ca="1">CONCATENATE(A116,". ",C116,",",L116,",",M116,",",N116,",",O116,",",P116,";")</f>
+        <v>108. Торнадо,1,255,1,100,0;</v>
       </c>
       <c r="AK116" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>108.Tyчкa в банке</v>
-      </c>
-      <c r="AL116" s="2"/>
-      <c r="AM116" s="2"/>
-      <c r="AN116" s="17"/>
-      <c r="AO116" s="2"/>
-      <c r="AP116" s="2"/>
-      <c r="AQ116" s="2"/>
-      <c r="AR116" s="2"/>
-      <c r="AS116" s="16"/>
-      <c r="AT116" s="2"/>
-      <c r="AU116" s="2"/>
-      <c r="AV116" s="18"/>
-      <c r="AW116" s="18"/>
-      <c r="AX116" s="18"/>
-      <c r="AY116" s="18"/>
-      <c r="AZ116" s="18"/>
-      <c r="BA116" s="18"/>
-      <c r="BB116" s="18"/>
-      <c r="BC116" s="18"/>
-      <c r="BD116" s="18"/>
+        <f ca="1">CONCATENATE("",A116,"",".",C116,"")</f>
+        <v>108.Торнадо</v>
+      </c>
     </row>
     <row r="117" spans="1:56" ht="14.25" customHeight="1">
       <c r="A117" s="35">
-        <f t="shared" ca="1" si="217"/>
+        <f t="shared" ref="A117:A126" ca="1" si="217">MAX(OFFSET(A117,-4,0,4,1))+1</f>
         <v>109</v>
       </c>
       <c r="B117" s="40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C117" s="40" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H117" s="40">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I117" s="40">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="J117" s="40">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="L117" s="40">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="M117" s="40">
         <v>255</v>
       </c>
       <c r="N117" s="40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O117" s="40">
         <v>100</v>
       </c>
       <c r="P117" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117" s="40" t="s">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="R117" s="40" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="S117" s="40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T117" s="40">
-        <f t="shared" ca="1" si="197"/>
+        <f ca="1">MAX(OFFSET(T117,-4,0,4,1))+1</f>
         <v>109</v>
       </c>
       <c r="U117" s="15"/>
       <c r="V117" s="2" t="str">
-        <f t="shared" ca="1" si="198"/>
-        <v>#define EFF_FIREWORK            (109U)    // Фейерверк</v>
+        <f ca="1">CONCATENATE("#define EFF_",B117,REPT(" ",20-LEN(B117)),"(",REPT(" ",3-LEN(T117)),T117,"U)    // ",C117)</f>
+        <v>#define EFF_SIMPLE_RAIN         (109U)    // Tyчкa в банке</v>
       </c>
       <c r="W117" s="2" t="str">
-        <f t="shared" ca="1" si="218"/>
-        <v>String("109. Фейерверк,10,255,10,100,1;") +</v>
+        <f t="shared" ref="W117:W122" ca="1" si="218">CONCATENATE("String(""",A117,". ",C117,",",L117,",",M117,",",N117,",",O117,",",P117,";"") +")</f>
+        <v>String("109. Tyчкa в банке,99,255,1,100,0;") +</v>
       </c>
       <c r="X117" s="2" t="str">
-        <f t="shared" ca="1" si="219"/>
-        <v>String("109. ,10,255,10,100,1;") +</v>
+        <f t="shared" ref="X117:X122" ca="1" si="219">CONCATENATE("String(""",A117,". ",D117,",",L117,",",M117,",",N117,",",O117,",",P117,";"") +")</f>
+        <v>String("109. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Y117" s="2" t="str">
-        <f t="shared" ca="1" si="220"/>
-        <v>String("109. ,10,255,10,100,1;") +</v>
+        <f t="shared" ref="Y117:Y122" ca="1" si="220">CONCATENATE("String(""",A117,". ",E117,",",L117,",",M117,",",N117,",",O117,",",P117,";"") +")</f>
+        <v>String("109. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Z117" s="2" t="str">
-        <f t="shared" si="202"/>
-        <v xml:space="preserve">  {  25, 180,  70}, // Фейерверк</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H117)),H117,",",REPT(" ",4-LEN(I117)),I117,",",REPT(" ",4-LEN(J117)),J117,"}, // ",C117)</f>
+        <v xml:space="preserve">  {  50, 210,   2}, // Tyчкa в банке</v>
       </c>
       <c r="AA117" s="2" t="str">
-        <f t="shared" ca="1" si="203"/>
-        <v xml:space="preserve">        case EFF_FIREWORK:            SOFT_DELAY_TICK { effTimer = millis(); Firework();                   Eff_Tick (); }  break;  // (109U) Фейерверк</v>
+        <f ca="1">CONCATENATE("        case EFF_",B117,":",REPT(" ",20-LEN(B117)),Q117," { effTimer = millis(); ",R117,REPT(" ",30-LEN(R117)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T117)),T117,"U) ",C117)</f>
+        <v xml:space="preserve">        case EFF_SIMPLE_RAIN:         DYNAMIC_DELAY_TICK { effTimer = millis(); simpleRain();                 Eff_Tick (); }  break;  // (109U) Tyчкa в банке</v>
       </c>
       <c r="AB117" s="2" t="str">
         <f ca="1">CONCATENATE("{""name"":""",A117,". ",C117,""",""spmin"":",L117,",""spmax"":",M117,",""scmin"":",N117,",""scmax"":",O117,",""type"":",P117,"},")</f>
-        <v>{"name":"109. Фейерверк","spmin":10,"spmax":255,"scmin":10,"scmax":100,"type":1},</v>
+        <v>{"name":"109. Tyчкa в банке","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC117" s="4" t="str">
-        <f t="shared" ca="1" si="205"/>
+        <f ca="1">CONCATENATE("""","e",T117,"""",":0,")</f>
         <v>"e109":0,</v>
       </c>
       <c r="AD117" s="4" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f ca="1">CONCATENATE("e",T117,"=[[e",T117,"]]&amp;")</f>
         <v>e109=[[e109]]&amp;</v>
       </c>
       <c r="AE117" s="4" t="str">
-        <f t="shared" ca="1" si="207"/>
-        <v>"e109":2,</v>
+        <f ca="1">CONCATENATE("""","e",T117,"""",":",S117,",")</f>
+        <v>"e109":4,</v>
       </c>
       <c r="AF117" s="2" t="str">
         <f t="shared" ca="1" si="216"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e109","title":"109. Фейерверк","style":"font-size:20px;display:block","state":"{{e109}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e109","title":"109. Tyчкa в банке","style":"font-size:20px;display:block","state":"{{e109}}"},</v>
       </c>
       <c r="AG117" s="2" t="str">
-        <f t="shared" ca="1" si="209"/>
-        <v>{"type":"h4","title":"109. Фейерверк","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e109","state":"{{e109}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A117,". ",C117,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T117,""",""state"":""{{e",T117,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"109. Tyчкa в банке","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e109","state":"{{e109}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH117" s="2" t="str">
-        <f t="shared" ca="1" si="210"/>
-        <v>"109": "109.Фейерверк",</v>
+        <f ca="1">CONCATENATE("""",A117,"""",": """,A117,".",C117,""",")</f>
+        <v>"109": "109.Tyчкa в банке",</v>
       </c>
       <c r="AI117" s="16" t="str">
-        <f t="shared" ca="1" si="211"/>
+        <f ca="1">CONCATENATE("""",A117,"""",":""",T117,""",")</f>
         <v>"109":"109",</v>
       </c>
       <c r="AJ117" s="2" t="str">
-        <f t="shared" ca="1" si="221"/>
-        <v>109. Фейерверк,10,255,10,100,1;</v>
+        <f t="shared" ref="AJ117:AJ122" ca="1" si="221">CONCATENATE(A117,". ",C117,",",L117,",",M117,",",N117,",",O117,",",P117,";")</f>
+        <v>109. Tyчкa в банке,99,255,1,100,0;</v>
       </c>
       <c r="AK117" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>109.Фейерверк</v>
+        <f ca="1">CONCATENATE("",A117,"",".",C117,"")</f>
+        <v>109.Tyчкa в банке</v>
       </c>
       <c r="AL117" s="2"/>
       <c r="AM117" s="2"/>
@@ -16588,117 +16621,117 @@
       <c r="BD117" s="18"/>
     </row>
     <row r="118" spans="1:56" ht="14.25" customHeight="1">
-      <c r="A118" s="39">
+      <c r="A118" s="35">
         <f t="shared" ca="1" si="217"/>
         <v>110</v>
       </c>
       <c r="B118" s="40" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C118" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="H118" s="43">
-        <v>15</v>
+        <v>345</v>
+      </c>
+      <c r="H118" s="40">
+        <v>25</v>
       </c>
       <c r="I118" s="40">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="J118" s="40">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L118" s="40">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="M118" s="40">
         <v>255</v>
       </c>
       <c r="N118" s="40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O118" s="40">
         <v>100</v>
       </c>
       <c r="P118" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q118" s="40" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="R118" s="40" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="S118" s="40">
         <v>2</v>
       </c>
-      <c r="T118" s="43">
-        <f t="shared" ca="1" si="197"/>
+      <c r="T118" s="40">
+        <f ca="1">MAX(OFFSET(T118,-4,0,4,1))+1</f>
         <v>110</v>
       </c>
       <c r="U118" s="15"/>
       <c r="V118" s="2" t="str">
-        <f t="shared" ca="1" si="198"/>
-        <v>#define EFF_FIREWORK_2          (110U)    // Фейерверк 2</v>
+        <f ca="1">CONCATENATE("#define EFF_",B118,REPT(" ",20-LEN(B118)),"(",REPT(" ",3-LEN(T118)),T118,"U)    // ",C118)</f>
+        <v>#define EFF_FIREWORK            (110U)    // Фейерверк</v>
       </c>
       <c r="W118" s="2" t="str">
         <f t="shared" ca="1" si="218"/>
-        <v>String("110. Фейерверк 2,200,255,1,100,0;") +</v>
+        <v>String("110. Фейерверк,10,255,10,100,1;") +</v>
       </c>
       <c r="X118" s="2" t="str">
         <f t="shared" ca="1" si="219"/>
-        <v>String("110. ,200,255,1,100,0;") +</v>
+        <v>String("110. ,10,255,10,100,1;") +</v>
       </c>
       <c r="Y118" s="2" t="str">
         <f t="shared" ca="1" si="220"/>
-        <v>String("110. ,200,255,1,100,0;") +</v>
+        <v>String("110. ,10,255,10,100,1;") +</v>
       </c>
       <c r="Z118" s="2" t="str">
-        <f t="shared" si="202"/>
-        <v xml:space="preserve">  {  15, 240,  75}, // Фейерверк 2</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H118)),H118,",",REPT(" ",4-LEN(I118)),I118,",",REPT(" ",4-LEN(J118)),J118,"}, // ",C118)</f>
+        <v xml:space="preserve">  {  25, 180,  70}, // Фейерверк</v>
       </c>
       <c r="AA118" s="2" t="str">
-        <f t="shared" ca="1" si="203"/>
-        <v xml:space="preserve">        case EFF_FIREWORK_2:          DYNAMIC_DELAY_TICK { effTimer = millis(); fireworksRoutine();           Eff_Tick (); }  break;  // (110U) Фейерверк 2</v>
+        <f ca="1">CONCATENATE("        case EFF_",B118,":",REPT(" ",20-LEN(B118)),Q118," { effTimer = millis(); ",R118,REPT(" ",30-LEN(R118)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T118)),T118,"U) ",C118)</f>
+        <v xml:space="preserve">        case EFF_FIREWORK:            SOFT_DELAY_TICK { effTimer = millis(); Firework();                   Eff_Tick (); }  break;  // (110U) Фейерверк</v>
       </c>
       <c r="AB118" s="2" t="str">
-        <f t="shared" ref="AB118" ca="1" si="222">CONCATENATE("{""name"":""",A118,". ",C118,""",""spmin"":",L118,",""spmax"":",M118,",""scmin"":",N118,",""scmax"":",O118,",""type"":",P118,"}")</f>
-        <v>{"name":"110. Фейерверк 2","spmin":200,"spmax":255,"scmin":1,"scmax":100,"type":0}</v>
+        <f ca="1">CONCATENATE("{""name"":""",A118,". ",C118,""",""spmin"":",L118,",""spmax"":",M118,",""scmin"":",N118,",""scmax"":",O118,",""type"":",P118,"},")</f>
+        <v>{"name":"110. Фейерверк","spmin":10,"spmax":255,"scmin":10,"scmax":100,"type":1},</v>
       </c>
       <c r="AC118" s="4" t="str">
-        <f t="shared" ca="1" si="205"/>
+        <f ca="1">CONCATENATE("""","e",T118,"""",":0,")</f>
         <v>"e110":0,</v>
       </c>
       <c r="AD118" s="4" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f ca="1">CONCATENATE("e",T118,"=[[e",T118,"]]&amp;")</f>
         <v>e110=[[e110]]&amp;</v>
       </c>
       <c r="AE118" s="4" t="str">
-        <f t="shared" ca="1" si="207"/>
+        <f ca="1">CONCATENATE("""","e",T118,"""",":",S118,",")</f>
         <v>"e110":2,</v>
       </c>
       <c r="AF118" s="2" t="str">
         <f t="shared" ca="1" si="216"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e110","title":"110. Фейерверк 2","style":"font-size:20px;display:block","state":"{{e110}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e110","title":"110. Фейерверк","style":"font-size:20px;display:block","state":"{{e110}}"},</v>
       </c>
       <c r="AG118" s="2" t="str">
-        <f t="shared" ca="1" si="209"/>
-        <v>{"type":"h4","title":"110. Фейерверк 2","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e110","state":"{{e110}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A118,". ",C118,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T118,""",""state"":""{{e",T118,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"110. Фейерверк","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e110","state":"{{e110}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH118" s="2" t="str">
-        <f t="shared" ca="1" si="210"/>
-        <v>"110": "110.Фейерверк 2",</v>
+        <f ca="1">CONCATENATE("""",A118,"""",": """,A118,".",C118,""",")</f>
+        <v>"110": "110.Фейерверк",</v>
       </c>
       <c r="AI118" s="16" t="str">
-        <f t="shared" ca="1" si="211"/>
+        <f ca="1">CONCATENATE("""",A118,"""",":""",T118,""",")</f>
         <v>"110":"110",</v>
       </c>
       <c r="AJ118" s="2" t="str">
         <f t="shared" ca="1" si="221"/>
-        <v>110. Фейерверк 2,200,255,1,100,0;</v>
+        <v>110. Фейерверк,10,255,10,100,1;</v>
       </c>
       <c r="AK118" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>110.Фейерверк 2</v>
+        <f ca="1">CONCATENATE("",A118,"",".",C118,"")</f>
+        <v>110.Фейерверк</v>
       </c>
       <c r="AL118" s="2"/>
       <c r="AM118" s="2"/>
@@ -16721,27 +16754,27 @@
       <c r="BD118" s="18"/>
     </row>
     <row r="119" spans="1:56" ht="14.25" customHeight="1">
-      <c r="A119" s="35">
+      <c r="A119" s="39">
         <f t="shared" ca="1" si="217"/>
         <v>111</v>
       </c>
       <c r="B119" s="40" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C119" s="40" t="s">
-        <v>351</v>
-      </c>
-      <c r="H119" s="40">
-        <v>20</v>
+        <v>348</v>
+      </c>
+      <c r="H119" s="43">
+        <v>15</v>
       </c>
       <c r="I119" s="40">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="J119" s="40">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L119" s="40">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="M119" s="40">
         <v>255</v>
@@ -16759,79 +16792,79 @@
         <v>44</v>
       </c>
       <c r="R119" s="40" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="S119" s="40">
         <v>2</v>
       </c>
-      <c r="T119" s="40">
-        <f t="shared" ca="1" si="197"/>
+      <c r="T119" s="43">
+        <f ca="1">MAX(OFFSET(T119,-4,0,4,1))+1</f>
         <v>111</v>
       </c>
       <c r="U119" s="15"/>
       <c r="V119" s="2" t="str">
-        <f t="shared" ca="1" si="198"/>
-        <v>#define EFF_FAIRY               (111U)    // Фея</v>
+        <f ca="1">CONCATENATE("#define EFF_",B119,REPT(" ",20-LEN(B119)),"(",REPT(" ",3-LEN(T119)),T119,"U)    // ",C119)</f>
+        <v>#define EFF_FIREWORK_2          (111U)    // Фейерверк 2</v>
       </c>
       <c r="W119" s="2" t="str">
         <f t="shared" ca="1" si="218"/>
-        <v>String("111. Фея,99,255,1,100,0;") +</v>
+        <v>String("111. Фейерверк 2,200,255,1,100,0;") +</v>
       </c>
       <c r="X119" s="2" t="str">
         <f t="shared" ca="1" si="219"/>
-        <v>String("111. ,99,255,1,100,0;") +</v>
+        <v>String("111. ,200,255,1,100,0;") +</v>
       </c>
       <c r="Y119" s="2" t="str">
         <f t="shared" ca="1" si="220"/>
-        <v>String("111. ,99,255,1,100,0;") +</v>
+        <v>String("111. ,200,255,1,100,0;") +</v>
       </c>
       <c r="Z119" s="2" t="str">
-        <f t="shared" si="202"/>
-        <v xml:space="preserve">  {  20, 212,  85}, // Фея</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H119)),H119,",",REPT(" ",4-LEN(I119)),I119,",",REPT(" ",4-LEN(J119)),J119,"}, // ",C119)</f>
+        <v xml:space="preserve">  {  15, 240,  75}, // Фейерверк 2</v>
       </c>
       <c r="AA119" s="2" t="str">
-        <f t="shared" ca="1" si="203"/>
-        <v xml:space="preserve">        case EFF_FAIRY:               DYNAMIC_DELAY_TICK { effTimer = millis(); fairyRoutine();               Eff_Tick (); }  break;  // (111U) Фея</v>
+        <f ca="1">CONCATENATE("        case EFF_",B119,":",REPT(" ",20-LEN(B119)),Q119," { effTimer = millis(); ",R119,REPT(" ",30-LEN(R119)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T119)),T119,"U) ",C119)</f>
+        <v xml:space="preserve">        case EFF_FIREWORK_2:          DYNAMIC_DELAY_TICK { effTimer = millis(); fireworksRoutine();           Eff_Tick (); }  break;  // (111U) Фейерверк 2</v>
       </c>
       <c r="AB119" s="2" t="str">
-        <f t="shared" ref="AB119:AB121" ca="1" si="223">CONCATENATE("{""name"":""",A119,". ",C119,""",""spmin"":",L119,",""spmax"":",M119,",""scmin"":",N119,",""scmax"":",O119,",""type"":",P119,"},")</f>
-        <v>{"name":"111. Фея","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ref="AB119" ca="1" si="222">CONCATENATE("{""name"":""",A119,". ",C119,""",""spmin"":",L119,",""spmax"":",M119,",""scmin"":",N119,",""scmax"":",O119,",""type"":",P119,"}")</f>
+        <v>{"name":"111. Фейерверк 2","spmin":200,"spmax":255,"scmin":1,"scmax":100,"type":0}</v>
       </c>
       <c r="AC119" s="4" t="str">
-        <f t="shared" ca="1" si="205"/>
+        <f ca="1">CONCATENATE("""","e",T119,"""",":0,")</f>
         <v>"e111":0,</v>
       </c>
       <c r="AD119" s="4" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f ca="1">CONCATENATE("e",T119,"=[[e",T119,"]]&amp;")</f>
         <v>e111=[[e111]]&amp;</v>
       </c>
       <c r="AE119" s="4" t="str">
-        <f t="shared" ca="1" si="207"/>
+        <f ca="1">CONCATENATE("""","e",T119,"""",":",S119,",")</f>
         <v>"e111":2,</v>
       </c>
       <c r="AF119" s="2" t="str">
         <f t="shared" ca="1" si="216"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e111","title":"111. Фея","style":"font-size:20px;display:block","state":"{{e111}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e111","title":"111. Фейерверк 2","style":"font-size:20px;display:block","state":"{{e111}}"},</v>
       </c>
       <c r="AG119" s="2" t="str">
-        <f t="shared" ca="1" si="209"/>
-        <v>{"type":"h4","title":"111. Фея","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e111","state":"{{e111}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A119,". ",C119,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T119,""",""state"":""{{e",T119,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"111. Фейерверк 2","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e111","state":"{{e111}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH119" s="2" t="str">
-        <f t="shared" ca="1" si="210"/>
-        <v>"111": "111.Фея",</v>
+        <f ca="1">CONCATENATE("""",A119,"""",": """,A119,".",C119,""",")</f>
+        <v>"111": "111.Фейерверк 2",</v>
       </c>
       <c r="AI119" s="16" t="str">
-        <f t="shared" ca="1" si="211"/>
+        <f ca="1">CONCATENATE("""",A119,"""",":""",T119,""",")</f>
         <v>"111":"111",</v>
       </c>
       <c r="AJ119" s="2" t="str">
         <f t="shared" ca="1" si="221"/>
-        <v>111. Фея,99,255,1,100,0;</v>
+        <v>111. Фейерверк 2,200,255,1,100,0;</v>
       </c>
       <c r="AK119" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>111.Фея</v>
+        <f ca="1">CONCATENATE("",A119,"",".",C119,"")</f>
+        <v>111.Фейерверк 2</v>
       </c>
       <c r="AL119" s="2"/>
       <c r="AM119" s="2"/>
@@ -16859,22 +16892,22 @@
         <v>112</v>
       </c>
       <c r="B120" s="40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H120" s="40">
         <v>20</v>
       </c>
       <c r="I120" s="40">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="J120" s="40">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L120" s="40">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M120" s="40">
         <v>255</v>
@@ -16889,82 +16922,82 @@
         <v>0</v>
       </c>
       <c r="Q120" s="40" t="s">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="R120" s="40" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="S120" s="40">
         <v>2</v>
       </c>
       <c r="T120" s="40">
-        <f t="shared" ca="1" si="197"/>
+        <f ca="1">MAX(OFFSET(T120,-4,0,4,1))+1</f>
         <v>112</v>
       </c>
       <c r="U120" s="15"/>
       <c r="V120" s="2" t="str">
-        <f t="shared" ca="1" si="198"/>
-        <v>#define EFF_COLOR               (112U)    // Цвет</v>
+        <f ca="1">CONCATENATE("#define EFF_",B120,REPT(" ",20-LEN(B120)),"(",REPT(" ",3-LEN(T120)),T120,"U)    // ",C120)</f>
+        <v>#define EFF_FAIRY               (112U)    // Фея</v>
       </c>
       <c r="W120" s="2" t="str">
         <f t="shared" ca="1" si="218"/>
-        <v>String("112. Цвет,1,255,1,100,0;") +</v>
+        <v>String("112. Фея,99,255,1,100,0;") +</v>
       </c>
       <c r="X120" s="2" t="str">
         <f t="shared" ca="1" si="219"/>
-        <v>String("112. ,1,255,1,100,0;") +</v>
+        <v>String("112. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Y120" s="2" t="str">
         <f t="shared" ca="1" si="220"/>
-        <v>String("112. ,1,255,1,100,0;") +</v>
+        <v>String("112. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Z120" s="2" t="str">
-        <f t="shared" si="202"/>
-        <v xml:space="preserve">  {  20, 240,  65}, // Цвет</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H120)),H120,",",REPT(" ",4-LEN(I120)),I120,",",REPT(" ",4-LEN(J120)),J120,"}, // ",C120)</f>
+        <v xml:space="preserve">  {  20, 212,  85}, // Фея</v>
       </c>
       <c r="AA120" s="2" t="str">
-        <f t="shared" ca="1" si="203"/>
-        <v xml:space="preserve">        case EFF_COLOR:               LOW_DELAY_TICK  { effTimer = millis(); colorRoutine();               Eff_Tick (); }  break;  // (112U) Цвет</v>
+        <f ca="1">CONCATENATE("        case EFF_",B120,":",REPT(" ",20-LEN(B120)),Q120," { effTimer = millis(); ",R120,REPT(" ",30-LEN(R120)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T120)),T120,"U) ",C120)</f>
+        <v xml:space="preserve">        case EFF_FAIRY:               DYNAMIC_DELAY_TICK { effTimer = millis(); fairyRoutine();               Eff_Tick (); }  break;  // (112U) Фея</v>
       </c>
       <c r="AB120" s="2" t="str">
-        <f t="shared" ca="1" si="223"/>
-        <v>{"name":"112. Цвет","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ref="AB120:AB122" ca="1" si="223">CONCATENATE("{""name"":""",A120,". ",C120,""",""spmin"":",L120,",""spmax"":",M120,",""scmin"":",N120,",""scmax"":",O120,",""type"":",P120,"},")</f>
+        <v>{"name":"112. Фея","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC120" s="4" t="str">
-        <f t="shared" ca="1" si="205"/>
+        <f ca="1">CONCATENATE("""","e",T120,"""",":0,")</f>
         <v>"e112":0,</v>
       </c>
       <c r="AD120" s="4" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f ca="1">CONCATENATE("e",T120,"=[[e",T120,"]]&amp;")</f>
         <v>e112=[[e112]]&amp;</v>
       </c>
       <c r="AE120" s="4" t="str">
-        <f t="shared" ca="1" si="207"/>
+        <f ca="1">CONCATENATE("""","e",T120,"""",":",S120,",")</f>
         <v>"e112":2,</v>
       </c>
       <c r="AF120" s="2" t="str">
         <f t="shared" ca="1" si="216"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e112","title":"112. Цвет","style":"font-size:20px;display:block","state":"{{e112}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e112","title":"112. Фея","style":"font-size:20px;display:block","state":"{{e112}}"},</v>
       </c>
       <c r="AG120" s="2" t="str">
-        <f t="shared" ca="1" si="209"/>
-        <v>{"type":"h4","title":"112. Цвет","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e112","state":"{{e112}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A120,". ",C120,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T120,""",""state"":""{{e",T120,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"112. Фея","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e112","state":"{{e112}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH120" s="2" t="str">
-        <f t="shared" ca="1" si="210"/>
-        <v>"112": "112.Цвет",</v>
+        <f ca="1">CONCATENATE("""",A120,"""",": """,A120,".",C120,""",")</f>
+        <v>"112": "112.Фея",</v>
       </c>
       <c r="AI120" s="16" t="str">
-        <f t="shared" ca="1" si="211"/>
+        <f ca="1">CONCATENATE("""",A120,"""",":""",T120,""",")</f>
         <v>"112":"112",</v>
       </c>
       <c r="AJ120" s="2" t="str">
         <f t="shared" ca="1" si="221"/>
-        <v>112. Цвет,1,255,1,100,0;</v>
+        <v>112. Фея,99,255,1,100,0;</v>
       </c>
       <c r="AK120" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>112.Цвет</v>
+        <f ca="1">CONCATENATE("",A120,"",".",C120,"")</f>
+        <v>112.Фея</v>
       </c>
       <c r="AL120" s="2"/>
       <c r="AM120" s="2"/>
@@ -16986,31 +17019,31 @@
       <c r="BC120" s="18"/>
       <c r="BD120" s="18"/>
     </row>
-    <row r="121" spans="1:56">
+    <row r="121" spans="1:56" ht="14.25" customHeight="1">
       <c r="A121" s="35">
         <f t="shared" ca="1" si="217"/>
         <v>113</v>
       </c>
       <c r="B121" s="40" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="H121" s="40">
         <v>20</v>
       </c>
       <c r="I121" s="40">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="J121" s="40">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="L121" s="40">
         <v>1</v>
       </c>
       <c r="M121" s="40">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="N121" s="40">
         <v>1</v>
@@ -17019,111 +17052,131 @@
         <v>100</v>
       </c>
       <c r="P121" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121" s="40" t="s">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="R121" s="40" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="S121" s="40">
         <v>2</v>
       </c>
       <c r="T121" s="40">
-        <f t="shared" ref="T121" ca="1" si="224">MAX(OFFSET(T121,-4,0,4,1))+1</f>
+        <f ca="1">MAX(OFFSET(T121,-4,0,4,1))+1</f>
         <v>113</v>
       </c>
+      <c r="U121" s="15"/>
       <c r="V121" s="2" t="str">
-        <f t="shared" ref="V121" ca="1" si="225">CONCATENATE("#define EFF_",B121,REPT(" ",20-LEN(B121)),"(",REPT(" ",3-LEN(T121)),T121,"U)    // ",C121)</f>
-        <v>#define EFF_EFF_COLORED_PYTHON  (113U)    // Цветной Питон</v>
+        <f ca="1">CONCATENATE("#define EFF_",B121,REPT(" ",20-LEN(B121)),"(",REPT(" ",3-LEN(T121)),T121,"U)    // ",C121)</f>
+        <v>#define EFF_COLOR               (113U)    // Цвет</v>
       </c>
       <c r="W121" s="2" t="str">
         <f t="shared" ca="1" si="218"/>
-        <v>String("113. Цветной Питон,1,240,1,100,1;") +</v>
+        <v>String("113. Цвет,1,255,1,100,0;") +</v>
       </c>
       <c r="X121" s="2" t="str">
         <f t="shared" ca="1" si="219"/>
-        <v>String("113. ,1,240,1,100,1;") +</v>
+        <v>String("113. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y121" s="2" t="str">
         <f t="shared" ca="1" si="220"/>
-        <v>String("113. ,1,240,1,100,1;") +</v>
+        <v>String("113. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z121" s="2" t="str">
-        <f t="shared" ref="Z121" si="226">CONCATENATE("  {",REPT(" ",4-LEN(H121)),H121,",",REPT(" ",4-LEN(I121)),I121,",",REPT(" ",4-LEN(J121)),J121,"}, // ",C121)</f>
-        <v xml:space="preserve">  {  20, 127,  92}, // Цветной Питон</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H121)),H121,",",REPT(" ",4-LEN(I121)),I121,",",REPT(" ",4-LEN(J121)),J121,"}, // ",C121)</f>
+        <v xml:space="preserve">  {  20, 240,  65}, // Цвет</v>
       </c>
       <c r="AA121" s="2" t="str">
-        <f t="shared" ref="AA121" ca="1" si="227">CONCATENATE("        case EFF_",B121,":",REPT(" ",20-LEN(B121)),Q121," { effTimer = millis(); ",R121,REPT(" ",30-LEN(R121)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T121)),T121,"U) ",C121)</f>
-        <v xml:space="preserve">        case EFF_EFF_COLORED_PYTHON : LOW_DELAY_TICK { effTimer = millis(); Colored_Python();             Eff_Tick (); }  break;  // (113U) Цветной Питон</v>
+        <f ca="1">CONCATENATE("        case EFF_",B121,":",REPT(" ",20-LEN(B121)),Q121," { effTimer = millis(); ",R121,REPT(" ",30-LEN(R121)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T121)),T121,"U) ",C121)</f>
+        <v xml:space="preserve">        case EFF_COLOR:               LOW_DELAY_TICK  { effTimer = millis(); colorRoutine();               Eff_Tick (); }  break;  // (113U) Цвет</v>
       </c>
       <c r="AB121" s="2" t="str">
         <f t="shared" ca="1" si="223"/>
-        <v>{"name":"113. Цветной Питон","spmin":1,"spmax":240,"scmin":1,"scmax":100,"type":1},</v>
+        <v>{"name":"113. Цвет","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC121" s="4" t="str">
-        <f t="shared" ref="AC121" ca="1" si="228">CONCATENATE("""","e",T121,"""",":0,")</f>
+        <f ca="1">CONCATENATE("""","e",T121,"""",":0,")</f>
         <v>"e113":0,</v>
       </c>
       <c r="AD121" s="4" t="str">
-        <f t="shared" ref="AD121" ca="1" si="229">CONCATENATE("e",T121,"=[[e",T121,"]]&amp;")</f>
+        <f ca="1">CONCATENATE("e",T121,"=[[e",T121,"]]&amp;")</f>
         <v>e113=[[e113]]&amp;</v>
       </c>
       <c r="AE121" s="4" t="str">
-        <f t="shared" ref="AE121" ca="1" si="230">CONCATENATE("""","e",T121,"""",":",S121,",")</f>
+        <f ca="1">CONCATENATE("""","e",T121,"""",":",S121,",")</f>
         <v>"e113":2,</v>
       </c>
       <c r="AF121" s="2" t="str">
         <f t="shared" ca="1" si="216"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e113","title":"113. Цветной Питон","style":"font-size:20px;display:block","state":"{{e113}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e113","title":"113. Цвет","style":"font-size:20px;display:block","state":"{{e113}}"},</v>
       </c>
       <c r="AG121" s="2" t="str">
-        <f t="shared" ref="AG121" ca="1" si="231">CONCATENATE("{""type"":""h4"",""title"":""",A121,". ",C121,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T121,""",""state"":""{{e",T121,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
-        <v>{"type":"h4","title":"113. Цветной Питон","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e113","state":"{{e113}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A121,". ",C121,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T121,""",""state"":""{{e",T121,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"113. Цвет","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e113","state":"{{e113}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH121" s="2" t="str">
-        <f t="shared" ref="AH121:AH125" ca="1" si="232">CONCATENATE("""",A121,"""",": """,A121,".",C121,""",")</f>
-        <v>"113": "113.Цветной Питон",</v>
+        <f ca="1">CONCATENATE("""",A121,"""",": """,A121,".",C121,""",")</f>
+        <v>"113": "113.Цвет",</v>
       </c>
       <c r="AI121" s="16" t="str">
-        <f t="shared" ref="AI121" ca="1" si="233">CONCATENATE("""",A121,"""",":""",T121,""",")</f>
+        <f ca="1">CONCATENATE("""",A121,"""",":""",T121,""",")</f>
         <v>"113":"113",</v>
       </c>
       <c r="AJ121" s="2" t="str">
         <f t="shared" ca="1" si="221"/>
-        <v>113. Цветной Питон,1,240,1,100,1;</v>
+        <v>113. Цвет,1,255,1,100,0;</v>
       </c>
       <c r="AK121" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>113.Цветной Питон</v>
-      </c>
+        <f ca="1">CONCATENATE("",A121,"",".",C121,"")</f>
+        <v>113.Цвет</v>
+      </c>
+      <c r="AL121" s="2"/>
+      <c r="AM121" s="2"/>
+      <c r="AN121" s="17"/>
+      <c r="AO121" s="2"/>
+      <c r="AP121" s="2"/>
+      <c r="AQ121" s="2"/>
+      <c r="AR121" s="2"/>
+      <c r="AS121" s="16"/>
+      <c r="AT121" s="2"/>
+      <c r="AU121" s="2"/>
+      <c r="AV121" s="18"/>
+      <c r="AW121" s="18"/>
+      <c r="AX121" s="18"/>
+      <c r="AY121" s="18"/>
+      <c r="AZ121" s="18"/>
+      <c r="BA121" s="18"/>
+      <c r="BB121" s="18"/>
+      <c r="BC121" s="18"/>
+      <c r="BD121" s="18"/>
     </row>
-    <row r="122" spans="1:56" ht="14.25" customHeight="1">
+    <row r="122" spans="1:56">
       <c r="A122" s="35">
         <f t="shared" ca="1" si="217"/>
         <v>114</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="H122" s="40">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I122" s="40">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="J122" s="40">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="L122" s="40">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="M122" s="40">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="N122" s="40">
         <v>1</v>
@@ -17132,105 +17185,85 @@
         <v>100</v>
       </c>
       <c r="P122" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q122" s="40" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R122" s="40" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="S122" s="40">
         <v>2</v>
       </c>
       <c r="T122" s="40">
-        <f t="shared" ref="T122:T125" ca="1" si="234">MAX(OFFSET(T122,-4,0,4,1))+1</f>
+        <f t="shared" ref="T122" ca="1" si="224">MAX(OFFSET(T122,-4,0,4,1))+1</f>
         <v>114</v>
       </c>
-      <c r="U122" s="15"/>
       <c r="V122" s="2" t="str">
-        <f t="shared" ref="V122:V125" ca="1" si="235">CONCATENATE("#define EFF_",B122,REPT(" ",20-LEN(B122)),"(",REPT(" ",3-LEN(T122)),T122,"U)    // ",C122)</f>
-        <v>#define EFF_EFF_SAND            (114U)    // Цветные драже</v>
+        <f t="shared" ref="V122" ca="1" si="225">CONCATENATE("#define EFF_",B122,REPT(" ",20-LEN(B122)),"(",REPT(" ",3-LEN(T122)),T122,"U)    // ",C122)</f>
+        <v>#define EFF_EFF_COLORED_PYTHON  (114U)    // Цветной Питон</v>
       </c>
       <c r="W122" s="2" t="str">
-        <f t="shared" ref="W122:W125" ca="1" si="236">CONCATENATE("String(""",A122,". ",C122,",",L122,",",M122,",",N122,",",O122,",",P122,";"") +")</f>
-        <v>String("114. Цветные драже,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="218"/>
+        <v>String("114. Цветной Питон,1,240,1,100,1;") +</v>
       </c>
       <c r="X122" s="2" t="str">
-        <f t="shared" ref="X122:X125" ca="1" si="237">CONCATENATE("String(""",A122,". ",D122,",",L122,",",M122,",",N122,",",O122,",",P122,";"") +")</f>
-        <v>String("114. ,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="219"/>
+        <v>String("114. ,1,240,1,100,1;") +</v>
       </c>
       <c r="Y122" s="2" t="str">
-        <f t="shared" ref="Y122:Y125" ca="1" si="238">CONCATENATE("String(""",A122,". ",E122,",",L122,",",M122,",",N122,",",O122,",",P122,";"") +")</f>
-        <v>String("114. ,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="220"/>
+        <v>String("114. ,1,240,1,100,1;") +</v>
       </c>
       <c r="Z122" s="2" t="str">
-        <f t="shared" ref="Z122:Z125" si="239">CONCATENATE("  {",REPT(" ",4-LEN(H122)),H122,",",REPT(" ",4-LEN(I122)),I122,",",REPT(" ",4-LEN(J122)),J122,"}, // ",C122)</f>
-        <v xml:space="preserve">  {  15, 195,  80}, // Цветные драже</v>
+        <f t="shared" ref="Z122" si="226">CONCATENATE("  {",REPT(" ",4-LEN(H122)),H122,",",REPT(" ",4-LEN(I122)),I122,",",REPT(" ",4-LEN(J122)),J122,"}, // ",C122)</f>
+        <v xml:space="preserve">  {  20, 127,  92}, // Цветной Питон</v>
       </c>
       <c r="AA122" s="2" t="str">
-        <f t="shared" ref="AA122:AA125" ca="1" si="240">CONCATENATE("        case EFF_",B122,":",REPT(" ",20-LEN(B122)),Q122," { effTimer = millis(); ",R122,REPT(" ",30-LEN(R122)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T122)),T122,"U) ",C122)</f>
-        <v xml:space="preserve">        case EFF_EFF_SAND:            DYNAMIC_DELAY_TICK { effTimer = millis(); sandRoutine();                Eff_Tick (); }  break;  // (114U) Цветные драже</v>
+        <f t="shared" ref="AA122" ca="1" si="227">CONCATENATE("        case EFF_",B122,":",REPT(" ",20-LEN(B122)),Q122," { effTimer = millis(); ",R122,REPT(" ",30-LEN(R122)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T122)),T122,"U) ",C122)</f>
+        <v xml:space="preserve">        case EFF_EFF_COLORED_PYTHON : LOW_DELAY_TICK { effTimer = millis(); Colored_Python();             Eff_Tick (); }  break;  // (114U) Цветной Питон</v>
       </c>
       <c r="AB122" s="2" t="str">
-        <f t="shared" ref="AB122:AB125" ca="1" si="241">CONCATENATE("{""name"":""",A122,". ",C122,""",""spmin"":",L122,",""spmax"":",M122,",""scmin"":",N122,",""scmax"":",O122,",""type"":",P122,"},")</f>
-        <v>{"name":"114. Цветные драже","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="223"/>
+        <v>{"name":"114. Цветной Питон","spmin":1,"spmax":240,"scmin":1,"scmax":100,"type":1},</v>
       </c>
       <c r="AC122" s="4" t="str">
-        <f t="shared" ref="AC122:AC125" ca="1" si="242">CONCATENATE("""","e",T122,"""",":0,")</f>
+        <f t="shared" ref="AC122" ca="1" si="228">CONCATENATE("""","e",T122,"""",":0,")</f>
         <v>"e114":0,</v>
       </c>
       <c r="AD122" s="4" t="str">
-        <f t="shared" ref="AD122:AD125" ca="1" si="243">CONCATENATE("e",T122,"=[[e",T122,"]]&amp;")</f>
+        <f t="shared" ref="AD122" ca="1" si="229">CONCATENATE("e",T122,"=[[e",T122,"]]&amp;")</f>
         <v>e114=[[e114]]&amp;</v>
       </c>
       <c r="AE122" s="4" t="str">
-        <f t="shared" ref="AE122:AE125" ca="1" si="244">CONCATENATE("""","e",T122,"""",":",S122,",")</f>
+        <f t="shared" ref="AE122" ca="1" si="230">CONCATENATE("""","e",T122,"""",":",S122,",")</f>
         <v>"e114":2,</v>
       </c>
       <c r="AF122" s="2" t="str">
-        <f t="shared" ref="AF122:AF125" ca="1" si="245">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T122,""",""title"":""",A122,". ",C122,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T122,"}}""},")</f>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e114","title":"114. Цветные драже","style":"font-size:20px;display:block","state":"{{e114}}"},</v>
+        <f t="shared" ca="1" si="216"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e114","title":"114. Цветной Питон","style":"font-size:20px;display:block","state":"{{e114}}"},</v>
       </c>
       <c r="AG122" s="2" t="str">
-        <f t="shared" ref="AG122:AG125" ca="1" si="246">CONCATENATE("{""type"":""h4"",""title"":""",A122,". ",C122,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T122,""",""state"":""{{e",T122,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
-        <v>{"type":"h4","title":"114. Цветные драже","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e114","state":"{{e114}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ref="AG122" ca="1" si="231">CONCATENATE("{""type"":""h4"",""title"":""",A122,". ",C122,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T122,""",""state"":""{{e",T122,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"114. Цветной Питон","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e114","state":"{{e114}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH122" s="2" t="str">
-        <f t="shared" ca="1" si="232"/>
-        <v>"114": "114.Цветные драже",</v>
+        <f t="shared" ref="AH122:AH126" ca="1" si="232">CONCATENATE("""",A122,"""",": """,A122,".",C122,""",")</f>
+        <v>"114": "114.Цветной Питон",</v>
       </c>
       <c r="AI122" s="16" t="str">
-        <f t="shared" ref="AI122:AI125" ca="1" si="247">CONCATENATE("""",A122,"""",":""",T122,""",")</f>
+        <f t="shared" ref="AI122" ca="1" si="233">CONCATENATE("""",A122,"""",":""",T122,""",")</f>
         <v>"114":"114",</v>
       </c>
       <c r="AJ122" s="2" t="str">
-        <f t="shared" ref="AJ122:AJ125" ca="1" si="248">CONCATENATE(A122,". ",C122,",",L122,",",M122,",",N122,",",O122,",",P122,";")</f>
-        <v>114. Цветные драже,99,255,1,100,0;</v>
+        <f t="shared" ca="1" si="221"/>
+        <v>114. Цветной Питон,1,240,1,100,1;</v>
       </c>
       <c r="AK122" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>114.Цветные драже</v>
-      </c>
-      <c r="AL122" s="2"/>
-      <c r="AM122" s="2"/>
-      <c r="AN122" s="17"/>
-      <c r="AO122" s="2"/>
-      <c r="AP122" s="2"/>
-      <c r="AQ122" s="2"/>
-      <c r="AR122" s="2"/>
-      <c r="AS122" s="16"/>
-      <c r="AT122" s="2"/>
-      <c r="AU122" s="2"/>
-      <c r="AV122" s="18"/>
-      <c r="AW122" s="18"/>
-      <c r="AX122" s="18"/>
-      <c r="AY122" s="18"/>
-      <c r="AZ122" s="18"/>
-      <c r="BA122" s="18"/>
-      <c r="BB122" s="18"/>
-      <c r="BC122" s="18"/>
-      <c r="BD122" s="18"/>
+        <f ca="1">CONCATENATE("",A122,"",".",C122,"")</f>
+        <v>114.Цветной Питон</v>
+      </c>
     </row>
     <row r="123" spans="1:56" ht="14.25" customHeight="1">
       <c r="A123" s="35">
@@ -17238,112 +17271,112 @@
         <v>115</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H123" s="40">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I123" s="40">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="J123" s="40">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L123" s="40">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="M123" s="40">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="N123" s="40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O123" s="40">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P123" s="40">
         <v>0</v>
       </c>
       <c r="Q123" s="40" t="s">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="R123" s="40" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="S123" s="40">
         <v>2</v>
       </c>
       <c r="T123" s="40">
-        <f t="shared" ca="1" si="234"/>
+        <f t="shared" ref="T123:T126" ca="1" si="234">MAX(OFFSET(T123,-4,0,4,1))+1</f>
         <v>115</v>
       </c>
       <c r="U123" s="15"/>
       <c r="V123" s="2" t="str">
-        <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_COLOR_FRIZZLES      (115U)    // Цветные кудри</v>
+        <f t="shared" ref="V123:V126" ca="1" si="235">CONCATENATE("#define EFF_",B123,REPT(" ",20-LEN(B123)),"(",REPT(" ",3-LEN(T123)),T123,"U)    // ",C123)</f>
+        <v>#define EFF_EFF_SAND            (115U)    // Цветные драже</v>
       </c>
       <c r="W123" s="2" t="str">
-        <f t="shared" ca="1" si="236"/>
-        <v>String("115. Цветные кудри,128,128,10,90,0;") +</v>
+        <f t="shared" ref="W123:W126" ca="1" si="236">CONCATENATE("String(""",A123,". ",C123,",",L123,",",M123,",",N123,",",O123,",",P123,";"") +")</f>
+        <v>String("115. Цветные драже,99,255,1,100,0;") +</v>
       </c>
       <c r="X123" s="2" t="str">
-        <f t="shared" ca="1" si="237"/>
-        <v>String("115. ,128,128,10,90,0;") +</v>
+        <f t="shared" ref="X123:X126" ca="1" si="237">CONCATENATE("String(""",A123,". ",D123,",",L123,",",M123,",",N123,",",O123,",",P123,";"") +")</f>
+        <v>String("115. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Y123" s="2" t="str">
-        <f t="shared" ca="1" si="238"/>
-        <v>String("115. ,128,128,10,90,0;") +</v>
+        <f t="shared" ref="Y123:Y126" ca="1" si="238">CONCATENATE("String(""",A123,". ",E123,",",L123,",",M123,",",N123,",",O123,",",P123,";"") +")</f>
+        <v>String("115. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Z123" s="2" t="str">
-        <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  25, 128,  60}, // Цветные кудри</v>
+        <f t="shared" ref="Z123:Z126" si="239">CONCATENATE("  {",REPT(" ",4-LEN(H123)),H123,",",REPT(" ",4-LEN(I123)),I123,",",REPT(" ",4-LEN(J123)),J123,"}, // ",C123)</f>
+        <v xml:space="preserve">  {  15, 195,  80}, // Цветные драже</v>
       </c>
       <c r="AA123" s="2" t="str">
-        <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_COLOR_FRIZZLES:      SOFT_DELAY_TICK { effTimer = millis(); ColorFrizzles();              Eff_Tick (); }  break;  // (115U) Цветные кудри</v>
+        <f t="shared" ref="AA123:AA126" ca="1" si="240">CONCATENATE("        case EFF_",B123,":",REPT(" ",20-LEN(B123)),Q123," { effTimer = millis(); ",R123,REPT(" ",30-LEN(R123)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T123)),T123,"U) ",C123)</f>
+        <v xml:space="preserve">        case EFF_EFF_SAND:            DYNAMIC_DELAY_TICK { effTimer = millis(); sandRoutine();                Eff_Tick (); }  break;  // (115U) Цветные драже</v>
       </c>
       <c r="AB123" s="2" t="str">
-        <f t="shared" ca="1" si="241"/>
-        <v>{"name":"115. Цветные кудри","spmin":128,"spmax":128,"scmin":10,"scmax":90,"type":0},</v>
+        <f t="shared" ref="AB123:AB126" ca="1" si="241">CONCATENATE("{""name"":""",A123,". ",C123,""",""spmin"":",L123,",""spmax"":",M123,",""scmin"":",N123,",""scmax"":",O123,",""type"":",P123,"},")</f>
+        <v>{"name":"115. Цветные драже","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC123" s="4" t="str">
-        <f t="shared" ca="1" si="242"/>
+        <f t="shared" ref="AC123:AC126" ca="1" si="242">CONCATENATE("""","e",T123,"""",":0,")</f>
         <v>"e115":0,</v>
       </c>
       <c r="AD123" s="4" t="str">
-        <f t="shared" ca="1" si="243"/>
+        <f t="shared" ref="AD123:AD126" ca="1" si="243">CONCATENATE("e",T123,"=[[e",T123,"]]&amp;")</f>
         <v>e115=[[e115]]&amp;</v>
       </c>
       <c r="AE123" s="4" t="str">
-        <f t="shared" ca="1" si="244"/>
+        <f t="shared" ref="AE123:AE126" ca="1" si="244">CONCATENATE("""","e",T123,"""",":",S123,",")</f>
         <v>"e115":2,</v>
       </c>
       <c r="AF123" s="2" t="str">
-        <f t="shared" ca="1" si="245"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e115","title":"115. Цветные кудри","style":"font-size:20px;display:block","state":"{{e115}}"},</v>
+        <f t="shared" ref="AF123:AF126" ca="1" si="245">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T123,""",""title"":""",A123,". ",C123,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T123,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e115","title":"115. Цветные драже","style":"font-size:20px;display:block","state":"{{e115}}"},</v>
       </c>
       <c r="AG123" s="2" t="str">
-        <f t="shared" ca="1" si="246"/>
-        <v>{"type":"h4","title":"115. Цветные кудри","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e115","state":"{{e115}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ref="AG123:AG126" ca="1" si="246">CONCATENATE("{""type"":""h4"",""title"":""",A123,". ",C123,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T123,""",""state"":""{{e",T123,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"115. Цветные драже","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e115","state":"{{e115}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH123" s="2" t="str">
         <f t="shared" ca="1" si="232"/>
-        <v>"115": "115.Цветные кудри",</v>
+        <v>"115": "115.Цветные драже",</v>
       </c>
       <c r="AI123" s="16" t="str">
-        <f t="shared" ca="1" si="247"/>
+        <f t="shared" ref="AI123:AI126" ca="1" si="247">CONCATENATE("""",A123,"""",":""",T123,""",")</f>
         <v>"115":"115",</v>
       </c>
       <c r="AJ123" s="2" t="str">
-        <f t="shared" ca="1" si="248"/>
-        <v>115. Цветные кудри,128,128,10,90,0;</v>
+        <f t="shared" ref="AJ123:AJ126" ca="1" si="248">CONCATENATE(A123,". ",C123,",",L123,",",M123,",",N123,",",O123,",",P123,";")</f>
+        <v>115. Цветные драже,99,255,1,100,0;</v>
       </c>
       <c r="AK123" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>115.Цветные кудри</v>
+        <f ca="1">CONCATENATE("",A123,"",".",C123,"")</f>
+        <v>115.Цветные драже</v>
       </c>
       <c r="AL123" s="2"/>
       <c r="AM123" s="2"/>
@@ -17371,40 +17404,40 @@
         <v>116</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H124" s="40">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I124" s="40">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="J124" s="40">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="L124" s="40">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="M124" s="40">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="N124" s="40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O124" s="40">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P124" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q124" s="40" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="R124" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="S124" s="40">
         <v>2</v>
@@ -17416,31 +17449,31 @@
       <c r="U124" s="15"/>
       <c r="V124" s="2" t="str">
         <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_EFF_LOTUS           (116U)    // Цветок лотоса</v>
+        <v>#define EFF_COLOR_FRIZZLES      (116U)    // Цветные кудри</v>
       </c>
       <c r="W124" s="2" t="str">
         <f t="shared" ca="1" si="236"/>
-        <v>String("116. Цветок лотоса,50,255,1,100,1;") +</v>
+        <v>String("116. Цветные кудри,128,128,10,90,0;") +</v>
       </c>
       <c r="X124" s="2" t="str">
         <f t="shared" ca="1" si="237"/>
-        <v>String("116. ,50,255,1,100,1;") +</v>
+        <v>String("116. ,128,128,10,90,0;") +</v>
       </c>
       <c r="Y124" s="2" t="str">
         <f t="shared" ca="1" si="238"/>
-        <v>String("116. ,50,255,1,100,1;") +</v>
+        <v>String("116. ,128,128,10,90,0;") +</v>
       </c>
       <c r="Z124" s="2" t="str">
         <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  15, 150,  45}, // Цветок лотоса</v>
+        <v xml:space="preserve">  {  25, 128,  60}, // Цветные кудри</v>
       </c>
       <c r="AA124" s="2" t="str">
         <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_EFF_LOTUS:           DYNAMIC_DELAY_TICK { effTimer = millis(); LotusFlower();                Eff_Tick (); }  break;  // (116U) Цветок лотоса</v>
+        <v xml:space="preserve">        case EFF_COLOR_FRIZZLES:      SOFT_DELAY_TICK { effTimer = millis(); ColorFrizzles();              Eff_Tick (); }  break;  // (116U) Цветные кудри</v>
       </c>
       <c r="AB124" s="2" t="str">
         <f t="shared" ca="1" si="241"/>
-        <v>{"name":"116. Цветок лотоса","spmin":50,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
+        <v>{"name":"116. Цветные кудри","spmin":128,"spmax":128,"scmin":10,"scmax":90,"type":0},</v>
       </c>
       <c r="AC124" s="4" t="str">
         <f t="shared" ca="1" si="242"/>
@@ -17456,15 +17489,15 @@
       </c>
       <c r="AF124" s="2" t="str">
         <f t="shared" ca="1" si="245"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e116","title":"116. Цветок лотоса","style":"font-size:20px;display:block","state":"{{e116}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e116","title":"116. Цветные кудри","style":"font-size:20px;display:block","state":"{{e116}}"},</v>
       </c>
       <c r="AG124" s="2" t="str">
         <f t="shared" ca="1" si="246"/>
-        <v>{"type":"h4","title":"116. Цветок лотоса","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e116","state":"{{e116}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"116. Цветные кудри","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e116","state":"{{e116}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH124" s="2" t="str">
         <f t="shared" ca="1" si="232"/>
-        <v>"116": "116.Цветок лотоса",</v>
+        <v>"116": "116.Цветные кудри",</v>
       </c>
       <c r="AI124" s="16" t="str">
         <f t="shared" ca="1" si="247"/>
@@ -17472,11 +17505,11 @@
       </c>
       <c r="AJ124" s="2" t="str">
         <f t="shared" ca="1" si="248"/>
-        <v>116. Цветок лотоса,50,255,1,100,1;</v>
+        <v>116. Цветные кудри,128,128,10,90,0;</v>
       </c>
       <c r="AK124" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>116.Цветок лотоса</v>
+        <f ca="1">CONCATENATE("",A124,"",".",C124,"")</f>
+        <v>116.Цветные кудри</v>
       </c>
       <c r="AL124" s="2"/>
       <c r="AM124" s="2"/>
@@ -17498,28 +17531,28 @@
       <c r="BC124" s="18"/>
       <c r="BD124" s="18"/>
     </row>
-    <row r="125" spans="1:56">
+    <row r="125" spans="1:56" ht="14.25" customHeight="1">
       <c r="A125" s="35">
         <f t="shared" ca="1" si="217"/>
         <v>117</v>
       </c>
       <c r="B125" s="40" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="H125" s="40">
         <v>15</v>
       </c>
       <c r="I125" s="40">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="J125" s="40">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L125" s="40">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M125" s="40">
         <v>255</v>
@@ -17531,13 +17564,13 @@
         <v>100</v>
       </c>
       <c r="P125" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q125" s="40" t="s">
         <v>44</v>
       </c>
       <c r="R125" s="40" t="s">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="S125" s="40">
         <v>2</v>
@@ -17546,33 +17579,34 @@
         <f t="shared" ca="1" si="234"/>
         <v>117</v>
       </c>
+      <c r="U125" s="15"/>
       <c r="V125" s="2" t="str">
         <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_TURBULENCE          (117U)    // Цифровая турбулентность</v>
+        <v>#define EFF_EFF_LOTUS           (117U)    // Цветок лотоса</v>
       </c>
       <c r="W125" s="2" t="str">
         <f t="shared" ca="1" si="236"/>
-        <v>String("117. Цифровая турбулентность,1,255,1,100,0;") +</v>
+        <v>String("117. Цветок лотоса,50,255,1,100,1;") +</v>
       </c>
       <c r="X125" s="2" t="str">
         <f t="shared" ca="1" si="237"/>
-        <v>String("117. ,1,255,1,100,0;") +</v>
+        <v>String("117. ,50,255,1,100,1;") +</v>
       </c>
       <c r="Y125" s="2" t="str">
         <f t="shared" ca="1" si="238"/>
-        <v>String("117. ,1,255,1,100,0;") +</v>
+        <v>String("117. ,50,255,1,100,1;") +</v>
       </c>
       <c r="Z125" s="2" t="str">
         <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  15, 215,  35}, // Цифровая турбулентность</v>
+        <v xml:space="preserve">  {  15, 150,  45}, // Цветок лотоса</v>
       </c>
       <c r="AA125" s="2" t="str">
         <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_TURBULENCE:          DYNAMIC_DELAY_TICK { effTimer = millis(); Turbulence();                 Eff_Tick (); }  break;  // (117U) Цифровая турбулентность</v>
+        <v xml:space="preserve">        case EFF_EFF_LOTUS:           DYNAMIC_DELAY_TICK { effTimer = millis(); LotusFlower();                Eff_Tick (); }  break;  // (117U) Цветок лотоса</v>
       </c>
       <c r="AB125" s="2" t="str">
         <f t="shared" ca="1" si="241"/>
-        <v>{"name":"117. Цифровая турбулентность","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <v>{"name":"117. Цветок лотоса","spmin":50,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
       </c>
       <c r="AC125" s="4" t="str">
         <f t="shared" ca="1" si="242"/>
@@ -17588,15 +17622,15 @@
       </c>
       <c r="AF125" s="2" t="str">
         <f t="shared" ca="1" si="245"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e117","title":"117. Цифровая турбулентность","style":"font-size:20px;display:block","state":"{{e117}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e117","title":"117. Цветок лотоса","style":"font-size:20px;display:block","state":"{{e117}}"},</v>
       </c>
       <c r="AG125" s="2" t="str">
         <f t="shared" ca="1" si="246"/>
-        <v>{"type":"h4","title":"117. Цифровая турбулентность","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e117","state":"{{e117}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"117. Цветок лотоса","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e117","state":"{{e117}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH125" s="2" t="str">
         <f t="shared" ca="1" si="232"/>
-        <v>"117": "117.Цифровая турбулентность",</v>
+        <v>"117": "117.Цветок лотоса",</v>
       </c>
       <c r="AI125" s="16" t="str">
         <f t="shared" ca="1" si="247"/>
@@ -17604,32 +17638,51 @@
       </c>
       <c r="AJ125" s="2" t="str">
         <f t="shared" ca="1" si="248"/>
-        <v>117. Цифровая турбулентность,1,255,1,100,0;</v>
+        <v>117. Цветок лотоса,50,255,1,100,1;</v>
       </c>
       <c r="AK125" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>117.Цифровая турбулентность</v>
-      </c>
+        <f ca="1">CONCATENATE("",A125,"",".",C125,"")</f>
+        <v>117.Цветок лотоса</v>
+      </c>
+      <c r="AL125" s="2"/>
+      <c r="AM125" s="2"/>
+      <c r="AN125" s="17"/>
+      <c r="AO125" s="2"/>
+      <c r="AP125" s="2"/>
+      <c r="AQ125" s="2"/>
+      <c r="AR125" s="2"/>
+      <c r="AS125" s="16"/>
+      <c r="AT125" s="2"/>
+      <c r="AU125" s="2"/>
+      <c r="AV125" s="18"/>
+      <c r="AW125" s="18"/>
+      <c r="AX125" s="18"/>
+      <c r="AY125" s="18"/>
+      <c r="AZ125" s="18"/>
+      <c r="BA125" s="18"/>
+      <c r="BB125" s="18"/>
+      <c r="BC125" s="18"/>
+      <c r="BD125" s="18"/>
     </row>
-    <row r="126" spans="1:56" ht="14.25" customHeight="1">
+    <row r="126" spans="1:56">
       <c r="A126" s="35">
-        <f ca="1">MAX(OFFSET(A126,-4,0,4,1))+1</f>
+        <f t="shared" ca="1" si="217"/>
         <v>118</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="H126" s="40">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I126" s="40">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c r="J126" s="40">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="L126" s="40">
         <v>1</v>
@@ -17647,102 +17700,82 @@
         <v>0</v>
       </c>
       <c r="Q126" s="40" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="R126" s="40" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="S126" s="40">
         <v>2</v>
       </c>
       <c r="T126" s="40">
-        <f ca="1">MAX(OFFSET(T126,-4,0,4,1))+1</f>
+        <f t="shared" ca="1" si="234"/>
         <v>118</v>
       </c>
-      <c r="U126" s="15"/>
       <c r="V126" s="2" t="str">
-        <f ca="1">CONCATENATE("#define EFF_",B126,REPT(" ",20-LEN(B126)),"(",REPT(" ",3-LEN(T126)),T126,"U)    // ",C126)</f>
-        <v>#define EFF_SPHERES             (118U)    // Шapы</v>
+        <f t="shared" ca="1" si="235"/>
+        <v>#define EFF_TURBULENCE          (118U)    // Цифровая турбулентность</v>
       </c>
       <c r="W126" s="2" t="str">
-        <f ca="1">CONCATENATE("String(""",A126,". ",C126,",",L126,",",M126,",",N126,",",O126,",",P126,";"") +")</f>
-        <v>String("118. Шapы,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="236"/>
+        <v>String("118. Цифровая турбулентность,1,255,1,100,0;") +</v>
       </c>
       <c r="X126" s="2" t="str">
-        <f ca="1">CONCATENATE("String(""",A126,". ",D126,",",L126,",",M126,",",N126,",",O126,",",P126,";"") +")</f>
+        <f t="shared" ca="1" si="237"/>
         <v>String("118. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y126" s="2" t="str">
-        <f ca="1">CONCATENATE("String(""",A126,". ",E126,",",L126,",",M126,",",N126,",",O126,",",P126,";"") +")</f>
+        <f t="shared" ca="1" si="238"/>
         <v>String("118. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z126" s="2" t="str">
-        <f>CONCATENATE("  {",REPT(" ",4-LEN(H126)),H126,",",REPT(" ",4-LEN(I126)),I126,",",REPT(" ",4-LEN(J126)),J126,"}, // ",C126)</f>
-        <v xml:space="preserve">  {  20,  50,   5}, // Шapы</v>
+        <f t="shared" si="239"/>
+        <v xml:space="preserve">  {  15, 215,  35}, // Цифровая турбулентность</v>
       </c>
       <c r="AA126" s="2" t="str">
-        <f ca="1">CONCATENATE("        case EFF_",B126,":",REPT(" ",20-LEN(B126)),Q126," { effTimer = millis(); ",R126,REPT(" ",30-LEN(R126)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T126)),T126,"U) ",C126)</f>
-        <v xml:space="preserve">        case EFF_SPHERES:             LOW_DELAY_TICK { effTimer = millis(); spheresRoutine();             Eff_Tick (); }  break;  // (118U) Шapы</v>
+        <f t="shared" ca="1" si="240"/>
+        <v xml:space="preserve">        case EFF_TURBULENCE:          DYNAMIC_DELAY_TICK { effTimer = millis(); Turbulence();                 Eff_Tick (); }  break;  // (118U) Цифровая турбулентность</v>
       </c>
       <c r="AB126" s="2" t="str">
-        <f ca="1">CONCATENATE("{""name"":""",A126,". ",C126,""",""spmin"":",L126,",""spmax"":",M126,",""scmin"":",N126,",""scmax"":",O126,",""type"":",P126,"},")</f>
-        <v>{"name":"118. Шapы","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="241"/>
+        <v>{"name":"118. Цифровая турбулентность","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC126" s="4" t="str">
-        <f ca="1">CONCATENATE("""","e",T126,"""",":0,")</f>
+        <f t="shared" ca="1" si="242"/>
         <v>"e118":0,</v>
       </c>
       <c r="AD126" s="4" t="str">
-        <f ca="1">CONCATENATE("e",T126,"=[[e",T126,"]]&amp;")</f>
+        <f t="shared" ca="1" si="243"/>
         <v>e118=[[e118]]&amp;</v>
       </c>
       <c r="AE126" s="4" t="str">
-        <f ca="1">CONCATENATE("""","e",T126,"""",":",S126,",")</f>
+        <f t="shared" ca="1" si="244"/>
         <v>"e118":2,</v>
       </c>
       <c r="AF126" s="2" t="str">
-        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T126,""",""title"":""",A126,". ",C126,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T126,"}}""},")</f>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e118","title":"118. Шapы","style":"font-size:20px;display:block","state":"{{e118}}"},</v>
+        <f t="shared" ca="1" si="245"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e118","title":"118. Цифровая турбулентность","style":"font-size:20px;display:block","state":"{{e118}}"},</v>
       </c>
       <c r="AG126" s="2" t="str">
-        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A126,". ",C126,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T126,""",""state"":""{{e",T126,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
-        <v>{"type":"h4","title":"118. Шapы","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e118","state":"{{e118}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="246"/>
+        <v>{"type":"h4","title":"118. Цифровая турбулентность","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e118","state":"{{e118}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH126" s="2" t="str">
-        <f ca="1">CONCATENATE("""",A126,"""",": """,A126,".",C126,""",")</f>
-        <v>"118": "118.Шapы",</v>
+        <f t="shared" ca="1" si="232"/>
+        <v>"118": "118.Цифровая турбулентность",</v>
       </c>
       <c r="AI126" s="16" t="str">
-        <f ca="1">CONCATENATE("""",A126,"""",":""",T126,""",")</f>
+        <f t="shared" ca="1" si="247"/>
         <v>"118":"118",</v>
       </c>
       <c r="AJ126" s="2" t="str">
-        <f ca="1">CONCATENATE(A126,". ",C126,",",L126,",",M126,",",N126,",",O126,",",P126,";")</f>
-        <v>118. Шapы,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="248"/>
+        <v>118. Цифровая турбулентность,1,255,1,100,0;</v>
       </c>
       <c r="AK126" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>118.Шapы</v>
-      </c>
-      <c r="AL126" s="2"/>
-      <c r="AM126" s="2"/>
-      <c r="AN126" s="17"/>
-      <c r="AO126" s="2"/>
-      <c r="AP126" s="2"/>
-      <c r="AQ126" s="2"/>
-      <c r="AR126" s="2"/>
-      <c r="AS126" s="16"/>
-      <c r="AT126" s="2"/>
-      <c r="AU126" s="2"/>
-      <c r="AV126" s="18"/>
-      <c r="AW126" s="18"/>
-      <c r="AX126" s="18"/>
-      <c r="AY126" s="18"/>
-      <c r="AZ126" s="18"/>
-      <c r="BA126" s="18"/>
-      <c r="BB126" s="18"/>
-      <c r="BC126" s="18"/>
-      <c r="BD126" s="18"/>
+        <f ca="1">CONCATENATE("",A126,"",".",C126,"")</f>
+        <v>118.Цифровая турбулентность</v>
+      </c>
     </row>
     <row r="127" spans="1:56" ht="14.25" customHeight="1">
       <c r="A127" s="35">
@@ -17750,19 +17783,19 @@
         <v>119</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H127" s="40">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I127" s="40">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="J127" s="40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L127" s="40">
         <v>1</v>
@@ -17783,7 +17816,7 @@
         <v>81</v>
       </c>
       <c r="R127" s="40" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="S127" s="40">
         <v>2</v>
@@ -17795,11 +17828,11 @@
       <c r="U127" s="15"/>
       <c r="V127" s="2" t="str">
         <f ca="1">CONCATENATE("#define EFF_",B127,REPT(" ",20-LEN(B127)),"(",REPT(" ",3-LEN(T127)),T127,"U)    // ",C127)</f>
-        <v>#define EFF_NEXUS               (119U)    // Nexus</v>
+        <v>#define EFF_SPHERES             (119U)    // Шapы</v>
       </c>
       <c r="W127" s="2" t="str">
         <f ca="1">CONCATENATE("String(""",A127,". ",C127,",",L127,",",M127,",",N127,",",O127,",",P127,";"") +")</f>
-        <v>String("119. Nexus,1,255,1,100,0;") +</v>
+        <v>String("119. Шapы,1,255,1,100,0;") +</v>
       </c>
       <c r="X127" s="2" t="str">
         <f ca="1">CONCATENATE("String(""",A127,". ",D127,",",L127,",",M127,",",N127,",",O127,",",P127,";"") +")</f>
@@ -17811,15 +17844,15 @@
       </c>
       <c r="Z127" s="2" t="str">
         <f>CONCATENATE("  {",REPT(" ",4-LEN(H127)),H127,",",REPT(" ",4-LEN(I127)),I127,",",REPT(" ",4-LEN(J127)),J127,"}, // ",C127)</f>
-        <v xml:space="preserve">  {  25,  85,  20}, // Nexus</v>
+        <v xml:space="preserve">  {  20,  50,   5}, // Шapы</v>
       </c>
       <c r="AA127" s="2" t="str">
         <f ca="1">CONCATENATE("        case EFF_",B127,":",REPT(" ",20-LEN(B127)),Q127," { effTimer = millis(); ",R127,REPT(" ",30-LEN(R127)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T127)),T127,"U) ",C127)</f>
-        <v xml:space="preserve">        case EFF_NEXUS:               LOW_DELAY_TICK { effTimer = millis(); nexusRoutine();               Eff_Tick (); }  break;  // (119U) Nexus</v>
+        <v xml:space="preserve">        case EFF_SPHERES:             LOW_DELAY_TICK { effTimer = millis(); spheresRoutine();             Eff_Tick (); }  break;  // (119U) Шapы</v>
       </c>
       <c r="AB127" s="2" t="str">
         <f ca="1">CONCATENATE("{""name"":""",A127,". ",C127,""",""spmin"":",L127,",""spmax"":",M127,",""scmin"":",N127,",""scmax"":",O127,",""type"":",P127,"},")</f>
-        <v>{"name":"119. Nexus","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <v>{"name":"119. Шapы","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC127" s="4" t="str">
         <f ca="1">CONCATENATE("""","e",T127,"""",":0,")</f>
@@ -17835,15 +17868,15 @@
       </c>
       <c r="AF127" s="2" t="str">
         <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T127,""",""title"":""",A127,". ",C127,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T127,"}}""},")</f>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e119","title":"119. Nexus","style":"font-size:20px;display:block","state":"{{e119}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e119","title":"119. Шapы","style":"font-size:20px;display:block","state":"{{e119}}"},</v>
       </c>
       <c r="AG127" s="2" t="str">
         <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A127,". ",C127,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T127,""",""state"":""{{e",T127,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
-        <v>{"type":"h4","title":"119. Nexus","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e119","state":"{{e119}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"119. Шapы","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e119","state":"{{e119}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH127" s="2" t="str">
         <f ca="1">CONCATENATE("""",A127,"""",": """,A127,".",C127,""",")</f>
-        <v>"119": "119.Nexus",</v>
+        <v>"119": "119.Шapы",</v>
       </c>
       <c r="AI127" s="16" t="str">
         <f ca="1">CONCATENATE("""",A127,"""",":""",T127,""",")</f>
@@ -17851,11 +17884,11 @@
       </c>
       <c r="AJ127" s="2" t="str">
         <f ca="1">CONCATENATE(A127,". ",C127,",",L127,",",M127,",",N127,",",O127,",",P127,";")</f>
-        <v>119. Nexus,1,255,1,100,0;</v>
+        <v>119. Шapы,1,255,1,100,0;</v>
       </c>
       <c r="AK127" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>119.Nexus</v>
+        <f ca="1">CONCATENATE("",A127,"",".",C127,"")</f>
+        <v>119.Шapы</v>
       </c>
       <c r="AL127" s="2"/>
       <c r="AM127" s="2"/>
@@ -17883,19 +17916,19 @@
         <v>120</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H128" s="40">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I128" s="40">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="J128" s="40">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L128" s="40">
         <v>1</v>
@@ -17913,13 +17946,13 @@
         <v>0</v>
       </c>
       <c r="Q128" s="40" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R128" s="40" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="S128" s="40">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T128" s="40">
         <f ca="1">MAX(OFFSET(T128,-4,0,4,1))+1</f>
@@ -17928,11 +17961,11 @@
       <c r="U128" s="15"/>
       <c r="V128" s="2" t="str">
         <f ca="1">CONCATENATE("#define EFF_",B128,REPT(" ",20-LEN(B128)),"(",REPT(" ",3-LEN(T128)),T128,"U)    // ",C128)</f>
-        <v>#define EFF_CLOCK               (120U)    // Часы</v>
+        <v>#define EFF_NEXUS               (120U)    // Nexus</v>
       </c>
       <c r="W128" s="2" t="str">
         <f ca="1">CONCATENATE("String(""",A128,". ",C128,",",L128,",",M128,",",N128,",",O128,",",P128,";"") +")</f>
-        <v>String("120. Часы,1,255,1,100,0;") +</v>
+        <v>String("120. Nexus,1,255,1,100,0;") +</v>
       </c>
       <c r="X128" s="2" t="str">
         <f ca="1">CONCATENATE("String(""",A128,". ",D128,",",L128,",",M128,",",N128,",",O128,",",P128,";"") +")</f>
@@ -17943,52 +17976,52 @@
         <v>String("120. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z128" s="2" t="str">
-        <f>CONCATENATE("  {",REPT(" ",4-LEN(H128)),H128,",",REPT(" ",4-LEN(I128)),I128,",",REPT(" ",4-LEN(J128)),J128,"}  // ",C128)</f>
-        <v xml:space="preserve">  {  30, 214,  80}  // Часы</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H128)),H128,",",REPT(" ",4-LEN(I128)),I128,",",REPT(" ",4-LEN(J128)),J128,"}, // ",C128)</f>
+        <v xml:space="preserve">  {  25,  85,  20}, // Nexus</v>
       </c>
       <c r="AA128" s="2" t="str">
         <f ca="1">CONCATENATE("        case EFF_",B128,":",REPT(" ",20-LEN(B128)),Q128," { effTimer = millis(); ",R128,REPT(" ",30-LEN(R128)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T128)),T128,"U) ",C128)</f>
-        <v xml:space="preserve">        case EFF_CLOCK:               DYNAMIC_DELAY_TICK { effTimer = millis(); clockRoutine();               Eff_Tick (); }  break;  // (120U) Часы</v>
+        <v xml:space="preserve">        case EFF_NEXUS:               LOW_DELAY_TICK { effTimer = millis(); nexusRoutine();               Eff_Tick (); }  break;  // (120U) Nexus</v>
       </c>
       <c r="AB128" s="2" t="str">
         <f ca="1">CONCATENATE("{""name"":""",A128,". ",C128,""",""spmin"":",L128,",""spmax"":",M128,",""scmin"":",N128,",""scmax"":",O128,",""type"":",P128,"},")</f>
-        <v>{"name":"120. Часы","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <v>{"name":"120. Nexus","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC128" s="4" t="str">
-        <f ca="1">CONCATENATE("""","e",T128,"""",":0")</f>
-        <v>"e120":0</v>
+        <f ca="1">CONCATENATE("""","e",T128,"""",":0,")</f>
+        <v>"e120":0,</v>
       </c>
       <c r="AD128" s="4" t="str">
         <f ca="1">CONCATENATE("e",T128,"=[[e",T128,"]]&amp;")</f>
         <v>e120=[[e120]]&amp;</v>
       </c>
       <c r="AE128" s="4" t="str">
-        <f ca="1">CONCATENATE("""","e",T128,"""",":",S128,"")</f>
-        <v>"e120":11</v>
+        <f ca="1">CONCATENATE("""","e",T128,"""",":",S128,",")</f>
+        <v>"e120":2,</v>
       </c>
       <c r="AF128" s="2" t="str">
         <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T128,""",""title"":""",A128,". ",C128,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T128,"}}""},")</f>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e120","title":"120. Часы","style":"font-size:20px;display:block","state":"{{e120}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e120","title":"120. Nexus","style":"font-size:20px;display:block","state":"{{e120}}"},</v>
       </c>
       <c r="AG128" s="2" t="str">
         <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A128,". ",C128,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T128,""",""state"":""{{e",T128,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
-        <v>{"type":"h4","title":"120. Часы","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e120","state":"{{e120}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"120. Nexus","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e120","state":"{{e120}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH128" s="2" t="str">
-        <f ca="1">CONCATENATE("""",A128,"""",": """,A128,".",C128,"""")</f>
-        <v>"120": "120.Часы"</v>
+        <f ca="1">CONCATENATE("""",A128,"""",": """,A128,".",C128,""",")</f>
+        <v>"120": "120.Nexus",</v>
       </c>
       <c r="AI128" s="16" t="str">
-        <f ca="1">CONCATENATE("""",A128,"""",":""",T128,"""")</f>
-        <v>"120":"120"</v>
+        <f ca="1">CONCATENATE("""",A128,"""",":""",T128,""",")</f>
+        <v>"120":"120",</v>
       </c>
       <c r="AJ128" s="2" t="str">
         <f ca="1">CONCATENATE(A128,". ",C128,",",L128,",",M128,",",N128,",",O128,",",P128,";")</f>
-        <v>120. Часы,1,255,1,100,0;</v>
+        <v>120. Nexus,1,255,1,100,0;</v>
       </c>
       <c r="AK128" s="2" t="str">
-        <f t="shared" ca="1" si="213"/>
-        <v>120.Часы</v>
+        <f ca="1">CONCATENATE("",A128,"",".",C128,"")</f>
+        <v>120.Nexus</v>
       </c>
       <c r="AL128" s="2"/>
       <c r="AM128" s="2"/>
@@ -18011,23 +18044,118 @@
       <c r="BD128" s="18"/>
     </row>
     <row r="129" spans="1:56" ht="14.25" customHeight="1">
+      <c r="A129" s="35">
+        <f ca="1">MAX(OFFSET(A129,-4,0,4,1))+1</f>
+        <v>121</v>
+      </c>
+      <c r="B129" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="C129" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="H129" s="40">
+        <v>30</v>
+      </c>
+      <c r="I129" s="40">
+        <v>214</v>
+      </c>
+      <c r="J129" s="40">
+        <v>80</v>
+      </c>
+      <c r="L129" s="40">
+        <v>1</v>
+      </c>
+      <c r="M129" s="40">
+        <v>255</v>
+      </c>
+      <c r="N129" s="40">
+        <v>1</v>
+      </c>
+      <c r="O129" s="40">
+        <v>100</v>
+      </c>
+      <c r="P129" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="R129" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="S129" s="40">
+        <v>11</v>
+      </c>
+      <c r="T129" s="40">
+        <f ca="1">MAX(OFFSET(T129,-4,0,4,1))+1</f>
+        <v>121</v>
+      </c>
       <c r="U129" s="15"/>
-      <c r="V129" s="2"/>
-      <c r="W129" s="2"/>
-      <c r="X129" s="2"/>
-      <c r="Y129" s="2"/>
-      <c r="Z129" s="2"/>
-      <c r="AA129" s="2"/>
-      <c r="AB129" s="2"/>
-      <c r="AC129" s="4"/>
-      <c r="AD129" s="4"/>
-      <c r="AE129" s="4"/>
-      <c r="AF129" s="2"/>
-      <c r="AG129" s="2"/>
-      <c r="AH129" s="2"/>
-      <c r="AI129" s="16"/>
-      <c r="AJ129" s="2"/>
-      <c r="AK129" s="2"/>
+      <c r="V129" s="2" t="str">
+        <f ca="1">CONCATENATE("#define EFF_",B129,REPT(" ",20-LEN(B129)),"(",REPT(" ",3-LEN(T129)),T129,"U)    // ",C129)</f>
+        <v>#define EFF_CLOCK               (121U)    // Часы</v>
+      </c>
+      <c r="W129" s="2" t="str">
+        <f ca="1">CONCATENATE("String(""",A129,". ",C129,",",L129,",",M129,",",N129,",",O129,",",P129,";"") +")</f>
+        <v>String("121. Часы,1,255,1,100,0;") +</v>
+      </c>
+      <c r="X129" s="2" t="str">
+        <f ca="1">CONCATENATE("String(""",A129,". ",D129,",",L129,",",M129,",",N129,",",O129,",",P129,";"") +")</f>
+        <v>String("121. ,1,255,1,100,0;") +</v>
+      </c>
+      <c r="Y129" s="2" t="str">
+        <f ca="1">CONCATENATE("String(""",A129,". ",E129,",",L129,",",M129,",",N129,",",O129,",",P129,";"") +")</f>
+        <v>String("121. ,1,255,1,100,0;") +</v>
+      </c>
+      <c r="Z129" s="2" t="str">
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H129)),H129,",",REPT(" ",4-LEN(I129)),I129,",",REPT(" ",4-LEN(J129)),J129,"}  // ",C129)</f>
+        <v xml:space="preserve">  {  30, 214,  80}  // Часы</v>
+      </c>
+      <c r="AA129" s="2" t="str">
+        <f ca="1">CONCATENATE("        case EFF_",B129,":",REPT(" ",20-LEN(B129)),Q129," { effTimer = millis(); ",R129,REPT(" ",30-LEN(R129)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T129)),T129,"U) ",C129)</f>
+        <v xml:space="preserve">        case EFF_CLOCK:               DYNAMIC_DELAY_TICK { effTimer = millis(); clockRoutine();               Eff_Tick (); }  break;  // (121U) Часы</v>
+      </c>
+      <c r="AB129" s="2" t="str">
+        <f ca="1">CONCATENATE("{""name"":""",A129,". ",C129,""",""spmin"":",L129,",""spmax"":",M129,",""scmin"":",N129,",""scmax"":",O129,",""type"":",P129,"},")</f>
+        <v>{"name":"121. Часы","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+      </c>
+      <c r="AC129" s="4" t="str">
+        <f ca="1">CONCATENATE("""","e",T129,"""",":0")</f>
+        <v>"e121":0</v>
+      </c>
+      <c r="AD129" s="4" t="str">
+        <f ca="1">CONCATENATE("e",T129,"=[[e",T129,"]]&amp;")</f>
+        <v>e121=[[e121]]&amp;</v>
+      </c>
+      <c r="AE129" s="4" t="str">
+        <f ca="1">CONCATENATE("""","e",T129,"""",":",S129,"")</f>
+        <v>"e121":11</v>
+      </c>
+      <c r="AF129" s="2" t="str">
+        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T129,""",""title"":""",A129,". ",C129,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T129,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e121","title":"121. Часы","style":"font-size:20px;display:block","state":"{{e121}}"},</v>
+      </c>
+      <c r="AG129" s="2" t="str">
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A129,". ",C129,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T129,""",""state"":""{{e",T129,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"121. Часы","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e121","state":"{{e121}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+      </c>
+      <c r="AH129" s="2" t="str">
+        <f ca="1">CONCATENATE("""",A129,"""",": """,A129,".",C129,"""")</f>
+        <v>"121": "121.Часы"</v>
+      </c>
+      <c r="AI129" s="16" t="str">
+        <f ca="1">CONCATENATE("""",A129,"""",":""",T129,"""")</f>
+        <v>"121":"121"</v>
+      </c>
+      <c r="AJ129" s="2" t="str">
+        <f ca="1">CONCATENATE(A129,". ",C129,",",L129,",",M129,",",N129,",",O129,",",P129,";")</f>
+        <v>121. Часы,1,255,1,100,0;</v>
+      </c>
+      <c r="AK129" s="2" t="str">
+        <f ca="1">CONCATENATE("",A129,"",".",C129,"")</f>
+        <v>121.Часы</v>
+      </c>
       <c r="AL129" s="2"/>
       <c r="AM129" s="2"/>
       <c r="AN129" s="17"/>
@@ -18049,45 +18177,83 @@
       <c r="BD129" s="18"/>
     </row>
     <row r="130" spans="1:56" ht="14.25" customHeight="1">
-      <c r="A130" s="35">
-        <f ca="1">MAX(OFFSET(A130,-4,0,4,1))+1</f>
-        <v>121</v>
-      </c>
-      <c r="B130" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="C130" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="T130" s="40">
-        <f ca="1">MAX(OFFSET(T130,-4,0,4,1))+1</f>
-        <v>121</v>
-      </c>
-      <c r="V130" s="2" t="str">
-        <f ca="1">CONCATENATE("#define ",B130,REPT(" ",20-LEN(B130)),"(",REPT(" ",3-LEN(T130)),T130,"U)    // ",C130)</f>
-        <v>#define MODE_AMOUNT         (121U)    // количество режимов</v>
-      </c>
+      <c r="U130" s="15"/>
+      <c r="V130" s="2"/>
+      <c r="W130" s="2"/>
+      <c r="X130" s="2"/>
+      <c r="Y130" s="2"/>
+      <c r="Z130" s="2"/>
+      <c r="AA130" s="2"/>
+      <c r="AB130" s="2"/>
       <c r="AC130" s="4"/>
       <c r="AD130" s="4"/>
       <c r="AE130" s="4"/>
-      <c r="AI130" s="4"/>
-      <c r="AJ130" s="4"/>
-      <c r="AM130" s="4"/>
+      <c r="AF130" s="2"/>
+      <c r="AG130" s="2"/>
+      <c r="AH130" s="2"/>
+      <c r="AI130" s="16"/>
+      <c r="AJ130" s="2"/>
+      <c r="AK130" s="2"/>
+      <c r="AL130" s="2"/>
+      <c r="AM130" s="2"/>
       <c r="AN130" s="17"/>
-      <c r="AO130" s="4"/>
-      <c r="AR130" s="4"/>
-      <c r="AS130" s="17"/>
-      <c r="AT130" s="4"/>
+      <c r="AO130" s="2"/>
+      <c r="AP130" s="2"/>
+      <c r="AQ130" s="2"/>
+      <c r="AR130" s="2"/>
+      <c r="AS130" s="16"/>
+      <c r="AT130" s="2"/>
       <c r="AU130" s="2"/>
-      <c r="AV130" s="23"/>
+      <c r="AV130" s="18"/>
       <c r="AW130" s="18"/>
-      <c r="AX130" s="4"/>
+      <c r="AX130" s="18"/>
       <c r="AY130" s="18"/>
-      <c r="AZ130" s="24"/>
+      <c r="AZ130" s="18"/>
       <c r="BA130" s="18"/>
       <c r="BB130" s="18"/>
       <c r="BC130" s="18"/>
       <c r="BD130" s="18"/>
+    </row>
+    <row r="131" spans="1:56" ht="14.25" customHeight="1">
+      <c r="A131" s="35">
+        <f ca="1">MAX(OFFSET(A131,-4,0,4,1))+1</f>
+        <v>122</v>
+      </c>
+      <c r="B131" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="C131" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="T131" s="40">
+        <f ca="1">MAX(OFFSET(T131,-4,0,4,1))+1</f>
+        <v>122</v>
+      </c>
+      <c r="V131" s="2" t="str">
+        <f ca="1">CONCATENATE("#define ",B131,REPT(" ",20-LEN(B131)),"(",REPT(" ",3-LEN(T131)),T131,"U)    // ",C131)</f>
+        <v>#define MODE_AMOUNT         (122U)    // количество режимов</v>
+      </c>
+      <c r="AC131" s="4"/>
+      <c r="AD131" s="4"/>
+      <c r="AE131" s="4"/>
+      <c r="AI131" s="4"/>
+      <c r="AJ131" s="4"/>
+      <c r="AM131" s="4"/>
+      <c r="AN131" s="17"/>
+      <c r="AO131" s="4"/>
+      <c r="AR131" s="4"/>
+      <c r="AS131" s="17"/>
+      <c r="AT131" s="4"/>
+      <c r="AU131" s="2"/>
+      <c r="AV131" s="23"/>
+      <c r="AW131" s="18"/>
+      <c r="AX131" s="4"/>
+      <c r="AY131" s="18"/>
+      <c r="AZ131" s="24"/>
+      <c r="BA131" s="18"/>
+      <c r="BB131" s="18"/>
+      <c r="BC131" s="18"/>
+      <c r="BD131" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FieryLedLamp_New_WEB/Таблица эффектов.xlsx
+++ b/FieryLedLamp_New_WEB/Таблица эффектов.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19749054-5812-47D1-BAAD-A1F9B403B09B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6FB068-8DEE-4619-AD1D-AFBE39B0D24F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2007,8 +2007,8 @@
   <dimension ref="A1:BD136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C125" sqref="C125"/>
+      <pane ySplit="3" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L116" sqref="L116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5280,7 +5280,7 @@
         <v>99</v>
       </c>
       <c r="L28" s="40">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="M28" s="40">
         <v>254</v>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="AJ28" s="2" t="str">
         <f t="shared" ca="1" si="50"/>
-        <v>24. Звезды,80,254,1,100,0;</v>
+        <v>24. Звезды,1,254,1,100,0;</v>
       </c>
       <c r="AK28" s="2" t="str">
         <f t="shared" ca="1" si="54"/>
@@ -16353,7 +16353,7 @@
         <v>330</v>
       </c>
       <c r="H116" s="40">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I116" s="40">
         <v>165</v>
@@ -16362,7 +16362,7 @@
         <v>40</v>
       </c>
       <c r="L116" s="40">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="M116" s="40">
         <v>255</v>
@@ -16396,19 +16396,19 @@
       </c>
       <c r="W116" s="2" t="str">
         <f t="shared" ca="1" si="236"/>
-        <v>String("108. Стрелки,1,255,1,100,0;") +</v>
+        <v>String("108. Стрелки,80,255,1,100,0;") +</v>
       </c>
       <c r="X116" s="2" t="str">
         <f t="shared" ca="1" si="237"/>
-        <v>String("108. ,1,255,1,100,0;") +</v>
+        <v>String("108. ,80,255,1,100,0;") +</v>
       </c>
       <c r="Y116" s="2" t="str">
         <f t="shared" ca="1" si="238"/>
-        <v>String("108. ,1,255,1,100,0;") +</v>
+        <v>String("108. ,80,255,1,100,0;") +</v>
       </c>
       <c r="Z116" s="2" t="str">
         <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  75, 165,  40}, // Стрелки</v>
+        <v xml:space="preserve">  {  80, 165,  40}, // Стрелки</v>
       </c>
       <c r="AA116" s="2" t="str">
         <f t="shared" ca="1" si="240"/>
@@ -16416,7 +16416,7 @@
       </c>
       <c r="AB116" s="2" t="str">
         <f t="shared" ref="AB116:AB120" ca="1" si="251">CONCATENATE("{""name"":""",A116,". ",C116,""",""spmin"":",L116,",""spmax"":",M116,",""scmin"":",N116,",""scmax"":",O116,",""type"":",P116,"},")</f>
-        <v>{"name":"108. Стрелки","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <v>{"name":"108. Стрелки","spmin":80,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC116" s="4" t="str">
         <f t="shared" ca="1" si="241"/>
@@ -16448,7 +16448,7 @@
       </c>
       <c r="AJ116" s="2" t="str">
         <f t="shared" ca="1" si="248"/>
-        <v>108. Стрелки,1,255,1,100,0;</v>
+        <v>108. Стрелки,80,255,1,100,0;</v>
       </c>
       <c r="AK116" s="2" t="str">
         <f t="shared" ca="1" si="249"/>

--- a/FieryLedLamp_New_WEB/Таблица эффектов.xlsx
+++ b/FieryLedLamp_New_WEB/Таблица эффектов.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6FB068-8DEE-4619-AD1D-AFBE39B0D24F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D07F0FC-3A51-4D44-B08B-20186B8BD4AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="440">
   <si>
     <t>Наст.по умолчанию</t>
   </si>
@@ -52,15 +52,9 @@
     <t>effects.json @SlingMfster</t>
   </si>
   <si>
-    <t>cycle_config.json</t>
-  </si>
-  <si>
     <t>cycle.json action</t>
   </si>
   <si>
-    <t>sound_config.json</t>
-  </si>
-  <si>
     <t>cycle.ru.json</t>
   </si>
   <si>
@@ -1256,15 +1250,6 @@
   </si>
   <si>
     <t>ballRoutine();</t>
-  </si>
-  <si>
-    <t>DANDELIONS</t>
-  </si>
-  <si>
-    <t>Разноцветные одуванчики</t>
-  </si>
-  <si>
-    <t>Dandelions();</t>
   </si>
   <si>
     <t>TURBULENCE</t>
@@ -1373,6 +1358,33 @@
   <si>
     <t>FONTAN</t>
   </si>
+  <si>
+    <t>Радужные кольца</t>
+  </si>
+  <si>
+    <t>RainbowRings();</t>
+  </si>
+  <si>
+    <t>RAINBOW_RINGS</t>
+  </si>
+  <si>
+    <t>DANDELIONS</t>
+  </si>
+  <si>
+    <t>Разноцветные одуванчики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOFT_DELAY_TICK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dandelions(); </t>
+  </si>
+  <si>
+    <t>config_sound.json</t>
+  </si>
+  <si>
+    <t>config_cycle.json</t>
+  </si>
 </sst>
 </file>
 
@@ -1381,7 +1393,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1534,6 +1546,13 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1609,7 +1628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1724,6 +1743,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2004,11 +2024,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD136"/>
+  <dimension ref="A1:BD137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L116" sqref="L116"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM100" sqref="AM100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2112,28 +2132,28 @@
         <v>9</v>
       </c>
       <c r="AC2" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AG2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AH2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AI2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="13" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ2" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
@@ -2158,85 +2178,85 @@
     </row>
     <row r="3" spans="1:56" ht="14.25" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
       <c r="G3" s="48"/>
       <c r="H3" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="41" t="s">
         <v>20</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>22</v>
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="O3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="P3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="41" t="s">
+      <c r="Q3" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="R3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="S3" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="T3" s="51" t="s">
         <v>29</v>
-      </c>
-      <c r="S3" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="51" t="s">
-        <v>31</v>
       </c>
       <c r="U3" s="15"/>
       <c r="W3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AC3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AD3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
@@ -2262,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4" s="40">
         <v>10</v>
@@ -2292,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="Q4" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R4" s="40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S4" s="40">
         <v>0</v>
@@ -2394,10 +2414,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H5" s="40">
         <v>35</v>
@@ -2424,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="Q5" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R5" s="40" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="S5" s="40">
         <v>2</v>
@@ -2491,10 +2511,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6" s="40">
         <v>25</v>
@@ -2521,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="Q6" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R6" s="40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S6" s="40">
         <v>2</v>
@@ -2620,10 +2640,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H7" s="40">
         <v>20</v>
@@ -2650,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="Q7" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R7" s="40" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="S7" s="40">
         <v>2</v>
@@ -2717,10 +2737,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8" s="40">
         <v>25</v>
@@ -2747,10 +2767,10 @@
         <v>1</v>
       </c>
       <c r="Q8" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R8" s="40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S8" s="40">
         <v>2</v>
@@ -2838,10 +2858,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H9" s="40">
         <v>20</v>
@@ -2868,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="Q9" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R9" s="40" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S9" s="40">
         <v>2</v>
@@ -2935,10 +2955,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" s="40">
         <v>35</v>
@@ -2965,10 +2985,10 @@
         <v>0</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R10" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S10" s="40">
         <v>2</v>
@@ -3068,10 +3088,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H11" s="40">
         <v>20</v>
@@ -3098,10 +3118,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R11" s="40" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="S11" s="40">
         <v>2</v>
@@ -3165,10 +3185,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H12" s="40">
         <v>30</v>
@@ -3195,10 +3215,10 @@
         <v>1</v>
       </c>
       <c r="Q12" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R12" s="40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S12" s="40">
         <v>7</v>
@@ -3298,10 +3318,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H13" s="40">
         <v>20</v>
@@ -3328,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="Q13" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R13" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S13" s="40">
         <v>7</v>
@@ -3427,10 +3447,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H14" s="40">
         <v>40</v>
@@ -3457,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="Q14" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R14" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S14" s="40">
         <v>9</v>
@@ -3560,10 +3580,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="40">
         <v>45</v>
@@ -3590,10 +3610,10 @@
         <v>1</v>
       </c>
       <c r="Q15" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R15" s="40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S15" s="40">
         <v>2</v>
@@ -3673,10 +3693,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H16" s="40">
         <v>80</v>
@@ -3703,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="Q16" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R16" s="40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S16" s="40">
         <v>2</v>
@@ -3806,10 +3826,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H17" s="40">
         <v>25</v>
@@ -3836,10 +3856,10 @@
         <v>1</v>
       </c>
       <c r="Q17" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R17" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S17" s="40">
         <v>3</v>
@@ -3939,10 +3959,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H18" s="40">
         <v>20</v>
@@ -3969,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="Q18" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R18" s="40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S18" s="40">
         <v>3</v>
@@ -4072,10 +4092,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H19" s="40">
         <v>55</v>
@@ -4102,10 +4122,10 @@
         <v>0</v>
       </c>
       <c r="Q19" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R19" s="40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S19" s="40">
         <v>6</v>
@@ -4205,10 +4225,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H20" s="40">
         <v>40</v>
@@ -4235,10 +4255,10 @@
         <v>0</v>
       </c>
       <c r="Q20" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R20" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S20" s="40">
         <v>12</v>
@@ -4338,10 +4358,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H21" s="40">
         <v>30</v>
@@ -4368,10 +4388,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R21" s="40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S21" s="40">
         <v>2</v>
@@ -4467,10 +4487,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H22" s="40">
         <v>25</v>
@@ -4497,10 +4517,10 @@
         <v>0</v>
       </c>
       <c r="Q22" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R22" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S22" s="40">
         <v>2</v>
@@ -4600,10 +4620,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H23" s="40">
         <v>25</v>
@@ -4630,10 +4650,10 @@
         <v>0</v>
       </c>
       <c r="Q23" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R23" s="40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S23" s="40">
         <v>2</v>
@@ -4733,10 +4753,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H24" s="40">
         <v>30</v>
@@ -4763,10 +4783,10 @@
         <v>0</v>
       </c>
       <c r="Q24" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R24" s="40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S24" s="40">
         <v>2</v>
@@ -4866,10 +4886,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H25" s="40">
         <v>20</v>
@@ -4896,10 +4916,10 @@
         <v>1</v>
       </c>
       <c r="Q25" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R25" s="40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S25" s="40">
         <v>2</v>
@@ -4999,10 +5019,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H26" s="40">
         <v>20</v>
@@ -5029,10 +5049,10 @@
         <v>0</v>
       </c>
       <c r="Q26" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R26" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S26" s="40">
         <v>2</v>
@@ -5132,10 +5152,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H27" s="40">
         <v>30</v>
@@ -5162,10 +5182,10 @@
         <v>1</v>
       </c>
       <c r="Q27" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R27" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S27" s="40">
         <v>2</v>
@@ -5265,10 +5285,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H28" s="40">
         <v>25</v>
@@ -5295,10 +5315,10 @@
         <v>0</v>
       </c>
       <c r="Q28" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R28" s="40" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S28" s="40">
         <v>2</v>
@@ -5362,10 +5382,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H29" s="40">
         <v>15</v>
@@ -5392,10 +5412,10 @@
         <v>0</v>
       </c>
       <c r="Q29" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R29" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S29" s="40">
         <v>2</v>
@@ -5495,10 +5515,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H30" s="40">
         <v>20</v>
@@ -5525,10 +5545,10 @@
         <v>1</v>
       </c>
       <c r="Q30" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R30" s="40" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="S30" s="40">
         <v>2</v>
@@ -5608,10 +5628,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H31" s="40">
         <v>20</v>
@@ -5638,10 +5658,10 @@
         <v>1</v>
       </c>
       <c r="Q31" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R31" s="40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S31" s="40">
         <v>13</v>
@@ -5741,10 +5761,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H32" s="40">
         <v>25</v>
@@ -5771,10 +5791,10 @@
         <v>0</v>
       </c>
       <c r="Q32" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R32" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S32" s="40">
         <v>4</v>
@@ -5874,10 +5894,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H33" s="40">
         <v>20</v>
@@ -5904,10 +5924,10 @@
         <v>1</v>
       </c>
       <c r="Q33" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R33" s="40" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="S33" s="40">
         <v>2</v>
@@ -5987,10 +6007,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H34" s="40">
         <v>20</v>
@@ -6017,10 +6037,10 @@
         <v>1</v>
       </c>
       <c r="Q34" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R34" s="40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S34" s="40">
         <v>2</v>
@@ -6120,10 +6140,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H35" s="40">
         <v>15</v>
@@ -6150,10 +6170,10 @@
         <v>0</v>
       </c>
       <c r="Q35" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R35" s="40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S35" s="40">
         <v>2</v>
@@ -6253,10 +6273,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H36" s="40">
         <v>30</v>
@@ -6283,10 +6303,10 @@
         <v>0</v>
       </c>
       <c r="Q36" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R36" s="40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="S36" s="40">
         <v>2</v>
@@ -6386,10 +6406,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H37" s="40">
         <v>20</v>
@@ -6416,10 +6436,10 @@
         <v>0</v>
       </c>
       <c r="Q37" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R37" s="40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S37" s="40">
         <v>2</v>
@@ -6519,10 +6539,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H38" s="40">
         <v>20</v>
@@ -6549,10 +6569,10 @@
         <v>1</v>
       </c>
       <c r="Q38" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R38" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S38" s="40">
         <v>2</v>
@@ -6652,10 +6672,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H39" s="40">
         <v>25</v>
@@ -6682,10 +6702,10 @@
         <v>0</v>
       </c>
       <c r="Q39" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R39" s="40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S39" s="40">
         <v>2</v>
@@ -6785,10 +6805,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H40" s="40">
         <v>25</v>
@@ -6815,10 +6835,10 @@
         <v>0</v>
       </c>
       <c r="Q40" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R40" s="40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S40" s="40">
         <v>2</v>
@@ -6918,10 +6938,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H41" s="40">
         <v>25</v>
@@ -6948,10 +6968,10 @@
         <v>1</v>
       </c>
       <c r="Q41" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R41" s="40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S41" s="40">
         <v>2</v>
@@ -7051,10 +7071,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H42" s="40">
         <v>30</v>
@@ -7081,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="Q42" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R42" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S42" s="40">
         <v>2</v>
@@ -7184,10 +7204,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H43" s="40">
         <v>45</v>
@@ -7214,10 +7234,10 @@
         <v>0</v>
       </c>
       <c r="Q43" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R43" s="40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S43" s="40">
         <v>2</v>
@@ -7313,10 +7333,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H44" s="40">
         <v>15</v>
@@ -7343,10 +7363,10 @@
         <v>0</v>
       </c>
       <c r="Q44" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R44" s="40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S44" s="40">
         <v>2</v>
@@ -7446,10 +7466,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H45" s="40">
         <v>15</v>
@@ -7476,10 +7496,10 @@
         <v>0</v>
       </c>
       <c r="Q45" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R45" s="40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S45" s="40">
         <v>2</v>
@@ -7579,10 +7599,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H46" s="40">
         <v>30</v>
@@ -7609,10 +7629,10 @@
         <v>0</v>
       </c>
       <c r="Q46" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R46" s="40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="S46" s="40">
         <v>8</v>
@@ -7712,10 +7732,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H47" s="40">
         <v>15</v>
@@ -7742,10 +7762,10 @@
         <v>0</v>
       </c>
       <c r="Q47" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R47" s="40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S47" s="40">
         <v>2</v>
@@ -7845,10 +7865,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H48" s="40">
         <v>20</v>
@@ -7875,10 +7895,10 @@
         <v>0</v>
       </c>
       <c r="Q48" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R48" s="40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S48" s="40">
         <v>2</v>
@@ -7991,10 +8011,10 @@
       <c r="U49" s="15"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X49" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y49" s="19"/>
       <c r="Z49" s="19"/>
@@ -8008,7 +8028,7 @@
       <c r="AH49" s="19"/>
       <c r="AI49" s="11"/>
       <c r="AJ49" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
@@ -8050,10 +8070,10 @@
       <c r="U50" s="15"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="X50" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y50" s="19"/>
       <c r="Z50" s="19"/>
@@ -8067,7 +8087,7 @@
       <c r="AH50" s="19"/>
       <c r="AI50" s="22"/>
       <c r="AJ50" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AK50" s="2"/>
       <c r="AL50" s="2"/>
@@ -8096,10 +8116,10 @@
         <v>45</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H51" s="40">
         <v>16</v>
@@ -8126,10 +8146,10 @@
         <v>0</v>
       </c>
       <c r="Q51" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R51" s="40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S51" s="40">
         <v>2</v>
@@ -8229,10 +8249,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H52" s="40">
         <v>15</v>
@@ -8259,10 +8279,10 @@
         <v>0</v>
       </c>
       <c r="Q52" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R52" s="40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S52" s="40">
         <v>2</v>
@@ -8362,10 +8382,10 @@
         <v>47</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H53" s="40">
         <v>25</v>
@@ -8392,10 +8412,10 @@
         <v>0</v>
       </c>
       <c r="Q53" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R53" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S53" s="40">
         <v>14</v>
@@ -8495,10 +8515,10 @@
         <v>48</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H54" s="40">
         <v>25</v>
@@ -8525,10 +8545,10 @@
         <v>0</v>
       </c>
       <c r="Q54" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R54" s="40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S54" s="40">
         <v>2</v>
@@ -8628,10 +8648,10 @@
         <v>49</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H55" s="40">
         <v>15</v>
@@ -8658,10 +8678,10 @@
         <v>0</v>
       </c>
       <c r="Q55" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R55" s="40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="S55" s="40">
         <v>2</v>
@@ -8761,10 +8781,10 @@
         <v>50</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H56" s="40">
         <v>28</v>
@@ -8791,10 +8811,10 @@
         <v>0</v>
       </c>
       <c r="Q56" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R56" s="40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S56" s="40">
         <v>2</v>
@@ -8894,10 +8914,10 @@
         <v>51</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H57" s="43">
         <v>15</v>
@@ -8924,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="Q57" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R57" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S57" s="40">
         <v>2</v>
@@ -9027,10 +9047,10 @@
         <v>52</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H58" s="40">
         <v>20</v>
@@ -9057,10 +9077,10 @@
         <v>0</v>
       </c>
       <c r="Q58" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R58" s="40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S58" s="40">
         <v>6</v>
@@ -9160,10 +9180,10 @@
         <v>53</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H59" s="40">
         <v>15</v>
@@ -9190,10 +9210,10 @@
         <v>0</v>
       </c>
       <c r="Q59" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R59" s="40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="S59" s="40">
         <v>2</v>
@@ -9293,10 +9313,10 @@
         <v>54</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H60" s="40">
         <v>25</v>
@@ -9323,10 +9343,10 @@
         <v>0</v>
       </c>
       <c r="Q60" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R60" s="40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S60" s="40">
         <v>2</v>
@@ -9426,10 +9446,10 @@
         <v>55</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H61" s="40">
         <v>30</v>
@@ -9456,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="Q61" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R61" s="40" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S61" s="40">
         <v>2</v>
@@ -9559,10 +9579,10 @@
         <v>56</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="H62" s="40">
         <v>35</v>
@@ -9589,10 +9609,10 @@
         <v>0</v>
       </c>
       <c r="Q62" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R62" s="40" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="S62" s="40">
         <v>2</v>
@@ -9672,10 +9692,10 @@
         <v>57</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H63" s="40">
         <v>25</v>
@@ -9702,10 +9722,10 @@
         <v>1</v>
       </c>
       <c r="Q63" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R63" s="40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S63" s="40">
         <v>3</v>
@@ -9805,10 +9825,10 @@
         <v>58</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H64" s="40">
         <v>15</v>
@@ -9835,10 +9855,10 @@
         <v>0</v>
       </c>
       <c r="Q64" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R64" s="40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S64" s="40">
         <v>3</v>
@@ -9938,10 +9958,10 @@
         <v>59</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H65" s="40">
         <v>30</v>
@@ -9968,10 +9988,10 @@
         <v>0</v>
       </c>
       <c r="Q65" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R65" s="40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S65" s="40">
         <v>3</v>
@@ -10071,10 +10091,10 @@
         <v>60</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H66" s="40">
         <v>20</v>
@@ -10101,10 +10121,10 @@
         <v>0</v>
       </c>
       <c r="Q66" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R66" s="40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S66" s="40">
         <v>3</v>
@@ -10204,10 +10224,10 @@
         <v>61</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H67" s="40">
         <v>25</v>
@@ -10234,10 +10254,10 @@
         <v>0</v>
       </c>
       <c r="Q67" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R67" s="40" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S67" s="40">
         <v>3</v>
@@ -10337,10 +10357,10 @@
         <v>62</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H68" s="40">
         <v>26</v>
@@ -10367,10 +10387,10 @@
         <v>0</v>
       </c>
       <c r="Q68" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R68" s="40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S68" s="40">
         <v>3</v>
@@ -10470,10 +10490,10 @@
         <v>63</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H69" s="40">
         <v>30</v>
@@ -10500,10 +10520,10 @@
         <v>0</v>
       </c>
       <c r="Q69" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R69" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S69" s="40">
         <v>3</v>
@@ -10603,10 +10623,10 @@
         <v>64</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H70" s="40">
         <v>30</v>
@@ -10633,10 +10653,10 @@
         <v>0</v>
       </c>
       <c r="Q70" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R70" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S70" s="40">
         <v>3</v>
@@ -10716,10 +10736,10 @@
         <v>65</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H71" s="40">
         <v>20</v>
@@ -10746,10 +10766,10 @@
         <v>1</v>
       </c>
       <c r="Q71" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R71" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S71" s="40">
         <v>4</v>
@@ -10849,10 +10869,10 @@
         <v>66</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H72" s="40">
         <v>15</v>
@@ -10879,10 +10899,10 @@
         <v>0</v>
       </c>
       <c r="Q72" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R72" s="40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S72" s="40">
         <v>2</v>
@@ -10982,10 +11002,10 @@
         <v>67</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H73" s="40">
         <v>20</v>
@@ -11012,10 +11032,10 @@
         <v>0</v>
       </c>
       <c r="Q73" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R73" s="40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S73" s="40">
         <v>2</v>
@@ -11115,10 +11135,10 @@
         <v>68</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D74" s="44"/>
       <c r="E74" s="44"/>
@@ -11150,10 +11170,10 @@
         <v>0</v>
       </c>
       <c r="Q74" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R74" s="40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S74" s="40">
         <v>5</v>
@@ -11244,10 +11264,10 @@
         <v>69</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D75" s="44"/>
       <c r="E75" s="44"/>
@@ -11279,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="Q75" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R75" s="40" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="S75" s="40">
         <v>2</v>
@@ -11347,10 +11367,10 @@
         <v>70</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D76" s="44"/>
       <c r="E76" s="44"/>
@@ -11382,10 +11402,10 @@
         <v>0</v>
       </c>
       <c r="Q76" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R76" s="40" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="S76" s="40">
         <v>2</v>
@@ -11472,10 +11492,10 @@
         <v>71</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H77" s="40">
         <v>20</v>
@@ -11502,10 +11522,10 @@
         <v>1</v>
       </c>
       <c r="Q77" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R77" s="40" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S77" s="40">
         <v>2</v>
@@ -11605,10 +11625,10 @@
         <v>72</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H78" s="40">
         <v>25</v>
@@ -11635,10 +11655,10 @@
         <v>0</v>
       </c>
       <c r="Q78" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="S78" s="40">
         <v>2</v>
@@ -11734,10 +11754,10 @@
         <v>73</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H79" s="40">
         <v>15</v>
@@ -11764,10 +11784,10 @@
         <v>0</v>
       </c>
       <c r="Q79" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R79" s="40" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="S79" s="40">
         <v>2</v>
@@ -11867,10 +11887,10 @@
         <v>74</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H80" s="40">
         <v>10</v>
@@ -11897,10 +11917,10 @@
         <v>0</v>
       </c>
       <c r="Q80" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R80" s="40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S80" s="40">
         <v>2</v>
@@ -12000,10 +12020,10 @@
         <v>75</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H81" s="40">
         <v>10</v>
@@ -12030,10 +12050,10 @@
         <v>0</v>
       </c>
       <c r="Q81" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R81" s="40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="S81" s="40">
         <v>2</v>
@@ -12133,10 +12153,10 @@
         <v>76</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H82" s="40">
         <v>15</v>
@@ -12163,10 +12183,10 @@
         <v>0</v>
       </c>
       <c r="Q82" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R82" s="40" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="S82" s="40">
         <v>2</v>
@@ -12246,10 +12266,10 @@
         <v>77</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H83" s="40">
         <v>30</v>
@@ -12276,10 +12296,10 @@
         <v>1</v>
       </c>
       <c r="Q83" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R83" s="40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S83" s="40">
         <v>3</v>
@@ -12379,10 +12399,10 @@
         <v>78</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H84" s="40">
         <v>25</v>
@@ -12409,10 +12429,10 @@
         <v>0</v>
       </c>
       <c r="Q84" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R84" s="40" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S84" s="40">
         <v>2</v>
@@ -12476,10 +12496,10 @@
         <v>79</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H85" s="40">
         <v>40</v>
@@ -12506,10 +12526,10 @@
         <v>0</v>
       </c>
       <c r="Q85" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R85" s="40" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S85" s="40">
         <v>2</v>
@@ -12609,10 +12629,10 @@
         <v>80</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H86" s="40">
         <v>10</v>
@@ -12639,10 +12659,10 @@
         <v>0</v>
       </c>
       <c r="Q86" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R86" s="40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S86" s="40">
         <v>2</v>
@@ -12742,10 +12762,10 @@
         <v>81</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H87" s="40">
         <v>15</v>
@@ -12772,10 +12792,10 @@
         <v>0</v>
       </c>
       <c r="Q87" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R87" s="40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="S87" s="40">
         <v>2</v>
@@ -12871,10 +12891,10 @@
         <v>82</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H88" s="40">
         <v>20</v>
@@ -12901,10 +12921,10 @@
         <v>0</v>
       </c>
       <c r="Q88" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R88" s="40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="S88" s="40">
         <v>2</v>
@@ -13004,10 +13024,10 @@
         <v>83</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H89" s="40">
         <v>25</v>
@@ -13034,10 +13054,10 @@
         <v>0</v>
       </c>
       <c r="Q89" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R89" s="40" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="S89" s="40">
         <v>2</v>
@@ -13137,10 +13157,10 @@
         <v>84</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H90" s="40">
         <v>20</v>
@@ -13167,10 +13187,10 @@
         <v>0</v>
       </c>
       <c r="Q90" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R90" s="40" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S90" s="40">
         <v>2</v>
@@ -13279,10 +13299,10 @@
       <c r="U91" s="15"/>
       <c r="V91" s="19"/>
       <c r="W91" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X91" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y91" s="19"/>
       <c r="Z91" s="19"/>
@@ -13296,7 +13316,7 @@
       <c r="AH91" s="19"/>
       <c r="AI91" s="11"/>
       <c r="AJ91" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AK91" s="2"/>
       <c r="AL91" s="2"/>
@@ -13338,10 +13358,10 @@
       <c r="U92" s="15"/>
       <c r="V92" s="19"/>
       <c r="W92" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="X92" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Y92" s="19"/>
       <c r="Z92" s="19"/>
@@ -13355,7 +13375,7 @@
       <c r="AH92" s="19"/>
       <c r="AI92" s="22"/>
       <c r="AJ92" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AK92" s="2"/>
       <c r="AL92" s="2"/>
@@ -13384,10 +13404,10 @@
         <v>85</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H93" s="40">
         <v>20</v>
@@ -13414,77 +13434,77 @@
         <v>0</v>
       </c>
       <c r="Q93" s="40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R93" s="40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S93" s="40">
         <v>2</v>
       </c>
       <c r="T93" s="40">
-        <f t="shared" ref="T93:T98" ca="1" si="179">MAX(OFFSET(T93,-4,0,4,1))+1</f>
+        <f t="shared" ref="T93:T99" ca="1" si="179">MAX(OFFSET(T93,-4,0,4,1))+1</f>
         <v>85</v>
       </c>
       <c r="U93" s="15"/>
       <c r="V93" s="2" t="str">
-        <f t="shared" ref="V93:V98" ca="1" si="180">CONCATENATE("#define EFF_",B93,REPT(" ",20-LEN(B93)),"(",REPT(" ",3-LEN(T93)),T93,"U)    // ",C93)</f>
+        <f t="shared" ref="V93:V99" ca="1" si="180">CONCATENATE("#define EFF_",B93,REPT(" ",20-LEN(B93)),"(",REPT(" ",3-LEN(T93)),T93,"U)    // ",C93)</f>
         <v>#define EFF_PULSE_WHITE         ( 85U)    // Пульс белый</v>
       </c>
       <c r="W93" s="2" t="str">
-        <f t="shared" ref="W93:W98" ca="1" si="181">CONCATENATE("String(""",A93,". ",C93,",",L93,",",M93,",",N93,",",O93,",",P93,";"") +")</f>
+        <f t="shared" ref="W93:W99" ca="1" si="181">CONCATENATE("String(""",A93,". ",C93,",",L93,",",M93,",",N93,",",O93,",",P93,";"") +")</f>
         <v>String("85. Пульс белый,99,255,1,100,0;") +</v>
       </c>
       <c r="X93" s="2" t="str">
-        <f t="shared" ref="X93:X98" ca="1" si="182">CONCATENATE("String(""",A93,". ",D93,",",L93,",",M93,",",N93,",",O93,",",P93,";"") +")</f>
+        <f t="shared" ref="X93:X99" ca="1" si="182">CONCATENATE("String(""",A93,". ",D93,",",L93,",",M93,",",N93,",",O93,",",P93,";"") +")</f>
         <v>String("85. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Y93" s="2" t="str">
-        <f t="shared" ref="Y93:Y98" ca="1" si="183">CONCATENATE("String(""",A93,". ",E93,",",L93,",",M93,",",N93,",",O93,",",P93,";"") +")</f>
+        <f t="shared" ref="Y93:Y99" ca="1" si="183">CONCATENATE("String(""",A93,". ",E93,",",L93,",",M93,",",N93,",",O93,",",P93,";"") +")</f>
         <v>String("85. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Z93" s="2" t="str">
-        <f t="shared" ref="Z93:Z98" si="184">CONCATENATE("  {",REPT(" ",4-LEN(H93)),H93,",",REPT(" ",4-LEN(I93)),I93,",",REPT(" ",4-LEN(J93)),J93,"}, // ",C93)</f>
+        <f t="shared" ref="Z93:Z99" si="184">CONCATENATE("  {",REPT(" ",4-LEN(H93)),H93,",",REPT(" ",4-LEN(I93)),I93,",",REPT(" ",4-LEN(J93)),J93,"}, // ",C93)</f>
         <v xml:space="preserve">  {  20, 179,  11}, // Пульс белый</v>
       </c>
       <c r="AA93" s="2" t="str">
-        <f t="shared" ref="AA93:AA98" ca="1" si="185">CONCATENATE("        case EFF_",B93,":",REPT(" ",20-LEN(B93)),Q93," { effTimer = millis(); ",R93,REPT(" ",30-LEN(R93)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T93)),T93,"U) ",C93)</f>
+        <f t="shared" ref="AA93:AA99" ca="1" si="185">CONCATENATE("        case EFF_",B93,":",REPT(" ",20-LEN(B93)),Q93," { effTimer = millis(); ",R93,REPT(" ",30-LEN(R93)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T93)),T93,"U) ",C93)</f>
         <v xml:space="preserve">        case EFF_PULSE_WHITE:         LOW_DELAY_TICK     { effTimer = millis(); pulseRoutine(8U);             Eff_Tick (); }  break;  // ( 85U) Пульс белый</v>
       </c>
       <c r="AC93" s="4" t="str">
-        <f t="shared" ref="AC93:AC98" ca="1" si="186">CONCATENATE("""","e",T93,"""",":0,")</f>
+        <f t="shared" ref="AC93:AC99" ca="1" si="186">CONCATENATE("""","e",T93,"""",":0,")</f>
         <v>"e85":0,</v>
       </c>
       <c r="AD93" s="4" t="str">
-        <f t="shared" ref="AD93:AD98" ca="1" si="187">CONCATENATE("e",T93,"=[[e",T93,"]]&amp;")</f>
+        <f t="shared" ref="AD93:AD99" ca="1" si="187">CONCATENATE("e",T93,"=[[e",T93,"]]&amp;")</f>
         <v>e85=[[e85]]&amp;</v>
       </c>
       <c r="AE93" s="4" t="str">
-        <f t="shared" ref="AE93:AE98" ca="1" si="188">CONCATENATE("""","e",T93,"""",":",S93,",")</f>
+        <f t="shared" ref="AE93:AE99" ca="1" si="188">CONCATENATE("""","e",T93,"""",":",S93,",")</f>
         <v>"e85":2,</v>
       </c>
       <c r="AF93" s="2" t="str">
-        <f t="shared" ref="AF93:AF98" ca="1" si="189">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T93,""",""title"":""",A93,". ",C93,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T93,"}}""},")</f>
+        <f t="shared" ref="AF93:AF99" ca="1" si="189">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T93,""",""title"":""",A93,". ",C93,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T93,"}}""},")</f>
         <v>{"type":"checkbox","class":"checkbox-big","name":"e85","title":"85. Пульс белый","style":"font-size:20px;display:block","state":"{{e85}}"},</v>
       </c>
       <c r="AG93" s="2" t="str">
-        <f t="shared" ref="AG93:AG98" ca="1" si="190">CONCATENATE("{""type"":""h4"",""title"":""",A93,". ",C93,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T93,""",""state"":""{{e",T93,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <f t="shared" ref="AG93:AG99" ca="1" si="190">CONCATENATE("{""type"":""h4"",""title"":""",A93,". ",C93,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T93,""",""state"":""{{e",T93,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
         <v>{"type":"h4","title":"85. Пульс белый","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e85","state":"{{e85}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH93" s="2" t="str">
-        <f t="shared" ref="AH93:AH98" ca="1" si="191">CONCATENATE("""",A93,"""",": """,A93,".",C93,""",")</f>
+        <f t="shared" ref="AH93:AH99" ca="1" si="191">CONCATENATE("""",A93,"""",": """,A93,".",C93,""",")</f>
         <v>"85": "85.Пульс белый",</v>
       </c>
       <c r="AI93" s="16" t="str">
-        <f t="shared" ref="AI93:AI98" ca="1" si="192">CONCATENATE("""",A93,"""",":""",T93,""",")</f>
+        <f t="shared" ref="AI93:AI99" ca="1" si="192">CONCATENATE("""",A93,"""",":""",T93,""",")</f>
         <v>"85":"85",</v>
       </c>
       <c r="AJ93" s="2" t="str">
-        <f t="shared" ref="AJ93:AJ98" ca="1" si="193">CONCATENATE(A93,". ",C93,",",L93,",",M93,",",N93,",",O93,",",P93,";")</f>
+        <f t="shared" ref="AJ93:AJ99" ca="1" si="193">CONCATENATE(A93,". ",C93,",",L93,",",M93,",",N93,",",O93,",",P93,";")</f>
         <v>85. Пульс белый,99,255,1,100,0;</v>
       </c>
       <c r="AK93" s="2" t="str">
-        <f t="shared" ref="AK93:AK98" ca="1" si="194">CONCATENATE("",A93,"",".",C93,"")</f>
+        <f t="shared" ref="AK93:AK99" ca="1" si="194">CONCATENATE("",A93,"",".",C93,"")</f>
         <v>85.Пульс белый</v>
       </c>
       <c r="AL93" s="2"/>
@@ -13513,10 +13533,10 @@
         <v>86</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H94" s="40">
         <v>20</v>
@@ -13543,10 +13563,10 @@
         <v>0</v>
       </c>
       <c r="Q94" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R94" s="40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="S94" s="40">
         <v>2</v>
@@ -13646,10 +13666,10 @@
         <v>87</v>
       </c>
       <c r="B95" s="40" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H95" s="43">
         <v>15</v>
@@ -13676,10 +13696,10 @@
         <v>0</v>
       </c>
       <c r="Q95" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R95" s="40" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S95" s="40">
         <v>2</v>
@@ -13779,10 +13799,10 @@
         <v>88</v>
       </c>
       <c r="B96" s="40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H96" s="40">
         <v>10</v>
@@ -13809,10 +13829,10 @@
         <v>0</v>
       </c>
       <c r="Q96" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R96" s="40" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S96" s="40">
         <v>2</v>
@@ -13912,10 +13932,10 @@
         <v>89</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H97" s="40">
         <v>10</v>
@@ -13942,10 +13962,10 @@
         <v>0</v>
       </c>
       <c r="Q97" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R97" s="40" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S97" s="40">
         <v>2</v>
@@ -14045,10 +14065,10 @@
         <v>90</v>
       </c>
       <c r="B98" s="40" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="H98" s="40">
         <v>40</v>
@@ -14075,10 +14095,10 @@
         <v>0</v>
       </c>
       <c r="Q98" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R98" s="40" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="S98" s="40">
         <v>2</v>
@@ -14148,34 +14168,34 @@
         <v>90.Радужное Пятно</v>
       </c>
     </row>
-    <row r="99" spans="1:56" ht="14.25" customHeight="1">
+    <row r="99" spans="1:56">
       <c r="A99" s="35">
         <f ca="1">MAX(OFFSET(A99,-4,0,4,1))+1</f>
         <v>91</v>
       </c>
       <c r="B99" s="40" t="s">
-        <v>288</v>
+        <v>433</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>289</v>
+        <v>431</v>
       </c>
       <c r="H99" s="40">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I99" s="40">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="J99" s="40">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L99" s="40">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M99" s="40">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="N99" s="40">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O99" s="40">
         <v>100</v>
@@ -14184,131 +14204,107 @@
         <v>0</v>
       </c>
       <c r="Q99" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R99" s="40" t="s">
-        <v>290</v>
+        <v>432</v>
       </c>
       <c r="S99" s="40">
         <v>2</v>
       </c>
       <c r="T99" s="40">
-        <f ca="1">MAX(OFFSET(T99,-4,0,4,1))+1</f>
+        <f t="shared" ca="1" si="179"/>
         <v>91</v>
       </c>
-      <c r="U99" s="15"/>
       <c r="V99" s="2" t="str">
-        <f ca="1">CONCATENATE("#define EFF_",B99,REPT(" ",20-LEN(B99)),"(",REPT(" ",3-LEN(T99)),T99,"U)    // ",C99)</f>
-        <v>#define EFF_SNAKE               ( 91U)    // Радужный змей</v>
+        <f t="shared" ca="1" si="180"/>
+        <v>#define EFF_RAINBOW_RINGS       ( 91U)    // Радужные кольца</v>
       </c>
       <c r="W99" s="2" t="str">
-        <f ca="1">CONCATENATE("String(""",A99,". ",C99,",",L99,",",M99,",",N99,",",O99,",",P99,";"") +")</f>
-        <v>String("91. Радужный змей,99,255,100,100,0;") +</v>
+        <f t="shared" ca="1" si="181"/>
+        <v>String("91. Радужные кольца,127,128,1,100,0;") +</v>
       </c>
       <c r="X99" s="2" t="str">
-        <f ca="1">CONCATENATE("String(""",A99,". ",D99,",",L99,",",M99,",",N99,",",O99,",",P99,";"") +")</f>
-        <v>String("91. ,99,255,100,100,0;") +</v>
+        <f t="shared" ca="1" si="182"/>
+        <v>String("91. ,127,128,1,100,0;") +</v>
       </c>
       <c r="Y99" s="2" t="str">
-        <f ca="1">CONCATENATE("String(""",A99,". ",E99,",",L99,",",M99,",",N99,",",O99,",",P99,";"") +")</f>
-        <v>String("91. ,99,255,100,100,0;") +</v>
+        <f t="shared" ca="1" si="183"/>
+        <v>String("91. ,127,128,1,100,0;") +</v>
       </c>
       <c r="Z99" s="2" t="str">
-        <f>CONCATENATE("  {",REPT(" ",4-LEN(H99)),H99,",",REPT(" ",4-LEN(I99)),I99,",",REPT(" ",4-LEN(J99)),J99,"}, // ",C99)</f>
-        <v xml:space="preserve">  {  15, 205, 100}, // Радужный змей</v>
+        <f t="shared" si="184"/>
+        <v xml:space="preserve">  {  20, 128,  25}, // Радужные кольца</v>
       </c>
       <c r="AA99" s="2" t="str">
-        <f ca="1">CONCATENATE("        case EFF_",B99,":",REPT(" ",20-LEN(B99)),Q99," { effTimer = millis(); ",R99,REPT(" ",30-LEN(R99)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T99)),T99,"U) ",C99)</f>
-        <v xml:space="preserve">        case EFF_SNAKE:               DYNAMIC_DELAY_TICK { effTimer = millis(); MultipleStream8();            Eff_Tick (); }  break;  // ( 91U) Радужный змей</v>
-      </c>
-      <c r="AB99" s="2" t="str">
-        <f ca="1">CONCATENATE("{""name"":""",A99,". ",C99,""",""spmin"":",L99,",""spmax"":",M99,",""scmin"":",N99,",""scmax"":",O99,",""type"":",P99,"},")</f>
-        <v>{"name":"91. Радужный змей","spmin":99,"spmax":255,"scmin":100,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="185"/>
+        <v xml:space="preserve">        case EFF_RAINBOW_RINGS:       DYNAMIC_DELAY_TICK { effTimer = millis(); RainbowRings();               Eff_Tick (); }  break;  // ( 91U) Радужные кольца</v>
       </c>
       <c r="AC99" s="4" t="str">
-        <f ca="1">CONCATENATE("""","e",T99,"""",":0,")</f>
+        <f t="shared" ca="1" si="186"/>
         <v>"e91":0,</v>
       </c>
       <c r="AD99" s="4" t="str">
-        <f ca="1">CONCATENATE("e",T99,"=[[e",T99,"]]&amp;")</f>
+        <f t="shared" ca="1" si="187"/>
         <v>e91=[[e91]]&amp;</v>
       </c>
       <c r="AE99" s="4" t="str">
-        <f ca="1">CONCATENATE("""","e",T99,"""",":",S99,",")</f>
+        <f t="shared" ca="1" si="188"/>
         <v>"e91":2,</v>
       </c>
       <c r="AF99" s="2" t="str">
-        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T99,""",""title"":""",A99,". ",C99,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T99,"}}""},")</f>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e91","title":"91. Радужный змей","style":"font-size:20px;display:block","state":"{{e91}}"},</v>
+        <f t="shared" ca="1" si="189"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e91","title":"91. Радужные кольца","style":"font-size:20px;display:block","state":"{{e91}}"},</v>
       </c>
       <c r="AG99" s="2" t="str">
-        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A99,". ",C99,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T99,""",""state"":""{{e",T99,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
-        <v>{"type":"h4","title":"91. Радужный змей","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e91","state":"{{e91}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="190"/>
+        <v>{"type":"h4","title":"91. Радужные кольца","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e91","state":"{{e91}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH99" s="2" t="str">
-        <f ca="1">CONCATENATE("""",A99,"""",": """,A99,".",C99,""",")</f>
-        <v>"91": "91.Радужный змей",</v>
+        <f t="shared" ca="1" si="191"/>
+        <v>"91": "91.Радужные кольца",</v>
       </c>
       <c r="AI99" s="16" t="str">
-        <f ca="1">CONCATENATE("""",A99,"""",":""",T99,""",")</f>
+        <f t="shared" ca="1" si="192"/>
         <v>"91":"91",</v>
       </c>
       <c r="AJ99" s="2" t="str">
-        <f ca="1">CONCATENATE(A99,". ",C99,",",L99,",",M99,",",N99,",",O99,",",P99,";")</f>
-        <v>91. Радужный змей,99,255,100,100,0;</v>
+        <f t="shared" ca="1" si="193"/>
+        <v>91. Радужные кольца,127,128,1,100,0;</v>
       </c>
       <c r="AK99" s="2" t="str">
-        <f ca="1">CONCATENATE("",A99,"",".",C99,"")</f>
-        <v>91.Радужный змей</v>
-      </c>
-      <c r="AL99" s="2"/>
-      <c r="AM99" s="2"/>
-      <c r="AN99" s="17"/>
-      <c r="AO99" s="2"/>
-      <c r="AP99" s="2"/>
-      <c r="AQ99" s="2"/>
-      <c r="AR99" s="2"/>
-      <c r="AS99" s="16"/>
-      <c r="AT99" s="2"/>
-      <c r="AU99" s="2"/>
-      <c r="AV99" s="18"/>
-      <c r="AW99" s="18"/>
-      <c r="AX99" s="18"/>
-      <c r="AY99" s="18"/>
-      <c r="AZ99" s="18"/>
-      <c r="BA99" s="18"/>
-      <c r="BB99" s="18"/>
-      <c r="BC99" s="18"/>
-      <c r="BD99" s="18"/>
+        <f t="shared" ca="1" si="194"/>
+        <v>91.Радужные кольца</v>
+      </c>
     </row>
-    <row r="100" spans="1:56">
+    <row r="100" spans="1:56" ht="14.25" customHeight="1">
       <c r="A100" s="35">
         <f ca="1">MAX(OFFSET(A100,-4,0,4,1))+1</f>
         <v>92</v>
       </c>
       <c r="B100" s="40" t="s">
-        <v>412</v>
+        <v>286</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>413</v>
+        <v>287</v>
       </c>
       <c r="H100" s="40">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I100" s="40">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="J100" s="40">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L100" s="40">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="M100" s="40">
         <v>255</v>
       </c>
       <c r="N100" s="40">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O100" s="40">
         <v>100</v>
@@ -14317,10 +14313,10 @@
         <v>0</v>
       </c>
       <c r="Q100" s="40" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="R100" s="40" t="s">
-        <v>414</v>
+        <v>288</v>
       </c>
       <c r="S100" s="40">
         <v>2</v>
@@ -14329,33 +14325,34 @@
         <f ca="1">MAX(OFFSET(T100,-4,0,4,1))+1</f>
         <v>92</v>
       </c>
+      <c r="U100" s="15"/>
       <c r="V100" s="2" t="str">
         <f ca="1">CONCATENATE("#define EFF_",B100,REPT(" ",20-LEN(B100)),"(",REPT(" ",3-LEN(T100)),T100,"U)    // ",C100)</f>
-        <v>#define EFF_DANDELIONS          ( 92U)    // Разноцветные одуванчики</v>
+        <v>#define EFF_SNAKE               ( 92U)    // Радужный змей</v>
       </c>
       <c r="W100" s="2" t="str">
         <f ca="1">CONCATENATE("String(""",A100,". ",C100,",",L100,",",M100,",",N100,",",O100,",",P100,";"") +")</f>
-        <v>String("92. Разноцветные одуванчики,10,255,1,100,0;") +</v>
+        <v>String("92. Радужный змей,99,255,100,100,0;") +</v>
       </c>
       <c r="X100" s="2" t="str">
         <f ca="1">CONCATENATE("String(""",A100,". ",D100,",",L100,",",M100,",",N100,",",O100,",",P100,";"") +")</f>
-        <v>String("92. ,10,255,1,100,0;") +</v>
+        <v>String("92. ,99,255,100,100,0;") +</v>
       </c>
       <c r="Y100" s="2" t="str">
         <f ca="1">CONCATENATE("String(""",A100,". ",E100,",",L100,",",M100,",",N100,",",O100,",",P100,";"") +")</f>
-        <v>String("92. ,10,255,1,100,0;") +</v>
+        <v>String("92. ,99,255,100,100,0;") +</v>
       </c>
       <c r="Z100" s="2" t="str">
         <f>CONCATENATE("  {",REPT(" ",4-LEN(H100)),H100,",",REPT(" ",4-LEN(I100)),I100,",",REPT(" ",4-LEN(J100)),J100,"}, // ",C100)</f>
-        <v xml:space="preserve">  {  20,  50,  90}, // Разноцветные одуванчики</v>
+        <v xml:space="preserve">  {  15, 205, 100}, // Радужный змей</v>
       </c>
       <c r="AA100" s="2" t="str">
         <f ca="1">CONCATENATE("        case EFF_",B100,":",REPT(" ",20-LEN(B100)),Q100," { effTimer = millis(); ",R100,REPT(" ",30-LEN(R100)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T100)),T100,"U) ",C100)</f>
-        <v xml:space="preserve">        case EFF_DANDELIONS:          SOFT_DELAY_TICK { effTimer = millis(); Dandelions();                 Eff_Tick (); }  break;  // ( 92U) Разноцветные одуванчики</v>
+        <v xml:space="preserve">        case EFF_SNAKE:               DYNAMIC_DELAY_TICK { effTimer = millis(); MultipleStream8();            Eff_Tick (); }  break;  // ( 92U) Радужный змей</v>
       </c>
       <c r="AB100" s="2" t="str">
         <f ca="1">CONCATENATE("{""name"":""",A100,". ",C100,""",""spmin"":",L100,",""spmax"":",M100,",""scmin"":",N100,",""scmax"":",O100,",""type"":",P100,"},")</f>
-        <v>{"name":"92. Разноцветные одуванчики","spmin":10,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <v>{"name":"92. Радужный змей","spmin":99,"spmax":255,"scmin":100,"scmax":100,"type":0},</v>
       </c>
       <c r="AC100" s="4" t="str">
         <f ca="1">CONCATENATE("""","e",T100,"""",":0,")</f>
@@ -14371,15 +14368,15 @@
       </c>
       <c r="AF100" s="2" t="str">
         <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T100,""",""title"":""",A100,". ",C100,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T100,"}}""},")</f>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e92","title":"92. Разноцветные одуванчики","style":"font-size:20px;display:block","state":"{{e92}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e92","title":"92. Радужный змей","style":"font-size:20px;display:block","state":"{{e92}}"},</v>
       </c>
       <c r="AG100" s="2" t="str">
         <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A100,". ",C100,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T100,""",""state"":""{{e",T100,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
-        <v>{"type":"h4","title":"92. Разноцветные одуванчики","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e92","state":"{{e92}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"92. Радужный змей","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e92","state":"{{e92}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH100" s="2" t="str">
         <f ca="1">CONCATENATE("""",A100,"""",": """,A100,".",C100,""",")</f>
-        <v>"92": "92.Разноцветные одуванчики",</v>
+        <v>"92": "92.Радужный змей",</v>
       </c>
       <c r="AI100" s="16" t="str">
         <f ca="1">CONCATENATE("""",A100,"""",":""",T100,""",")</f>
@@ -14387,12 +14384,31 @@
       </c>
       <c r="AJ100" s="2" t="str">
         <f ca="1">CONCATENATE(A100,". ",C100,",",L100,",",M100,",",N100,",",O100,",",P100,";")</f>
-        <v>92. Разноцветные одуванчики,10,255,1,100,0;</v>
+        <v>92. Радужный змей,99,255,100,100,0;</v>
       </c>
       <c r="AK100" s="2" t="str">
         <f ca="1">CONCATENATE("",A100,"",".",C100,"")</f>
-        <v>92.Разноцветные одуванчики</v>
-      </c>
+        <v>92.Радужный змей</v>
+      </c>
+      <c r="AL100" s="2"/>
+      <c r="AM100" s="2"/>
+      <c r="AN100" s="17"/>
+      <c r="AO100" s="2"/>
+      <c r="AP100" s="2"/>
+      <c r="AQ100" s="2"/>
+      <c r="AR100" s="2"/>
+      <c r="AS100" s="16"/>
+      <c r="AT100" s="2"/>
+      <c r="AU100" s="2"/>
+      <c r="AV100" s="18"/>
+      <c r="AW100" s="18"/>
+      <c r="AX100" s="18"/>
+      <c r="AY100" s="18"/>
+      <c r="AZ100" s="18"/>
+      <c r="BA100" s="18"/>
+      <c r="BB100" s="18"/>
+      <c r="BC100" s="18"/>
+      <c r="BD100" s="18"/>
     </row>
     <row r="101" spans="1:56" ht="14.25" customHeight="1">
       <c r="A101" s="35">
@@ -14400,10 +14416,10 @@
         <v>93</v>
       </c>
       <c r="B101" s="40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H101" s="40">
         <v>15</v>
@@ -14430,10 +14446,10 @@
         <v>1</v>
       </c>
       <c r="Q101" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R101" s="40" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S101" s="40">
         <v>2</v>
@@ -14468,7 +14484,7 @@
         <v xml:space="preserve">        case EFF_RAIN:                DYNAMIC_DELAY_TICK { effTimer = millis(); RainRoutine();                Eff_Tick (); }  break;  // ( 93U) Разноцветный дождь</v>
       </c>
       <c r="AB101" s="2" t="str">
-        <f t="shared" ref="AB101:AB102" ca="1" si="204">CONCATENATE("{""name"":""",A101,". ",C101,""",""spmin"":",L101,",""spmax"":",M101,",""scmin"":",N101,",""scmax"":",O101,",""type"":",P101,"},")</f>
+        <f t="shared" ref="AB101" ca="1" si="204">CONCATENATE("{""name"":""",A101,". ",C101,""",""spmin"":",L101,",""spmax"":",M101,",""scmin"":",N101,",""scmax"":",O101,",""type"":",P101,"},")</f>
         <v>{"name":"93. Разноцветный дождь","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
       </c>
       <c r="AC101" s="4" t="str">
@@ -14527,28 +14543,28 @@
       <c r="BC101" s="18"/>
       <c r="BD101" s="18"/>
     </row>
-    <row r="102" spans="1:56" ht="14.25" customHeight="1">
+    <row r="102" spans="1:56">
       <c r="A102" s="35">
         <f t="shared" ca="1" si="197"/>
         <v>94</v>
       </c>
-      <c r="B102" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="C102" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="H102" s="40">
-        <v>12</v>
+      <c r="B102" s="56" t="s">
+        <v>434</v>
+      </c>
+      <c r="C102" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="H102" s="56">
+        <v>20</v>
       </c>
       <c r="I102" s="40">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="J102" s="40">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="L102" s="40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M102" s="40">
         <v>255</v>
@@ -14562,11 +14578,11 @@
       <c r="P102" s="40">
         <v>0</v>
       </c>
-      <c r="Q102" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="R102" s="40" t="s">
-        <v>296</v>
+      <c r="Q102" s="56" t="s">
+        <v>436</v>
+      </c>
+      <c r="R102" s="56" t="s">
+        <v>437</v>
       </c>
       <c r="S102" s="40">
         <v>2</v>
@@ -14575,34 +14591,29 @@
         <f t="shared" ca="1" si="198"/>
         <v>94</v>
       </c>
-      <c r="U102" s="15"/>
       <c r="V102" s="2" t="str">
         <f t="shared" ca="1" si="199"/>
-        <v>#define EFF_RIVERS              ( 94U)    // Реки Ботсваны</v>
+        <v>#define EFF_DANDELIONS          ( 94U)    // Разноцветные одуванчики</v>
       </c>
       <c r="W102" s="2" t="str">
         <f t="shared" ca="1" si="200"/>
-        <v>String("94. Реки Ботсваны,1,255,1,100,0;") +</v>
+        <v>String("94. Разноцветные одуванчики,10,255,1,100,0;") +</v>
       </c>
       <c r="X102" s="2" t="str">
         <f t="shared" ca="1" si="201"/>
-        <v>String("94. ,1,255,1,100,0;") +</v>
+        <v>String("94. ,10,255,1,100,0;") +</v>
       </c>
       <c r="Y102" s="2" t="str">
         <f t="shared" ca="1" si="202"/>
-        <v>String("94. ,1,255,1,100,0;") +</v>
+        <v>String("94. ,10,255,1,100,0;") +</v>
       </c>
       <c r="Z102" s="2" t="str">
-        <f t="shared" ref="Z102" si="214">CONCATENATE("  {",REPT(" ",4-LEN(H102)),H102,",",REPT(" ",4-LEN(I102)),I102,",",REPT(" ",4-LEN(J102)),J102,"}, // ",C102)</f>
-        <v xml:space="preserve">  {  12, 175,  50}, // Реки Ботсваны</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H102)),H102,",",REPT(" ",4-LEN(I102)),I102,",",REPT(" ",4-LEN(J102)),J102,"}, // ",C102)</f>
+        <v xml:space="preserve">  {  20,  50,  90}, // Разноцветные одуванчики</v>
       </c>
       <c r="AA102" s="2" t="str">
         <f t="shared" ca="1" si="203"/>
-        <v xml:space="preserve">        case EFF_RIVERS:              DYNAMIC_DELAY_TICK { effTimer = millis(); BotswanaRivers();             Eff_Tick (); }  break;  // ( 94U) Реки Ботсваны</v>
-      </c>
-      <c r="AB102" s="2" t="str">
-        <f t="shared" ca="1" si="204"/>
-        <v>{"name":"94. Реки Ботсваны","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <v xml:space="preserve">        case EFF_DANDELIONS:          SOFT_DELAY_TICK  { effTimer = millis(); Dandelions();                 Eff_Tick (); }  break;  // ( 94U) Разноцветные одуванчики</v>
       </c>
       <c r="AC102" s="4" t="str">
         <f t="shared" ca="1" si="205"/>
@@ -14618,15 +14629,15 @@
       </c>
       <c r="AF102" s="2" t="str">
         <f t="shared" ca="1" si="208"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e94","title":"94. Реки Ботсваны","style":"font-size:20px;display:block","state":"{{e94}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e94","title":"94. Разноцветные одуванчики","style":"font-size:20px;display:block","state":"{{e94}}"},</v>
       </c>
       <c r="AG102" s="2" t="str">
         <f t="shared" ca="1" si="209"/>
-        <v>{"type":"h4","title":"94. Реки Ботсваны","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e94","state":"{{e94}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"94. Разноцветные одуванчики","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e94","state":"{{e94}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH102" s="2" t="str">
         <f t="shared" ca="1" si="210"/>
-        <v>"94": "94.Реки Ботсваны",</v>
+        <v>"94": "94.Разноцветные одуванчики",</v>
       </c>
       <c r="AI102" s="16" t="str">
         <f t="shared" ca="1" si="211"/>
@@ -14634,54 +14645,35 @@
       </c>
       <c r="AJ102" s="2" t="str">
         <f t="shared" ca="1" si="212"/>
-        <v>94. Реки Ботсваны,1,255,1,100,0;</v>
+        <v>94. Разноцветные одуванчики,10,255,1,100,0;</v>
       </c>
       <c r="AK102" s="2" t="str">
         <f t="shared" ca="1" si="213"/>
-        <v>94.Реки Ботсваны</v>
-      </c>
-      <c r="AL102" s="2"/>
-      <c r="AM102" s="2"/>
-      <c r="AN102" s="17"/>
-      <c r="AO102" s="2"/>
-      <c r="AP102" s="2"/>
-      <c r="AQ102" s="2"/>
-      <c r="AR102" s="2"/>
-      <c r="AS102" s="16"/>
-      <c r="AT102" s="2"/>
-      <c r="AU102" s="2"/>
-      <c r="AV102" s="18"/>
-      <c r="AW102" s="18"/>
-      <c r="AX102" s="18"/>
-      <c r="AY102" s="18"/>
-      <c r="AZ102" s="18"/>
-      <c r="BA102" s="18"/>
-      <c r="BB102" s="18"/>
-      <c r="BC102" s="18"/>
-      <c r="BD102" s="18"/>
+        <v>94.Разноцветные одуванчики</v>
+      </c>
     </row>
     <row r="103" spans="1:56" ht="14.25" customHeight="1">
       <c r="A103" s="35">
-        <f t="shared" ref="A103:A108" ca="1" si="215">MAX(OFFSET(A103,-4,0,4,1))+1</f>
+        <f ca="1">MAX(OFFSET(A103,-4,0,4,1))+1</f>
         <v>95</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H103" s="40">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I103" s="40">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J103" s="40">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="L103" s="40">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="M103" s="40">
         <v>255</v>
@@ -14696,82 +14688,82 @@
         <v>0</v>
       </c>
       <c r="Q103" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R103" s="40" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="S103" s="40">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T103" s="40">
-        <f t="shared" ref="T103:T108" ca="1" si="216">MAX(OFFSET(T103,-4,0,4,1))+1</f>
+        <f ca="1">MAX(OFFSET(T103,-4,0,4,1))+1</f>
         <v>95</v>
       </c>
       <c r="U103" s="15"/>
       <c r="V103" s="2" t="str">
-        <f t="shared" ref="V103:V108" ca="1" si="217">CONCATENATE("#define EFF_",B103,REPT(" ",20-LEN(B103)),"(",REPT(" ",3-LEN(T103)),T103,"U)    // ",C103)</f>
-        <v>#define EFF_LIGHTERS            ( 95U)    // Светлячки</v>
+        <f ca="1">CONCATENATE("#define EFF_",B103,REPT(" ",20-LEN(B103)),"(",REPT(" ",3-LEN(T103)),T103,"U)    // ",C103)</f>
+        <v>#define EFF_RIVERS              ( 95U)    // Реки Ботсваны</v>
       </c>
       <c r="W103" s="2" t="str">
-        <f t="shared" ref="W103:W108" ca="1" si="218">CONCATENATE("String(""",A103,". ",C103,",",L103,",",M103,",",N103,",",O103,",",P103,";"") +")</f>
-        <v>String("95. Светлячки,50,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A103,". ",C103,",",L103,",",M103,",",N103,",",O103,",",P103,";"") +")</f>
+        <v>String("95. Реки Ботсваны,1,255,1,100,0;") +</v>
       </c>
       <c r="X103" s="2" t="str">
-        <f t="shared" ref="X103:X108" ca="1" si="219">CONCATENATE("String(""",A103,". ",D103,",",L103,",",M103,",",N103,",",O103,",",P103,";"") +")</f>
-        <v>String("95. ,50,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A103,". ",D103,",",L103,",",M103,",",N103,",",O103,",",P103,";"") +")</f>
+        <v>String("95. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y103" s="2" t="str">
-        <f t="shared" ref="Y103:Y108" ca="1" si="220">CONCATENATE("String(""",A103,". ",E103,",",L103,",",M103,",",N103,",",O103,",",P103,";"") +")</f>
-        <v>String("95. ,50,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A103,". ",E103,",",L103,",",M103,",",N103,",",O103,",",P103,";"") +")</f>
+        <v>String("95. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z103" s="2" t="str">
-        <f t="shared" ref="Z103:Z108" si="221">CONCATENATE("  {",REPT(" ",4-LEN(H103)),H103,",",REPT(" ",4-LEN(I103)),I103,",",REPT(" ",4-LEN(J103)),J103,"}, // ",C103)</f>
-        <v xml:space="preserve">  {  15, 180,  23}, // Светлячки</v>
+        <f t="shared" ref="Z103" si="214">CONCATENATE("  {",REPT(" ",4-LEN(H103)),H103,",",REPT(" ",4-LEN(I103)),I103,",",REPT(" ",4-LEN(J103)),J103,"}, // ",C103)</f>
+        <v xml:space="preserve">  {  12, 175,  50}, // Реки Ботсваны</v>
       </c>
       <c r="AA103" s="2" t="str">
-        <f t="shared" ref="AA103:AA108" ca="1" si="222">CONCATENATE("        case EFF_",B103,":",REPT(" ",20-LEN(B103)),Q103," { effTimer = millis(); ",R103,REPT(" ",30-LEN(R103)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T103)),T103,"U) ",C103)</f>
-        <v xml:space="preserve">        case EFF_LIGHTERS:            DYNAMIC_DELAY_TICK { effTimer = millis(); lightersRoutine();            Eff_Tick (); }  break;  // ( 95U) Светлячки</v>
+        <f ca="1">CONCATENATE("        case EFF_",B103,":",REPT(" ",20-LEN(B103)),Q103," { effTimer = millis(); ",R103,REPT(" ",30-LEN(R103)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T103)),T103,"U) ",C103)</f>
+        <v xml:space="preserve">        case EFF_RIVERS:              DYNAMIC_DELAY_TICK { effTimer = millis(); BotswanaRivers();             Eff_Tick (); }  break;  // ( 95U) Реки Ботсваны</v>
       </c>
       <c r="AB103" s="2" t="str">
-        <f t="shared" ref="AB103:AB108" ca="1" si="223">CONCATENATE("{""name"":""",A103,". ",C103,""",""spmin"":",L103,",""spmax"":",M103,",""scmin"":",N103,",""scmax"":",O103,",""type"":",P103,"},")</f>
-        <v>{"name":"95. Светлячки","spmin":50,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f ca="1">CONCATENATE("{""name"":""",A103,". ",C103,""",""spmin"":",L103,",""spmax"":",M103,",""scmin"":",N103,",""scmax"":",O103,",""type"":",P103,"},")</f>
+        <v>{"name":"95. Реки Ботсваны","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC103" s="4" t="str">
-        <f t="shared" ref="AC103:AC108" ca="1" si="224">CONCATENATE("""","e",T103,"""",":0,")</f>
+        <f ca="1">CONCATENATE("""","e",T103,"""",":0,")</f>
         <v>"e95":0,</v>
       </c>
       <c r="AD103" s="4" t="str">
-        <f t="shared" ref="AD103:AD108" ca="1" si="225">CONCATENATE("e",T103,"=[[e",T103,"]]&amp;")</f>
+        <f ca="1">CONCATENATE("e",T103,"=[[e",T103,"]]&amp;")</f>
         <v>e95=[[e95]]&amp;</v>
       </c>
       <c r="AE103" s="4" t="str">
-        <f t="shared" ref="AE103:AE108" ca="1" si="226">CONCATENATE("""","e",T103,"""",":",S103,",")</f>
-        <v>"e95":8,</v>
+        <f ca="1">CONCATENATE("""","e",T103,"""",":",S103,",")</f>
+        <v>"e95":2,</v>
       </c>
       <c r="AF103" s="2" t="str">
-        <f t="shared" ref="AF103:AF108" ca="1" si="227">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T103,""",""title"":""",A103,". ",C103,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T103,"}}""},")</f>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e95","title":"95. Светлячки","style":"font-size:20px;display:block","state":"{{e95}}"},</v>
+        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T103,""",""title"":""",A103,". ",C103,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T103,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e95","title":"95. Реки Ботсваны","style":"font-size:20px;display:block","state":"{{e95}}"},</v>
       </c>
       <c r="AG103" s="2" t="str">
-        <f t="shared" ref="AG103:AG108" ca="1" si="228">CONCATENATE("{""type"":""h4"",""title"":""",A103,". ",C103,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T103,""",""state"":""{{e",T103,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
-        <v>{"type":"h4","title":"95. Светлячки","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e95","state":"{{e95}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A103,". ",C103,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T103,""",""state"":""{{e",T103,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"95. Реки Ботсваны","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e95","state":"{{e95}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH103" s="2" t="str">
-        <f t="shared" ref="AH103:AH108" ca="1" si="229">CONCATENATE("""",A103,"""",": """,A103,".",C103,""",")</f>
-        <v>"95": "95.Светлячки",</v>
+        <f ca="1">CONCATENATE("""",A103,"""",": """,A103,".",C103,""",")</f>
+        <v>"95": "95.Реки Ботсваны",</v>
       </c>
       <c r="AI103" s="16" t="str">
-        <f t="shared" ref="AI103:AI108" ca="1" si="230">CONCATENATE("""",A103,"""",":""",T103,""",")</f>
+        <f ca="1">CONCATENATE("""",A103,"""",":""",T103,""",")</f>
         <v>"95":"95",</v>
       </c>
       <c r="AJ103" s="2" t="str">
-        <f t="shared" ref="AJ103:AJ108" ca="1" si="231">CONCATENATE(A103,". ",C103,",",L103,",",M103,",",N103,",",O103,",",P103,";")</f>
-        <v>95. Светлячки,50,255,1,100,0;</v>
+        <f ca="1">CONCATENATE(A103,". ",C103,",",L103,",",M103,",",N103,",",O103,",",P103,";")</f>
+        <v>95. Реки Ботсваны,1,255,1,100,0;</v>
       </c>
       <c r="AK103" s="2" t="str">
-        <f t="shared" ref="AK103:AK108" ca="1" si="232">CONCATENATE("",A103,"",".",C103,"")</f>
-        <v>95.Светлячки</v>
+        <f ca="1">CONCATENATE("",A103,"",".",C103,"")</f>
+        <v>95.Реки Ботсваны</v>
       </c>
       <c r="AL103" s="2"/>
       <c r="AM103" s="2"/>
@@ -14795,26 +14787,26 @@
     </row>
     <row r="104" spans="1:56" ht="14.25" customHeight="1">
       <c r="A104" s="35">
-        <f t="shared" ca="1" si="215"/>
+        <f t="shared" ref="A104:A109" ca="1" si="215">MAX(OFFSET(A104,-4,0,4,1))+1</f>
         <v>96</v>
       </c>
       <c r="B104" s="40" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C104" s="40" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H104" s="40">
         <v>15</v>
       </c>
       <c r="I104" s="40">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J104" s="40">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="L104" s="40">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="M104" s="40">
         <v>255</v>
@@ -14829,82 +14821,82 @@
         <v>0</v>
       </c>
       <c r="Q104" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R104" s="40" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="S104" s="40">
         <v>8</v>
       </c>
       <c r="T104" s="40">
-        <f t="shared" ca="1" si="216"/>
+        <f t="shared" ref="T104:T109" ca="1" si="216">MAX(OFFSET(T104,-4,0,4,1))+1</f>
         <v>96</v>
       </c>
       <c r="U104" s="15"/>
       <c r="V104" s="2" t="str">
-        <f t="shared" ca="1" si="217"/>
-        <v>#define EFF_LIGHTER_TRACES      ( 96U)    // Светлячки со шлейфом</v>
+        <f t="shared" ref="V104:V109" ca="1" si="217">CONCATENATE("#define EFF_",B104,REPT(" ",20-LEN(B104)),"(",REPT(" ",3-LEN(T104)),T104,"U)    // ",C104)</f>
+        <v>#define EFF_LIGHTERS            ( 96U)    // Светлячки</v>
       </c>
       <c r="W104" s="2" t="str">
-        <f t="shared" ca="1" si="218"/>
-        <v>String("96. Светлячки со шлейфом,99,255,1,100,0;") +</v>
+        <f t="shared" ref="W104:W109" ca="1" si="218">CONCATENATE("String(""",A104,". ",C104,",",L104,",",M104,",",N104,",",O104,",",P104,";"") +")</f>
+        <v>String("96. Светлячки,50,255,1,100,0;") +</v>
       </c>
       <c r="X104" s="2" t="str">
-        <f t="shared" ca="1" si="219"/>
-        <v>String("96. ,99,255,1,100,0;") +</v>
+        <f t="shared" ref="X104:X109" ca="1" si="219">CONCATENATE("String(""",A104,". ",D104,",",L104,",",M104,",",N104,",",O104,",",P104,";"") +")</f>
+        <v>String("96. ,50,255,1,100,0;") +</v>
       </c>
       <c r="Y104" s="2" t="str">
-        <f t="shared" ca="1" si="220"/>
-        <v>String("96. ,99,255,1,100,0;") +</v>
+        <f t="shared" ref="Y104:Y109" ca="1" si="220">CONCATENATE("String(""",A104,". ",E104,",",L104,",",M104,",",N104,",",O104,",",P104,";"") +")</f>
+        <v>String("96. ,50,255,1,100,0;") +</v>
       </c>
       <c r="Z104" s="2" t="str">
-        <f t="shared" si="221"/>
-        <v xml:space="preserve">  {  15, 185,  93}, // Светлячки со шлейфом</v>
+        <f t="shared" ref="Z104:Z109" si="221">CONCATENATE("  {",REPT(" ",4-LEN(H104)),H104,",",REPT(" ",4-LEN(I104)),I104,",",REPT(" ",4-LEN(J104)),J104,"}, // ",C104)</f>
+        <v xml:space="preserve">  {  15, 180,  23}, // Светлячки</v>
       </c>
       <c r="AA104" s="2" t="str">
-        <f t="shared" ca="1" si="222"/>
-        <v xml:space="preserve">        case EFF_LIGHTER_TRACES:      DYNAMIC_DELAY_TICK { effTimer = millis(); ballsRoutine();               Eff_Tick (); }  break;  // ( 96U) Светлячки со шлейфом</v>
+        <f t="shared" ref="AA104:AA109" ca="1" si="222">CONCATENATE("        case EFF_",B104,":",REPT(" ",20-LEN(B104)),Q104," { effTimer = millis(); ",R104,REPT(" ",30-LEN(R104)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T104)),T104,"U) ",C104)</f>
+        <v xml:space="preserve">        case EFF_LIGHTERS:            DYNAMIC_DELAY_TICK { effTimer = millis(); lightersRoutine();            Eff_Tick (); }  break;  // ( 96U) Светлячки</v>
       </c>
       <c r="AB104" s="2" t="str">
-        <f t="shared" ca="1" si="223"/>
-        <v>{"name":"96. Светлячки со шлейфом","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ref="AB104:AB109" ca="1" si="223">CONCATENATE("{""name"":""",A104,". ",C104,""",""spmin"":",L104,",""spmax"":",M104,",""scmin"":",N104,",""scmax"":",O104,",""type"":",P104,"},")</f>
+        <v>{"name":"96. Светлячки","spmin":50,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC104" s="4" t="str">
-        <f t="shared" ca="1" si="224"/>
+        <f t="shared" ref="AC104:AC109" ca="1" si="224">CONCATENATE("""","e",T104,"""",":0,")</f>
         <v>"e96":0,</v>
       </c>
       <c r="AD104" s="4" t="str">
-        <f t="shared" ca="1" si="225"/>
+        <f t="shared" ref="AD104:AD109" ca="1" si="225">CONCATENATE("e",T104,"=[[e",T104,"]]&amp;")</f>
         <v>e96=[[e96]]&amp;</v>
       </c>
       <c r="AE104" s="4" t="str">
-        <f t="shared" ca="1" si="226"/>
+        <f t="shared" ref="AE104:AE109" ca="1" si="226">CONCATENATE("""","e",T104,"""",":",S104,",")</f>
         <v>"e96":8,</v>
       </c>
       <c r="AF104" s="2" t="str">
-        <f t="shared" ca="1" si="227"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e96","title":"96. Светлячки со шлейфом","style":"font-size:20px;display:block","state":"{{e96}}"},</v>
+        <f t="shared" ref="AF104:AF109" ca="1" si="227">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T104,""",""title"":""",A104,". ",C104,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T104,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e96","title":"96. Светлячки","style":"font-size:20px;display:block","state":"{{e96}}"},</v>
       </c>
       <c r="AG104" s="2" t="str">
-        <f t="shared" ca="1" si="228"/>
-        <v>{"type":"h4","title":"96. Светлячки со шлейфом","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e96","state":"{{e96}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ref="AG104:AG109" ca="1" si="228">CONCATENATE("{""type"":""h4"",""title"":""",A104,". ",C104,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T104,""",""state"":""{{e",T104,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"96. Светлячки","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e96","state":"{{e96}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH104" s="2" t="str">
-        <f t="shared" ca="1" si="229"/>
-        <v>"96": "96.Светлячки со шлейфом",</v>
+        <f t="shared" ref="AH104:AH109" ca="1" si="229">CONCATENATE("""",A104,"""",": """,A104,".",C104,""",")</f>
+        <v>"96": "96.Светлячки",</v>
       </c>
       <c r="AI104" s="16" t="str">
-        <f t="shared" ca="1" si="230"/>
+        <f t="shared" ref="AI104:AI109" ca="1" si="230">CONCATENATE("""",A104,"""",":""",T104,""",")</f>
         <v>"96":"96",</v>
       </c>
       <c r="AJ104" s="2" t="str">
-        <f t="shared" ca="1" si="231"/>
-        <v>96. Светлячки со шлейфом,99,255,1,100,0;</v>
+        <f t="shared" ref="AJ104:AJ109" ca="1" si="231">CONCATENATE(A104,". ",C104,",",L104,",",M104,",",N104,",",O104,",",P104,";")</f>
+        <v>96. Светлячки,50,255,1,100,0;</v>
       </c>
       <c r="AK104" s="2" t="str">
-        <f t="shared" ca="1" si="232"/>
-        <v>96.Светлячки со шлейфом</v>
+        <f t="shared" ref="AK104:AK109" ca="1" si="232">CONCATENATE("",A104,"",".",C104,"")</f>
+        <v>96.Светлячки</v>
       </c>
       <c r="AL104" s="2"/>
       <c r="AM104" s="2"/>
@@ -14932,22 +14924,22 @@
         <v>97</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H105" s="40">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I105" s="40">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="J105" s="40">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="L105" s="40">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="M105" s="40">
         <v>255</v>
@@ -14959,16 +14951,16 @@
         <v>100</v>
       </c>
       <c r="P105" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R105" s="40" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="S105" s="40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T105" s="40">
         <f t="shared" ca="1" si="216"/>
@@ -14977,31 +14969,31 @@
       <c r="U105" s="15"/>
       <c r="V105" s="2" t="str">
         <f t="shared" ca="1" si="217"/>
-        <v>#define EFF_FEATHER_CANDLE      ( 97U)    // Свеча</v>
+        <v>#define EFF_LIGHTER_TRACES      ( 97U)    // Светлячки со шлейфом</v>
       </c>
       <c r="W105" s="2" t="str">
         <f t="shared" ca="1" si="218"/>
-        <v>String("97. Свеча,170,255,1,100,1;") +</v>
+        <v>String("97. Светлячки со шлейфом,99,255,1,100,0;") +</v>
       </c>
       <c r="X105" s="2" t="str">
         <f t="shared" ca="1" si="219"/>
-        <v>String("97. ,170,255,1,100,1;") +</v>
+        <v>String("97. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Y105" s="2" t="str">
         <f t="shared" ca="1" si="220"/>
-        <v>String("97. ,170,255,1,100,1;") +</v>
+        <v>String("97. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Z105" s="2" t="str">
         <f t="shared" si="221"/>
-        <v xml:space="preserve">  {  20, 220,   8}, // Свеча</v>
+        <v xml:space="preserve">  {  15, 185,  93}, // Светлячки со шлейфом</v>
       </c>
       <c r="AA105" s="2" t="str">
         <f t="shared" ca="1" si="222"/>
-        <v xml:space="preserve">        case EFF_FEATHER_CANDLE:      DYNAMIC_DELAY_TICK { effTimer = millis(); FeatherCandleRoutine();       Eff_Tick (); }  break;  // ( 97U) Свеча</v>
+        <v xml:space="preserve">        case EFF_LIGHTER_TRACES:      DYNAMIC_DELAY_TICK { effTimer = millis(); ballsRoutine();               Eff_Tick (); }  break;  // ( 97U) Светлячки со шлейфом</v>
       </c>
       <c r="AB105" s="2" t="str">
         <f t="shared" ca="1" si="223"/>
-        <v>{"name":"97. Свеча","spmin":170,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
+        <v>{"name":"97. Светлячки со шлейфом","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC105" s="4" t="str">
         <f t="shared" ca="1" si="224"/>
@@ -15013,19 +15005,19 @@
       </c>
       <c r="AE105" s="4" t="str">
         <f t="shared" ca="1" si="226"/>
-        <v>"e97":2,</v>
+        <v>"e97":8,</v>
       </c>
       <c r="AF105" s="2" t="str">
         <f t="shared" ca="1" si="227"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e97","title":"97. Свеча","style":"font-size:20px;display:block","state":"{{e97}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e97","title":"97. Светлячки со шлейфом","style":"font-size:20px;display:block","state":"{{e97}}"},</v>
       </c>
       <c r="AG105" s="2" t="str">
         <f t="shared" ca="1" si="228"/>
-        <v>{"type":"h4","title":"97. Свеча","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e97","state":"{{e97}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"97. Светлячки со шлейфом","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e97","state":"{{e97}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH105" s="2" t="str">
         <f t="shared" ca="1" si="229"/>
-        <v>"97": "97.Свеча",</v>
+        <v>"97": "97.Светлячки со шлейфом",</v>
       </c>
       <c r="AI105" s="16" t="str">
         <f t="shared" ca="1" si="230"/>
@@ -15033,11 +15025,11 @@
       </c>
       <c r="AJ105" s="2" t="str">
         <f t="shared" ca="1" si="231"/>
-        <v>97. Свеча,170,255,1,100,1;</v>
+        <v>97. Светлячки со шлейфом,99,255,1,100,0;</v>
       </c>
       <c r="AK105" s="2" t="str">
         <f t="shared" ca="1" si="232"/>
-        <v>97.Свеча</v>
+        <v>97.Светлячки со шлейфом</v>
       </c>
       <c r="AL105" s="2"/>
       <c r="AM105" s="2"/>
@@ -15065,22 +15057,22 @@
         <v>98</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H106" s="40">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I106" s="40">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="J106" s="40">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L106" s="40">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="M106" s="40">
         <v>255</v>
@@ -15095,10 +15087,10 @@
         <v>1</v>
       </c>
       <c r="Q106" s="40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R106" s="40" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="S106" s="40">
         <v>2</v>
@@ -15110,31 +15102,31 @@
       <c r="U106" s="15"/>
       <c r="V106" s="2" t="str">
         <f t="shared" ca="1" si="217"/>
-        <v>#define EFF_AURORA              ( 98U)    // Северное сияние</v>
+        <v>#define EFF_FEATHER_CANDLE      ( 98U)    // Свеча</v>
       </c>
       <c r="W106" s="2" t="str">
         <f t="shared" ca="1" si="218"/>
-        <v>String("98. Северное сияние,1,255,1,100,1;") +</v>
+        <v>String("98. Свеча,170,255,1,100,1;") +</v>
       </c>
       <c r="X106" s="2" t="str">
         <f t="shared" ca="1" si="219"/>
-        <v>String("98. ,1,255,1,100,1;") +</v>
+        <v>String("98. ,170,255,1,100,1;") +</v>
       </c>
       <c r="Y106" s="2" t="str">
         <f t="shared" ca="1" si="220"/>
-        <v>String("98. ,1,255,1,100,1;") +</v>
+        <v>String("98. ,170,255,1,100,1;") +</v>
       </c>
       <c r="Z106" s="2" t="str">
         <f t="shared" si="221"/>
-        <v xml:space="preserve">  {  15, 160,  64}, // Северное сияние</v>
+        <v xml:space="preserve">  {  20, 220,   8}, // Свеча</v>
       </c>
       <c r="AA106" s="2" t="str">
         <f t="shared" ca="1" si="222"/>
-        <v xml:space="preserve">        case EFF_AURORA:              HIGH_DELAY_TICK { effTimer = millis(); polarRoutine();               Eff_Tick (); }  break;  // ( 98U) Северное сияние</v>
+        <v xml:space="preserve">        case EFF_FEATHER_CANDLE:      DYNAMIC_DELAY_TICK { effTimer = millis(); FeatherCandleRoutine();       Eff_Tick (); }  break;  // ( 98U) Свеча</v>
       </c>
       <c r="AB106" s="2" t="str">
         <f t="shared" ca="1" si="223"/>
-        <v>{"name":"98. Северное сияние","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
+        <v>{"name":"98. Свеча","spmin":170,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
       </c>
       <c r="AC106" s="4" t="str">
         <f t="shared" ca="1" si="224"/>
@@ -15150,15 +15142,15 @@
       </c>
       <c r="AF106" s="2" t="str">
         <f t="shared" ca="1" si="227"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e98","title":"98. Северное сияние","style":"font-size:20px;display:block","state":"{{e98}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e98","title":"98. Свеча","style":"font-size:20px;display:block","state":"{{e98}}"},</v>
       </c>
       <c r="AG106" s="2" t="str">
         <f t="shared" ca="1" si="228"/>
-        <v>{"type":"h4","title":"98. Северное сияние","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e98","state":"{{e98}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"98. Свеча","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e98","state":"{{e98}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH106" s="2" t="str">
         <f t="shared" ca="1" si="229"/>
-        <v>"98": "98.Северное сияние",</v>
+        <v>"98": "98.Свеча",</v>
       </c>
       <c r="AI106" s="16" t="str">
         <f t="shared" ca="1" si="230"/>
@@ -15166,11 +15158,11 @@
       </c>
       <c r="AJ106" s="2" t="str">
         <f t="shared" ca="1" si="231"/>
-        <v>98. Северное сияние,1,255,1,100,1;</v>
+        <v>98. Свеча,170,255,1,100,1;</v>
       </c>
       <c r="AK106" s="2" t="str">
         <f t="shared" ca="1" si="232"/>
-        <v>98.Северное сияние</v>
+        <v>98.Свеча</v>
       </c>
       <c r="AL106" s="2"/>
       <c r="AM106" s="2"/>
@@ -15192,25 +15184,25 @@
       <c r="BC106" s="18"/>
       <c r="BD106" s="18"/>
     </row>
-    <row r="107" spans="1:56">
+    <row r="107" spans="1:56" ht="14.25" customHeight="1">
       <c r="A107" s="35">
         <f t="shared" ca="1" si="215"/>
         <v>99</v>
       </c>
-      <c r="B107" s="54" t="s">
-        <v>418</v>
-      </c>
-      <c r="C107" s="54" t="s">
-        <v>419</v>
+      <c r="B107" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="C107" s="40" t="s">
+        <v>305</v>
       </c>
       <c r="H107" s="40">
         <v>15</v>
       </c>
       <c r="I107" s="40">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="J107" s="40">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="L107" s="40">
         <v>1</v>
@@ -15225,13 +15217,13 @@
         <v>100</v>
       </c>
       <c r="P107" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="R107" s="55" t="s">
-        <v>420</v>
+        <v>38</v>
+      </c>
+      <c r="R107" s="40" t="s">
+        <v>306</v>
       </c>
       <c r="S107" s="40">
         <v>2</v>
@@ -15240,33 +15232,34 @@
         <f t="shared" ca="1" si="216"/>
         <v>99</v>
       </c>
+      <c r="U107" s="15"/>
       <c r="V107" s="2" t="str">
         <f t="shared" ca="1" si="217"/>
-        <v>#define EFF_SERPENTINE          ( 99U)    // Серпантин</v>
+        <v>#define EFF_AURORA              ( 99U)    // Северное сияние</v>
       </c>
       <c r="W107" s="2" t="str">
         <f t="shared" ca="1" si="218"/>
-        <v>String("99. Серпантин,1,255,1,100,0;") +</v>
+        <v>String("99. Северное сияние,1,255,1,100,1;") +</v>
       </c>
       <c r="X107" s="2" t="str">
         <f t="shared" ca="1" si="219"/>
-        <v>String("99. ,1,255,1,100,0;") +</v>
+        <v>String("99. ,1,255,1,100,1;") +</v>
       </c>
       <c r="Y107" s="2" t="str">
         <f t="shared" ca="1" si="220"/>
-        <v>String("99. ,1,255,1,100,0;") +</v>
+        <v>String("99. ,1,255,1,100,1;") +</v>
       </c>
       <c r="Z107" s="2" t="str">
         <f t="shared" si="221"/>
-        <v xml:space="preserve">  {  15,  75,  50}, // Серпантин</v>
+        <v xml:space="preserve">  {  15, 160,  64}, // Северное сияние</v>
       </c>
       <c r="AA107" s="2" t="str">
         <f t="shared" ca="1" si="222"/>
-        <v xml:space="preserve">        case EFF_SERPENTINE:          HIGH_DELAY_TICK { effTimer = millis(); Serpentine();                 Eff_Tick (); }  break;  // ( 99U) Серпантин</v>
+        <v xml:space="preserve">        case EFF_AURORA:              HIGH_DELAY_TICK { effTimer = millis(); polarRoutine();               Eff_Tick (); }  break;  // ( 99U) Северное сияние</v>
       </c>
       <c r="AB107" s="2" t="str">
         <f t="shared" ca="1" si="223"/>
-        <v>{"name":"99. Серпантин","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <v>{"name":"99. Северное сияние","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
       </c>
       <c r="AC107" s="4" t="str">
         <f t="shared" ca="1" si="224"/>
@@ -15282,15 +15275,15 @@
       </c>
       <c r="AF107" s="2" t="str">
         <f t="shared" ca="1" si="227"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e99","title":"99. Серпантин","style":"font-size:20px;display:block","state":"{{e99}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e99","title":"99. Северное сияние","style":"font-size:20px;display:block","state":"{{e99}}"},</v>
       </c>
       <c r="AG107" s="2" t="str">
         <f t="shared" ca="1" si="228"/>
-        <v>{"type":"h4","title":"99. Серпантин","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e99","state":"{{e99}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"99. Северное сияние","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e99","state":"{{e99}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH107" s="2" t="str">
         <f t="shared" ca="1" si="229"/>
-        <v>"99": "99.Серпантин",</v>
+        <v>"99": "99.Северное сияние",</v>
       </c>
       <c r="AI107" s="16" t="str">
         <f t="shared" ca="1" si="230"/>
@@ -15298,12 +15291,31 @@
       </c>
       <c r="AJ107" s="2" t="str">
         <f t="shared" ca="1" si="231"/>
-        <v>99. Серпантин,1,255,1,100,0;</v>
+        <v>99. Северное сияние,1,255,1,100,1;</v>
       </c>
       <c r="AK107" s="2" t="str">
         <f t="shared" ca="1" si="232"/>
-        <v>99.Серпантин</v>
-      </c>
+        <v>99.Северное сияние</v>
+      </c>
+      <c r="AL107" s="2"/>
+      <c r="AM107" s="2"/>
+      <c r="AN107" s="17"/>
+      <c r="AO107" s="2"/>
+      <c r="AP107" s="2"/>
+      <c r="AQ107" s="2"/>
+      <c r="AR107" s="2"/>
+      <c r="AS107" s="16"/>
+      <c r="AT107" s="2"/>
+      <c r="AU107" s="2"/>
+      <c r="AV107" s="18"/>
+      <c r="AW107" s="18"/>
+      <c r="AX107" s="18"/>
+      <c r="AY107" s="18"/>
+      <c r="AZ107" s="18"/>
+      <c r="BA107" s="18"/>
+      <c r="BB107" s="18"/>
+      <c r="BC107" s="18"/>
+      <c r="BD107" s="18"/>
     </row>
     <row r="108" spans="1:56">
       <c r="A108" s="35">
@@ -15311,19 +15323,19 @@
         <v>100</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="C108" s="40" t="s">
-        <v>421</v>
+        <v>413</v>
+      </c>
+      <c r="C108" s="54" t="s">
+        <v>414</v>
       </c>
       <c r="H108" s="40">
+        <v>15</v>
+      </c>
+      <c r="I108" s="40">
+        <v>75</v>
+      </c>
+      <c r="J108" s="40">
         <v>50</v>
-      </c>
-      <c r="I108" s="40">
-        <v>230</v>
-      </c>
-      <c r="J108" s="40">
-        <v>40</v>
       </c>
       <c r="L108" s="40">
         <v>1</v>
@@ -15338,13 +15350,13 @@
         <v>100</v>
       </c>
       <c r="P108" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108" s="40" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="R108" s="55" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="S108" s="40">
         <v>2</v>
@@ -15355,31 +15367,31 @@
       </c>
       <c r="V108" s="2" t="str">
         <f t="shared" ca="1" si="217"/>
-        <v>#define EFF_SCANNER             (100U)    // Сканер</v>
+        <v>#define EFF_SERPENTINE          (100U)    // Серпантин</v>
       </c>
       <c r="W108" s="2" t="str">
         <f t="shared" ca="1" si="218"/>
-        <v>String("100. Сканер,1,255,1,100,1;") +</v>
+        <v>String("100. Серпантин,1,255,1,100,0;") +</v>
       </c>
       <c r="X108" s="2" t="str">
         <f t="shared" ca="1" si="219"/>
-        <v>String("100. ,1,255,1,100,1;") +</v>
+        <v>String("100. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y108" s="2" t="str">
         <f t="shared" ca="1" si="220"/>
-        <v>String("100. ,1,255,1,100,1;") +</v>
+        <v>String("100. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z108" s="2" t="str">
         <f t="shared" si="221"/>
-        <v xml:space="preserve">  {  50, 230,  40}, // Сканер</v>
+        <v xml:space="preserve">  {  15,  75,  50}, // Серпантин</v>
       </c>
       <c r="AA108" s="2" t="str">
         <f t="shared" ca="1" si="222"/>
-        <v xml:space="preserve">        case EFF_SCANNER:             DYNAMIC_DELAY_TICK { effTimer = millis(); Scanner();                    Eff_Tick (); }  break;  // (100U) Сканер</v>
+        <v xml:space="preserve">        case EFF_SERPENTINE:          HIGH_DELAY_TICK { effTimer = millis(); Serpentine();                 Eff_Tick (); }  break;  // (100U) Серпантин</v>
       </c>
       <c r="AB108" s="2" t="str">
         <f t="shared" ca="1" si="223"/>
-        <v>{"name":"100. Сканер","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
+        <v>{"name":"100. Серпантин","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC108" s="4" t="str">
         <f t="shared" ca="1" si="224"/>
@@ -15395,15 +15407,15 @@
       </c>
       <c r="AF108" s="2" t="str">
         <f t="shared" ca="1" si="227"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e100","title":"100. Сканер","style":"font-size:20px;display:block","state":"{{e100}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e100","title":"100. Серпантин","style":"font-size:20px;display:block","state":"{{e100}}"},</v>
       </c>
       <c r="AG108" s="2" t="str">
         <f t="shared" ca="1" si="228"/>
-        <v>{"type":"h4","title":"100. Сканер","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e100","state":"{{e100}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"100. Серпантин","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e100","state":"{{e100}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH108" s="2" t="str">
         <f t="shared" ca="1" si="229"/>
-        <v>"100": "100.Сканер",</v>
+        <v>"100": "100.Серпантин",</v>
       </c>
       <c r="AI108" s="16" t="str">
         <f t="shared" ca="1" si="230"/>
@@ -15411,32 +15423,32 @@
       </c>
       <c r="AJ108" s="2" t="str">
         <f t="shared" ca="1" si="231"/>
-        <v>100. Сканер,1,255,1,100,1;</v>
+        <v>100. Серпантин,1,255,1,100,0;</v>
       </c>
       <c r="AK108" s="2" t="str">
         <f t="shared" ca="1" si="232"/>
-        <v>100.Сканер</v>
+        <v>100.Серпантин</v>
       </c>
     </row>
-    <row r="109" spans="1:56" ht="14.25" customHeight="1">
+    <row r="109" spans="1:56">
       <c r="A109" s="35">
-        <f t="shared" ref="A109:A120" ca="1" si="233">MAX(OFFSET(A109,-4,0,4,1))+1</f>
+        <f t="shared" ca="1" si="215"/>
         <v>101</v>
       </c>
       <c r="B109" s="40" t="s">
-        <v>309</v>
+        <v>417</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>310</v>
+        <v>416</v>
       </c>
       <c r="H109" s="40">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I109" s="40">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="J109" s="40">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="L109" s="40">
         <v>1</v>
@@ -15451,125 +15463,105 @@
         <v>100</v>
       </c>
       <c r="P109" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q109" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="R109" s="40" t="s">
-        <v>311</v>
+        <v>42</v>
+      </c>
+      <c r="R109" s="55" t="s">
+        <v>418</v>
       </c>
       <c r="S109" s="40">
         <v>2</v>
       </c>
       <c r="T109" s="40">
-        <f t="shared" ref="T109:T125" ca="1" si="234">MAX(OFFSET(T109,-4,0,4,1))+1</f>
+        <f t="shared" ca="1" si="216"/>
         <v>101</v>
       </c>
-      <c r="U109" s="15"/>
       <c r="V109" s="2" t="str">
-        <f t="shared" ref="V109:V125" ca="1" si="235">CONCATENATE("#define EFF_",B109,REPT(" ",20-LEN(B109)),"(",REPT(" ",3-LEN(T109)),T109,"U)    // ",C109)</f>
-        <v>#define EFF_SINUSOID3           (101U)    // Синусоид</v>
+        <f t="shared" ca="1" si="217"/>
+        <v>#define EFF_SCANNER             (101U)    // Сканер</v>
       </c>
       <c r="W109" s="2" t="str">
-        <f t="shared" ref="W109:W120" ca="1" si="236">CONCATENATE("String(""",A109,". ",C109,",",L109,",",M109,",",N109,",",O109,",",P109,";"") +")</f>
-        <v>String("101. Синусоид,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="218"/>
+        <v>String("101. Сканер,1,255,1,100,1;") +</v>
       </c>
       <c r="X109" s="2" t="str">
-        <f t="shared" ref="X109:X120" ca="1" si="237">CONCATENATE("String(""",A109,". ",D109,",",L109,",",M109,",",N109,",",O109,",",P109,";"") +")</f>
-        <v>String("101. ,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="219"/>
+        <v>String("101. ,1,255,1,100,1;") +</v>
       </c>
       <c r="Y109" s="2" t="str">
-        <f t="shared" ref="Y109:Y120" ca="1" si="238">CONCATENATE("String(""",A109,". ",E109,",",L109,",",M109,",",N109,",",O109,",",P109,";"") +")</f>
-        <v>String("101. ,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="220"/>
+        <v>String("101. ,1,255,1,100,1;") +</v>
       </c>
       <c r="Z109" s="2" t="str">
-        <f t="shared" ref="Z109:Z125" si="239">CONCATENATE("  {",REPT(" ",4-LEN(H109)),H109,",",REPT(" ",4-LEN(I109)),I109,",",REPT(" ",4-LEN(J109)),J109,"}, // ",C109)</f>
-        <v xml:space="preserve">  {  20, 127,  75}, // Синусоид</v>
+        <f t="shared" si="221"/>
+        <v xml:space="preserve">  {  50, 230,  40}, // Сканер</v>
       </c>
       <c r="AA109" s="2" t="str">
-        <f t="shared" ref="AA109:AA125" ca="1" si="240">CONCATENATE("        case EFF_",B109,":",REPT(" ",20-LEN(B109)),Q109," { effTimer = millis(); ",R109,REPT(" ",30-LEN(R109)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T109)),T109,"U) ",C109)</f>
-        <v xml:space="preserve">        case EFF_SINUSOID3:           HIGH_DELAY_TICK { effTimer = millis(); Sinusoid3Routine();           Eff_Tick (); }  break;  // (101U) Синусоид</v>
+        <f t="shared" ca="1" si="222"/>
+        <v xml:space="preserve">        case EFF_SCANNER:             DYNAMIC_DELAY_TICK { effTimer = millis(); Scanner();                    Eff_Tick (); }  break;  // (101U) Сканер</v>
       </c>
       <c r="AB109" s="2" t="str">
-        <f ca="1">CONCATENATE("{""name"":""",A109,". ",C109,""",""spmin"":",L109,",""spmax"":",M109,",""scmin"":",N109,",""scmax"":",O109,",""type"":",P109,"},")</f>
-        <v>{"name":"101. Синусоид","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="223"/>
+        <v>{"name":"101. Сканер","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
       </c>
       <c r="AC109" s="4" t="str">
-        <f t="shared" ref="AC109:AC125" ca="1" si="241">CONCATENATE("""","e",T109,"""",":0,")</f>
+        <f t="shared" ca="1" si="224"/>
         <v>"e101":0,</v>
       </c>
       <c r="AD109" s="4" t="str">
-        <f t="shared" ref="AD109:AD125" ca="1" si="242">CONCATENATE("e",T109,"=[[e",T109,"]]&amp;")</f>
+        <f t="shared" ca="1" si="225"/>
         <v>e101=[[e101]]&amp;</v>
       </c>
       <c r="AE109" s="4" t="str">
-        <f t="shared" ref="AE109:AE125" ca="1" si="243">CONCATENATE("""","e",T109,"""",":",S109,",")</f>
+        <f t="shared" ca="1" si="226"/>
         <v>"e101":2,</v>
       </c>
       <c r="AF109" s="2" t="str">
-        <f t="shared" ref="AF109:AF119" ca="1" si="244">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T109,""",""title"":""",A109,". ",C109,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T109,"}}""},")</f>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e101","title":"101. Синусоид","style":"font-size:20px;display:block","state":"{{e101}}"},</v>
+        <f t="shared" ca="1" si="227"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e101","title":"101. Сканер","style":"font-size:20px;display:block","state":"{{e101}}"},</v>
       </c>
       <c r="AG109" s="2" t="str">
-        <f t="shared" ref="AG109:AG125" ca="1" si="245">CONCATENATE("{""type"":""h4"",""title"":""",A109,". ",C109,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T109,""",""state"":""{{e",T109,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
-        <v>{"type":"h4","title":"101. Синусоид","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e101","state":"{{e101}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="228"/>
+        <v>{"type":"h4","title":"101. Сканер","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e101","state":"{{e101}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH109" s="2" t="str">
-        <f t="shared" ref="AH109:AH125" ca="1" si="246">CONCATENATE("""",A109,"""",": """,A109,".",C109,""",")</f>
-        <v>"101": "101.Синусоид",</v>
+        <f t="shared" ca="1" si="229"/>
+        <v>"101": "101.Сканер",</v>
       </c>
       <c r="AI109" s="16" t="str">
-        <f t="shared" ref="AI109:AI125" ca="1" si="247">CONCATENATE("""",A109,"""",":""",T109,""",")</f>
+        <f t="shared" ca="1" si="230"/>
         <v>"101":"101",</v>
       </c>
       <c r="AJ109" s="2" t="str">
-        <f t="shared" ref="AJ109:AJ120" ca="1" si="248">CONCATENATE(A109,". ",C109,",",L109,",",M109,",",N109,",",O109,",",P109,";")</f>
-        <v>101. Синусоид,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="231"/>
+        <v>101. Сканер,1,255,1,100,1;</v>
       </c>
       <c r="AK109" s="2" t="str">
-        <f t="shared" ref="AK109:AK125" ca="1" si="249">CONCATENATE("",A109,"",".",C109,"")</f>
-        <v>101.Синусоид</v>
-      </c>
-      <c r="AL109" s="2"/>
-      <c r="AM109" s="2"/>
-      <c r="AN109" s="17"/>
-      <c r="AO109" s="2"/>
-      <c r="AP109" s="2"/>
-      <c r="AQ109" s="2"/>
-      <c r="AR109" s="2"/>
-      <c r="AS109" s="16"/>
-      <c r="AT109" s="2"/>
-      <c r="AU109" s="2"/>
-      <c r="AV109" s="18"/>
-      <c r="AW109" s="18"/>
-      <c r="AX109" s="18"/>
-      <c r="AY109" s="18"/>
-      <c r="AZ109" s="18"/>
-      <c r="BA109" s="18"/>
-      <c r="BB109" s="18"/>
-      <c r="BC109" s="18"/>
-      <c r="BD109" s="18"/>
+        <f t="shared" ca="1" si="232"/>
+        <v>101.Сканер</v>
+      </c>
     </row>
     <row r="110" spans="1:56" ht="14.25" customHeight="1">
       <c r="A110" s="35">
-        <f t="shared" ca="1" si="233"/>
+        <f t="shared" ref="A110:A121" ca="1" si="233">MAX(OFFSET(A110,-4,0,4,1))+1</f>
         <v>102</v>
       </c>
       <c r="B110" s="40" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H110" s="40">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I110" s="40">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="J110" s="40">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="L110" s="40">
         <v>1</v>
@@ -15581,88 +15573,88 @@
         <v>1</v>
       </c>
       <c r="O110" s="40">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="P110" s="40">
         <v>0</v>
       </c>
       <c r="Q110" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R110" s="40" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="S110" s="40">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T110" s="40">
-        <f t="shared" ca="1" si="234"/>
+        <f t="shared" ref="T110:T126" ca="1" si="234">MAX(OFFSET(T110,-4,0,4,1))+1</f>
         <v>102</v>
       </c>
       <c r="U110" s="15"/>
       <c r="V110" s="2" t="str">
-        <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_COLORS              (102U)    // Смена цвета</v>
+        <f t="shared" ref="V110:V126" ca="1" si="235">CONCATENATE("#define EFF_",B110,REPT(" ",20-LEN(B110)),"(",REPT(" ",3-LEN(T110)),T110,"U)    // ",C110)</f>
+        <v>#define EFF_SINUSOID3           (102U)    // Синусоид</v>
       </c>
       <c r="W110" s="2" t="str">
-        <f t="shared" ca="1" si="236"/>
-        <v>String("102. Смена цвета,1,255,1,255,0;") +</v>
+        <f t="shared" ref="W110:W121" ca="1" si="236">CONCATENATE("String(""",A110,". ",C110,",",L110,",",M110,",",N110,",",O110,",",P110,";"") +")</f>
+        <v>String("102. Синусоид,1,255,1,100,0;") +</v>
       </c>
       <c r="X110" s="2" t="str">
-        <f t="shared" ca="1" si="237"/>
-        <v>String("102. ,1,255,1,255,0;") +</v>
+        <f t="shared" ref="X110:X121" ca="1" si="237">CONCATENATE("String(""",A110,". ",D110,",",L110,",",M110,",",N110,",",O110,",",P110,";"") +")</f>
+        <v>String("102. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y110" s="2" t="str">
-        <f t="shared" ca="1" si="238"/>
-        <v>String("102. ,1,255,1,255,0;") +</v>
+        <f t="shared" ref="Y110:Y121" ca="1" si="238">CONCATENATE("String(""",A110,". ",E110,",",L110,",",M110,",",N110,",",O110,",",P110,";"") +")</f>
+        <v>String("102. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z110" s="2" t="str">
-        <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  25, 240,   1}, // Смена цвета</v>
+        <f t="shared" ref="Z110:Z126" si="239">CONCATENATE("  {",REPT(" ",4-LEN(H110)),H110,",",REPT(" ",4-LEN(I110)),I110,",",REPT(" ",4-LEN(J110)),J110,"}, // ",C110)</f>
+        <v xml:space="preserve">  {  20, 127,  75}, // Синусоид</v>
       </c>
       <c r="AA110" s="2" t="str">
-        <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_COLORS:              HIGH_DELAY_TICK { effTimer = millis(); colorsRoutine2();             Eff_Tick (); }  break;  // (102U) Смена цвета</v>
+        <f t="shared" ref="AA110:AA126" ca="1" si="240">CONCATENATE("        case EFF_",B110,":",REPT(" ",20-LEN(B110)),Q110," { effTimer = millis(); ",R110,REPT(" ",30-LEN(R110)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T110)),T110,"U) ",C110)</f>
+        <v xml:space="preserve">        case EFF_SINUSOID3:           HIGH_DELAY_TICK { effTimer = millis(); Sinusoid3Routine();           Eff_Tick (); }  break;  // (102U) Синусоид</v>
       </c>
       <c r="AB110" s="2" t="str">
         <f ca="1">CONCATENATE("{""name"":""",A110,". ",C110,""",""spmin"":",L110,",""spmax"":",M110,",""scmin"":",N110,",""scmax"":",O110,",""type"":",P110,"},")</f>
-        <v>{"name":"102. Смена цвета","spmin":1,"spmax":255,"scmin":1,"scmax":255,"type":0},</v>
+        <v>{"name":"102. Синусоид","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC110" s="4" t="str">
-        <f t="shared" ca="1" si="241"/>
+        <f t="shared" ref="AC110:AC126" ca="1" si="241">CONCATENATE("""","e",T110,"""",":0,")</f>
         <v>"e102":0,</v>
       </c>
       <c r="AD110" s="4" t="str">
-        <f t="shared" ca="1" si="242"/>
+        <f t="shared" ref="AD110:AD126" ca="1" si="242">CONCATENATE("e",T110,"=[[e",T110,"]]&amp;")</f>
         <v>e102=[[e102]]&amp;</v>
       </c>
       <c r="AE110" s="4" t="str">
-        <f t="shared" ca="1" si="243"/>
-        <v>"e102":11,</v>
+        <f t="shared" ref="AE110:AE126" ca="1" si="243">CONCATENATE("""","e",T110,"""",":",S110,",")</f>
+        <v>"e102":2,</v>
       </c>
       <c r="AF110" s="2" t="str">
-        <f t="shared" ca="1" si="244"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e102","title":"102. Смена цвета","style":"font-size:20px;display:block","state":"{{e102}}"},</v>
+        <f t="shared" ref="AF110:AF120" ca="1" si="244">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T110,""",""title"":""",A110,". ",C110,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T110,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e102","title":"102. Синусоид","style":"font-size:20px;display:block","state":"{{e102}}"},</v>
       </c>
       <c r="AG110" s="2" t="str">
-        <f t="shared" ca="1" si="245"/>
-        <v>{"type":"h4","title":"102. Смена цвета","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e102","state":"{{e102}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ref="AG110:AG126" ca="1" si="245">CONCATENATE("{""type"":""h4"",""title"":""",A110,". ",C110,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T110,""",""state"":""{{e",T110,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"102. Синусоид","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e102","state":"{{e102}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH110" s="2" t="str">
-        <f t="shared" ca="1" si="246"/>
-        <v>"102": "102.Смена цвета",</v>
+        <f t="shared" ref="AH110:AH126" ca="1" si="246">CONCATENATE("""",A110,"""",": """,A110,".",C110,""",")</f>
+        <v>"102": "102.Синусоид",</v>
       </c>
       <c r="AI110" s="16" t="str">
-        <f t="shared" ca="1" si="247"/>
+        <f t="shared" ref="AI110:AI126" ca="1" si="247">CONCATENATE("""",A110,"""",":""",T110,""",")</f>
         <v>"102":"102",</v>
       </c>
       <c r="AJ110" s="2" t="str">
-        <f t="shared" ca="1" si="248"/>
-        <v>102. Смена цвета,1,255,1,255,0;</v>
+        <f t="shared" ref="AJ110:AJ121" ca="1" si="248">CONCATENATE(A110,". ",C110,",",L110,",",M110,",",N110,",",O110,",",P110,";")</f>
+        <v>102. Синусоид,1,255,1,100,0;</v>
       </c>
       <c r="AK110" s="2" t="str">
-        <f t="shared" ca="1" si="249"/>
-        <v>102.Смена цвета</v>
+        <f t="shared" ref="AK110:AK126" ca="1" si="249">CONCATENATE("",A110,"",".",C110,"")</f>
+        <v>102.Синусоид</v>
       </c>
       <c r="AL110" s="2"/>
       <c r="AM110" s="2"/>
@@ -15690,22 +15682,22 @@
         <v>103</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H111" s="40">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I111" s="40">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="J111" s="40">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="L111" s="40">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="M111" s="40">
         <v>255</v>
@@ -15714,19 +15706,19 @@
         <v>1</v>
       </c>
       <c r="O111" s="40">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="P111" s="40">
         <v>0</v>
       </c>
       <c r="Q111" s="40" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="R111" s="40" t="s">
-        <v>395</v>
+        <v>312</v>
       </c>
       <c r="S111" s="40">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T111" s="40">
         <f t="shared" ca="1" si="234"/>
@@ -15735,31 +15727,31 @@
       <c r="U111" s="15"/>
       <c r="V111" s="2" t="str">
         <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_SNOW                (103U)    // Снегопад</v>
+        <v>#define EFF_COLORS              (103U)    // Смена цвета</v>
       </c>
       <c r="W111" s="2" t="str">
         <f t="shared" ca="1" si="236"/>
-        <v>String("103. Снегопад,99,255,1,100,0;") +</v>
+        <v>String("103. Смена цвета,1,255,1,255,0;") +</v>
       </c>
       <c r="X111" s="2" t="str">
         <f t="shared" ca="1" si="237"/>
-        <v>String("103. ,99,255,1,100,0;") +</v>
+        <v>String("103. ,1,255,1,255,0;") +</v>
       </c>
       <c r="Y111" s="2" t="str">
         <f t="shared" ca="1" si="238"/>
-        <v>String("103. ,99,255,1,100,0;") +</v>
+        <v>String("103. ,1,255,1,255,0;") +</v>
       </c>
       <c r="Z111" s="2" t="str">
         <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  10, 205,  90}, // Снегопад</v>
+        <v xml:space="preserve">  {  25, 240,   1}, // Смена цвета</v>
       </c>
       <c r="AA111" s="2" t="str">
         <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_SNOW:                DYNAMIC_DELAY_TICK { effTimer = millis(); Snowfall();                   Eff_Tick (); }  break;  // (103U) Снегопад</v>
+        <v xml:space="preserve">        case EFF_COLORS:              HIGH_DELAY_TICK { effTimer = millis(); colorsRoutine2();             Eff_Tick (); }  break;  // (103U) Смена цвета</v>
       </c>
       <c r="AB111" s="2" t="str">
         <f ca="1">CONCATENATE("{""name"":""",A111,". ",C111,""",""spmin"":",L111,",""spmax"":",M111,",""scmin"":",N111,",""scmax"":",O111,",""type"":",P111,"},")</f>
-        <v>{"name":"103. Снегопад","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <v>{"name":"103. Смена цвета","spmin":1,"spmax":255,"scmin":1,"scmax":255,"type":0},</v>
       </c>
       <c r="AC111" s="4" t="str">
         <f t="shared" ca="1" si="241"/>
@@ -15771,19 +15763,19 @@
       </c>
       <c r="AE111" s="4" t="str">
         <f t="shared" ca="1" si="243"/>
-        <v>"e103":6,</v>
+        <v>"e103":11,</v>
       </c>
       <c r="AF111" s="2" t="str">
         <f t="shared" ca="1" si="244"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e103","title":"103. Снегопад","style":"font-size:20px;display:block","state":"{{e103}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e103","title":"103. Смена цвета","style":"font-size:20px;display:block","state":"{{e103}}"},</v>
       </c>
       <c r="AG111" s="2" t="str">
         <f t="shared" ca="1" si="245"/>
-        <v>{"type":"h4","title":"103. Снегопад","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e103","state":"{{e103}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"103. Смена цвета","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e103","state":"{{e103}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH111" s="2" t="str">
         <f t="shared" ca="1" si="246"/>
-        <v>"103": "103.Снегопад",</v>
+        <v>"103": "103.Смена цвета",</v>
       </c>
       <c r="AI111" s="16" t="str">
         <f t="shared" ca="1" si="247"/>
@@ -15791,11 +15783,11 @@
       </c>
       <c r="AJ111" s="2" t="str">
         <f t="shared" ca="1" si="248"/>
-        <v>103. Снегопад,99,255,1,100,0;</v>
+        <v>103. Смена цвета,1,255,1,255,0;</v>
       </c>
       <c r="AK111" s="2" t="str">
         <f t="shared" ca="1" si="249"/>
-        <v>103.Снегопад</v>
+        <v>103.Смена цвета</v>
       </c>
       <c r="AL111" s="2"/>
       <c r="AM111" s="2"/>
@@ -15823,22 +15815,22 @@
         <v>104</v>
       </c>
       <c r="B112" s="40" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H112" s="40">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I112" s="40">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="J112" s="40">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L112" s="40">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M112" s="40">
         <v>255</v>
@@ -15853,13 +15845,13 @@
         <v>0</v>
       </c>
       <c r="Q112" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R112" s="40" t="s">
-        <v>319</v>
+        <v>393</v>
       </c>
       <c r="S112" s="40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T112" s="40">
         <f t="shared" ca="1" si="234"/>
@@ -15868,27 +15860,31 @@
       <c r="U112" s="15"/>
       <c r="V112" s="2" t="str">
         <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_SPECTRUM            (104U)    // Спектрум</v>
+        <v>#define EFF_SNOW                (104U)    // Снегопад</v>
       </c>
       <c r="W112" s="2" t="str">
         <f t="shared" ca="1" si="236"/>
-        <v>String("104. Спектрум,1,255,1,100,0;") +</v>
+        <v>String("104. Снегопад,99,255,1,100,0;") +</v>
       </c>
       <c r="X112" s="2" t="str">
         <f t="shared" ca="1" si="237"/>
-        <v>String("104. ,1,255,1,100,0;") +</v>
+        <v>String("104. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Y112" s="2" t="str">
         <f t="shared" ca="1" si="238"/>
-        <v>String("104. ,1,255,1,100,0;") +</v>
+        <v>String("104. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Z112" s="2" t="str">
         <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  25, 175, 100}, // Спектрум</v>
+        <v xml:space="preserve">  {  10, 205,  90}, // Снегопад</v>
       </c>
       <c r="AA112" s="2" t="str">
         <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_SPECTRUM:            DYNAMIC_DELAY_TICK { effTimer = millis(); Spectrum();                   Eff_Tick (); }  break;  // (104U) Спектрум</v>
+        <v xml:space="preserve">        case EFF_SNOW:                DYNAMIC_DELAY_TICK { effTimer = millis(); Snowfall();                   Eff_Tick (); }  break;  // (104U) Снегопад</v>
+      </c>
+      <c r="AB112" s="2" t="str">
+        <f ca="1">CONCATENATE("{""name"":""",A112,". ",C112,""",""spmin"":",L112,",""spmax"":",M112,",""scmin"":",N112,",""scmax"":",O112,",""type"":",P112,"},")</f>
+        <v>{"name":"104. Снегопад","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC112" s="4" t="str">
         <f t="shared" ca="1" si="241"/>
@@ -15900,19 +15896,19 @@
       </c>
       <c r="AE112" s="4" t="str">
         <f t="shared" ca="1" si="243"/>
-        <v>"e104":2,</v>
+        <v>"e104":6,</v>
       </c>
       <c r="AF112" s="2" t="str">
         <f t="shared" ca="1" si="244"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e104","title":"104. Спектрум","style":"font-size:20px;display:block","state":"{{e104}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e104","title":"104. Снегопад","style":"font-size:20px;display:block","state":"{{e104}}"},</v>
       </c>
       <c r="AG112" s="2" t="str">
         <f t="shared" ca="1" si="245"/>
-        <v>{"type":"h4","title":"104. Спектрум","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e104","state":"{{e104}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"104. Снегопад","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e104","state":"{{e104}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH112" s="2" t="str">
         <f t="shared" ca="1" si="246"/>
-        <v>"104": "104.Спектрум",</v>
+        <v>"104": "104.Снегопад",</v>
       </c>
       <c r="AI112" s="16" t="str">
         <f t="shared" ca="1" si="247"/>
@@ -15920,11 +15916,11 @@
       </c>
       <c r="AJ112" s="2" t="str">
         <f t="shared" ca="1" si="248"/>
-        <v>104. Спектрум,1,255,1,100,0;</v>
+        <v>104. Снегопад,99,255,1,100,0;</v>
       </c>
       <c r="AK112" s="2" t="str">
         <f t="shared" ca="1" si="249"/>
-        <v>104.Спектрум</v>
+        <v>104.Снегопад</v>
       </c>
       <c r="AL112" s="2"/>
       <c r="AM112" s="2"/>
@@ -15952,19 +15948,19 @@
         <v>105</v>
       </c>
       <c r="B113" s="40" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H113" s="40">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I113" s="40">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="J113" s="40">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="L113" s="40">
         <v>1</v>
@@ -15982,10 +15978,10 @@
         <v>0</v>
       </c>
       <c r="Q113" s="40" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="R113" s="40" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="S113" s="40">
         <v>2</v>
@@ -15997,11 +15993,11 @@
       <c r="U113" s="15"/>
       <c r="V113" s="2" t="str">
         <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_SPIRO               (105U)    // Спирали</v>
+        <v>#define EFF_SPECTRUM            (105U)    // Спектрум</v>
       </c>
       <c r="W113" s="2" t="str">
         <f t="shared" ca="1" si="236"/>
-        <v>String("105. Спирали,1,255,1,100,0;") +</v>
+        <v>String("105. Спектрум,1,255,1,100,0;") +</v>
       </c>
       <c r="X113" s="2" t="str">
         <f t="shared" ca="1" si="237"/>
@@ -16013,15 +16009,11 @@
       </c>
       <c r="Z113" s="2" t="str">
         <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  15,  45,   3}, // Спирали</v>
+        <v xml:space="preserve">  {  25, 175, 100}, // Спектрум</v>
       </c>
       <c r="AA113" s="2" t="str">
         <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_SPIRO:               LOW_DELAY_TICK { effTimer = millis(); spiroRoutine();               Eff_Tick (); }  break;  // (105U) Спирали</v>
-      </c>
-      <c r="AB113" s="2" t="str">
-        <f t="shared" ref="AB113:AB114" ca="1" si="250">CONCATENATE("{""name"":""",A113,". ",C113,""",""spmin"":",L113,",""spmax"":",M113,",""scmin"":",N113,",""scmax"":",O113,",""type"":",P113,"},")</f>
-        <v>{"name":"105. Спирали","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <v xml:space="preserve">        case EFF_SPECTRUM:            DYNAMIC_DELAY_TICK { effTimer = millis(); Spectrum();                   Eff_Tick (); }  break;  // (105U) Спектрум</v>
       </c>
       <c r="AC113" s="4" t="str">
         <f t="shared" ca="1" si="241"/>
@@ -16037,15 +16029,15 @@
       </c>
       <c r="AF113" s="2" t="str">
         <f t="shared" ca="1" si="244"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e105","title":"105. Спирали","style":"font-size:20px;display:block","state":"{{e105}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e105","title":"105. Спектрум","style":"font-size:20px;display:block","state":"{{e105}}"},</v>
       </c>
       <c r="AG113" s="2" t="str">
         <f t="shared" ca="1" si="245"/>
-        <v>{"type":"h4","title":"105. Спирали","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e105","state":"{{e105}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"105. Спектрум","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e105","state":"{{e105}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH113" s="2" t="str">
         <f t="shared" ca="1" si="246"/>
-        <v>"105": "105.Спирали",</v>
+        <v>"105": "105.Спектрум",</v>
       </c>
       <c r="AI113" s="16" t="str">
         <f t="shared" ca="1" si="247"/>
@@ -16053,11 +16045,11 @@
       </c>
       <c r="AJ113" s="2" t="str">
         <f t="shared" ca="1" si="248"/>
-        <v>105. Спирали,1,255,1,100,0;</v>
+        <v>105. Спектрум,1,255,1,100,0;</v>
       </c>
       <c r="AK113" s="2" t="str">
         <f t="shared" ca="1" si="249"/>
-        <v>105.Спирали</v>
+        <v>105.Спектрум</v>
       </c>
       <c r="AL113" s="2"/>
       <c r="AM113" s="2"/>
@@ -16085,19 +16077,19 @@
         <v>106</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H114" s="40">
         <v>15</v>
       </c>
       <c r="I114" s="40">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="J114" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L114" s="40">
         <v>1</v>
@@ -16115,10 +16107,10 @@
         <v>0</v>
       </c>
       <c r="Q114" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R114" s="40" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="S114" s="40">
         <v>2</v>
@@ -16130,11 +16122,11 @@
       <c r="U114" s="15"/>
       <c r="V114" s="2" t="str">
         <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_FLOCK               (106U)    // Стая</v>
+        <v>#define EFF_SPIRO               (106U)    // Спирали</v>
       </c>
       <c r="W114" s="2" t="str">
         <f t="shared" ca="1" si="236"/>
-        <v>String("106. Стая,1,255,1,100,0;") +</v>
+        <v>String("106. Спирали,1,255,1,100,0;") +</v>
       </c>
       <c r="X114" s="2" t="str">
         <f t="shared" ca="1" si="237"/>
@@ -16146,15 +16138,15 @@
       </c>
       <c r="Z114" s="2" t="str">
         <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  15, 136,   4}, // Стая</v>
+        <v xml:space="preserve">  {  15,  45,   3}, // Спирали</v>
       </c>
       <c r="AA114" s="2" t="str">
         <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_FLOCK:               LOW_DELAY_TICK { effTimer = millis(); flockRoutine(false);          Eff_Tick (); }  break;  // (106U) Стая</v>
+        <v xml:space="preserve">        case EFF_SPIRO:               LOW_DELAY_TICK { effTimer = millis(); spiroRoutine();               Eff_Tick (); }  break;  // (106U) Спирали</v>
       </c>
       <c r="AB114" s="2" t="str">
-        <f t="shared" ca="1" si="250"/>
-        <v>{"name":"106. Стая","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ref="AB114:AB115" ca="1" si="250">CONCATENATE("{""name"":""",A114,". ",C114,""",""spmin"":",L114,",""spmax"":",M114,",""scmin"":",N114,",""scmax"":",O114,",""type"":",P114,"},")</f>
+        <v>{"name":"106. Спирали","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC114" s="4" t="str">
         <f t="shared" ca="1" si="241"/>
@@ -16170,15 +16162,15 @@
       </c>
       <c r="AF114" s="2" t="str">
         <f t="shared" ca="1" si="244"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e106","title":"106. Стая","style":"font-size:20px;display:block","state":"{{e106}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e106","title":"106. Спирали","style":"font-size:20px;display:block","state":"{{e106}}"},</v>
       </c>
       <c r="AG114" s="2" t="str">
         <f t="shared" ca="1" si="245"/>
-        <v>{"type":"h4","title":"106. Стая","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e106","state":"{{e106}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"106. Спирали","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e106","state":"{{e106}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH114" s="2" t="str">
         <f t="shared" ca="1" si="246"/>
-        <v>"106": "106.Стая",</v>
+        <v>"106": "106.Спирали",</v>
       </c>
       <c r="AI114" s="16" t="str">
         <f t="shared" ca="1" si="247"/>
@@ -16186,11 +16178,11 @@
       </c>
       <c r="AJ114" s="2" t="str">
         <f t="shared" ca="1" si="248"/>
-        <v>106. Стая,1,255,1,100,0;</v>
+        <v>106. Спирали,1,255,1,100,0;</v>
       </c>
       <c r="AK114" s="2" t="str">
         <f t="shared" ca="1" si="249"/>
-        <v>106.Стая</v>
+        <v>106.Спирали</v>
       </c>
       <c r="AL114" s="2"/>
       <c r="AM114" s="2"/>
@@ -16218,19 +16210,19 @@
         <v>107</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H115" s="40">
         <v>15</v>
       </c>
       <c r="I115" s="40">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="J115" s="40">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="L115" s="40">
         <v>1</v>
@@ -16248,10 +16240,10 @@
         <v>0</v>
       </c>
       <c r="Q115" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R115" s="40" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S115" s="40">
         <v>2</v>
@@ -16263,11 +16255,11 @@
       <c r="U115" s="15"/>
       <c r="V115" s="2" t="str">
         <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_FLOCK_N_PR          (107U)    // Стая и хищник</v>
+        <v>#define EFF_FLOCK               (107U)    // Стая</v>
       </c>
       <c r="W115" s="2" t="str">
         <f t="shared" ca="1" si="236"/>
-        <v>String("107. Стая и хищник,1,255,1,100,0;") +</v>
+        <v>String("107. Стая,1,255,1,100,0;") +</v>
       </c>
       <c r="X115" s="2" t="str">
         <f t="shared" ca="1" si="237"/>
@@ -16279,11 +16271,15 @@
       </c>
       <c r="Z115" s="2" t="str">
         <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  15, 128,  80}, // Стая и хищник</v>
+        <v xml:space="preserve">  {  15, 136,   4}, // Стая</v>
       </c>
       <c r="AA115" s="2" t="str">
         <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_FLOCK_N_PR:          LOW_DELAY_TICK { effTimer = millis(); flockRoutine(true);           Eff_Tick (); }  break;  // (107U) Стая и хищник</v>
+        <v xml:space="preserve">        case EFF_FLOCK:               LOW_DELAY_TICK { effTimer = millis(); flockRoutine(false);          Eff_Tick (); }  break;  // (107U) Стая</v>
+      </c>
+      <c r="AB115" s="2" t="str">
+        <f t="shared" ca="1" si="250"/>
+        <v>{"name":"107. Стая","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC115" s="4" t="str">
         <f t="shared" ca="1" si="241"/>
@@ -16299,15 +16295,15 @@
       </c>
       <c r="AF115" s="2" t="str">
         <f t="shared" ca="1" si="244"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e107","title":"107. Стая и хищник","style":"font-size:20px;display:block","state":"{{e107}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e107","title":"107. Стая","style":"font-size:20px;display:block","state":"{{e107}}"},</v>
       </c>
       <c r="AG115" s="2" t="str">
         <f t="shared" ca="1" si="245"/>
-        <v>{"type":"h4","title":"107. Стая и хищник","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e107","state":"{{e107}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"107. Стая","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e107","state":"{{e107}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH115" s="2" t="str">
         <f t="shared" ca="1" si="246"/>
-        <v>"107": "107.Стая и хищник",</v>
+        <v>"107": "107.Стая",</v>
       </c>
       <c r="AI115" s="16" t="str">
         <f t="shared" ca="1" si="247"/>
@@ -16315,11 +16311,11 @@
       </c>
       <c r="AJ115" s="2" t="str">
         <f t="shared" ca="1" si="248"/>
-        <v>107. Стая и хищник,1,255,1,100,0;</v>
+        <v>107. Стая,1,255,1,100,0;</v>
       </c>
       <c r="AK115" s="2" t="str">
         <f t="shared" ca="1" si="249"/>
-        <v>107.Стая и хищник</v>
+        <v>107.Стая</v>
       </c>
       <c r="AL115" s="2"/>
       <c r="AM115" s="2"/>
@@ -16347,22 +16343,22 @@
         <v>108</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C116" s="40" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H116" s="40">
+        <v>15</v>
+      </c>
+      <c r="I116" s="40">
+        <v>128</v>
+      </c>
+      <c r="J116" s="40">
         <v>80</v>
       </c>
-      <c r="I116" s="40">
-        <v>165</v>
-      </c>
-      <c r="J116" s="40">
-        <v>40</v>
-      </c>
       <c r="L116" s="40">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="M116" s="40">
         <v>255</v>
@@ -16377,10 +16373,10 @@
         <v>0</v>
       </c>
       <c r="Q116" s="40" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R116" s="40" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="S116" s="40">
         <v>2</v>
@@ -16392,31 +16388,27 @@
       <c r="U116" s="15"/>
       <c r="V116" s="2" t="str">
         <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_ARROWS              (108U)    // Стрелки</v>
+        <v>#define EFF_FLOCK_N_PR          (108U)    // Стая и хищник</v>
       </c>
       <c r="W116" s="2" t="str">
         <f t="shared" ca="1" si="236"/>
-        <v>String("108. Стрелки,80,255,1,100,0;") +</v>
+        <v>String("108. Стая и хищник,1,255,1,100,0;") +</v>
       </c>
       <c r="X116" s="2" t="str">
         <f t="shared" ca="1" si="237"/>
-        <v>String("108. ,80,255,1,100,0;") +</v>
+        <v>String("108. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y116" s="2" t="str">
         <f t="shared" ca="1" si="238"/>
-        <v>String("108. ,80,255,1,100,0;") +</v>
+        <v>String("108. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z116" s="2" t="str">
         <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  80, 165,  40}, // Стрелки</v>
+        <v xml:space="preserve">  {  15, 128,  80}, // Стая и хищник</v>
       </c>
       <c r="AA116" s="2" t="str">
         <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_ARROWS:              DYNAMIC_DELAY_TICK { effTimer = millis(); arrowsRoutine();              Eff_Tick (); }  break;  // (108U) Стрелки</v>
-      </c>
-      <c r="AB116" s="2" t="str">
-        <f t="shared" ref="AB116:AB120" ca="1" si="251">CONCATENATE("{""name"":""",A116,". ",C116,""",""spmin"":",L116,",""spmax"":",M116,",""scmin"":",N116,",""scmax"":",O116,",""type"":",P116,"},")</f>
-        <v>{"name":"108. Стрелки","spmin":80,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <v xml:space="preserve">        case EFF_FLOCK_N_PR:          LOW_DELAY_TICK { effTimer = millis(); flockRoutine(true);           Eff_Tick (); }  break;  // (108U) Стая и хищник</v>
       </c>
       <c r="AC116" s="4" t="str">
         <f t="shared" ca="1" si="241"/>
@@ -16432,15 +16424,15 @@
       </c>
       <c r="AF116" s="2" t="str">
         <f t="shared" ca="1" si="244"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e108","title":"108. Стрелки","style":"font-size:20px;display:block","state":"{{e108}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e108","title":"108. Стая и хищник","style":"font-size:20px;display:block","state":"{{e108}}"},</v>
       </c>
       <c r="AG116" s="2" t="str">
         <f t="shared" ca="1" si="245"/>
-        <v>{"type":"h4","title":"108. Стрелки","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e108","state":"{{e108}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"108. Стая и хищник","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e108","state":"{{e108}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH116" s="2" t="str">
         <f t="shared" ca="1" si="246"/>
-        <v>"108": "108.Стрелки",</v>
+        <v>"108": "108.Стая и хищник",</v>
       </c>
       <c r="AI116" s="16" t="str">
         <f t="shared" ca="1" si="247"/>
@@ -16448,11 +16440,11 @@
       </c>
       <c r="AJ116" s="2" t="str">
         <f t="shared" ca="1" si="248"/>
-        <v>108. Стрелки,80,255,1,100,0;</v>
+        <v>108. Стая и хищник,1,255,1,100,0;</v>
       </c>
       <c r="AK116" s="2" t="str">
         <f t="shared" ca="1" si="249"/>
-        <v>108.Стрелки</v>
+        <v>108.Стая и хищник</v>
       </c>
       <c r="AL116" s="2"/>
       <c r="AM116" s="2"/>
@@ -16480,22 +16472,22 @@
         <v>109</v>
       </c>
       <c r="B117" s="40" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C117" s="40" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H117" s="40">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I117" s="40">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="J117" s="40">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L117" s="40">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="M117" s="40">
         <v>255</v>
@@ -16510,10 +16502,10 @@
         <v>0</v>
       </c>
       <c r="Q117" s="40" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="R117" s="40" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="S117" s="40">
         <v>2</v>
@@ -16525,31 +16517,31 @@
       <c r="U117" s="15"/>
       <c r="V117" s="2" t="str">
         <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_STROBE              (109U)    // Строб.Хаос.Дифузия</v>
+        <v>#define EFF_ARROWS              (109U)    // Стрелки</v>
       </c>
       <c r="W117" s="2" t="str">
         <f t="shared" ca="1" si="236"/>
-        <v>String("109. Строб.Хаос.Дифузия,1,255,1,100,0;") +</v>
+        <v>String("109. Стрелки,80,255,1,100,0;") +</v>
       </c>
       <c r="X117" s="2" t="str">
         <f t="shared" ca="1" si="237"/>
-        <v>String("109. ,1,255,1,100,0;") +</v>
+        <v>String("109. ,80,255,1,100,0;") +</v>
       </c>
       <c r="Y117" s="2" t="str">
         <f t="shared" ca="1" si="238"/>
-        <v>String("109. ,1,255,1,100,0;") +</v>
+        <v>String("109. ,80,255,1,100,0;") +</v>
       </c>
       <c r="Z117" s="2" t="str">
         <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  25,   1,  45}, // Строб.Хаос.Дифузия</v>
+        <v xml:space="preserve">  {  80, 165,  40}, // Стрелки</v>
       </c>
       <c r="AA117" s="2" t="str">
         <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_STROBE:              LOW_DELAY_TICK { effTimer = millis(); StrobeAndDiffusion();         Eff_Tick (); }  break;  // (109U) Строб.Хаос.Дифузия</v>
+        <v xml:space="preserve">        case EFF_ARROWS:              DYNAMIC_DELAY_TICK { effTimer = millis(); arrowsRoutine();              Eff_Tick (); }  break;  // (109U) Стрелки</v>
       </c>
       <c r="AB117" s="2" t="str">
-        <f t="shared" ca="1" si="251"/>
-        <v>{"name":"109. Строб.Хаос.Дифузия","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ref="AB117:AB121" ca="1" si="251">CONCATENATE("{""name"":""",A117,". ",C117,""",""spmin"":",L117,",""spmax"":",M117,",""scmin"":",N117,",""scmax"":",O117,",""type"":",P117,"},")</f>
+        <v>{"name":"109. Стрелки","spmin":80,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC117" s="4" t="str">
         <f t="shared" ca="1" si="241"/>
@@ -16565,15 +16557,15 @@
       </c>
       <c r="AF117" s="2" t="str">
         <f t="shared" ca="1" si="244"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e109","title":"109. Строб.Хаос.Дифузия","style":"font-size:20px;display:block","state":"{{e109}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e109","title":"109. Стрелки","style":"font-size:20px;display:block","state":"{{e109}}"},</v>
       </c>
       <c r="AG117" s="2" t="str">
         <f t="shared" ca="1" si="245"/>
-        <v>{"type":"h4","title":"109. Строб.Хаос.Дифузия","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e109","state":"{{e109}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"109. Стрелки","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e109","state":"{{e109}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH117" s="2" t="str">
         <f t="shared" ca="1" si="246"/>
-        <v>"109": "109.Строб.Хаос.Дифузия",</v>
+        <v>"109": "109.Стрелки",</v>
       </c>
       <c r="AI117" s="16" t="str">
         <f t="shared" ca="1" si="247"/>
@@ -16581,11 +16573,11 @@
       </c>
       <c r="AJ117" s="2" t="str">
         <f t="shared" ca="1" si="248"/>
-        <v>109. Строб.Хаос.Дифузия,1,255,1,100,0;</v>
+        <v>109. Стрелки,80,255,1,100,0;</v>
       </c>
       <c r="AK117" s="2" t="str">
         <f t="shared" ca="1" si="249"/>
-        <v>109.Строб.Хаос.Дифузия</v>
+        <v>109.Стрелки</v>
       </c>
       <c r="AL117" s="2"/>
       <c r="AM117" s="2"/>
@@ -16613,19 +16605,19 @@
         <v>110</v>
       </c>
       <c r="B118" s="40" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C118" s="40" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H118" s="40">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I118" s="40">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="J118" s="40">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="L118" s="40">
         <v>1</v>
@@ -16643,10 +16635,10 @@
         <v>0</v>
       </c>
       <c r="Q118" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R118" s="40" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="S118" s="40">
         <v>2</v>
@@ -16658,11 +16650,11 @@
       <c r="U118" s="15"/>
       <c r="V118" s="2" t="str">
         <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_SHADOWS             (110U)    // Тени</v>
+        <v>#define EFF_STROBE              (110U)    // Строб.Хаос.Дифузия</v>
       </c>
       <c r="W118" s="2" t="str">
         <f t="shared" ca="1" si="236"/>
-        <v>String("110. Тени,1,255,1,100,0;") +</v>
+        <v>String("110. Строб.Хаос.Дифузия,1,255,1,100,0;") +</v>
       </c>
       <c r="X118" s="2" t="str">
         <f t="shared" ca="1" si="237"/>
@@ -16674,15 +16666,15 @@
       </c>
       <c r="Z118" s="2" t="str">
         <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  50, 160,   1}, // Тени</v>
+        <v xml:space="preserve">  {  25,   1,  45}, // Строб.Хаос.Дифузия</v>
       </c>
       <c r="AA118" s="2" t="str">
         <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_SHADOWS:             LOW_DELAY_TICK { effTimer = millis(); shadowsRoutine();             Eff_Tick (); }  break;  // (110U) Тени</v>
+        <v xml:space="preserve">        case EFF_STROBE:              LOW_DELAY_TICK { effTimer = millis(); StrobeAndDiffusion();         Eff_Tick (); }  break;  // (110U) Строб.Хаос.Дифузия</v>
       </c>
       <c r="AB118" s="2" t="str">
         <f t="shared" ca="1" si="251"/>
-        <v>{"name":"110. Тени","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <v>{"name":"110. Строб.Хаос.Дифузия","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC118" s="4" t="str">
         <f t="shared" ca="1" si="241"/>
@@ -16698,15 +16690,15 @@
       </c>
       <c r="AF118" s="2" t="str">
         <f t="shared" ca="1" si="244"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e110","title":"110. Тени","style":"font-size:20px;display:block","state":"{{e110}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e110","title":"110. Строб.Хаос.Дифузия","style":"font-size:20px;display:block","state":"{{e110}}"},</v>
       </c>
       <c r="AG118" s="2" t="str">
         <f t="shared" ca="1" si="245"/>
-        <v>{"type":"h4","title":"110. Тени","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e110","state":"{{e110}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"110. Строб.Хаос.Дифузия","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e110","state":"{{e110}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH118" s="2" t="str">
         <f t="shared" ca="1" si="246"/>
-        <v>"110": "110.Тени",</v>
+        <v>"110": "110.Строб.Хаос.Дифузия",</v>
       </c>
       <c r="AI118" s="16" t="str">
         <f t="shared" ca="1" si="247"/>
@@ -16714,11 +16706,11 @@
       </c>
       <c r="AJ118" s="2" t="str">
         <f t="shared" ca="1" si="248"/>
-        <v>110. Тени,1,255,1,100,0;</v>
+        <v>110. Строб.Хаос.Дифузия,1,255,1,100,0;</v>
       </c>
       <c r="AK118" s="2" t="str">
         <f t="shared" ca="1" si="249"/>
-        <v>110.Тени</v>
+        <v>110.Строб.Хаос.Дифузия</v>
       </c>
       <c r="AL118" s="2"/>
       <c r="AM118" s="2"/>
@@ -16746,19 +16738,19 @@
         <v>111</v>
       </c>
       <c r="B119" s="40" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C119" s="40" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H119" s="40">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I119" s="40">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="J119" s="40">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L119" s="40">
         <v>1</v>
@@ -16773,16 +16765,16 @@
         <v>100</v>
       </c>
       <c r="P119" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R119" s="40" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="S119" s="40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T119" s="40">
         <f t="shared" ca="1" si="234"/>
@@ -16791,31 +16783,31 @@
       <c r="U119" s="15"/>
       <c r="V119" s="2" t="str">
         <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_PACIFIC             (111U)    // Тихий океан</v>
+        <v>#define EFF_SHADOWS             (111U)    // Тени</v>
       </c>
       <c r="W119" s="2" t="str">
         <f t="shared" ca="1" si="236"/>
-        <v>String("111. Тихий океан,1,255,1,100,1;") +</v>
+        <v>String("111. Тени,1,255,1,100,0;") +</v>
       </c>
       <c r="X119" s="2" t="str">
         <f t="shared" ca="1" si="237"/>
-        <v>String("111. ,1,255,1,100,1;") +</v>
+        <v>String("111. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y119" s="2" t="str">
         <f t="shared" ca="1" si="238"/>
-        <v>String("111. ,1,255,1,100,1;") +</v>
+        <v>String("111. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z119" s="2" t="str">
         <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  20, 127, 100}, // Тихий океан</v>
+        <v xml:space="preserve">  {  50, 160,   1}, // Тени</v>
       </c>
       <c r="AA119" s="2" t="str">
         <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_PACIFIC:             LOW_DELAY_TICK { effTimer = millis(); pacificRoutine();             Eff_Tick (); }  break;  // (111U) Тихий океан</v>
+        <v xml:space="preserve">        case EFF_SHADOWS:             LOW_DELAY_TICK { effTimer = millis(); shadowsRoutine();             Eff_Tick (); }  break;  // (111U) Тени</v>
       </c>
       <c r="AB119" s="2" t="str">
         <f t="shared" ca="1" si="251"/>
-        <v>{"name":"111. Тихий океан","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
+        <v>{"name":"111. Тени","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC119" s="4" t="str">
         <f t="shared" ca="1" si="241"/>
@@ -16827,19 +16819,19 @@
       </c>
       <c r="AE119" s="4" t="str">
         <f t="shared" ca="1" si="243"/>
-        <v>"e111":5,</v>
+        <v>"e111":2,</v>
       </c>
       <c r="AF119" s="2" t="str">
         <f t="shared" ca="1" si="244"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e111","title":"111. Тихий океан","style":"font-size:20px;display:block","state":"{{e111}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e111","title":"111. Тени","style":"font-size:20px;display:block","state":"{{e111}}"},</v>
       </c>
       <c r="AG119" s="2" t="str">
         <f t="shared" ca="1" si="245"/>
-        <v>{"type":"h4","title":"111. Тихий океан","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e111","state":"{{e111}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"111. Тени","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e111","state":"{{e111}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH119" s="2" t="str">
         <f t="shared" ca="1" si="246"/>
-        <v>"111": "111.Тихий океан",</v>
+        <v>"111": "111.Тени",</v>
       </c>
       <c r="AI119" s="16" t="str">
         <f t="shared" ca="1" si="247"/>
@@ -16847,11 +16839,11 @@
       </c>
       <c r="AJ119" s="2" t="str">
         <f t="shared" ca="1" si="248"/>
-        <v>111. Тихий океан,1,255,1,100,1;</v>
+        <v>111. Тени,1,255,1,100,0;</v>
       </c>
       <c r="AK119" s="2" t="str">
         <f t="shared" ca="1" si="249"/>
-        <v>111.Тихий океан</v>
+        <v>111.Тени</v>
       </c>
       <c r="AL119" s="2"/>
       <c r="AM119" s="2"/>
@@ -16873,25 +16865,25 @@
       <c r="BC119" s="18"/>
       <c r="BD119" s="18"/>
     </row>
-    <row r="120" spans="1:56">
+    <row r="120" spans="1:56" ht="14.25" customHeight="1">
       <c r="A120" s="35">
         <f t="shared" ca="1" si="233"/>
         <v>112</v>
       </c>
       <c r="B120" s="40" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="H120" s="40">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I120" s="40">
         <v>127</v>
       </c>
       <c r="J120" s="40">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L120" s="40">
         <v>1</v>
@@ -16906,48 +16898,49 @@
         <v>100</v>
       </c>
       <c r="P120" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R120" s="40" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="S120" s="40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T120" s="40">
         <f t="shared" ca="1" si="234"/>
         <v>112</v>
       </c>
+      <c r="U120" s="15"/>
       <c r="V120" s="2" t="str">
         <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_TORNADO             (112U)    // Торнадо</v>
+        <v>#define EFF_PACIFIC             (112U)    // Тихий океан</v>
       </c>
       <c r="W120" s="2" t="str">
         <f t="shared" ca="1" si="236"/>
-        <v>String("112. Торнадо,1,255,1,100,0;") +</v>
+        <v>String("112. Тихий океан,1,255,1,100,1;") +</v>
       </c>
       <c r="X120" s="2" t="str">
         <f t="shared" ca="1" si="237"/>
-        <v>String("112. ,1,255,1,100,0;") +</v>
+        <v>String("112. ,1,255,1,100,1;") +</v>
       </c>
       <c r="Y120" s="2" t="str">
         <f t="shared" ca="1" si="238"/>
-        <v>String("112. ,1,255,1,100,0;") +</v>
+        <v>String("112. ,1,255,1,100,1;") +</v>
       </c>
       <c r="Z120" s="2" t="str">
         <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  15, 127,  50}, // Торнадо</v>
+        <v xml:space="preserve">  {  20, 127, 100}, // Тихий океан</v>
       </c>
       <c r="AA120" s="2" t="str">
         <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_TORNADO:             LOW_DELAY_TICK { effTimer = millis(); Tornado();                    Eff_Tick (); }  break;  // (112U) Торнадо</v>
+        <v xml:space="preserve">        case EFF_PACIFIC:             LOW_DELAY_TICK { effTimer = millis(); pacificRoutine();             Eff_Tick (); }  break;  // (112U) Тихий океан</v>
       </c>
       <c r="AB120" s="2" t="str">
         <f t="shared" ca="1" si="251"/>
-        <v>{"name":"112. Торнадо","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <v>{"name":"112. Тихий океан","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
       </c>
       <c r="AC120" s="4" t="str">
         <f t="shared" ca="1" si="241"/>
@@ -16959,19 +16952,19 @@
       </c>
       <c r="AE120" s="4" t="str">
         <f t="shared" ca="1" si="243"/>
-        <v>"e112":2,</v>
+        <v>"e112":5,</v>
       </c>
       <c r="AF120" s="2" t="str">
-        <f t="shared" ref="AF120:AF125" ca="1" si="252">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T120,""",""title"":""",A120,". ",C120,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T120,"}}""},")</f>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e112","title":"112. Торнадо","style":"font-size:20px;display:block","state":"{{e112}}"},</v>
+        <f t="shared" ca="1" si="244"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e112","title":"112. Тихий океан","style":"font-size:20px;display:block","state":"{{e112}}"},</v>
       </c>
       <c r="AG120" s="2" t="str">
         <f t="shared" ca="1" si="245"/>
-        <v>{"type":"h4","title":"112. Торнадо","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e112","state":"{{e112}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"112. Тихий океан","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e112","state":"{{e112}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH120" s="2" t="str">
         <f t="shared" ca="1" si="246"/>
-        <v>"112": "112.Торнадо",</v>
+        <v>"112": "112.Тихий океан",</v>
       </c>
       <c r="AI120" s="16" t="str">
         <f t="shared" ca="1" si="247"/>
@@ -16979,35 +16972,54 @@
       </c>
       <c r="AJ120" s="2" t="str">
         <f t="shared" ca="1" si="248"/>
-        <v>112. Торнадо,1,255,1,100,0;</v>
+        <v>112. Тихий океан,1,255,1,100,1;</v>
       </c>
       <c r="AK120" s="2" t="str">
         <f t="shared" ca="1" si="249"/>
-        <v>112.Торнадо</v>
-      </c>
+        <v>112.Тихий океан</v>
+      </c>
+      <c r="AL120" s="2"/>
+      <c r="AM120" s="2"/>
+      <c r="AN120" s="17"/>
+      <c r="AO120" s="2"/>
+      <c r="AP120" s="2"/>
+      <c r="AQ120" s="2"/>
+      <c r="AR120" s="2"/>
+      <c r="AS120" s="16"/>
+      <c r="AT120" s="2"/>
+      <c r="AU120" s="2"/>
+      <c r="AV120" s="18"/>
+      <c r="AW120" s="18"/>
+      <c r="AX120" s="18"/>
+      <c r="AY120" s="18"/>
+      <c r="AZ120" s="18"/>
+      <c r="BA120" s="18"/>
+      <c r="BB120" s="18"/>
+      <c r="BC120" s="18"/>
+      <c r="BD120" s="18"/>
     </row>
-    <row r="121" spans="1:56" ht="14.25" customHeight="1">
+    <row r="121" spans="1:56">
       <c r="A121" s="35">
-        <f t="shared" ref="A121:A125" ca="1" si="253">MAX(OFFSET(A121,-4,0,4,1))+1</f>
+        <f t="shared" ca="1" si="233"/>
         <v>113</v>
       </c>
       <c r="B121" s="40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="H121" s="40">
+        <v>15</v>
+      </c>
+      <c r="I121" s="40">
+        <v>127</v>
+      </c>
+      <c r="J121" s="40">
         <v>50</v>
       </c>
-      <c r="I121" s="40">
-        <v>210</v>
-      </c>
-      <c r="J121" s="40">
-        <v>2</v>
-      </c>
       <c r="L121" s="40">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="M121" s="40">
         <v>255</v>
@@ -17022,46 +17034,45 @@
         <v>0</v>
       </c>
       <c r="Q121" s="40" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R121" s="40" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="S121" s="40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T121" s="40">
         <f t="shared" ca="1" si="234"/>
         <v>113</v>
       </c>
-      <c r="U121" s="15"/>
       <c r="V121" s="2" t="str">
         <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_SIMPLE_RAIN         (113U)    // Tyчкa в банке</v>
+        <v>#define EFF_TORNADO             (113U)    // Торнадо</v>
       </c>
       <c r="W121" s="2" t="str">
-        <f t="shared" ref="W121:W125" ca="1" si="254">CONCATENATE("String(""",A121,". ",C121,",",L121,",",M121,",",N121,",",O121,",",P121,";"") +")</f>
-        <v>String("113. Tyчкa в банке,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="236"/>
+        <v>String("113. Торнадо,1,255,1,100,0;") +</v>
       </c>
       <c r="X121" s="2" t="str">
-        <f t="shared" ref="X121:X125" ca="1" si="255">CONCATENATE("String(""",A121,". ",D121,",",L121,",",M121,",",N121,",",O121,",",P121,";"") +")</f>
-        <v>String("113. ,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="237"/>
+        <v>String("113. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y121" s="2" t="str">
-        <f t="shared" ref="Y121:Y125" ca="1" si="256">CONCATENATE("String(""",A121,". ",E121,",",L121,",",M121,",",N121,",",O121,",",P121,";"") +")</f>
-        <v>String("113. ,99,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="238"/>
+        <v>String("113. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z121" s="2" t="str">
         <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  50, 210,   2}, // Tyчкa в банке</v>
+        <v xml:space="preserve">  {  15, 127,  50}, // Торнадо</v>
       </c>
       <c r="AA121" s="2" t="str">
         <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_SIMPLE_RAIN:         DYNAMIC_DELAY_TICK { effTimer = millis(); simpleRain();                 Eff_Tick (); }  break;  // (113U) Tyчкa в банке</v>
+        <v xml:space="preserve">        case EFF_TORNADO:             LOW_DELAY_TICK { effTimer = millis(); Tornado();                    Eff_Tick (); }  break;  // (113U) Торнадо</v>
       </c>
       <c r="AB121" s="2" t="str">
-        <f ca="1">CONCATENATE("{""name"":""",A121,". ",C121,""",""spmin"":",L121,",""spmax"":",M121,",""scmin"":",N121,",""scmax"":",O121,",""type"":",P121,"},")</f>
-        <v>{"name":"113. Tyчкa в банке","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="251"/>
+        <v>{"name":"113. Торнадо","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC121" s="4" t="str">
         <f t="shared" ca="1" si="241"/>
@@ -17073,95 +17084,76 @@
       </c>
       <c r="AE121" s="4" t="str">
         <f t="shared" ca="1" si="243"/>
-        <v>"e113":4,</v>
+        <v>"e113":2,</v>
       </c>
       <c r="AF121" s="2" t="str">
-        <f t="shared" ca="1" si="252"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e113","title":"113. Tyчкa в банке","style":"font-size:20px;display:block","state":"{{e113}}"},</v>
+        <f t="shared" ref="AF121:AF126" ca="1" si="252">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T121,""",""title"":""",A121,". ",C121,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T121,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e113","title":"113. Торнадо","style":"font-size:20px;display:block","state":"{{e113}}"},</v>
       </c>
       <c r="AG121" s="2" t="str">
         <f t="shared" ca="1" si="245"/>
-        <v>{"type":"h4","title":"113. Tyчкa в банке","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e113","state":"{{e113}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"113. Торнадо","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e113","state":"{{e113}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH121" s="2" t="str">
         <f t="shared" ca="1" si="246"/>
-        <v>"113": "113.Tyчкa в банке",</v>
+        <v>"113": "113.Торнадо",</v>
       </c>
       <c r="AI121" s="16" t="str">
         <f t="shared" ca="1" si="247"/>
         <v>"113":"113",</v>
       </c>
       <c r="AJ121" s="2" t="str">
-        <f t="shared" ref="AJ121:AJ125" ca="1" si="257">CONCATENATE(A121,". ",C121,",",L121,",",M121,",",N121,",",O121,",",P121,";")</f>
-        <v>113. Tyчкa в банке,99,255,1,100,0;</v>
+        <f t="shared" ca="1" si="248"/>
+        <v>113. Торнадо,1,255,1,100,0;</v>
       </c>
       <c r="AK121" s="2" t="str">
         <f t="shared" ca="1" si="249"/>
-        <v>113.Tyчкa в банке</v>
-      </c>
-      <c r="AL121" s="2"/>
-      <c r="AM121" s="2"/>
-      <c r="AN121" s="17"/>
-      <c r="AO121" s="2"/>
-      <c r="AP121" s="2"/>
-      <c r="AQ121" s="2"/>
-      <c r="AR121" s="2"/>
-      <c r="AS121" s="16"/>
-      <c r="AT121" s="2"/>
-      <c r="AU121" s="2"/>
-      <c r="AV121" s="18"/>
-      <c r="AW121" s="18"/>
-      <c r="AX121" s="18"/>
-      <c r="AY121" s="18"/>
-      <c r="AZ121" s="18"/>
-      <c r="BA121" s="18"/>
-      <c r="BB121" s="18"/>
-      <c r="BC121" s="18"/>
-      <c r="BD121" s="18"/>
+        <v>113.Торнадо</v>
+      </c>
     </row>
     <row r="122" spans="1:56" ht="14.25" customHeight="1">
       <c r="A122" s="35">
-        <f t="shared" ca="1" si="253"/>
+        <f t="shared" ref="A122:A126" ca="1" si="253">MAX(OFFSET(A122,-4,0,4,1))+1</f>
         <v>114</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H122" s="40">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I122" s="40">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="J122" s="40">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="L122" s="40">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="M122" s="40">
         <v>255</v>
       </c>
       <c r="N122" s="40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O122" s="40">
         <v>100</v>
       </c>
       <c r="P122" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q122" s="40" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="R122" s="40" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="S122" s="40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T122" s="40">
         <f t="shared" ca="1" si="234"/>
@@ -17170,31 +17162,31 @@
       <c r="U122" s="15"/>
       <c r="V122" s="2" t="str">
         <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_FIREWORK            (114U)    // Фейерверк</v>
+        <v>#define EFF_SIMPLE_RAIN         (114U)    // Tyчкa в банке</v>
       </c>
       <c r="W122" s="2" t="str">
-        <f t="shared" ca="1" si="254"/>
-        <v>String("114. Фейерверк,10,255,10,100,1;") +</v>
+        <f t="shared" ref="W122:W126" ca="1" si="254">CONCATENATE("String(""",A122,". ",C122,",",L122,",",M122,",",N122,",",O122,",",P122,";"") +")</f>
+        <v>String("114. Tyчкa в банке,99,255,1,100,0;") +</v>
       </c>
       <c r="X122" s="2" t="str">
-        <f t="shared" ca="1" si="255"/>
-        <v>String("114. ,10,255,10,100,1;") +</v>
+        <f t="shared" ref="X122:X126" ca="1" si="255">CONCATENATE("String(""",A122,". ",D122,",",L122,",",M122,",",N122,",",O122,",",P122,";"") +")</f>
+        <v>String("114. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Y122" s="2" t="str">
-        <f t="shared" ca="1" si="256"/>
-        <v>String("114. ,10,255,10,100,1;") +</v>
+        <f t="shared" ref="Y122:Y126" ca="1" si="256">CONCATENATE("String(""",A122,". ",E122,",",L122,",",M122,",",N122,",",O122,",",P122,";"") +")</f>
+        <v>String("114. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Z122" s="2" t="str">
         <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  25, 180,  70}, // Фейерверк</v>
+        <v xml:space="preserve">  {  50, 210,   2}, // Tyчкa в банке</v>
       </c>
       <c r="AA122" s="2" t="str">
         <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_FIREWORK:            SOFT_DELAY_TICK { effTimer = millis(); Firework();                   Eff_Tick (); }  break;  // (114U) Фейерверк</v>
+        <v xml:space="preserve">        case EFF_SIMPLE_RAIN:         DYNAMIC_DELAY_TICK { effTimer = millis(); simpleRain();                 Eff_Tick (); }  break;  // (114U) Tyчкa в банке</v>
       </c>
       <c r="AB122" s="2" t="str">
         <f ca="1">CONCATENATE("{""name"":""",A122,". ",C122,""",""spmin"":",L122,",""spmax"":",M122,",""scmin"":",N122,",""scmax"":",O122,",""type"":",P122,"},")</f>
-        <v>{"name":"114. Фейерверк","spmin":10,"spmax":255,"scmin":10,"scmax":100,"type":1},</v>
+        <v>{"name":"114. Tyчкa в банке","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC122" s="4" t="str">
         <f t="shared" ca="1" si="241"/>
@@ -17206,31 +17198,31 @@
       </c>
       <c r="AE122" s="4" t="str">
         <f t="shared" ca="1" si="243"/>
-        <v>"e114":2,</v>
+        <v>"e114":4,</v>
       </c>
       <c r="AF122" s="2" t="str">
         <f t="shared" ca="1" si="252"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e114","title":"114. Фейерверк","style":"font-size:20px;display:block","state":"{{e114}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e114","title":"114. Tyчкa в банке","style":"font-size:20px;display:block","state":"{{e114}}"},</v>
       </c>
       <c r="AG122" s="2" t="str">
         <f t="shared" ca="1" si="245"/>
-        <v>{"type":"h4","title":"114. Фейерверк","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e114","state":"{{e114}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"114. Tyчкa в банке","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e114","state":"{{e114}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH122" s="2" t="str">
         <f t="shared" ca="1" si="246"/>
-        <v>"114": "114.Фейерверк",</v>
+        <v>"114": "114.Tyчкa в банке",</v>
       </c>
       <c r="AI122" s="16" t="str">
         <f t="shared" ca="1" si="247"/>
         <v>"114":"114",</v>
       </c>
       <c r="AJ122" s="2" t="str">
-        <f t="shared" ca="1" si="257"/>
-        <v>114. Фейерверк,10,255,10,100,1;</v>
+        <f t="shared" ref="AJ122:AJ126" ca="1" si="257">CONCATENATE(A122,". ",C122,",",L122,",",M122,",",N122,",",O122,",",P122,";")</f>
+        <v>114. Tyчкa в банке,99,255,1,100,0;</v>
       </c>
       <c r="AK122" s="2" t="str">
         <f t="shared" ca="1" si="249"/>
-        <v>114.Фейерверк</v>
+        <v>114.Tyчкa в банке</v>
       </c>
       <c r="AL122" s="2"/>
       <c r="AM122" s="2"/>
@@ -17253,81 +17245,81 @@
       <c r="BD122" s="18"/>
     </row>
     <row r="123" spans="1:56" ht="14.25" customHeight="1">
-      <c r="A123" s="39">
+      <c r="A123" s="35">
         <f t="shared" ca="1" si="253"/>
         <v>115</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="H123" s="43">
-        <v>15</v>
+        <v>343</v>
+      </c>
+      <c r="H123" s="40">
+        <v>25</v>
       </c>
       <c r="I123" s="40">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="J123" s="40">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L123" s="40">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="M123" s="40">
         <v>255</v>
       </c>
       <c r="N123" s="40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O123" s="40">
         <v>100</v>
       </c>
       <c r="P123" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q123" s="40" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="R123" s="40" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="S123" s="40">
         <v>2</v>
       </c>
-      <c r="T123" s="43">
+      <c r="T123" s="40">
         <f t="shared" ca="1" si="234"/>
         <v>115</v>
       </c>
       <c r="U123" s="15"/>
       <c r="V123" s="2" t="str">
         <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_FIREWORK_2          (115U)    // Фейерверк 2</v>
+        <v>#define EFF_FIREWORK            (115U)    // Фейерверк</v>
       </c>
       <c r="W123" s="2" t="str">
         <f t="shared" ca="1" si="254"/>
-        <v>String("115. Фейерверк 2,200,255,1,100,0;") +</v>
+        <v>String("115. Фейерверк,10,255,10,100,1;") +</v>
       </c>
       <c r="X123" s="2" t="str">
         <f t="shared" ca="1" si="255"/>
-        <v>String("115. ,200,255,1,100,0;") +</v>
+        <v>String("115. ,10,255,10,100,1;") +</v>
       </c>
       <c r="Y123" s="2" t="str">
         <f t="shared" ca="1" si="256"/>
-        <v>String("115. ,200,255,1,100,0;") +</v>
+        <v>String("115. ,10,255,10,100,1;") +</v>
       </c>
       <c r="Z123" s="2" t="str">
         <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  15, 240,  75}, // Фейерверк 2</v>
+        <v xml:space="preserve">  {  25, 180,  70}, // Фейерверк</v>
       </c>
       <c r="AA123" s="2" t="str">
         <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_FIREWORK_2:          DYNAMIC_DELAY_TICK { effTimer = millis(); fireworksRoutine();           Eff_Tick (); }  break;  // (115U) Фейерверк 2</v>
+        <v xml:space="preserve">        case EFF_FIREWORK:            SOFT_DELAY_TICK { effTimer = millis(); Firework();                   Eff_Tick (); }  break;  // (115U) Фейерверк</v>
       </c>
       <c r="AB123" s="2" t="str">
-        <f t="shared" ref="AB123" ca="1" si="258">CONCATENATE("{""name"":""",A123,". ",C123,""",""spmin"":",L123,",""spmax"":",M123,",""scmin"":",N123,",""scmax"":",O123,",""type"":",P123,"}")</f>
-        <v>{"name":"115. Фейерверк 2","spmin":200,"spmax":255,"scmin":1,"scmax":100,"type":0}</v>
+        <f ca="1">CONCATENATE("{""name"":""",A123,". ",C123,""",""spmin"":",L123,",""spmax"":",M123,",""scmin"":",N123,",""scmax"":",O123,",""type"":",P123,"},")</f>
+        <v>{"name":"115. Фейерверк","spmin":10,"spmax":255,"scmin":10,"scmax":100,"type":1},</v>
       </c>
       <c r="AC123" s="4" t="str">
         <f t="shared" ca="1" si="241"/>
@@ -17343,15 +17335,15 @@
       </c>
       <c r="AF123" s="2" t="str">
         <f t="shared" ca="1" si="252"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e115","title":"115. Фейерверк 2","style":"font-size:20px;display:block","state":"{{e115}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e115","title":"115. Фейерверк","style":"font-size:20px;display:block","state":"{{e115}}"},</v>
       </c>
       <c r="AG123" s="2" t="str">
         <f t="shared" ca="1" si="245"/>
-        <v>{"type":"h4","title":"115. Фейерверк 2","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e115","state":"{{e115}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"115. Фейерверк","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e115","state":"{{e115}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH123" s="2" t="str">
         <f t="shared" ca="1" si="246"/>
-        <v>"115": "115.Фейерверк 2",</v>
+        <v>"115": "115.Фейерверк",</v>
       </c>
       <c r="AI123" s="16" t="str">
         <f t="shared" ca="1" si="247"/>
@@ -17359,11 +17351,11 @@
       </c>
       <c r="AJ123" s="2" t="str">
         <f t="shared" ca="1" si="257"/>
-        <v>115. Фейерверк 2,200,255,1,100,0;</v>
+        <v>115. Фейерверк,10,255,10,100,1;</v>
       </c>
       <c r="AK123" s="2" t="str">
         <f t="shared" ca="1" si="249"/>
-        <v>115.Фейерверк 2</v>
+        <v>115.Фейерверк</v>
       </c>
       <c r="AL123" s="2"/>
       <c r="AM123" s="2"/>
@@ -17386,27 +17378,27 @@
       <c r="BD123" s="18"/>
     </row>
     <row r="124" spans="1:56" ht="14.25" customHeight="1">
-      <c r="A124" s="35">
+      <c r="A124" s="39">
         <f t="shared" ca="1" si="253"/>
         <v>116</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>351</v>
-      </c>
-      <c r="H124" s="40">
-        <v>20</v>
+        <v>346</v>
+      </c>
+      <c r="H124" s="43">
+        <v>15</v>
       </c>
       <c r="I124" s="40">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="J124" s="40">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L124" s="40">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="M124" s="40">
         <v>255</v>
@@ -17421,46 +17413,46 @@
         <v>0</v>
       </c>
       <c r="Q124" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R124" s="40" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="S124" s="40">
         <v>2</v>
       </c>
-      <c r="T124" s="40">
+      <c r="T124" s="43">
         <f t="shared" ca="1" si="234"/>
         <v>116</v>
       </c>
       <c r="U124" s="15"/>
       <c r="V124" s="2" t="str">
         <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_FAIRY               (116U)    // Фея</v>
+        <v>#define EFF_FIREWORK_2          (116U)    // Фейерверк 2</v>
       </c>
       <c r="W124" s="2" t="str">
         <f t="shared" ca="1" si="254"/>
-        <v>String("116. Фея,99,255,1,100,0;") +</v>
+        <v>String("116. Фейерверк 2,200,255,1,100,0;") +</v>
       </c>
       <c r="X124" s="2" t="str">
         <f t="shared" ca="1" si="255"/>
-        <v>String("116. ,99,255,1,100,0;") +</v>
+        <v>String("116. ,200,255,1,100,0;") +</v>
       </c>
       <c r="Y124" s="2" t="str">
         <f t="shared" ca="1" si="256"/>
-        <v>String("116. ,99,255,1,100,0;") +</v>
+        <v>String("116. ,200,255,1,100,0;") +</v>
       </c>
       <c r="Z124" s="2" t="str">
         <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  20, 212,  85}, // Фея</v>
+        <v xml:space="preserve">  {  15, 240,  75}, // Фейерверк 2</v>
       </c>
       <c r="AA124" s="2" t="str">
         <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_FAIRY:               DYNAMIC_DELAY_TICK { effTimer = millis(); fairyRoutine();               Eff_Tick (); }  break;  // (116U) Фея</v>
+        <v xml:space="preserve">        case EFF_FIREWORK_2:          DYNAMIC_DELAY_TICK { effTimer = millis(); fireworksRoutine();           Eff_Tick (); }  break;  // (116U) Фейерверк 2</v>
       </c>
       <c r="AB124" s="2" t="str">
-        <f t="shared" ref="AB124:AB125" ca="1" si="259">CONCATENATE("{""name"":""",A124,". ",C124,""",""spmin"":",L124,",""spmax"":",M124,",""scmin"":",N124,",""scmax"":",O124,",""type"":",P124,"},")</f>
-        <v>{"name":"116. Фея","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ref="AB124" ca="1" si="258">CONCATENATE("{""name"":""",A124,". ",C124,""",""spmin"":",L124,",""spmax"":",M124,",""scmin"":",N124,",""scmax"":",O124,",""type"":",P124,"}")</f>
+        <v>{"name":"116. Фейерверк 2","spmin":200,"spmax":255,"scmin":1,"scmax":100,"type":0}</v>
       </c>
       <c r="AC124" s="4" t="str">
         <f t="shared" ca="1" si="241"/>
@@ -17476,15 +17468,15 @@
       </c>
       <c r="AF124" s="2" t="str">
         <f t="shared" ca="1" si="252"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e116","title":"116. Фея","style":"font-size:20px;display:block","state":"{{e116}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e116","title":"116. Фейерверк 2","style":"font-size:20px;display:block","state":"{{e116}}"},</v>
       </c>
       <c r="AG124" s="2" t="str">
         <f t="shared" ca="1" si="245"/>
-        <v>{"type":"h4","title":"116. Фея","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e116","state":"{{e116}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"116. Фейерверк 2","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e116","state":"{{e116}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH124" s="2" t="str">
         <f t="shared" ca="1" si="246"/>
-        <v>"116": "116.Фея",</v>
+        <v>"116": "116.Фейерверк 2",</v>
       </c>
       <c r="AI124" s="16" t="str">
         <f t="shared" ca="1" si="247"/>
@@ -17492,11 +17484,11 @@
       </c>
       <c r="AJ124" s="2" t="str">
         <f t="shared" ca="1" si="257"/>
-        <v>116. Фея,99,255,1,100,0;</v>
+        <v>116. Фейерверк 2,200,255,1,100,0;</v>
       </c>
       <c r="AK124" s="2" t="str">
         <f t="shared" ca="1" si="249"/>
-        <v>116.Фея</v>
+        <v>116.Фейерверк 2</v>
       </c>
       <c r="AL124" s="2"/>
       <c r="AM124" s="2"/>
@@ -17518,28 +17510,28 @@
       <c r="BC124" s="18"/>
       <c r="BD124" s="18"/>
     </row>
-    <row r="125" spans="1:56">
+    <row r="125" spans="1:56" ht="14.25" customHeight="1">
       <c r="A125" s="35">
         <f t="shared" ca="1" si="253"/>
         <v>117</v>
       </c>
       <c r="B125" s="40" t="s">
-        <v>435</v>
+        <v>348</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>431</v>
+        <v>349</v>
       </c>
       <c r="H125" s="40">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I125" s="40">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="J125" s="40">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L125" s="40">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M125" s="40">
         <v>255</v>
@@ -17551,13 +17543,13 @@
         <v>100</v>
       </c>
       <c r="P125" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R125" s="40" t="s">
-        <v>434</v>
+        <v>350</v>
       </c>
       <c r="S125" s="40">
         <v>2</v>
@@ -17566,33 +17558,34 @@
         <f t="shared" ca="1" si="234"/>
         <v>117</v>
       </c>
+      <c r="U125" s="15"/>
       <c r="V125" s="2" t="str">
         <f t="shared" ca="1" si="235"/>
-        <v>#define EFF_FONTAN              (117U)    // Фонтан</v>
+        <v>#define EFF_FAIRY               (117U)    // Фея</v>
       </c>
       <c r="W125" s="2" t="str">
         <f t="shared" ca="1" si="254"/>
-        <v>String("117. Фонтан,1,255,1,100,1;") +</v>
+        <v>String("117. Фея,99,255,1,100,0;") +</v>
       </c>
       <c r="X125" s="2" t="str">
         <f t="shared" ca="1" si="255"/>
-        <v>String("117. ,1,255,1,100,1;") +</v>
+        <v>String("117. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Y125" s="2" t="str">
         <f t="shared" ca="1" si="256"/>
-        <v>String("117. ,1,255,1,100,1;") +</v>
+        <v>String("117. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Z125" s="2" t="str">
         <f t="shared" si="239"/>
-        <v xml:space="preserve">  {  40, 250,  75}, // Фонтан</v>
+        <v xml:space="preserve">  {  20, 212,  85}, // Фея</v>
       </c>
       <c r="AA125" s="2" t="str">
         <f t="shared" ca="1" si="240"/>
-        <v xml:space="preserve">        case EFF_FONTAN:              DYNAMIC_DELAY_TICK { effTimer = millis(); Fountain();                   Eff_Tick (); }  break;  // (117U) Фонтан</v>
+        <v xml:space="preserve">        case EFF_FAIRY:               DYNAMIC_DELAY_TICK { effTimer = millis(); fairyRoutine();               Eff_Tick (); }  break;  // (117U) Фея</v>
       </c>
       <c r="AB125" s="2" t="str">
-        <f t="shared" ca="1" si="259"/>
-        <v>{"name":"117. Фонтан","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
+        <f t="shared" ref="AB125:AB126" ca="1" si="259">CONCATENATE("{""name"":""",A125,". ",C125,""",""spmin"":",L125,",""spmax"":",M125,",""scmin"":",N125,",""scmax"":",O125,",""type"":",P125,"},")</f>
+        <v>{"name":"117. Фея","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC125" s="4" t="str">
         <f t="shared" ca="1" si="241"/>
@@ -17608,15 +17601,15 @@
       </c>
       <c r="AF125" s="2" t="str">
         <f t="shared" ca="1" si="252"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e117","title":"117. Фонтан","style":"font-size:20px;display:block","state":"{{e117}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e117","title":"117. Фея","style":"font-size:20px;display:block","state":"{{e117}}"},</v>
       </c>
       <c r="AG125" s="2" t="str">
         <f t="shared" ca="1" si="245"/>
-        <v>{"type":"h4","title":"117. Фонтан","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e117","state":"{{e117}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"117. Фея","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e117","state":"{{e117}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH125" s="2" t="str">
         <f t="shared" ca="1" si="246"/>
-        <v>"117": "117.Фонтан",</v>
+        <v>"117": "117.Фея",</v>
       </c>
       <c r="AI125" s="16" t="str">
         <f t="shared" ca="1" si="247"/>
@@ -17624,32 +17617,51 @@
       </c>
       <c r="AJ125" s="2" t="str">
         <f t="shared" ca="1" si="257"/>
-        <v>117. Фонтан,1,255,1,100,1;</v>
+        <v>117. Фея,99,255,1,100,0;</v>
       </c>
       <c r="AK125" s="2" t="str">
         <f t="shared" ca="1" si="249"/>
-        <v>117.Фонтан</v>
-      </c>
+        <v>117.Фея</v>
+      </c>
+      <c r="AL125" s="2"/>
+      <c r="AM125" s="2"/>
+      <c r="AN125" s="17"/>
+      <c r="AO125" s="2"/>
+      <c r="AP125" s="2"/>
+      <c r="AQ125" s="2"/>
+      <c r="AR125" s="2"/>
+      <c r="AS125" s="16"/>
+      <c r="AT125" s="2"/>
+      <c r="AU125" s="2"/>
+      <c r="AV125" s="18"/>
+      <c r="AW125" s="18"/>
+      <c r="AX125" s="18"/>
+      <c r="AY125" s="18"/>
+      <c r="AZ125" s="18"/>
+      <c r="BA125" s="18"/>
+      <c r="BB125" s="18"/>
+      <c r="BC125" s="18"/>
+      <c r="BD125" s="18"/>
     </row>
-    <row r="126" spans="1:56" ht="14.25" customHeight="1">
+    <row r="126" spans="1:56">
       <c r="A126" s="35">
-        <f t="shared" ref="A126:A134" ca="1" si="260">MAX(OFFSET(A126,-4,0,4,1))+1</f>
+        <f t="shared" ca="1" si="253"/>
         <v>118</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>353</v>
+        <v>430</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>354</v>
+        <v>426</v>
       </c>
       <c r="H126" s="40">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I126" s="40">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="J126" s="40">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L126" s="40">
         <v>1</v>
@@ -17664,131 +17676,111 @@
         <v>100</v>
       </c>
       <c r="P126" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q126" s="40" t="s">
-        <v>388</v>
+        <v>42</v>
       </c>
       <c r="R126" s="40" t="s">
-        <v>355</v>
+        <v>429</v>
       </c>
       <c r="S126" s="40">
         <v>2</v>
       </c>
       <c r="T126" s="40">
-        <f ca="1">MAX(OFFSET(T126,-4,0,4,1))+1</f>
+        <f t="shared" ca="1" si="234"/>
         <v>118</v>
       </c>
-      <c r="U126" s="15"/>
       <c r="V126" s="2" t="str">
-        <f ca="1">CONCATENATE("#define EFF_",B126,REPT(" ",20-LEN(B126)),"(",REPT(" ",3-LEN(T126)),T126,"U)    // ",C126)</f>
-        <v>#define EFF_COLOR               (118U)    // Цвет</v>
+        <f t="shared" ca="1" si="235"/>
+        <v>#define EFF_FONTAN              (118U)    // Фонтан</v>
       </c>
       <c r="W126" s="2" t="str">
-        <f ca="1">CONCATENATE("String(""",A126,". ",C126,",",L126,",",M126,",",N126,",",O126,",",P126,";"") +")</f>
-        <v>String("118. Цвет,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="254"/>
+        <v>String("118. Фонтан,1,255,1,100,1;") +</v>
       </c>
       <c r="X126" s="2" t="str">
-        <f ca="1">CONCATENATE("String(""",A126,". ",D126,",",L126,",",M126,",",N126,",",O126,",",P126,";"") +")</f>
-        <v>String("118. ,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="255"/>
+        <v>String("118. ,1,255,1,100,1;") +</v>
       </c>
       <c r="Y126" s="2" t="str">
-        <f ca="1">CONCATENATE("String(""",A126,". ",E126,",",L126,",",M126,",",N126,",",O126,",",P126,";"") +")</f>
-        <v>String("118. ,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="256"/>
+        <v>String("118. ,1,255,1,100,1;") +</v>
       </c>
       <c r="Z126" s="2" t="str">
-        <f>CONCATENATE("  {",REPT(" ",4-LEN(H126)),H126,",",REPT(" ",4-LEN(I126)),I126,",",REPT(" ",4-LEN(J126)),J126,"}, // ",C126)</f>
-        <v xml:space="preserve">  {  20, 240,  65}, // Цвет</v>
+        <f t="shared" si="239"/>
+        <v xml:space="preserve">  {  40, 250,  75}, // Фонтан</v>
       </c>
       <c r="AA126" s="2" t="str">
-        <f ca="1">CONCATENATE("        case EFF_",B126,":",REPT(" ",20-LEN(B126)),Q126," { effTimer = millis(); ",R126,REPT(" ",30-LEN(R126)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T126)),T126,"U) ",C126)</f>
-        <v xml:space="preserve">        case EFF_COLOR:               LOW_DELAY_TICK  { effTimer = millis(); colorRoutine();               Eff_Tick (); }  break;  // (118U) Цвет</v>
+        <f t="shared" ca="1" si="240"/>
+        <v xml:space="preserve">        case EFF_FONTAN:              DYNAMIC_DELAY_TICK { effTimer = millis(); Fountain();                   Eff_Tick (); }  break;  // (118U) Фонтан</v>
       </c>
       <c r="AB126" s="2" t="str">
-        <f ca="1">CONCATENATE("{""name"":""",A126,". ",C126,""",""spmin"":",L126,",""spmax"":",M126,",""scmin"":",N126,",""scmax"":",O126,",""type"":",P126,"},")</f>
-        <v>{"name":"118. Цвет","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="259"/>
+        <v>{"name":"118. Фонтан","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
       </c>
       <c r="AC126" s="4" t="str">
-        <f ca="1">CONCATENATE("""","e",T126,"""",":0,")</f>
+        <f t="shared" ca="1" si="241"/>
         <v>"e118":0,</v>
       </c>
       <c r="AD126" s="4" t="str">
-        <f ca="1">CONCATENATE("e",T126,"=[[e",T126,"]]&amp;")</f>
+        <f t="shared" ca="1" si="242"/>
         <v>e118=[[e118]]&amp;</v>
       </c>
       <c r="AE126" s="4" t="str">
-        <f ca="1">CONCATENATE("""","e",T126,"""",":",S126,",")</f>
+        <f t="shared" ca="1" si="243"/>
         <v>"e118":2,</v>
       </c>
       <c r="AF126" s="2" t="str">
-        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T126,""",""title"":""",A126,". ",C126,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T126,"}}""},")</f>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e118","title":"118. Цвет","style":"font-size:20px;display:block","state":"{{e118}}"},</v>
+        <f t="shared" ca="1" si="252"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e118","title":"118. Фонтан","style":"font-size:20px;display:block","state":"{{e118}}"},</v>
       </c>
       <c r="AG126" s="2" t="str">
-        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A126,". ",C126,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T126,""",""state"":""{{e",T126,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
-        <v>{"type":"h4","title":"118. Цвет","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e118","state":"{{e118}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="245"/>
+        <v>{"type":"h4","title":"118. Фонтан","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e118","state":"{{e118}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH126" s="2" t="str">
-        <f ca="1">CONCATENATE("""",A126,"""",": """,A126,".",C126,""",")</f>
-        <v>"118": "118.Цвет",</v>
+        <f t="shared" ca="1" si="246"/>
+        <v>"118": "118.Фонтан",</v>
       </c>
       <c r="AI126" s="16" t="str">
-        <f ca="1">CONCATENATE("""",A126,"""",":""",T126,""",")</f>
+        <f t="shared" ca="1" si="247"/>
         <v>"118":"118",</v>
       </c>
       <c r="AJ126" s="2" t="str">
-        <f ca="1">CONCATENATE(A126,". ",C126,",",L126,",",M126,",",N126,",",O126,",",P126,";")</f>
-        <v>118. Цвет,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="257"/>
+        <v>118. Фонтан,1,255,1,100,1;</v>
       </c>
       <c r="AK126" s="2" t="str">
-        <f t="shared" ref="AK126:AK134" ca="1" si="261">CONCATENATE("",A126,"",".",C126,"")</f>
-        <v>118.Цвет</v>
-      </c>
-      <c r="AL126" s="2"/>
-      <c r="AM126" s="2"/>
-      <c r="AN126" s="17"/>
-      <c r="AO126" s="2"/>
-      <c r="AP126" s="2"/>
-      <c r="AQ126" s="2"/>
-      <c r="AR126" s="2"/>
-      <c r="AS126" s="16"/>
-      <c r="AT126" s="2"/>
-      <c r="AU126" s="2"/>
-      <c r="AV126" s="18"/>
-      <c r="AW126" s="18"/>
-      <c r="AX126" s="18"/>
-      <c r="AY126" s="18"/>
-      <c r="AZ126" s="18"/>
-      <c r="BA126" s="18"/>
-      <c r="BB126" s="18"/>
-      <c r="BC126" s="18"/>
-      <c r="BD126" s="18"/>
+        <f t="shared" ca="1" si="249"/>
+        <v>118.Фонтан</v>
+      </c>
     </row>
-    <row r="127" spans="1:56">
+    <row r="127" spans="1:56" ht="14.25" customHeight="1">
       <c r="A127" s="35">
-        <f t="shared" ca="1" si="260"/>
+        <f t="shared" ref="A127:A135" ca="1" si="260">MAX(OFFSET(A127,-4,0,4,1))+1</f>
         <v>119</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="H127" s="40">
         <v>20</v>
       </c>
       <c r="I127" s="40">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="J127" s="40">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="L127" s="40">
         <v>1</v>
       </c>
       <c r="M127" s="40">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="N127" s="40">
         <v>1</v>
@@ -17797,111 +17789,131 @@
         <v>100</v>
       </c>
       <c r="P127" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q127" s="40" t="s">
-        <v>81</v>
+        <v>386</v>
       </c>
       <c r="R127" s="40" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="S127" s="40">
         <v>2</v>
       </c>
       <c r="T127" s="40">
-        <f t="shared" ref="T127" ca="1" si="262">MAX(OFFSET(T127,-4,0,4,1))+1</f>
+        <f ca="1">MAX(OFFSET(T127,-4,0,4,1))+1</f>
         <v>119</v>
       </c>
+      <c r="U127" s="15"/>
       <c r="V127" s="2" t="str">
-        <f t="shared" ref="V127" ca="1" si="263">CONCATENATE("#define EFF_",B127,REPT(" ",20-LEN(B127)),"(",REPT(" ",3-LEN(T127)),T127,"U)    // ",C127)</f>
-        <v>#define EFF_EFF_COLORED_PYTHON  (119U)    // Цветной Питон</v>
+        <f ca="1">CONCATENATE("#define EFF_",B127,REPT(" ",20-LEN(B127)),"(",REPT(" ",3-LEN(T127)),T127,"U)    // ",C127)</f>
+        <v>#define EFF_COLOR               (119U)    // Цвет</v>
       </c>
       <c r="W127" s="2" t="str">
         <f ca="1">CONCATENATE("String(""",A127,". ",C127,",",L127,",",M127,",",N127,",",O127,",",P127,";"") +")</f>
-        <v>String("119. Цветной Питон,1,240,1,100,1;") +</v>
+        <v>String("119. Цвет,1,255,1,100,0;") +</v>
       </c>
       <c r="X127" s="2" t="str">
         <f ca="1">CONCATENATE("String(""",A127,". ",D127,",",L127,",",M127,",",N127,",",O127,",",P127,";"") +")</f>
-        <v>String("119. ,1,240,1,100,1;") +</v>
+        <v>String("119. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y127" s="2" t="str">
         <f ca="1">CONCATENATE("String(""",A127,". ",E127,",",L127,",",M127,",",N127,",",O127,",",P127,";"") +")</f>
-        <v>String("119. ,1,240,1,100,1;") +</v>
+        <v>String("119. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z127" s="2" t="str">
-        <f t="shared" ref="Z127" si="264">CONCATENATE("  {",REPT(" ",4-LEN(H127)),H127,",",REPT(" ",4-LEN(I127)),I127,",",REPT(" ",4-LEN(J127)),J127,"}, // ",C127)</f>
-        <v xml:space="preserve">  {  20, 127,  92}, // Цветной Питон</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H127)),H127,",",REPT(" ",4-LEN(I127)),I127,",",REPT(" ",4-LEN(J127)),J127,"}, // ",C127)</f>
+        <v xml:space="preserve">  {  20, 240,  65}, // Цвет</v>
       </c>
       <c r="AA127" s="2" t="str">
-        <f t="shared" ref="AA127" ca="1" si="265">CONCATENATE("        case EFF_",B127,":",REPT(" ",20-LEN(B127)),Q127," { effTimer = millis(); ",R127,REPT(" ",30-LEN(R127)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T127)),T127,"U) ",C127)</f>
-        <v xml:space="preserve">        case EFF_EFF_COLORED_PYTHON : LOW_DELAY_TICK { effTimer = millis(); Colored_Python();             Eff_Tick (); }  break;  // (119U) Цветной Питон</v>
+        <f ca="1">CONCATENATE("        case EFF_",B127,":",REPT(" ",20-LEN(B127)),Q127," { effTimer = millis(); ",R127,REPT(" ",30-LEN(R127)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T127)),T127,"U) ",C127)</f>
+        <v xml:space="preserve">        case EFF_COLOR:               LOW_DELAY_TICK  { effTimer = millis(); colorRoutine();               Eff_Tick (); }  break;  // (119U) Цвет</v>
       </c>
       <c r="AB127" s="2" t="str">
         <f ca="1">CONCATENATE("{""name"":""",A127,". ",C127,""",""spmin"":",L127,",""spmax"":",M127,",""scmin"":",N127,",""scmax"":",O127,",""type"":",P127,"},")</f>
-        <v>{"name":"119. Цветной Питон","spmin":1,"spmax":240,"scmin":1,"scmax":100,"type":1},</v>
+        <v>{"name":"119. Цвет","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC127" s="4" t="str">
-        <f t="shared" ref="AC127" ca="1" si="266">CONCATENATE("""","e",T127,"""",":0,")</f>
+        <f ca="1">CONCATENATE("""","e",T127,"""",":0,")</f>
         <v>"e119":0,</v>
       </c>
       <c r="AD127" s="4" t="str">
-        <f t="shared" ref="AD127" ca="1" si="267">CONCATENATE("e",T127,"=[[e",T127,"]]&amp;")</f>
+        <f ca="1">CONCATENATE("e",T127,"=[[e",T127,"]]&amp;")</f>
         <v>e119=[[e119]]&amp;</v>
       </c>
       <c r="AE127" s="4" t="str">
-        <f t="shared" ref="AE127" ca="1" si="268">CONCATENATE("""","e",T127,"""",":",S127,",")</f>
+        <f ca="1">CONCATENATE("""","e",T127,"""",":",S127,",")</f>
         <v>"e119":2,</v>
       </c>
       <c r="AF127" s="2" t="str">
         <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T127,""",""title"":""",A127,". ",C127,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T127,"}}""},")</f>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e119","title":"119. Цветной Питон","style":"font-size:20px;display:block","state":"{{e119}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e119","title":"119. Цвет","style":"font-size:20px;display:block","state":"{{e119}}"},</v>
       </c>
       <c r="AG127" s="2" t="str">
-        <f t="shared" ref="AG127" ca="1" si="269">CONCATENATE("{""type"":""h4"",""title"":""",A127,". ",C127,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T127,""",""state"":""{{e",T127,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
-        <v>{"type":"h4","title":"119. Цветной Питон","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e119","state":"{{e119}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A127,". ",C127,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T127,""",""state"":""{{e",T127,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"119. Цвет","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e119","state":"{{e119}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH127" s="2" t="str">
-        <f t="shared" ref="AH127:AH131" ca="1" si="270">CONCATENATE("""",A127,"""",": """,A127,".",C127,""",")</f>
-        <v>"119": "119.Цветной Питон",</v>
+        <f ca="1">CONCATENATE("""",A127,"""",": """,A127,".",C127,""",")</f>
+        <v>"119": "119.Цвет",</v>
       </c>
       <c r="AI127" s="16" t="str">
-        <f t="shared" ref="AI127" ca="1" si="271">CONCATENATE("""",A127,"""",":""",T127,""",")</f>
+        <f ca="1">CONCATENATE("""",A127,"""",":""",T127,""",")</f>
         <v>"119":"119",</v>
       </c>
       <c r="AJ127" s="2" t="str">
         <f ca="1">CONCATENATE(A127,". ",C127,",",L127,",",M127,",",N127,",",O127,",",P127,";")</f>
-        <v>119. Цветной Питон,1,240,1,100,1;</v>
+        <v>119. Цвет,1,255,1,100,0;</v>
       </c>
       <c r="AK127" s="2" t="str">
-        <f t="shared" ca="1" si="261"/>
-        <v>119.Цветной Питон</v>
-      </c>
+        <f t="shared" ref="AK127:AK135" ca="1" si="261">CONCATENATE("",A127,"",".",C127,"")</f>
+        <v>119.Цвет</v>
+      </c>
+      <c r="AL127" s="2"/>
+      <c r="AM127" s="2"/>
+      <c r="AN127" s="17"/>
+      <c r="AO127" s="2"/>
+      <c r="AP127" s="2"/>
+      <c r="AQ127" s="2"/>
+      <c r="AR127" s="2"/>
+      <c r="AS127" s="16"/>
+      <c r="AT127" s="2"/>
+      <c r="AU127" s="2"/>
+      <c r="AV127" s="18"/>
+      <c r="AW127" s="18"/>
+      <c r="AX127" s="18"/>
+      <c r="AY127" s="18"/>
+      <c r="AZ127" s="18"/>
+      <c r="BA127" s="18"/>
+      <c r="BB127" s="18"/>
+      <c r="BC127" s="18"/>
+      <c r="BD127" s="18"/>
     </row>
-    <row r="128" spans="1:56" ht="14.25" customHeight="1">
+    <row r="128" spans="1:56">
       <c r="A128" s="35">
         <f t="shared" ca="1" si="260"/>
         <v>120</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="H128" s="40">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I128" s="40">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="J128" s="40">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="L128" s="40">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="M128" s="40">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="N128" s="40">
         <v>1</v>
@@ -17910,105 +17922,85 @@
         <v>100</v>
       </c>
       <c r="P128" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q128" s="40" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R128" s="40" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="S128" s="40">
         <v>2</v>
       </c>
       <c r="T128" s="40">
-        <f t="shared" ref="T128:T131" ca="1" si="272">MAX(OFFSET(T128,-4,0,4,1))+1</f>
+        <f t="shared" ref="T128" ca="1" si="262">MAX(OFFSET(T128,-4,0,4,1))+1</f>
         <v>120</v>
       </c>
-      <c r="U128" s="15"/>
       <c r="V128" s="2" t="str">
-        <f t="shared" ref="V128:V131" ca="1" si="273">CONCATENATE("#define EFF_",B128,REPT(" ",20-LEN(B128)),"(",REPT(" ",3-LEN(T128)),T128,"U)    // ",C128)</f>
-        <v>#define EFF_EFF_SAND            (120U)    // Цветные драже</v>
+        <f t="shared" ref="V128" ca="1" si="263">CONCATENATE("#define EFF_",B128,REPT(" ",20-LEN(B128)),"(",REPT(" ",3-LEN(T128)),T128,"U)    // ",C128)</f>
+        <v>#define EFF_EFF_COLORED_PYTHON  (120U)    // Цветной Питон</v>
       </c>
       <c r="W128" s="2" t="str">
-        <f t="shared" ref="W128:W131" ca="1" si="274">CONCATENATE("String(""",A128,". ",C128,",",L128,",",M128,",",N128,",",O128,",",P128,";"") +")</f>
-        <v>String("120. Цветные драже,99,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A128,". ",C128,",",L128,",",M128,",",N128,",",O128,",",P128,";"") +")</f>
+        <v>String("120. Цветной Питон,1,240,1,100,1;") +</v>
       </c>
       <c r="X128" s="2" t="str">
-        <f t="shared" ref="X128:X131" ca="1" si="275">CONCATENATE("String(""",A128,". ",D128,",",L128,",",M128,",",N128,",",O128,",",P128,";"") +")</f>
-        <v>String("120. ,99,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A128,". ",D128,",",L128,",",M128,",",N128,",",O128,",",P128,";"") +")</f>
+        <v>String("120. ,1,240,1,100,1;") +</v>
       </c>
       <c r="Y128" s="2" t="str">
-        <f t="shared" ref="Y128:Y131" ca="1" si="276">CONCATENATE("String(""",A128,". ",E128,",",L128,",",M128,",",N128,",",O128,",",P128,";"") +")</f>
-        <v>String("120. ,99,255,1,100,0;") +</v>
+        <f ca="1">CONCATENATE("String(""",A128,". ",E128,",",L128,",",M128,",",N128,",",O128,",",P128,";"") +")</f>
+        <v>String("120. ,1,240,1,100,1;") +</v>
       </c>
       <c r="Z128" s="2" t="str">
-        <f t="shared" ref="Z128:Z131" si="277">CONCATENATE("  {",REPT(" ",4-LEN(H128)),H128,",",REPT(" ",4-LEN(I128)),I128,",",REPT(" ",4-LEN(J128)),J128,"}, // ",C128)</f>
-        <v xml:space="preserve">  {  15, 195,  80}, // Цветные драже</v>
+        <f t="shared" ref="Z128" si="264">CONCATENATE("  {",REPT(" ",4-LEN(H128)),H128,",",REPT(" ",4-LEN(I128)),I128,",",REPT(" ",4-LEN(J128)),J128,"}, // ",C128)</f>
+        <v xml:space="preserve">  {  20, 127,  92}, // Цветной Питон</v>
       </c>
       <c r="AA128" s="2" t="str">
-        <f t="shared" ref="AA128:AA131" ca="1" si="278">CONCATENATE("        case EFF_",B128,":",REPT(" ",20-LEN(B128)),Q128," { effTimer = millis(); ",R128,REPT(" ",30-LEN(R128)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T128)),T128,"U) ",C128)</f>
-        <v xml:space="preserve">        case EFF_EFF_SAND:            DYNAMIC_DELAY_TICK { effTimer = millis(); sandRoutine();                Eff_Tick (); }  break;  // (120U) Цветные драже</v>
+        <f t="shared" ref="AA128" ca="1" si="265">CONCATENATE("        case EFF_",B128,":",REPT(" ",20-LEN(B128)),Q128," { effTimer = millis(); ",R128,REPT(" ",30-LEN(R128)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T128)),T128,"U) ",C128)</f>
+        <v xml:space="preserve">        case EFF_EFF_COLORED_PYTHON : LOW_DELAY_TICK { effTimer = millis(); Colored_Python();             Eff_Tick (); }  break;  // (120U) Цветной Питон</v>
       </c>
       <c r="AB128" s="2" t="str">
-        <f t="shared" ref="AB128:AB131" ca="1" si="279">CONCATENATE("{""name"":""",A128,". ",C128,""",""spmin"":",L128,",""spmax"":",M128,",""scmin"":",N128,",""scmax"":",O128,",""type"":",P128,"},")</f>
-        <v>{"name":"120. Цветные драже","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f ca="1">CONCATENATE("{""name"":""",A128,". ",C128,""",""spmin"":",L128,",""spmax"":",M128,",""scmin"":",N128,",""scmax"":",O128,",""type"":",P128,"},")</f>
+        <v>{"name":"120. Цветной Питон","spmin":1,"spmax":240,"scmin":1,"scmax":100,"type":1},</v>
       </c>
       <c r="AC128" s="4" t="str">
-        <f t="shared" ref="AC128:AC131" ca="1" si="280">CONCATENATE("""","e",T128,"""",":0,")</f>
+        <f t="shared" ref="AC128" ca="1" si="266">CONCATENATE("""","e",T128,"""",":0,")</f>
         <v>"e120":0,</v>
       </c>
       <c r="AD128" s="4" t="str">
-        <f t="shared" ref="AD128:AD131" ca="1" si="281">CONCATENATE("e",T128,"=[[e",T128,"]]&amp;")</f>
+        <f t="shared" ref="AD128" ca="1" si="267">CONCATENATE("e",T128,"=[[e",T128,"]]&amp;")</f>
         <v>e120=[[e120]]&amp;</v>
       </c>
       <c r="AE128" s="4" t="str">
-        <f t="shared" ref="AE128:AE131" ca="1" si="282">CONCATENATE("""","e",T128,"""",":",S128,",")</f>
+        <f t="shared" ref="AE128" ca="1" si="268">CONCATENATE("""","e",T128,"""",":",S128,",")</f>
         <v>"e120":2,</v>
       </c>
       <c r="AF128" s="2" t="str">
-        <f t="shared" ref="AF128:AF131" ca="1" si="283">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T128,""",""title"":""",A128,". ",C128,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T128,"}}""},")</f>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e120","title":"120. Цветные драже","style":"font-size:20px;display:block","state":"{{e120}}"},</v>
+        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T128,""",""title"":""",A128,". ",C128,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T128,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e120","title":"120. Цветной Питон","style":"font-size:20px;display:block","state":"{{e120}}"},</v>
       </c>
       <c r="AG128" s="2" t="str">
-        <f t="shared" ref="AG128:AG131" ca="1" si="284">CONCATENATE("{""type"":""h4"",""title"":""",A128,". ",C128,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T128,""",""state"":""{{e",T128,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
-        <v>{"type":"h4","title":"120. Цветные драже","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e120","state":"{{e120}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ref="AG128" ca="1" si="269">CONCATENATE("{""type"":""h4"",""title"":""",A128,". ",C128,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T128,""",""state"":""{{e",T128,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"120. Цветной Питон","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e120","state":"{{e120}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH128" s="2" t="str">
-        <f t="shared" ca="1" si="270"/>
-        <v>"120": "120.Цветные драже",</v>
+        <f t="shared" ref="AH128:AH132" ca="1" si="270">CONCATENATE("""",A128,"""",": """,A128,".",C128,""",")</f>
+        <v>"120": "120.Цветной Питон",</v>
       </c>
       <c r="AI128" s="16" t="str">
-        <f t="shared" ref="AI128:AI131" ca="1" si="285">CONCATENATE("""",A128,"""",":""",T128,""",")</f>
+        <f t="shared" ref="AI128" ca="1" si="271">CONCATENATE("""",A128,"""",":""",T128,""",")</f>
         <v>"120":"120",</v>
       </c>
       <c r="AJ128" s="2" t="str">
-        <f t="shared" ref="AJ128:AJ131" ca="1" si="286">CONCATENATE(A128,". ",C128,",",L128,",",M128,",",N128,",",O128,",",P128,";")</f>
-        <v>120. Цветные драже,99,255,1,100,0;</v>
+        <f ca="1">CONCATENATE(A128,". ",C128,",",L128,",",M128,",",N128,",",O128,",",P128,";")</f>
+        <v>120. Цветной Питон,1,240,1,100,1;</v>
       </c>
       <c r="AK128" s="2" t="str">
         <f t="shared" ca="1" si="261"/>
-        <v>120.Цветные драже</v>
-      </c>
-      <c r="AL128" s="2"/>
-      <c r="AM128" s="2"/>
-      <c r="AN128" s="17"/>
-      <c r="AO128" s="2"/>
-      <c r="AP128" s="2"/>
-      <c r="AQ128" s="2"/>
-      <c r="AR128" s="2"/>
-      <c r="AS128" s="16"/>
-      <c r="AT128" s="2"/>
-      <c r="AU128" s="2"/>
-      <c r="AV128" s="18"/>
-      <c r="AW128" s="18"/>
-      <c r="AX128" s="18"/>
-      <c r="AY128" s="18"/>
-      <c r="AZ128" s="18"/>
-      <c r="BA128" s="18"/>
-      <c r="BB128" s="18"/>
-      <c r="BC128" s="18"/>
-      <c r="BD128" s="18"/>
+        <v>120.Цветной Питон</v>
+      </c>
     </row>
     <row r="129" spans="1:56" ht="14.25" customHeight="1">
       <c r="A129" s="35">
@@ -18016,112 +18008,112 @@
         <v>121</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H129" s="40">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I129" s="40">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="J129" s="40">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L129" s="40">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="M129" s="40">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="N129" s="40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O129" s="40">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P129" s="40">
         <v>0</v>
       </c>
       <c r="Q129" s="40" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="R129" s="40" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="S129" s="40">
         <v>2</v>
       </c>
       <c r="T129" s="40">
-        <f t="shared" ca="1" si="272"/>
+        <f t="shared" ref="T129:T132" ca="1" si="272">MAX(OFFSET(T129,-4,0,4,1))+1</f>
         <v>121</v>
       </c>
       <c r="U129" s="15"/>
       <c r="V129" s="2" t="str">
-        <f t="shared" ca="1" si="273"/>
-        <v>#define EFF_COLOR_FRIZZLES      (121U)    // Цветные кудри</v>
+        <f t="shared" ref="V129:V132" ca="1" si="273">CONCATENATE("#define EFF_",B129,REPT(" ",20-LEN(B129)),"(",REPT(" ",3-LEN(T129)),T129,"U)    // ",C129)</f>
+        <v>#define EFF_EFF_SAND            (121U)    // Цветные драже</v>
       </c>
       <c r="W129" s="2" t="str">
-        <f t="shared" ca="1" si="274"/>
-        <v>String("121. Цветные кудри,128,128,10,90,0;") +</v>
+        <f t="shared" ref="W129:W132" ca="1" si="274">CONCATENATE("String(""",A129,". ",C129,",",L129,",",M129,",",N129,",",O129,",",P129,";"") +")</f>
+        <v>String("121. Цветные драже,99,255,1,100,0;") +</v>
       </c>
       <c r="X129" s="2" t="str">
-        <f t="shared" ca="1" si="275"/>
-        <v>String("121. ,128,128,10,90,0;") +</v>
+        <f t="shared" ref="X129:X132" ca="1" si="275">CONCATENATE("String(""",A129,". ",D129,",",L129,",",M129,",",N129,",",O129,",",P129,";"") +")</f>
+        <v>String("121. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Y129" s="2" t="str">
-        <f t="shared" ca="1" si="276"/>
-        <v>String("121. ,128,128,10,90,0;") +</v>
+        <f t="shared" ref="Y129:Y132" ca="1" si="276">CONCATENATE("String(""",A129,". ",E129,",",L129,",",M129,",",N129,",",O129,",",P129,";"") +")</f>
+        <v>String("121. ,99,255,1,100,0;") +</v>
       </c>
       <c r="Z129" s="2" t="str">
-        <f t="shared" si="277"/>
-        <v xml:space="preserve">  {  25, 128,  60}, // Цветные кудри</v>
+        <f t="shared" ref="Z129:Z132" si="277">CONCATENATE("  {",REPT(" ",4-LEN(H129)),H129,",",REPT(" ",4-LEN(I129)),I129,",",REPT(" ",4-LEN(J129)),J129,"}, // ",C129)</f>
+        <v xml:space="preserve">  {  15, 195,  80}, // Цветные драже</v>
       </c>
       <c r="AA129" s="2" t="str">
-        <f t="shared" ca="1" si="278"/>
-        <v xml:space="preserve">        case EFF_COLOR_FRIZZLES:      SOFT_DELAY_TICK { effTimer = millis(); ColorFrizzles();              Eff_Tick (); }  break;  // (121U) Цветные кудри</v>
+        <f t="shared" ref="AA129:AA132" ca="1" si="278">CONCATENATE("        case EFF_",B129,":",REPT(" ",20-LEN(B129)),Q129," { effTimer = millis(); ",R129,REPT(" ",30-LEN(R129)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T129)),T129,"U) ",C129)</f>
+        <v xml:space="preserve">        case EFF_EFF_SAND:            DYNAMIC_DELAY_TICK { effTimer = millis(); sandRoutine();                Eff_Tick (); }  break;  // (121U) Цветные драже</v>
       </c>
       <c r="AB129" s="2" t="str">
-        <f t="shared" ca="1" si="279"/>
-        <v>{"name":"121. Цветные кудри","spmin":128,"spmax":128,"scmin":10,"scmax":90,"type":0},</v>
+        <f t="shared" ref="AB129:AB132" ca="1" si="279">CONCATENATE("{""name"":""",A129,". ",C129,""",""spmin"":",L129,",""spmax"":",M129,",""scmin"":",N129,",""scmax"":",O129,",""type"":",P129,"},")</f>
+        <v>{"name":"121. Цветные драже","spmin":99,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC129" s="4" t="str">
-        <f t="shared" ca="1" si="280"/>
+        <f t="shared" ref="AC129:AC132" ca="1" si="280">CONCATENATE("""","e",T129,"""",":0,")</f>
         <v>"e121":0,</v>
       </c>
       <c r="AD129" s="4" t="str">
-        <f t="shared" ca="1" si="281"/>
+        <f t="shared" ref="AD129:AD132" ca="1" si="281">CONCATENATE("e",T129,"=[[e",T129,"]]&amp;")</f>
         <v>e121=[[e121]]&amp;</v>
       </c>
       <c r="AE129" s="4" t="str">
-        <f t="shared" ca="1" si="282"/>
+        <f t="shared" ref="AE129:AE132" ca="1" si="282">CONCATENATE("""","e",T129,"""",":",S129,",")</f>
         <v>"e121":2,</v>
       </c>
       <c r="AF129" s="2" t="str">
-        <f t="shared" ca="1" si="283"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e121","title":"121. Цветные кудри","style":"font-size:20px;display:block","state":"{{e121}}"},</v>
+        <f t="shared" ref="AF129:AF132" ca="1" si="283">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T129,""",""title"":""",A129,". ",C129,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T129,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e121","title":"121. Цветные драже","style":"font-size:20px;display:block","state":"{{e121}}"},</v>
       </c>
       <c r="AG129" s="2" t="str">
-        <f t="shared" ca="1" si="284"/>
-        <v>{"type":"h4","title":"121. Цветные кудри","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e121","state":"{{e121}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ref="AG129:AG132" ca="1" si="284">CONCATENATE("{""type"":""h4"",""title"":""",A129,". ",C129,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T129,""",""state"":""{{e",T129,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"121. Цветные драже","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e121","state":"{{e121}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH129" s="2" t="str">
         <f t="shared" ca="1" si="270"/>
-        <v>"121": "121.Цветные кудри",</v>
+        <v>"121": "121.Цветные драже",</v>
       </c>
       <c r="AI129" s="16" t="str">
-        <f t="shared" ca="1" si="285"/>
+        <f t="shared" ref="AI129:AI132" ca="1" si="285">CONCATENATE("""",A129,"""",":""",T129,""",")</f>
         <v>"121":"121",</v>
       </c>
       <c r="AJ129" s="2" t="str">
-        <f t="shared" ca="1" si="286"/>
-        <v>121. Цветные кудри,128,128,10,90,0;</v>
+        <f t="shared" ref="AJ129:AJ132" ca="1" si="286">CONCATENATE(A129,". ",C129,",",L129,",",M129,",",N129,",",O129,",",P129,";")</f>
+        <v>121. Цветные драже,99,255,1,100,0;</v>
       </c>
       <c r="AK129" s="2" t="str">
         <f t="shared" ca="1" si="261"/>
-        <v>121.Цветные кудри</v>
+        <v>121.Цветные драже</v>
       </c>
       <c r="AL129" s="2"/>
       <c r="AM129" s="2"/>
@@ -18149,40 +18141,40 @@
         <v>122</v>
       </c>
       <c r="B130" s="40" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C130" s="40" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H130" s="40">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I130" s="40">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="J130" s="40">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="L130" s="40">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="M130" s="40">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="N130" s="40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O130" s="40">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P130" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q130" s="40" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="R130" s="40" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="S130" s="40">
         <v>2</v>
@@ -18194,31 +18186,31 @@
       <c r="U130" s="15"/>
       <c r="V130" s="2" t="str">
         <f t="shared" ca="1" si="273"/>
-        <v>#define EFF_EFF_LOTUS           (122U)    // Цветок лотоса</v>
+        <v>#define EFF_COLOR_FRIZZLES      (122U)    // Цветные кудри</v>
       </c>
       <c r="W130" s="2" t="str">
         <f t="shared" ca="1" si="274"/>
-        <v>String("122. Цветок лотоса,50,255,1,100,1;") +</v>
+        <v>String("122. Цветные кудри,128,128,10,90,0;") +</v>
       </c>
       <c r="X130" s="2" t="str">
         <f t="shared" ca="1" si="275"/>
-        <v>String("122. ,50,255,1,100,1;") +</v>
+        <v>String("122. ,128,128,10,90,0;") +</v>
       </c>
       <c r="Y130" s="2" t="str">
         <f t="shared" ca="1" si="276"/>
-        <v>String("122. ,50,255,1,100,1;") +</v>
+        <v>String("122. ,128,128,10,90,0;") +</v>
       </c>
       <c r="Z130" s="2" t="str">
         <f t="shared" si="277"/>
-        <v xml:space="preserve">  {  15, 150,  45}, // Цветок лотоса</v>
+        <v xml:space="preserve">  {  25, 128,  60}, // Цветные кудри</v>
       </c>
       <c r="AA130" s="2" t="str">
         <f t="shared" ca="1" si="278"/>
-        <v xml:space="preserve">        case EFF_EFF_LOTUS:           DYNAMIC_DELAY_TICK { effTimer = millis(); LotusFlower();                Eff_Tick (); }  break;  // (122U) Цветок лотоса</v>
+        <v xml:space="preserve">        case EFF_COLOR_FRIZZLES:      SOFT_DELAY_TICK { effTimer = millis(); ColorFrizzles();              Eff_Tick (); }  break;  // (122U) Цветные кудри</v>
       </c>
       <c r="AB130" s="2" t="str">
         <f t="shared" ca="1" si="279"/>
-        <v>{"name":"122. Цветок лотоса","spmin":50,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
+        <v>{"name":"122. Цветные кудри","spmin":128,"spmax":128,"scmin":10,"scmax":90,"type":0},</v>
       </c>
       <c r="AC130" s="4" t="str">
         <f t="shared" ca="1" si="280"/>
@@ -18234,15 +18226,15 @@
       </c>
       <c r="AF130" s="2" t="str">
         <f t="shared" ca="1" si="283"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e122","title":"122. Цветок лотоса","style":"font-size:20px;display:block","state":"{{e122}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e122","title":"122. Цветные кудри","style":"font-size:20px;display:block","state":"{{e122}}"},</v>
       </c>
       <c r="AG130" s="2" t="str">
         <f t="shared" ca="1" si="284"/>
-        <v>{"type":"h4","title":"122. Цветок лотоса","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e122","state":"{{e122}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"122. Цветные кудри","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e122","state":"{{e122}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH130" s="2" t="str">
         <f t="shared" ca="1" si="270"/>
-        <v>"122": "122.Цветок лотоса",</v>
+        <v>"122": "122.Цветные кудри",</v>
       </c>
       <c r="AI130" s="16" t="str">
         <f t="shared" ca="1" si="285"/>
@@ -18250,11 +18242,11 @@
       </c>
       <c r="AJ130" s="2" t="str">
         <f t="shared" ca="1" si="286"/>
-        <v>122. Цветок лотоса,50,255,1,100,1;</v>
+        <v>122. Цветные кудри,128,128,10,90,0;</v>
       </c>
       <c r="AK130" s="2" t="str">
         <f t="shared" ca="1" si="261"/>
-        <v>122.Цветок лотоса</v>
+        <v>122.Цветные кудри</v>
       </c>
       <c r="AL130" s="2"/>
       <c r="AM130" s="2"/>
@@ -18276,28 +18268,28 @@
       <c r="BC130" s="18"/>
       <c r="BD130" s="18"/>
     </row>
-    <row r="131" spans="1:56">
+    <row r="131" spans="1:56" ht="14.25" customHeight="1">
       <c r="A131" s="35">
         <f t="shared" ca="1" si="260"/>
         <v>123</v>
       </c>
       <c r="B131" s="40" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="C131" s="40" t="s">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="H131" s="40">
         <v>15</v>
       </c>
       <c r="I131" s="40">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="J131" s="40">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L131" s="40">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M131" s="40">
         <v>255</v>
@@ -18309,13 +18301,13 @@
         <v>100</v>
       </c>
       <c r="P131" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q131" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R131" s="40" t="s">
-        <v>417</v>
+        <v>362</v>
       </c>
       <c r="S131" s="40">
         <v>2</v>
@@ -18324,33 +18316,34 @@
         <f t="shared" ca="1" si="272"/>
         <v>123</v>
       </c>
+      <c r="U131" s="15"/>
       <c r="V131" s="2" t="str">
         <f t="shared" ca="1" si="273"/>
-        <v>#define EFF_TURBULENCE          (123U)    // Цифровая турбулентность</v>
+        <v>#define EFF_EFF_LOTUS           (123U)    // Цветок лотоса</v>
       </c>
       <c r="W131" s="2" t="str">
         <f t="shared" ca="1" si="274"/>
-        <v>String("123. Цифровая турбулентность,1,255,1,100,0;") +</v>
+        <v>String("123. Цветок лотоса,50,255,1,100,1;") +</v>
       </c>
       <c r="X131" s="2" t="str">
         <f t="shared" ca="1" si="275"/>
-        <v>String("123. ,1,255,1,100,0;") +</v>
+        <v>String("123. ,50,255,1,100,1;") +</v>
       </c>
       <c r="Y131" s="2" t="str">
         <f t="shared" ca="1" si="276"/>
-        <v>String("123. ,1,255,1,100,0;") +</v>
+        <v>String("123. ,50,255,1,100,1;") +</v>
       </c>
       <c r="Z131" s="2" t="str">
         <f t="shared" si="277"/>
-        <v xml:space="preserve">  {  15, 215,  35}, // Цифровая турбулентность</v>
+        <v xml:space="preserve">  {  15, 150,  45}, // Цветок лотоса</v>
       </c>
       <c r="AA131" s="2" t="str">
         <f t="shared" ca="1" si="278"/>
-        <v xml:space="preserve">        case EFF_TURBULENCE:          DYNAMIC_DELAY_TICK { effTimer = millis(); Turbulence();                 Eff_Tick (); }  break;  // (123U) Цифровая турбулентность</v>
+        <v xml:space="preserve">        case EFF_EFF_LOTUS:           DYNAMIC_DELAY_TICK { effTimer = millis(); LotusFlower();                Eff_Tick (); }  break;  // (123U) Цветок лотоса</v>
       </c>
       <c r="AB131" s="2" t="str">
         <f t="shared" ca="1" si="279"/>
-        <v>{"name":"123. Цифровая турбулентность","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <v>{"name":"123. Цветок лотоса","spmin":50,"spmax":255,"scmin":1,"scmax":100,"type":1},</v>
       </c>
       <c r="AC131" s="4" t="str">
         <f t="shared" ca="1" si="280"/>
@@ -18366,15 +18359,15 @@
       </c>
       <c r="AF131" s="2" t="str">
         <f t="shared" ca="1" si="283"/>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e123","title":"123. Цифровая турбулентность","style":"font-size:20px;display:block","state":"{{e123}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e123","title":"123. Цветок лотоса","style":"font-size:20px;display:block","state":"{{e123}}"},</v>
       </c>
       <c r="AG131" s="2" t="str">
         <f t="shared" ca="1" si="284"/>
-        <v>{"type":"h4","title":"123. Цифровая турбулентность","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e123","state":"{{e123}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"123. Цветок лотоса","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e123","state":"{{e123}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH131" s="2" t="str">
         <f t="shared" ca="1" si="270"/>
-        <v>"123": "123.Цифровая турбулентность",</v>
+        <v>"123": "123.Цветок лотоса",</v>
       </c>
       <c r="AI131" s="16" t="str">
         <f t="shared" ca="1" si="285"/>
@@ -18382,32 +18375,51 @@
       </c>
       <c r="AJ131" s="2" t="str">
         <f t="shared" ca="1" si="286"/>
-        <v>123. Цифровая турбулентность,1,255,1,100,0;</v>
+        <v>123. Цветок лотоса,50,255,1,100,1;</v>
       </c>
       <c r="AK131" s="2" t="str">
         <f t="shared" ca="1" si="261"/>
-        <v>123.Цифровая турбулентность</v>
-      </c>
+        <v>123.Цветок лотоса</v>
+      </c>
+      <c r="AL131" s="2"/>
+      <c r="AM131" s="2"/>
+      <c r="AN131" s="17"/>
+      <c r="AO131" s="2"/>
+      <c r="AP131" s="2"/>
+      <c r="AQ131" s="2"/>
+      <c r="AR131" s="2"/>
+      <c r="AS131" s="16"/>
+      <c r="AT131" s="2"/>
+      <c r="AU131" s="2"/>
+      <c r="AV131" s="18"/>
+      <c r="AW131" s="18"/>
+      <c r="AX131" s="18"/>
+      <c r="AY131" s="18"/>
+      <c r="AZ131" s="18"/>
+      <c r="BA131" s="18"/>
+      <c r="BB131" s="18"/>
+      <c r="BC131" s="18"/>
+      <c r="BD131" s="18"/>
     </row>
-    <row r="132" spans="1:56" ht="14.25" customHeight="1">
+    <row r="132" spans="1:56">
       <c r="A132" s="35">
         <f t="shared" ca="1" si="260"/>
         <v>124</v>
       </c>
       <c r="B132" s="40" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="C132" s="40" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="H132" s="40">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I132" s="40">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c r="J132" s="40">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="L132" s="40">
         <v>1</v>
@@ -18425,102 +18437,82 @@
         <v>0</v>
       </c>
       <c r="Q132" s="40" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="R132" s="40" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="S132" s="40">
         <v>2</v>
       </c>
       <c r="T132" s="40">
-        <f ca="1">MAX(OFFSET(T132,-4,0,4,1))+1</f>
+        <f t="shared" ca="1" si="272"/>
         <v>124</v>
       </c>
-      <c r="U132" s="15"/>
       <c r="V132" s="2" t="str">
-        <f ca="1">CONCATENATE("#define EFF_",B132,REPT(" ",20-LEN(B132)),"(",REPT(" ",3-LEN(T132)),T132,"U)    // ",C132)</f>
-        <v>#define EFF_SPHERES             (124U)    // Шapы</v>
+        <f t="shared" ca="1" si="273"/>
+        <v>#define EFF_TURBULENCE          (124U)    // Цифровая турбулентность</v>
       </c>
       <c r="W132" s="2" t="str">
-        <f ca="1">CONCATENATE("String(""",A132,". ",C132,",",L132,",",M132,",",N132,",",O132,",",P132,";"") +")</f>
-        <v>String("124. Шapы,1,255,1,100,0;") +</v>
+        <f t="shared" ca="1" si="274"/>
+        <v>String("124. Цифровая турбулентность,1,255,1,100,0;") +</v>
       </c>
       <c r="X132" s="2" t="str">
-        <f ca="1">CONCATENATE("String(""",A132,". ",D132,",",L132,",",M132,",",N132,",",O132,",",P132,";"") +")</f>
+        <f t="shared" ca="1" si="275"/>
         <v>String("124. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Y132" s="2" t="str">
-        <f ca="1">CONCATENATE("String(""",A132,". ",E132,",",L132,",",M132,",",N132,",",O132,",",P132,";"") +")</f>
+        <f t="shared" ca="1" si="276"/>
         <v>String("124. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z132" s="2" t="str">
-        <f>CONCATENATE("  {",REPT(" ",4-LEN(H132)),H132,",",REPT(" ",4-LEN(I132)),I132,",",REPT(" ",4-LEN(J132)),J132,"}, // ",C132)</f>
-        <v xml:space="preserve">  {  20,  50,   5}, // Шapы</v>
+        <f t="shared" si="277"/>
+        <v xml:space="preserve">  {  15, 215,  35}, // Цифровая турбулентность</v>
       </c>
       <c r="AA132" s="2" t="str">
-        <f ca="1">CONCATENATE("        case EFF_",B132,":",REPT(" ",20-LEN(B132)),Q132," { effTimer = millis(); ",R132,REPT(" ",30-LEN(R132)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T132)),T132,"U) ",C132)</f>
-        <v xml:space="preserve">        case EFF_SPHERES:             LOW_DELAY_TICK { effTimer = millis(); spheresRoutine();             Eff_Tick (); }  break;  // (124U) Шapы</v>
+        <f t="shared" ca="1" si="278"/>
+        <v xml:space="preserve">        case EFF_TURBULENCE:          DYNAMIC_DELAY_TICK { effTimer = millis(); Turbulence();                 Eff_Tick (); }  break;  // (124U) Цифровая турбулентность</v>
       </c>
       <c r="AB132" s="2" t="str">
-        <f ca="1">CONCATENATE("{""name"":""",A132,". ",C132,""",""spmin"":",L132,",""spmax"":",M132,",""scmin"":",N132,",""scmax"":",O132,",""type"":",P132,"},")</f>
-        <v>{"name":"124. Шapы","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <f t="shared" ca="1" si="279"/>
+        <v>{"name":"124. Цифровая турбулентность","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC132" s="4" t="str">
-        <f ca="1">CONCATENATE("""","e",T132,"""",":0,")</f>
+        <f t="shared" ca="1" si="280"/>
         <v>"e124":0,</v>
       </c>
       <c r="AD132" s="4" t="str">
-        <f ca="1">CONCATENATE("e",T132,"=[[e",T132,"]]&amp;")</f>
+        <f t="shared" ca="1" si="281"/>
         <v>e124=[[e124]]&amp;</v>
       </c>
       <c r="AE132" s="4" t="str">
-        <f ca="1">CONCATENATE("""","e",T132,"""",":",S132,",")</f>
+        <f t="shared" ca="1" si="282"/>
         <v>"e124":2,</v>
       </c>
       <c r="AF132" s="2" t="str">
-        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T132,""",""title"":""",A132,". ",C132,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T132,"}}""},")</f>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e124","title":"124. Шapы","style":"font-size:20px;display:block","state":"{{e124}}"},</v>
+        <f t="shared" ca="1" si="283"/>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e124","title":"124. Цифровая турбулентность","style":"font-size:20px;display:block","state":"{{e124}}"},</v>
       </c>
       <c r="AG132" s="2" t="str">
-        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A132,". ",C132,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T132,""",""state"":""{{e",T132,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
-        <v>{"type":"h4","title":"124. Шapы","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e124","state":"{{e124}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <f t="shared" ca="1" si="284"/>
+        <v>{"type":"h4","title":"124. Цифровая турбулентность","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e124","state":"{{e124}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH132" s="2" t="str">
-        <f ca="1">CONCATENATE("""",A132,"""",": """,A132,".",C132,""",")</f>
-        <v>"124": "124.Шapы",</v>
+        <f t="shared" ca="1" si="270"/>
+        <v>"124": "124.Цифровая турбулентность",</v>
       </c>
       <c r="AI132" s="16" t="str">
-        <f ca="1">CONCATENATE("""",A132,"""",":""",T132,""",")</f>
+        <f t="shared" ca="1" si="285"/>
         <v>"124":"124",</v>
       </c>
       <c r="AJ132" s="2" t="str">
-        <f ca="1">CONCATENATE(A132,". ",C132,",",L132,",",M132,",",N132,",",O132,",",P132,";")</f>
-        <v>124. Шapы,1,255,1,100,0;</v>
+        <f t="shared" ca="1" si="286"/>
+        <v>124. Цифровая турбулентность,1,255,1,100,0;</v>
       </c>
       <c r="AK132" s="2" t="str">
         <f t="shared" ca="1" si="261"/>
-        <v>124.Шapы</v>
-      </c>
-      <c r="AL132" s="2"/>
-      <c r="AM132" s="2"/>
-      <c r="AN132" s="17"/>
-      <c r="AO132" s="2"/>
-      <c r="AP132" s="2"/>
-      <c r="AQ132" s="2"/>
-      <c r="AR132" s="2"/>
-      <c r="AS132" s="16"/>
-      <c r="AT132" s="2"/>
-      <c r="AU132" s="2"/>
-      <c r="AV132" s="18"/>
-      <c r="AW132" s="18"/>
-      <c r="AX132" s="18"/>
-      <c r="AY132" s="18"/>
-      <c r="AZ132" s="18"/>
-      <c r="BA132" s="18"/>
-      <c r="BB132" s="18"/>
-      <c r="BC132" s="18"/>
-      <c r="BD132" s="18"/>
+        <v>124.Цифровая турбулентность</v>
+      </c>
     </row>
     <row r="133" spans="1:56" ht="14.25" customHeight="1">
       <c r="A133" s="35">
@@ -18528,19 +18520,19 @@
         <v>125</v>
       </c>
       <c r="B133" s="40" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C133" s="40" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H133" s="40">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I133" s="40">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="J133" s="40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L133" s="40">
         <v>1</v>
@@ -18558,10 +18550,10 @@
         <v>0</v>
       </c>
       <c r="Q133" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R133" s="40" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="S133" s="40">
         <v>2</v>
@@ -18573,11 +18565,11 @@
       <c r="U133" s="15"/>
       <c r="V133" s="2" t="str">
         <f ca="1">CONCATENATE("#define EFF_",B133,REPT(" ",20-LEN(B133)),"(",REPT(" ",3-LEN(T133)),T133,"U)    // ",C133)</f>
-        <v>#define EFF_NEXUS               (125U)    // Nexus</v>
+        <v>#define EFF_SPHERES             (125U)    // Шapы</v>
       </c>
       <c r="W133" s="2" t="str">
         <f ca="1">CONCATENATE("String(""",A133,". ",C133,",",L133,",",M133,",",N133,",",O133,",",P133,";"") +")</f>
-        <v>String("125. Nexus,1,255,1,100,0;") +</v>
+        <v>String("125. Шapы,1,255,1,100,0;") +</v>
       </c>
       <c r="X133" s="2" t="str">
         <f ca="1">CONCATENATE("String(""",A133,". ",D133,",",L133,",",M133,",",N133,",",O133,",",P133,";"") +")</f>
@@ -18589,15 +18581,15 @@
       </c>
       <c r="Z133" s="2" t="str">
         <f>CONCATENATE("  {",REPT(" ",4-LEN(H133)),H133,",",REPT(" ",4-LEN(I133)),I133,",",REPT(" ",4-LEN(J133)),J133,"}, // ",C133)</f>
-        <v xml:space="preserve">  {  25,  85,  20}, // Nexus</v>
+        <v xml:space="preserve">  {  20,  50,   5}, // Шapы</v>
       </c>
       <c r="AA133" s="2" t="str">
         <f ca="1">CONCATENATE("        case EFF_",B133,":",REPT(" ",20-LEN(B133)),Q133," { effTimer = millis(); ",R133,REPT(" ",30-LEN(R133)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T133)),T133,"U) ",C133)</f>
-        <v xml:space="preserve">        case EFF_NEXUS:               LOW_DELAY_TICK { effTimer = millis(); nexusRoutine();               Eff_Tick (); }  break;  // (125U) Nexus</v>
+        <v xml:space="preserve">        case EFF_SPHERES:             LOW_DELAY_TICK { effTimer = millis(); spheresRoutine();             Eff_Tick (); }  break;  // (125U) Шapы</v>
       </c>
       <c r="AB133" s="2" t="str">
         <f ca="1">CONCATENATE("{""name"":""",A133,". ",C133,""",""spmin"":",L133,",""spmax"":",M133,",""scmin"":",N133,",""scmax"":",O133,",""type"":",P133,"},")</f>
-        <v>{"name":"125. Nexus","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <v>{"name":"125. Шapы","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC133" s="4" t="str">
         <f ca="1">CONCATENATE("""","e",T133,"""",":0,")</f>
@@ -18613,15 +18605,15 @@
       </c>
       <c r="AF133" s="2" t="str">
         <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T133,""",""title"":""",A133,". ",C133,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T133,"}}""},")</f>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e125","title":"125. Nexus","style":"font-size:20px;display:block","state":"{{e125}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e125","title":"125. Шapы","style":"font-size:20px;display:block","state":"{{e125}}"},</v>
       </c>
       <c r="AG133" s="2" t="str">
         <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A133,". ",C133,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T133,""",""state"":""{{e",T133,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
-        <v>{"type":"h4","title":"125. Nexus","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e125","state":"{{e125}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"125. Шapы","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e125","state":"{{e125}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH133" s="2" t="str">
         <f ca="1">CONCATENATE("""",A133,"""",": """,A133,".",C133,""",")</f>
-        <v>"125": "125.Nexus",</v>
+        <v>"125": "125.Шapы",</v>
       </c>
       <c r="AI133" s="16" t="str">
         <f ca="1">CONCATENATE("""",A133,"""",":""",T133,""",")</f>
@@ -18629,11 +18621,11 @@
       </c>
       <c r="AJ133" s="2" t="str">
         <f ca="1">CONCATENATE(A133,". ",C133,",",L133,",",M133,",",N133,",",O133,",",P133,";")</f>
-        <v>125. Nexus,1,255,1,100,0;</v>
+        <v>125. Шapы,1,255,1,100,0;</v>
       </c>
       <c r="AK133" s="2" t="str">
         <f t="shared" ca="1" si="261"/>
-        <v>125.Nexus</v>
+        <v>125.Шapы</v>
       </c>
       <c r="AL133" s="2"/>
       <c r="AM133" s="2"/>
@@ -18661,19 +18653,19 @@
         <v>126</v>
       </c>
       <c r="B134" s="40" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C134" s="40" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H134" s="40">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I134" s="40">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="J134" s="40">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L134" s="40">
         <v>1</v>
@@ -18691,13 +18683,13 @@
         <v>0</v>
       </c>
       <c r="Q134" s="40" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R134" s="40" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="S134" s="40">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T134" s="40">
         <f ca="1">MAX(OFFSET(T134,-4,0,4,1))+1</f>
@@ -18706,11 +18698,11 @@
       <c r="U134" s="15"/>
       <c r="V134" s="2" t="str">
         <f ca="1">CONCATENATE("#define EFF_",B134,REPT(" ",20-LEN(B134)),"(",REPT(" ",3-LEN(T134)),T134,"U)    // ",C134)</f>
-        <v>#define EFF_CLOCK               (126U)    // Часы</v>
+        <v>#define EFF_NEXUS               (126U)    // Nexus</v>
       </c>
       <c r="W134" s="2" t="str">
         <f ca="1">CONCATENATE("String(""",A134,". ",C134,",",L134,",",M134,",",N134,",",O134,",",P134,";"") +")</f>
-        <v>String("126. Часы,1,255,1,100,0;") +</v>
+        <v>String("126. Nexus,1,255,1,100,0;") +</v>
       </c>
       <c r="X134" s="2" t="str">
         <f ca="1">CONCATENATE("String(""",A134,". ",D134,",",L134,",",M134,",",N134,",",O134,",",P134,";"") +")</f>
@@ -18721,52 +18713,52 @@
         <v>String("126. ,1,255,1,100,0;") +</v>
       </c>
       <c r="Z134" s="2" t="str">
-        <f>CONCATENATE("  {",REPT(" ",4-LEN(H134)),H134,",",REPT(" ",4-LEN(I134)),I134,",",REPT(" ",4-LEN(J134)),J134,"}  // ",C134)</f>
-        <v xml:space="preserve">  {  30, 214,  80}  // Часы</v>
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H134)),H134,",",REPT(" ",4-LEN(I134)),I134,",",REPT(" ",4-LEN(J134)),J134,"}, // ",C134)</f>
+        <v xml:space="preserve">  {  25,  85,  20}, // Nexus</v>
       </c>
       <c r="AA134" s="2" t="str">
         <f ca="1">CONCATENATE("        case EFF_",B134,":",REPT(" ",20-LEN(B134)),Q134," { effTimer = millis(); ",R134,REPT(" ",30-LEN(R134)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T134)),T134,"U) ",C134)</f>
-        <v xml:space="preserve">        case EFF_CLOCK:               DYNAMIC_DELAY_TICK { effTimer = millis(); clockRoutine();               Eff_Tick (); }  break;  // (126U) Часы</v>
+        <v xml:space="preserve">        case EFF_NEXUS:               LOW_DELAY_TICK { effTimer = millis(); nexusRoutine();               Eff_Tick (); }  break;  // (126U) Nexus</v>
       </c>
       <c r="AB134" s="2" t="str">
         <f ca="1">CONCATENATE("{""name"":""",A134,". ",C134,""",""spmin"":",L134,",""spmax"":",M134,",""scmin"":",N134,",""scmax"":",O134,",""type"":",P134,"},")</f>
-        <v>{"name":"126. Часы","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+        <v>{"name":"126. Nexus","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
       </c>
       <c r="AC134" s="4" t="str">
-        <f ca="1">CONCATENATE("""","e",T134,"""",":0")</f>
-        <v>"e126":0</v>
+        <f ca="1">CONCATENATE("""","e",T134,"""",":0,")</f>
+        <v>"e126":0,</v>
       </c>
       <c r="AD134" s="4" t="str">
-        <f ca="1">CONCATENATE("e",T134,"=[[e",T134,"]]")</f>
-        <v>e126=[[e126]]</v>
+        <f ca="1">CONCATENATE("e",T134,"=[[e",T134,"]]&amp;")</f>
+        <v>e126=[[e126]]&amp;</v>
       </c>
       <c r="AE134" s="4" t="str">
-        <f ca="1">CONCATENATE("""","e",T134,"""",":",S134,"")</f>
-        <v>"e126":11</v>
+        <f ca="1">CONCATENATE("""","e",T134,"""",":",S134,",")</f>
+        <v>"e126":2,</v>
       </c>
       <c r="AF134" s="2" t="str">
         <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T134,""",""title"":""",A134,". ",C134,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T134,"}}""},")</f>
-        <v>{"type":"checkbox","class":"checkbox-big","name":"e126","title":"126. Часы","style":"font-size:20px;display:block","state":"{{e126}}"},</v>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e126","title":"126. Nexus","style":"font-size:20px;display:block","state":"{{e126}}"},</v>
       </c>
       <c r="AG134" s="2" t="str">
         <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A134,". ",C134,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T134,""",""state"":""{{e",T134,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
-        <v>{"type":"h4","title":"126. Часы","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e126","state":"{{e126}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+        <v>{"type":"h4","title":"126. Nexus","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e126","state":"{{e126}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
       </c>
       <c r="AH134" s="2" t="str">
-        <f ca="1">CONCATENATE("""",A134,"""",": """,A134,".",C134,"""")</f>
-        <v>"126": "126.Часы"</v>
+        <f ca="1">CONCATENATE("""",A134,"""",": """,A134,".",C134,""",")</f>
+        <v>"126": "126.Nexus",</v>
       </c>
       <c r="AI134" s="16" t="str">
-        <f ca="1">CONCATENATE("""",A134,"""",":""",T134,"""")</f>
-        <v>"126":"126"</v>
+        <f ca="1">CONCATENATE("""",A134,"""",":""",T134,""",")</f>
+        <v>"126":"126",</v>
       </c>
       <c r="AJ134" s="2" t="str">
         <f ca="1">CONCATENATE(A134,". ",C134,",",L134,",",M134,",",N134,",",O134,",",P134,";")</f>
-        <v>126. Часы,1,255,1,100,0;</v>
+        <v>126. Nexus,1,255,1,100,0;</v>
       </c>
       <c r="AK134" s="2" t="str">
         <f t="shared" ca="1" si="261"/>
-        <v>126.Часы</v>
+        <v>126.Nexus</v>
       </c>
       <c r="AL134" s="2"/>
       <c r="AM134" s="2"/>
@@ -18789,23 +18781,118 @@
       <c r="BD134" s="18"/>
     </row>
     <row r="135" spans="1:56" ht="14.25" customHeight="1">
+      <c r="A135" s="35">
+        <f t="shared" ca="1" si="260"/>
+        <v>127</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="C135" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="H135" s="40">
+        <v>30</v>
+      </c>
+      <c r="I135" s="40">
+        <v>214</v>
+      </c>
+      <c r="J135" s="40">
+        <v>80</v>
+      </c>
+      <c r="L135" s="40">
+        <v>1</v>
+      </c>
+      <c r="M135" s="40">
+        <v>255</v>
+      </c>
+      <c r="N135" s="40">
+        <v>1</v>
+      </c>
+      <c r="O135" s="40">
+        <v>100</v>
+      </c>
+      <c r="P135" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="R135" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="S135" s="40">
+        <v>11</v>
+      </c>
+      <c r="T135" s="40">
+        <f ca="1">MAX(OFFSET(T135,-4,0,4,1))+1</f>
+        <v>127</v>
+      </c>
       <c r="U135" s="15"/>
-      <c r="V135" s="2"/>
-      <c r="W135" s="2"/>
-      <c r="X135" s="2"/>
-      <c r="Y135" s="2"/>
-      <c r="Z135" s="2"/>
-      <c r="AA135" s="2"/>
-      <c r="AB135" s="2"/>
-      <c r="AC135" s="4"/>
-      <c r="AD135" s="4"/>
-      <c r="AE135" s="4"/>
-      <c r="AF135" s="2"/>
-      <c r="AG135" s="2"/>
-      <c r="AH135" s="2"/>
-      <c r="AI135" s="16"/>
-      <c r="AJ135" s="2"/>
-      <c r="AK135" s="2"/>
+      <c r="V135" s="2" t="str">
+        <f ca="1">CONCATENATE("#define EFF_",B135,REPT(" ",20-LEN(B135)),"(",REPT(" ",3-LEN(T135)),T135,"U)    // ",C135)</f>
+        <v>#define EFF_CLOCK               (127U)    // Часы</v>
+      </c>
+      <c r="W135" s="2" t="str">
+        <f ca="1">CONCATENATE("String(""",A135,". ",C135,",",L135,",",M135,",",N135,",",O135,",",P135,";"") +")</f>
+        <v>String("127. Часы,1,255,1,100,0;") +</v>
+      </c>
+      <c r="X135" s="2" t="str">
+        <f ca="1">CONCATENATE("String(""",A135,". ",D135,",",L135,",",M135,",",N135,",",O135,",",P135,";"") +")</f>
+        <v>String("127. ,1,255,1,100,0;") +</v>
+      </c>
+      <c r="Y135" s="2" t="str">
+        <f ca="1">CONCATENATE("String(""",A135,". ",E135,",",L135,",",M135,",",N135,",",O135,",",P135,";"") +")</f>
+        <v>String("127. ,1,255,1,100,0;") +</v>
+      </c>
+      <c r="Z135" s="2" t="str">
+        <f>CONCATENATE("  {",REPT(" ",4-LEN(H135)),H135,",",REPT(" ",4-LEN(I135)),I135,",",REPT(" ",4-LEN(J135)),J135,"}  // ",C135)</f>
+        <v xml:space="preserve">  {  30, 214,  80}  // Часы</v>
+      </c>
+      <c r="AA135" s="2" t="str">
+        <f ca="1">CONCATENATE("        case EFF_",B135,":",REPT(" ",20-LEN(B135)),Q135," { effTimer = millis(); ",R135,REPT(" ",30-LEN(R135)),"Eff_Tick (); }","  break;  // (",REPT(" ",3-LEN(T135)),T135,"U) ",C135)</f>
+        <v xml:space="preserve">        case EFF_CLOCK:               DYNAMIC_DELAY_TICK { effTimer = millis(); clockRoutine();               Eff_Tick (); }  break;  // (127U) Часы</v>
+      </c>
+      <c r="AB135" s="2" t="str">
+        <f ca="1">CONCATENATE("{""name"":""",A135,". ",C135,""",""spmin"":",L135,",""spmax"":",M135,",""scmin"":",N135,",""scmax"":",O135,",""type"":",P135,"},")</f>
+        <v>{"name":"127. Часы","spmin":1,"spmax":255,"scmin":1,"scmax":100,"type":0},</v>
+      </c>
+      <c r="AC135" s="4" t="str">
+        <f ca="1">CONCATENATE("""","e",T135,"""",":0")</f>
+        <v>"e127":0</v>
+      </c>
+      <c r="AD135" s="4" t="str">
+        <f ca="1">CONCATENATE("e",T135,"=[[e",T135,"]]")</f>
+        <v>e127=[[e127]]</v>
+      </c>
+      <c r="AE135" s="4" t="str">
+        <f ca="1">CONCATENATE("""","e",T135,"""",":",S135,"")</f>
+        <v>"e127":11</v>
+      </c>
+      <c r="AF135" s="2" t="str">
+        <f ca="1">CONCATENATE("{""type"":""checkbox"",""class"":""checkbox-big"",""name"":""e",T135,""",""title"":""",A135,". ",C135,""",""style"":""font-size:20px;display:block"",""state"":""{{e",T135,"}}""},")</f>
+        <v>{"type":"checkbox","class":"checkbox-big","name":"e127","title":"127. Часы","style":"font-size:20px;display:block","state":"{{e127}}"},</v>
+      </c>
+      <c r="AG135" s="2" t="str">
+        <f ca="1">CONCATENATE("{""type"":""h4"",""title"":""",A135,". ",C135,""",""style"":""width:85%;float:left""},{""type"":""input"",""title"":""папка"",""name"":""e",T135,""",""state"":""{{e",T135,"}}"",""pattern"":""[0-9]{1,2}"",""style"":""width:15%;display:inline""},{""type"":""hr""},")</f>
+        <v>{"type":"h4","title":"127. Часы","style":"width:85%;float:left"},{"type":"input","title":"папка","name":"e127","state":"{{e127}}","pattern":"[0-9]{1,2}","style":"width:15%;display:inline"},{"type":"hr"},</v>
+      </c>
+      <c r="AH135" s="2" t="str">
+        <f ca="1">CONCATENATE("""",A135,"""",": """,A135,".",C135,"""")</f>
+        <v>"127": "127.Часы"</v>
+      </c>
+      <c r="AI135" s="16" t="str">
+        <f ca="1">CONCATENATE("""",A135,"""",":""",T135,"""")</f>
+        <v>"127":"127"</v>
+      </c>
+      <c r="AJ135" s="2" t="str">
+        <f ca="1">CONCATENATE(A135,". ",C135,",",L135,",",M135,",",N135,",",O135,",",P135,";")</f>
+        <v>127. Часы,1,255,1,100,0;</v>
+      </c>
+      <c r="AK135" s="2" t="str">
+        <f t="shared" ca="1" si="261"/>
+        <v>127.Часы</v>
+      </c>
       <c r="AL135" s="2"/>
       <c r="AM135" s="2"/>
       <c r="AN135" s="17"/>
@@ -18827,45 +18914,83 @@
       <c r="BD135" s="18"/>
     </row>
     <row r="136" spans="1:56" ht="14.25" customHeight="1">
-      <c r="A136" s="35">
-        <f ca="1">MAX(OFFSET(A136,-4,0,4,1))+1</f>
-        <v>127</v>
-      </c>
-      <c r="B136" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="C136" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="T136" s="40">
-        <f ca="1">MAX(OFFSET(T136,-4,0,4,1))+1</f>
-        <v>127</v>
-      </c>
-      <c r="V136" s="2" t="str">
-        <f ca="1">CONCATENATE("#define ",B136,REPT(" ",20-LEN(B136)),"(",REPT(" ",3-LEN(T136)),T136,"U)    // ",C136)</f>
-        <v>#define MODE_AMOUNT         (127U)    // количество режимов</v>
-      </c>
+      <c r="U136" s="15"/>
+      <c r="V136" s="2"/>
+      <c r="W136" s="2"/>
+      <c r="X136" s="2"/>
+      <c r="Y136" s="2"/>
+      <c r="Z136" s="2"/>
+      <c r="AA136" s="2"/>
+      <c r="AB136" s="2"/>
       <c r="AC136" s="4"/>
       <c r="AD136" s="4"/>
       <c r="AE136" s="4"/>
-      <c r="AI136" s="4"/>
-      <c r="AJ136" s="4"/>
-      <c r="AM136" s="4"/>
+      <c r="AF136" s="2"/>
+      <c r="AG136" s="2"/>
+      <c r="AH136" s="2"/>
+      <c r="AI136" s="16"/>
+      <c r="AJ136" s="2"/>
+      <c r="AK136" s="2"/>
+      <c r="AL136" s="2"/>
+      <c r="AM136" s="2"/>
       <c r="AN136" s="17"/>
-      <c r="AO136" s="4"/>
-      <c r="AR136" s="4"/>
-      <c r="AS136" s="17"/>
-      <c r="AT136" s="4"/>
+      <c r="AO136" s="2"/>
+      <c r="AP136" s="2"/>
+      <c r="AQ136" s="2"/>
+      <c r="AR136" s="2"/>
+      <c r="AS136" s="16"/>
+      <c r="AT136" s="2"/>
       <c r="AU136" s="2"/>
-      <c r="AV136" s="23"/>
+      <c r="AV136" s="18"/>
       <c r="AW136" s="18"/>
-      <c r="AX136" s="4"/>
+      <c r="AX136" s="18"/>
       <c r="AY136" s="18"/>
-      <c r="AZ136" s="24"/>
+      <c r="AZ136" s="18"/>
       <c r="BA136" s="18"/>
       <c r="BB136" s="18"/>
       <c r="BC136" s="18"/>
       <c r="BD136" s="18"/>
+    </row>
+    <row r="137" spans="1:56" ht="14.25" customHeight="1">
+      <c r="A137" s="35">
+        <f ca="1">MAX(OFFSET(A137,-4,0,4,1))+1</f>
+        <v>128</v>
+      </c>
+      <c r="B137" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="C137" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="T137" s="40">
+        <f ca="1">MAX(OFFSET(T137,-4,0,4,1))+1</f>
+        <v>128</v>
+      </c>
+      <c r="V137" s="2" t="str">
+        <f ca="1">CONCATENATE("#define ",B137,REPT(" ",20-LEN(B137)),"(",REPT(" ",3-LEN(T137)),T137,"U)    // ",C137)</f>
+        <v>#define MODE_AMOUNT         (128U)    // количество режимов</v>
+      </c>
+      <c r="AC137" s="4"/>
+      <c r="AD137" s="4"/>
+      <c r="AE137" s="4"/>
+      <c r="AI137" s="4"/>
+      <c r="AJ137" s="4"/>
+      <c r="AM137" s="4"/>
+      <c r="AN137" s="17"/>
+      <c r="AO137" s="4"/>
+      <c r="AR137" s="4"/>
+      <c r="AS137" s="17"/>
+      <c r="AT137" s="4"/>
+      <c r="AU137" s="2"/>
+      <c r="AV137" s="23"/>
+      <c r="AW137" s="18"/>
+      <c r="AX137" s="4"/>
+      <c r="AY137" s="18"/>
+      <c r="AZ137" s="24"/>
+      <c r="BA137" s="18"/>
+      <c r="BB137" s="18"/>
+      <c r="BC137" s="18"/>
+      <c r="BD137" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
